--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B05B9-7D5B-4CFF-8C42-595CDF9F1D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FCD109-DA6D-4C7A-9F22-FFE2CFE52E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,12 +250,249 @@
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NL-2441827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello,siyuan
+I'm from the northern part of The Netherlands.
+you want to know how you say "I love you" in our language--In dutch you say:"IK hou van jou"
+Blessings for you and your family.Happy postcrossing. Most kindest regards. 
+Hugo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，siyuan
+我来自荷兰的北部地区。
+你想知道如何用我们的语言说“我爱你”——在荷兰语中，你说：“IK hou van jou”。
+祝福你和你的家人。快乐的明信片交流。最亲切的问候。
+Hugo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY-1066085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!My name Polina, I'm 13! I very love China's cities! Happy Postcrossing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY-1117952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Happy New year and Christmas!!! 
+Lesya 10.12.2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZ-322514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Arthur,
+how're you? My name's Tereza, I'm 20. In the picture you can see hotel,where I work like a receptionist and some landscapes. Yeah, you're in Texas right now! It's really interesting!
+Hope you 're enjoying summer
+Have a good time,Tereza.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-2337903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-2812796</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello,Feng Siyuan
+my name is Anja, Nice to meet you. I send you warm greetings from Pelzerhaken in Germany. Pelzerhaken is a seaside town at the baltic sea. In the summertime a lot of vacationers spend their holidays here. You want to (know) what, "I love you" in german is:"Ich liebe dich"
+Take care</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-2941052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Siyuan feng,
+nice to write you my first english writing postcard.
+My name is Jannie, iI'm 29 years old and my hobbies are geocachen, my fishtank with south american fishes, writing my  book blog (bluebutterfly.wordpress.com). You want to learn to write"I love you" in Germany "Ich liebe Dich"
+With best regards to oyou and your girlfriend.  
+Janine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI-2084613</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.4.2014  +8℃
+Greetings from Pöytyä, south-west Findland! I like all kind of outdoor activities, enjoy hiking and cross-country skiing very much. Orienteering sport is my favorite hobby. I love to run in the forest with the map and compass and try to find control points quickly. I wish all the best to you and your girlfriend. I love you is : Minä rakastan sinua in Finnish.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MY-198583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To: Siyuan
+ Nice to meet you, I sent you this card is has reason. This postcard means we must treasure the time. Don't waste the one week without doing anything. Time is valuable. I hope you can understand the meaning of the postcard and do it in your every day life.
+Beside that, I have a request. Can you send me a postcard? I am very instersted about the postcard in China. Thank you.
+From:kaiQin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NL-1979851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NL-2169514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello Siyuan,
+I'm writhing you from my town Voerendaal in the south of the netherlands. It has a population of +/- 12500 people.
+It is very chilly here. At the moment 3℃(12 hour) 
+Since this week the frost set in night. Brrr…
+We are getting ready to celebrate Sinterklaas on December 5. IT is a fest for children. Unfortunally it was on the internatial news because some people think that his happy helpers Zwarte Piet(black Petes) and racism. Believe me, anyone who celebrate this fest for children doesn't agree to that. Maybe you heared something about it.
+My daughter(3) likes sinterklaas and the zwarte pieten very much. It is a beautiful tradition where we like to  kids the same as we do about Santa Claus!
+Groetjes  Tamara
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NL-2374423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-2144539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi! My name is Darina, I'm from Samara(Russian) Hope you'd like this card with the view of the Hermitage Museum in St. Petersburg
+Good luck and happy postcrossing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-2254488</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HELLO!My name Kate. Greetings from saint-Petersburge, Russian Federation! I'm 28 years old. I have the husband and the son. We wish you a Merry Christmas and Happy New Year!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW-1121808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi~你好。 Happy New Year. 好難得可以用中文來寫明信片呢！我也正在learning English喔！！！
+2014 1月1號 By. Yun Hung（匀虹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW-1215866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Arthur, 
+I'm very glad to send you the postcard because I rarely send a card to a person also speak Chinese. I still write the card in English since I want to seize every opportunity to improve it. You must be cheerful to have a charming girlfriend. Falling in love with someone is always joyful. Hope you two in love smoothly forever. Penny 30.3.2014
+Happy postcrossing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UA-982846</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hello from Ukraine!
+Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
+Hope you like it
+Love you: Кохаю тебе!
+Best regards: з найлепшым</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>і</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> пажаданням</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>і</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Valeriia
+4 march 2014</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-2568426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Feng,
+Happy new year!
+2014-sarah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello,
+here's coming a postcard from little island called Föhr.
+ It's in the north of germany. I live here along mh live. 
+Have a nice time.
+Greetings Kirstin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi,Siyuan,
+hope you enjoy this card. I thought it was nice to send you a heart shaped card because you are in love. I love you in Dutch is "IK hou van jou" Wish you all the best! On the front you see the famous Dutch coastline.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +502,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -288,10 +543,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,161 +834,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" activeCellId="1" sqref="C1:C1048576 D28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.06640625" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
+    <col min="3" max="3" width="63.796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="27" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="276" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FCD109-DA6D-4C7A-9F22-FFE2CFE52E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450F02CA-B223-411B-A44A-CC1E2CA29FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="792" windowWidth="11508" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,13 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OSTRAVA！！
-下维特科维采是位于捷克共和国奥斯特拉发维特科维采区的国家工业遗产地，包括一个庞大的维特科维采钢铁厂工业区，拥有独特的工业建筑收藏。这个区域由三个连续的部分组成，包括煤矿、焦炉和高炉操作，也被称为奥斯特拉发的哈德查尼（Hradcany），以纪念布拉格的哈德查尼城区。
-该地区已被列入欧洲文化遗产名录，并于2001年被列入捷克共和国的潜在联合国教科文组织世界遗产名录，名为奥斯特拉发的工业综合体。
-嗨，我是来自奥斯特拉发的Jitka，奥斯特拉发是捷克共和国第三大城市。祝你有美好的一天。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DE-13430236</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +343,6 @@
   </si>
   <si>
     <t>NL-2169514</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>·</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,12 +476,179 @@
 hope you enjoy this card. I thought it was nice to send you a heart shaped card because you are in love. I love you in Dutch is "IK hou van jou" Wish you all the best! On the front you see the famous Dutch coastline.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>OSTRAVA！！
+下维特科维采是位于捷克共和国奥斯特拉发维特科维采区的国家工业遗产地，包括一个庞大的维特科维采钢铁厂工业区，拥有独特的工业建筑收藏。这个区域由三个连续的部分组成，包括煤矿、焦炉和高炉操作，也被称为奥斯特拉发的哈德查尼（Hradcany），以纪念布拉格的哈德查尼城区。
+该地区已被列入欧洲文化遗产名录，并于2001年被列入捷克共和国的潜在联合国教科文组织世界遗产名录，名为奥斯特拉发的工业综合体。
+嗨，我是来自奥斯特拉发的Jitka，奥斯特拉发是捷克共和国第三大城市。祝你有美好的一天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新年和圣诞快乐！！！
+Lesya 10.12.20 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好Arthur，
+你好吗？我叫Tereza，20岁。在照片中你可以看到酒店，我在那里像接待员一样工作，还有一些风景。是啊，你现在在德州！真的很有意思！
+希望你喜欢夏天
+玩得开心点，Tereza。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，
+这是一张明信片，来自一个叫弗尔的小岛。
+它在德国的北部。我住在这里。
+祝你玩得愉快。
+你好，Kirstin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feng Siyuan你好
+我叫Anja，很高兴见到你。我从德国的佩尔泽哈肯向你致以热情的问候。Pelzerhaken是波罗的海的一个海滨小镇。夏天，许多度假者在这里度假。你想知道德语中的“我爱你”是什么意思吗，是"Ich liebe dich"
+小心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.4.20 14+8℃
+来自芬德兰西南部的佩蒂亚的问候！我喜欢各种户外活动，非常喜欢徒步旅行和越野滑雪。定向运动是我最喜欢的爱好。我喜欢带着地图和指南针在森林里奔跑，试图快速找到控制点。祝你和你女朋友一切顺利。我爱你在芬兰语中是“Minä rakastan sinua”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致：Siyuan
+很高兴见到你，我送你这张卡片是有原因的。这张明信片意味着我们必须珍惜时间。不要浪费这一周什么都不做。时间是宝贵的。我希望你能理解明信片的意义，并在你的日常生活中做到这一点。
+除此之外，我还有一个请求。你能给我寄张明信片吗？我对中国的明信片很感兴趣。谢谢你。
+出发地：kaiQin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nihao Feng Siyuan,
+Traveled to China in 2006 for 4 weeks, learned a few words of chinese while XXX there, loved Guilin and the Great Wall.
+Greetings Maria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，Siyuan，
+希望你喜欢这张卡片。我觉得送你一张心形卡片很好，因为你恋爱了。我爱你的荷兰语是“IK hou van jou”祝你一切顺利！在正面你可以看到著名的荷兰海岸线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好！我叫凯特。来自俄罗斯联邦圣彼得堡的问候！我28岁了。我有丈夫和儿子。我们祝你圣诞快乐，新年快乐！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的Arthur，
+我很高兴给你寄明信片，因为我很少给一个会说中文的人寄贺卡。我仍然用英语写卡片，因为我想抓住每一个机会来改进它。有一个迷人的女朋友你一定很开心。爱上一个人总是快乐的。希望你们俩永远相爱顺利。便士30.3.20 14
+快乐的穿越后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>来自乌克兰的你好！
+在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
+希望你喜欢
+爱你：Кохаю тебе!
+致以最诚挚的问候： з найлепшым</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>і</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> пажаданням</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>і</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valeriia
+2014年3月4日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的Feng，
+新年快乐！
+2014-莎拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好！我叫Polina，我13岁！我非常喜欢中国的城市！快乐的明信片交流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很高兴给你写我的第一张英文明信片。
+我叫简妮，今年29岁，我的爱好是寻宝游戏、养南美鱼的鱼缸，以及写我的图书博客（bluebutterfly.wordpress.com）。你想学怎么用德语写‘我爱你’吗？在德语中是‘Ich liebe Dich’。
+向你和你的女朋友致以最诚挚的问候。
+Janine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，Feng Siyuan，
+2006年我去中国旅行了4周，在那里学了一些中文，喜欢桂林和长城。
+问候 玛丽亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，Siyuan，
+我从荷兰南部的福伦达尔镇给你写信。那里大约有12500人口。
+这里非常寒冷。目前是3℃（12小时制）。
+从本周开始，夜间开始结冰。嗯……
+我们正在准备庆祝12月5日的圣诞老人节。这是一个为孩子们准备的节日。不幸的是，它因为一些人认为圣诞老人的快乐助手黑彼得（Zwarte Piet）与种族主义有关而登上了国际新闻。相信我，任何庆祝这个为孩子们准备的节日的人都不会同意这种观点。也许你听说过一些相关的事情。
+我的女儿（3岁）非常喜欢圣诞老人和黑彼得。这是一个美丽的传统，我们喜欢像对待圣诞老人一样对待孩子们！
+问候，塔玛拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨！我叫Darina，来自俄罗斯的萨马拉。希望你喜欢这张圣彼得堡艾尔米塔什博物馆的明信片。
+祝你好运，快乐的明信片交流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +677,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -836,20 +998,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" activeCellId="1" sqref="C1:C1048576 D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.06640625" customWidth="1"/>
-    <col min="2" max="2" width="23.73046875" customWidth="1"/>
-    <col min="3" max="3" width="63.796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -858,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -869,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -880,23 +1042,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -907,26 +1075,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -937,50 +1108,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -991,7 +1174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1002,82 +1185,106 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1088,15 +1295,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1118,7 +1328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1130,21 +1340,18 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450F02CA-B223-411B-A44A-CC1E2CA29FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40917A-CB33-4A57-BC0C-121C1A888361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="792" windowWidth="11508" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,46 @@
   <si>
     <t>嗨！我叫Darina，来自俄罗斯的萨马拉。希望你喜欢这张圣彼得堡艾尔米塔什博物馆的明信片。
 祝你好运，快乐的明信片交流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-9830214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.10.23 +17℃
+Greetings, from Russia! 
+Hi, I'm Mila. I live in moscow region, in the small city with my family!
+I wish you all the best!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23年10月4日 +17℃
+来自俄罗斯的问候！
+嗨，我是米拉。 我和我的家人住在莫斯科地区的小城市！
+祝你一切顺利！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NL-5593570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dreumel, 17-10-2023
+你好，Arthur，
+我叫Esther，我和我的男人以及我们的狗和猫住在一个非常小的村庄里。我喜欢很多事情，比如阅读、写作、密室逃脱、旅行和烘焙甜点，尤其是杯子蛋糕。（Insta: Essies_cupcakes）
+我希望你会喜欢这张明信片。当我想要放空自己时，我会做这个（钻石画）。我在IT行业全职工作，担任应用顾问的职位。所以如果你尝试翻译的话，希望这样说得通。祝你有一个愉快的一天，当然也祝你快乐的明信片交流。
+诚挚的问候，
+Esther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dreumel, 17-10-2023
+Hello Arthur,
+My name is Esther and I live in avery small village with my man and our dog and cat. l do like alot. like reading, writing, Escape rooms, traveling and baking sweet treats, mainly cup cakes.(Insta:Essies_cupcakes).
+ik hoop dat jij deze kaart leuk vindt. Ik doe dit (diamond painting) als ic myn hoofd leeg wil maken. Ik werk full time in de IT sector als applicatie consultant. so l hope it make sense if you try to translate it. I wish you a nice day and of course Happy Postcrossing.
+kind regards,
+Esther</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,20 +1036,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="63.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.08203125" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="3" max="3" width="63.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1020,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1042,7 +1082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1053,7 +1093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1064,7 +1104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1086,7 +1126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1119,7 +1159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1130,7 +1170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1141,7 +1181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1152,7 +1192,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1163,7 +1203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1196,7 +1236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1207,7 +1247,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1218,7 +1258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1229,7 +1269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1240,7 +1280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1251,7 +1291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1262,7 +1302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1273,7 +1313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1284,18 +1324,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1306,7 +1346,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1317,7 +1357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +1368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1340,7 +1380,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1349,6 +1389,28 @@
       </c>
       <c r="C31" s="2" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40917A-CB33-4A57-BC0C-121C1A888361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04292913-4198-468B-A879-08BED53336D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -522,24 +522,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nihao Feng Siyuan,
-Traveled to China in 2006 for 4 weeks, learned a few words of chinese while XXX there, loved Guilin and the Great Wall.
-Greetings Maria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你好，Siyuan，
 希望你喜欢这张卡片。我觉得送你一张心形卡片很好，因为你恋爱了。我爱你的荷兰语是“IK hou van jou”祝你一切顺利！在正面你可以看到著名的荷兰海岸线。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>你好！我叫凯特。来自俄罗斯联邦圣彼得堡的问候！我28岁了。我有丈夫和儿子。我们祝你圣诞快乐，新年快乐！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲爱的Arthur，
-我很高兴给你寄明信片，因为我很少给一个会说中文的人寄贺卡。我仍然用英语写卡片，因为我想抓住每一个机会来改进它。有一个迷人的女朋友你一定很开心。爱上一个人总是快乐的。希望你们俩永远相爱顺利。便士30.3.20 14
-快乐的穿越后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,6 +669,23 @@
 ik hoop dat jij deze kaart leuk vindt. Ik doe dit (diamond painting) als ic myn hoofd leeg wil maken. Ik werk full time in de IT sector als applicatie consultant. so l hope it make sense if you try to translate it. I wish you a nice day and of course Happy Postcrossing.
 kind regards,
 Esther</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nihao Feng Siyuan,
+Traveled to China in 2006 for 4 weeks, learned a few words of chinese while stay there, loved Guilin and the Great Wall.
+Greetings Maria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的Arthur，
+我很高兴给你寄明信片，因为我很少给一个会说中文的人寄贺卡。我仍然用英语写卡片，因为我想抓住每一个机会来改进它。有一个迷人的女朋友你一定很开心。爱上一个人总是快乐的。希望你们俩永远相爱顺利。Penny 30.3.20 14
+快乐的穿越后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi~你好。 Happy New Year. 好难得可以用中文来写明信片呢！我也正在learning English喔！！！
+2014 1月1号 By. Yun Hung（匀虹）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,341 +1043,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="63.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="63.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
-        <v>87</v>
+      <c r="B4" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
+      <c r="B13" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>89</v>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>90</v>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>91</v>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
-        <v>83</v>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>84</v>
+      <c r="B25" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>85</v>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1380,37 +1385,37 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C33" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04292913-4198-468B-A879-08BED53336D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF11EB9-10EC-4A4D-9B7A-A2F522DF8CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,12 +688,517 @@
 2014 1月1号 By. Yun Hung（匀虹）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CN-1085556</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hello!
+Thank you for nice card!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1152861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常謝謝你的小鴨，他們真是可愛:)簡體字對我來說也是很OK的唷！最近很冷，要注意保暖。聖誕節快到了，先預祝你聖誕愉快^^”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1152864</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hi Arthur, Thank you for your card...your country is amazing. I liked the beautiful scene. I wish you all the success in year 2014.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1152862</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello Arthur!
+Thank you for the beautiful postcard - as I said I love elephants and this card is one of the most beautiful I ever got! Sure I like it!
+Have a nice day and take care,
+Nevena”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1152858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hallo Siyuan Feng
+Thanks for your beatiful postcard from China
+we wish you Happy New Year and all the best in 2014
+Happy postcrossing
+Greetings
+Wim and Tea”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1152859</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you for the very nice postcard!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1152857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello, dear Arthur Feng)
+Thank you very much for your kitten card - lovely))))
+Wish you warm winter))
+Natalia.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1170641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Спасибо, вам за прекрасную открытку. Она мне очень понравилась.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1170638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello Arthur
+Thank you for your cute postcard.
+I have been glad very much.
+Have a nice day and happy postcrossing.
+Cheers, from Willma”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1241225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Dear Arthur,
+Thank you for the wonderful postcard and stamps!
+Best wishes,
+Jennifer and Bob”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1241231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">“Meow and thanks for the COOL card, Love Gordon”
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1241229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hi Arhtur and thank you for your postcard from China!
+I like paintings, this was really fine too.
+Hopely you trip in U.S. was good?
+I wish you all the best!
+Tarja-Tuulikki, Finland”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1241226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Hello Arthur,
+Your name does not sound very Chinese </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+I really love the card you have sent me, noodles are so delicious!
+Kind regards,
+Corina”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1241224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello!
+Thank you very much for a beautiful bright card. I do like it=)
+Have a nice day,
+Olga”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1241227</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you very much for this wonderful card)
+Best wishes,
+Polina”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1241230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello Arthur Feng,
+Thanks for your postcard. Happy postcrossing!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1282656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hei!
+I found your card from my mailbox today, thanks! Really nice water colour!!
+All the best!
+Pirjo”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1282658</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hi Arthur, thanks for the postcard. Wish you all the best. Regards Denise”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1282654</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hi Arthur,
+Thank you for the lovely postcard. what a great view of the city! The children really loved seeing the city, and understand more about the PR China.
+Happy Postcrossing.
+Marcus Adams
+Class Teacher”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1282655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Arthur-
+Thanks for the great postcard. I like the stamps, too.
+Happy Postcrossing,
+Jen”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1282652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello Arthur!
+Thank you for the postcard, it's really great! I like it!
+All the best,
+Alyona”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1302233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“查了一下 洪崖洞以吊腳樓民俗建築群為其特色 謝謝妳的來片 其實簡體字書寫我還能閱讀的通 但是較不習慣印刷成鉛字 也許看書籍看久了就會習慣吧 謝謝妳 太客氣了 台灣人對重慶的了解可能是四大城是裡最不深的吧 有勞妳這次的來片介紹”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1282657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Think you, Arthur ;)”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1302232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello, Arthur!
+Thank you for a beautiful card, your city is very beautiful.
+Wish you well and luck, Maria”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-1318209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Dear Arthur,
+Thank you so much for the lovely postcard! Watercolour is one of my favourite medias, so the card was a nice surprise. Likewise, you have such nice handwriting! Awesome!
+Thanks again,
+Katía”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you for the very nice card. (^^)
+Please stay well!
+Lyo”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello Arthur
+Thank you for your card and a etrange stamp.
+Friendly
+Severine”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578752</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello
+I have received your lovely postcard. Thank you for choosing this one for me and for putting an interesting stamp on the card. I enjoyed reading your message. I wish you peace, good health and many wonderful postcards in your mailbox.
+Hélène”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hello! Thank you for this wonderful postcard. Congratulations on starting a family. Your daughter has a beautiful name. I have two children of my own (4 and 6) and they are the most important people in my life. Happy Postcrossing!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Namaste Arthur
+Many thanks for your nice postcard
+I like it :))
+Warm greetings
+Shrikant”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“Hi Arthur,
+Thank you for the lovely postcard!
+I hope you are well, take care,
+Helen </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🙂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hey, thanks a lot for your great card! Volker”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you very much”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578753</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Arthur, thanks for your postcard, it's awesome!! And post stamp is also cute! Happy postcrossing!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3610303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“l got your card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Thank you so very much for me the
+amazing postcad you've chosen for me.
+l wish you and your family good health and
+happiness take care of yourself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👩‍👩‍👧‍👦👩‍👩‍👧‍👦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3610296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Dear friend,
+Thank you so much for your beautiful card and the wonderful quote.
+I have several books about the chinese admiral Zheng He, who travelled across the indian Ozean up to africa. I have a maximum card from inda showing is ride on an elephant in india.
+Happiness and peace,
+Jürgen”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3621313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3578746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you for the postcard) I finally received it. I hope postcrossing will become a family hobby for you) Health and well-being for your family.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3610301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thanks for the gorgeous card! I love the stamp too. I also like fantasy.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3610298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thanks for the amazing card choice, I really appreciate it
+May your mailbox full of lovely cards
+HAPPY POSTCROSSING”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/14
+“Hello Arthur,
+Thank you very, very much for your beautiful card!!!!
+I think you sent it by registered mail so I got notifcation from mailman in my mailbox to pick it up from my local post office (which is only a 5 minute walk from my house) as I was not home on Saturday when they tried to deliver it.
+Thank you for taking such good care to ensure it will be delivered safely and quickly.
+I loved reading your message as I love coffee, too.
+Making a cup of coffee is the first thing I do in the morning after I get up.
+I also drink coffee in the evening...I have no problem sleeping :-)
+Again, thank you very much for your wonderful card.
+Wishing you and your family all the best - and - congratulation to your wonderful and beautiful baby daughter...she looks so lovely and pretty.
+Best wishes
+Chris”
+2023/11/29
+“Dear Arhur,
+Today I received a 2nd beautiful card from you. I am so happy as this is also such a wonderful card. I love it. And cannot thank you enough for your
+generosity.
+Wishing you and your family all the best
+Always happy postccrossing.
+Greetings from Frankfurt/Main
+Chris”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you very much for the reference to https://www.bgi.com/. I read the site with great interest, looking into genomics and bioinfirmatics as branches of the science I am majoing in. Take care!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +1233,19 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1041,20 +1559,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="63.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.08203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.4140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="57.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1064,8 +1583,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1087,7 +1609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -1098,7 +1620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1109,7 +1631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1131,7 +1653,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1142,7 +1664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1153,7 +1675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1175,7 +1697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1186,7 +1708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1197,7 +1719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1208,7 +1730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1241,7 +1763,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +1774,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1263,7 +1785,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1274,7 +1796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1285,7 +1807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1296,7 +1818,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1307,7 +1829,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1318,7 +1840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1329,7 +1851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1339,8 +1861,11 @@
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1351,7 +1876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1362,7 +1887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1373,7 +1898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1383,9 +1908,8 @@
       <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1396,7 +1920,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -1407,7 +1931,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1416,6 +1940,326 @@
       </c>
       <c r="C33" s="2" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF11EB9-10EC-4A4D-9B7A-A2F522DF8CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F94BB-7E11-421A-A288-E4DBD080DC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,26 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1186,11 +1195,401 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“Thank you very much for the reference to https://www.bgi.com/. I read the site with great interest, looking into genomics and bioinfirmatics as branches of the science I am majoing in. Take care!”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT-913966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好！
+谢谢你的漂亮明信片！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常谢谢你的小鸭，它们真是可爱:)对我来说，简体字也很好！最近很冷，要注意保暖。圣诞节快到了，先预祝你圣诞愉快^^”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“嗨，Arthur，谢谢你的明信片…你的国家很棒。我喜欢那美丽的风景。祝你在2014年一切顺利。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好，Arthur！
+非常感谢你漂亮的明信片 - 正如我所说，我喜欢大象，这张明信片是我收到的最漂亮的之一！当然我喜欢它！
+祝你有愉快的一天，保重，
+Nevena”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好，Siyuan Feng
+感谢你从中国寄来的漂亮明信片
+我们祝你新年快乐，2014年一切顺利
+快乐的明信片交流
+问候
+Wim和Tea”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常感谢你非常漂亮的明信片！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好，亲爱的Arthur Feng）
+非常感谢你可爱的小猫明信片 - 可爱))))
+祝你温暖的冬天))
+Natalia。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“谢谢你，非常喜欢这张精美的明信片。”</t>
+  </si>
+  <si>
+    <t>“你好，Arthur
+谢谢你可爱的明信片。
+我非常高兴。
+祝你有愉快的一天和快乐的明信片交流。
+问候，
+Willma”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“亲爱的Arthur，
+非常感谢你美丽的明信片和邮票！
+最美好的祝愿，
+Jennifer和Bob”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“喵，谢谢你酷毙的明信片，爱你的Gordon”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“嗨，Arthur，谢谢你从中国寄来的明信片！
+我喜欢绘画，这张也很棒。
+希望你在美国的旅行过得愉快？
+祝你一切顺利！
+Tarja-Tuulikki，芬兰”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“你好，Arthur，
+你的名字听起来不太像中国人 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+我真的很喜欢你寄给我的明信片，面条真好吃！
+致以诚挚的问候，
+Corina”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好！
+非常感谢你漂亮明亮的明信片。我很喜欢它=）
+祝你有愉快的一天，
+Olga”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常感谢你这张精美的明信片）
+最美好的祝愿，
+Polina”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好，Arthur Feng，
+谢谢你的明信片。快乐的明信片交流！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“嗨！
+我今天从邮箱里找到了你的明信片，谢谢！真漂亮的水彩画！！
+一切顺利！
+Pirjo”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“嗨，Arthur，谢谢你的明信片。祝你一切顺利。问候，Denise”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“嗨，Arthur，
+谢谢你可爱的明信片。城市的景色真棒！孩子们非常喜欢看到这个城市，更多地了解中国。
+快乐的明信片交流。
+Marcus Adams
+班主任”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Arthur-
+谢谢你这张很棒的明信片。我也喜欢邮票。
+快乐的明信片交流，
+Jen”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好，Arthur！
+谢谢你的明信片，真的很棒！我喜欢它！
+一切顺利，
+Alyona”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“查了一下，洪崖洞以吊脚楼民俗建筑群为其特色。谢谢你的明信片。其实，简体字的书写我还能读得通，但是较不习惯印刷成铅字。也许看书籍看久了就会习惯吧。谢谢你，太客气了。台湾人对重庆的了解可能是四大城市里最不深的吧。有劳你这次的来片介绍。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“谢谢你，Arthur ;)”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好，Arthur！
+谢谢你漂亮的明信片，你的城市非常美丽。
+祝你一切顺利和好运，Maria”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“亲爱的Arthur，
+非常感谢你可爱的明信片！水彩画是我最喜欢的媒介之一，所以这张明信片是个惊喜。同样，你的书写也非常好！太棒了！
+再次感谢，
+Katía”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常感谢你非常漂亮的明信片。(^^)
+请保重！
+Lyo”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好，Arthur
+谢谢你的明信片和奇怪的邮票。
+友好的问候
+Severine”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好
+我收到了你可爱的明信片。谢谢你为我选择这张明信片，并在明信片上贴上有趣的邮票。我很喜欢阅读你的留言。祝你平安、健康，愿你的邮箱里收到更多美好的明信片。
+Hélène”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好！谢谢你这张美丽的明信片。恭喜你开始了一个家庭。你的女儿有一个漂亮的名字。我自己有两个孩子（4岁和6岁），他们是我生活中最重要的人。快乐的明信片交流！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“合十致敬 Arthur
+非常感谢你漂亮的明信片
+我喜欢它：）
+热情的问候
+Shrikant”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“嗨，Arthur，
+谢谢你可爱的明信片！
+希望你一切安好，保重，
+Helen :)”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“嘿，非常感谢你的精美明信片！Volker”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常感谢”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Arthur，谢谢你的明信片，太棒了！邮票也很可爱！快乐的明信片交流！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“我收到了你的明信片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+非常感谢你为我选择的惊人明信片。
+祝你和你的家人身体健康、幸福快乐，照顾好自己</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👩‍👩‍👧‍👦👩‍👩‍👧‍👦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“亲爱的朋友，
+非常感谢你美丽的明信片和美妙的引语。
+我有几本关于中国航海家郑和的书，他曾穿越印度洋到达非洲。我有一张来自印度的最大明信片，上面显示了他在印度骑大象的场景。
+幸福与和平，
+Jürgen”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/11/14
+“你好，Arthur，
+非常非常感谢你美丽的明信片！！！
+我想你是通过挂号邮寄的，所以我在邮箱里收到了邮递员的通知，要我从我当地的邮局领取（离我家只有5分钟的步行路程），因为星期六他们试图送到我家时我不在家。
+非常感谢你的细心确保安全快速地送到。
+我喜欢阅读你的留言，因为我也喜欢咖啡。
+早上起床后，泡一杯咖啡是我做的第一件事。
+我晚上也喝咖啡……我睡觉没有问题 :-)
+再次非常感谢你美妙的明信片。
+祝你和你的家人一切顺利，并祝贺你美丽可爱的女儿……她看起来如此可爱漂亮。
+最美好的祝愿
+Chris”
+2023/11/29
+“亲爱的Arthur，
+今天我收到了你的第二张美丽的明信片。我非常高兴，因为这也是一张如此美妙的明信片。我喜欢它。对于你的慷慨，我无法感谢你足够多。
+祝你和你的家人一切顺利
+永远快乐的明信片交流。
+来自法兰克福/美因河畔法兰克福的问候
+Chris”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“谢谢你的明信片）我终于收到了。希望明信片交流能成为你家庭的爱好）祝你和你的家人健康和幸福。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“谢谢你送给我这张漂亮的卡片！我也喜欢上面的邮票。我也喜欢奇幻题材。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常感谢你选择了这么棒的卡片，我非常欣赏。愿你的邮箱充满可爱的明信片。快乐的明信片交流！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you very much for the reference to https://www.bgi.com/.  I read the site with great interest, looking into genomics and bioinfirmatics as branches of the science I am majoing in. Take care!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">🌥️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Good day! Siyuan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Warm greetings from far Lietuva. Hope You'll like XXX XXX and something  one.
+Take care
+Gintaras</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">🌥️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>祝你愉快的一天！Siyuan
+来自遥远的立陶宛的热情问候。希望你会喜欢XXX XXX和其他一些东西。
+保重
+Gintaras</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“非常感谢您提供的https://www.bgi.com 的参考资料。我非常有兴趣阅读这个网站，了解基因组学和生物信息学作为我所主修科学的分支。祝您一切顺利！”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,6 +1646,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333639"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1276,8 +1694,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1559,707 +1977,847 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.4140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="57.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    </row>
+    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    </row>
+    <row r="33" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="E34" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E35" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="E36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="E37" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="E38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="E39" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="E40" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E41" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="E42" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="E43" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="E44" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E45" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="E46" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="E47" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="E48" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="E49" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="E50" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="E51" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="E52" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="E53" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="E54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="E55" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="E56" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="E57" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="E58" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="E59" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="E60" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="E61" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="E62" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="E63" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="E64" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="E65" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="E66" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="E67" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="E68" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="107" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="E69" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="106.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="E70" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>172</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="E71" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="E72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>177</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9F94BB-7E11-421A-A288-E4DBD080DC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9ABFE-AB53-4358-9AD0-ED13C2A96FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4250" yWindow="1770" windowWidth="19200" windowHeight="9890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,6 +1590,20 @@
   </si>
   <si>
     <t>“非常感谢您提供的https://www.bgi.com 的参考资料。我非常有兴趣阅读这个网站，了解基因组学和生物信息学作为我所主修科学的分支。祝您一切顺利！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN-3610300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Hi!
+Thanks for your nice postcard!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“你好！
+谢谢你的美丽明信片！”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1977,24 +1991,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.4140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.4140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -2011,7 +2025,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2022,7 +2036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2044,7 +2058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,7 +2069,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2077,7 +2091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2088,7 +2102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2121,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -2132,7 +2146,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2143,7 +2157,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2154,7 +2168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -2165,7 +2179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -2176,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -2187,7 +2201,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2220,7 +2234,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2231,7 +2245,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -2242,7 +2256,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
@@ -2253,7 +2267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -2264,7 +2278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -2275,7 +2289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2306,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
@@ -2303,7 +2317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -2314,7 +2328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -2336,7 +2350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2347,7 +2361,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2358,7 +2372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -2369,7 +2383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -2380,7 +2394,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2402,7 +2416,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
@@ -2413,7 +2427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -2424,7 +2438,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
@@ -2435,7 +2449,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
@@ -2446,7 +2460,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -2457,7 +2471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -2479,7 +2493,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -2490,7 +2504,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
@@ -2501,7 +2515,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -2512,7 +2526,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
@@ -2523,7 +2537,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
@@ -2534,7 +2548,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>129</v>
       </c>
@@ -2545,7 +2559,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
@@ -2556,7 +2570,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
@@ -2567,7 +2581,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
@@ -2578,7 +2592,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -2589,7 +2603,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
@@ -2600,7 +2614,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
@@ -2611,7 +2625,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
@@ -2622,7 +2636,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>145</v>
       </c>
@@ -2633,7 +2647,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>147</v>
       </c>
@@ -2644,7 +2658,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
@@ -2655,7 +2669,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>151</v>
       </c>
@@ -2666,7 +2680,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
@@ -2677,7 +2691,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
@@ -2688,7 +2702,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>157</v>
       </c>
@@ -2699,7 +2713,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>159</v>
       </c>
@@ -2710,7 +2724,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>161</v>
       </c>
@@ -2721,7 +2735,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>163</v>
       </c>
@@ -2732,7 +2746,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>165</v>
       </c>
@@ -2743,7 +2757,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>167</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>169</v>
       </c>
@@ -2765,7 +2779,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="106.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>171</v>
       </c>
@@ -2776,7 +2790,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>172</v>
       </c>
@@ -2787,7 +2801,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>174</v>
       </c>
@@ -2798,7 +2812,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>176</v>
       </c>
@@ -2809,7 +2823,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>180</v>
       </c>
@@ -2818,6 +2832,17 @@
       </c>
       <c r="C74" s="2" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE9ABFE-AB53-4358-9AD0-ED13C2A96FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505D903-0936-4708-BBA8-2433DCE34EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4250" yWindow="1770" windowWidth="19200" windowHeight="9890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,826 +698,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CN-1085556</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"hello!
-Thank you for nice card!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1152861</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“非常謝謝你的小鴨，他們真是可愛:)簡體字對我來說也是很OK的唷！最近很冷，要注意保暖。聖誕節快到了，先預祝你聖誕愉快^^”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1152864</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hi Arthur, Thank you for your card...your country is amazing. I liked the beautiful scene. I wish you all the success in year 2014.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1152862</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello Arthur!
-Thank you for the beautiful postcard - as I said I love elephants and this card is one of the most beautiful I ever got! Sure I like it!
-Have a nice day and take care,
-Nevena”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1152858</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hallo Siyuan Feng
-Thanks for your beatiful postcard from China
-we wish you Happy New Year and all the best in 2014
-Happy postcrossing
-Greetings
-Wim and Tea”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1152859</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thank you for the very nice postcard!”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1152857</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello, dear Arthur Feng)
-Thank you very much for your kitten card - lovely))))
-Wish you warm winter))
-Natalia.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1170641</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Спасибо, вам за прекрасную открытку. Она мне очень понравилась.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1170638</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello Arthur
-Thank you for your cute postcard.
-I have been glad very much.
-Have a nice day and happy postcrossing.
-Cheers, from Willma”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1241225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Dear Arthur,
-Thank you for the wonderful postcard and stamps!
-Best wishes,
-Jennifer and Bob”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1241231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">“Meow and thanks for the COOL card, Love Gordon”
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1241229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hi Arhtur and thank you for your postcard from China!
-I like paintings, this was really fine too.
-Hopely you trip in U.S. was good?
-I wish you all the best!
-Tarja-Tuulikki, Finland”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1241226</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">“Hello Arthur,
-Your name does not sound very Chinese </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>😀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-I really love the card you have sent me, noodles are so delicious!
-Kind regards,
-Corina”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1241224</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello!
-Thank you very much for a beautiful bright card. I do like it=)
-Have a nice day,
-Olga”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1241227</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thank you very much for this wonderful card)
-Best wishes,
-Polina”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1241230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello Arthur Feng,
-Thanks for your postcard. Happy postcrossing!”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1282656</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hei!
-I found your card from my mailbox today, thanks! Really nice water colour!!
-All the best!
-Pirjo”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1282658</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hi Arthur, thanks for the postcard. Wish you all the best. Regards Denise”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1282654</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hi Arthur,
-Thank you for the lovely postcard. what a great view of the city! The children really loved seeing the city, and understand more about the PR China.
-Happy Postcrossing.
-Marcus Adams
-Class Teacher”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1282655</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Arthur-
-Thanks for the great postcard. I like the stamps, too.
-Happy Postcrossing,
-Jen”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1282652</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello Arthur!
-Thank you for the postcard, it's really great! I like it!
-All the best,
-Alyona”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1302233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“查了一下 洪崖洞以吊腳樓民俗建築群為其特色 謝謝妳的來片 其實簡體字書寫我還能閱讀的通 但是較不習慣印刷成鉛字 也許看書籍看久了就會習慣吧 謝謝妳 太客氣了 台灣人對重慶的了解可能是四大城是裡最不深的吧 有勞妳這次的來片介紹”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1282657</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Think you, Arthur ;)”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1302232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello, Arthur!
-Thank you for a beautiful card, your city is very beautiful.
-Wish you well and luck, Maria”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-1318209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Dear Arthur,
-Thank you so much for the lovely postcard! Watercolour is one of my favourite medias, so the card was a nice surprise. Likewise, you have such nice handwriting! Awesome!
-Thanks again,
-Katía”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578747</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thank you for the very nice card. (^^)
-Please stay well!
-Lyo”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578743</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello Arthur
-Thank you for your card and a etrange stamp.
-Friendly
-Severine”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578752</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello
-I have received your lovely postcard. Thank you for choosing this one for me and for putting an interesting stamp on the card. I enjoyed reading your message. I wish you peace, good health and many wonderful postcards in your mailbox.
-Hélène”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578742</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hello! Thank you for this wonderful postcard. Congratulations on starting a family. Your daughter has a beautiful name. I have two children of my own (4 and 6) and they are the most important people in my life. Happy Postcrossing!”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578749</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Namaste Arthur
-Many thanks for your nice postcard
-I like it :))
-Warm greetings
-Shrikant”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578750</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">“Hi Arthur,
-Thank you for the lovely postcard!
-I hope you are well, take care,
-Helen </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>🙂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hey, thanks a lot for your great card! Volker”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thank you very much”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578753</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Arthur, thanks for your postcard, it's awesome!! And post stamp is also cute! Happy postcrossing!”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3610303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>“l got your card</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>😄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Thank you so very much for me the
-amazing postcad you've chosen for me.
-l wish you and your family good health and
-happiness take care of yourself</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>👩‍👩‍👧‍👦👩‍👩‍👧‍👦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3610296</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Dear friend,
-Thank you so much for your beautiful card and the wonderful quote.
-I have several books about the chinese admiral Zheng He, who travelled across the indian Ozean up to africa. I have a maximum card from inda showing is ride on an elephant in india.
-Happiness and peace,
-Jürgen”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3621313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3578746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thank you for the postcard) I finally received it. I hope postcrossing will become a family hobby for you) Health and well-being for your family.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3610301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thanks for the gorgeous card! I love the stamp too. I also like fantasy.”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3610298</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thanks for the amazing card choice, I really appreciate it
-May your mailbox full of lovely cards
-HAPPY POSTCROSSING”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/11/14
-“Hello Arthur,
-Thank you very, very much for your beautiful card!!!!
-I think you sent it by registered mail so I got notifcation from mailman in my mailbox to pick it up from my local post office (which is only a 5 minute walk from my house) as I was not home on Saturday when they tried to deliver it.
-Thank you for taking such good care to ensure it will be delivered safely and quickly.
-I loved reading your message as I love coffee, too.
-Making a cup of coffee is the first thing I do in the morning after I get up.
-I also drink coffee in the evening...I have no problem sleeping :-)
-Again, thank you very much for your wonderful card.
-Wishing you and your family all the best - and - congratulation to your wonderful and beautiful baby daughter...she looks so lovely and pretty.
-Best wishes
-Chris”
-2023/11/29
-“Dear Arhur,
-Today I received a 2nd beautiful card from you. I am so happy as this is also such a wonderful card. I love it. And cannot thank you enough for your
-generosity.
-Wishing you and your family all the best
-Always happy postccrossing.
-Greetings from Frankfurt/Main
-Chris”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LT-913966</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好！
-谢谢你的漂亮明信片！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“非常谢谢你的小鸭，它们真是可爱:)对我来说，简体字也很好！最近很冷，要注意保暖。圣诞节快到了，先预祝你圣诞愉快^^”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“嗨，Arthur，谢谢你的明信片…你的国家很棒。我喜欢那美丽的风景。祝你在2014年一切顺利。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好，Arthur！
-非常感谢你漂亮的明信片 - 正如我所说，我喜欢大象，这张明信片是我收到的最漂亮的之一！当然我喜欢它！
-祝你有愉快的一天，保重，
-Nevena”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好，Siyuan Feng
-感谢你从中国寄来的漂亮明信片
-我们祝你新年快乐，2014年一切顺利
-快乐的明信片交流
-问候
-Wim和Tea”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“非常感谢你非常漂亮的明信片！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好，亲爱的Arthur Feng）
-非常感谢你可爱的小猫明信片 - 可爱))))
-祝你温暖的冬天))
-Natalia。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“谢谢你，非常喜欢这张精美的明信片。”</t>
-  </si>
-  <si>
-    <t>“你好，Arthur
-谢谢你可爱的明信片。
-我非常高兴。
-祝你有愉快的一天和快乐的明信片交流。
-问候，
-Willma”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“亲爱的Arthur，
-非常感谢你美丽的明信片和邮票！
-最美好的祝愿，
-Jennifer和Bob”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“喵，谢谢你酷毙的明信片，爱你的Gordon”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“嗨，Arthur，谢谢你从中国寄来的明信片！
-我喜欢绘画，这张也很棒。
-希望你在美国的旅行过得愉快？
-祝你一切顺利！
-Tarja-Tuulikki，芬兰”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">“你好，Arthur，
-你的名字听起来不太像中国人 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>😀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。
-我真的很喜欢你寄给我的明信片，面条真好吃！
-致以诚挚的问候，
-Corina”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好！
-非常感谢你漂亮明亮的明信片。我很喜欢它=）
-祝你有愉快的一天，
-Olga”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“非常感谢你这张精美的明信片）
-最美好的祝愿，
-Polina”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好，Arthur Feng，
-谢谢你的明信片。快乐的明信片交流！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“嗨！
-我今天从邮箱里找到了你的明信片，谢谢！真漂亮的水彩画！！
-一切顺利！
-Pirjo”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“嗨，Arthur，谢谢你的明信片。祝你一切顺利。问候，Denise”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“嗨，Arthur，
-谢谢你可爱的明信片。城市的景色真棒！孩子们非常喜欢看到这个城市，更多地了解中国。
-快乐的明信片交流。
-Marcus Adams
-班主任”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Arthur-
-谢谢你这张很棒的明信片。我也喜欢邮票。
-快乐的明信片交流，
-Jen”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好，Arthur！
-谢谢你的明信片，真的很棒！我喜欢它！
-一切顺利，
-Alyona”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“查了一下，洪崖洞以吊脚楼民俗建筑群为其特色。谢谢你的明信片。其实，简体字的书写我还能读得通，但是较不习惯印刷成铅字。也许看书籍看久了就会习惯吧。谢谢你，太客气了。台湾人对重庆的了解可能是四大城市里最不深的吧。有劳你这次的来片介绍。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“谢谢你，Arthur ;)”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好，Arthur！
-谢谢你漂亮的明信片，你的城市非常美丽。
-祝你一切顺利和好运，Maria”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“亲爱的Arthur，
-非常感谢你可爱的明信片！水彩画是我最喜欢的媒介之一，所以这张明信片是个惊喜。同样，你的书写也非常好！太棒了！
-再次感谢，
-Katía”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“非常感谢你非常漂亮的明信片。(^^)
-请保重！
-Lyo”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好，Arthur
-谢谢你的明信片和奇怪的邮票。
-友好的问候
-Severine”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好
-我收到了你可爱的明信片。谢谢你为我选择这张明信片，并在明信片上贴上有趣的邮票。我很喜欢阅读你的留言。祝你平安、健康，愿你的邮箱里收到更多美好的明信片。
-Hélène”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好！谢谢你这张美丽的明信片。恭喜你开始了一个家庭。你的女儿有一个漂亮的名字。我自己有两个孩子（4岁和6岁），他们是我生活中最重要的人。快乐的明信片交流！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“合十致敬 Arthur
-非常感谢你漂亮的明信片
-我喜欢它：）
-热情的问候
-Shrikant”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“嗨，Arthur，
-谢谢你可爱的明信片！
-希望你一切安好，保重，
-Helen :)”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“嘿，非常感谢你的精美明信片！Volker”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“非常感谢”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Arthur，谢谢你的明信片，太棒了！邮票也很可爱！快乐的明信片交流！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>“我收到了你的明信片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>😄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-非常感谢你为我选择的惊人明信片。
-祝你和你的家人身体健康、幸福快乐，照顾好自己</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>👩‍👩‍👧‍👦👩‍👩‍👧‍👦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“亲爱的朋友，
-非常感谢你美丽的明信片和美妙的引语。
-我有几本关于中国航海家郑和的书，他曾穿越印度洋到达非洲。我有一张来自印度的最大明信片，上面显示了他在印度骑大象的场景。
-幸福与和平，
-Jürgen”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023/11/14
-“你好，Arthur，
-非常非常感谢你美丽的明信片！！！
-我想你是通过挂号邮寄的，所以我在邮箱里收到了邮递员的通知，要我从我当地的邮局领取（离我家只有5分钟的步行路程），因为星期六他们试图送到我家时我不在家。
-非常感谢你的细心确保安全快速地送到。
-我喜欢阅读你的留言，因为我也喜欢咖啡。
-早上起床后，泡一杯咖啡是我做的第一件事。
-我晚上也喝咖啡……我睡觉没有问题 :-)
-再次非常感谢你美妙的明信片。
-祝你和你的家人一切顺利，并祝贺你美丽可爱的女儿……她看起来如此可爱漂亮。
-最美好的祝愿
-Chris”
-2023/11/29
-“亲爱的Arthur，
-今天我收到了你的第二张美丽的明信片。我非常高兴，因为这也是一张如此美妙的明信片。我喜欢它。对于你的慷慨，我无法感谢你足够多。
-祝你和你的家人一切顺利
-永远快乐的明信片交流。
-来自法兰克福/美因河畔法兰克福的问候
-Chris”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“谢谢你的明信片）我终于收到了。希望明信片交流能成为你家庭的爱好）祝你和你的家人健康和幸福。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“谢谢你送给我这张漂亮的卡片！我也喜欢上面的邮票。我也喜欢奇幻题材。”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“非常感谢你选择了这么棒的卡片，我非常欣赏。愿你的邮箱充满可爱的明信片。快乐的明信片交流！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Thank you very much for the reference to https://www.bgi.com/.  I read the site with great interest, looking into genomics and bioinfirmatics as branches of the science I am majoing in. Take care!”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1589,21 +770,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>comment_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“Thank you very much for the reference to https://www.bgi.com/.  I read the site with great interest, looking into genomics and bioinfirmatics as branches of the science I am majoing in. Take care!”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>“非常感谢您提供的https://www.bgi.com 的参考资料。我非常有兴趣阅读这个网站，了解基因组学和生物信息学作为我所主修科学的分支。祝您一切顺利！”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN-3610300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“Hi!
-Thanks for your nice postcard!”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“你好！
-谢谢你的美丽明信片！”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,7 +790,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,19 +829,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1671,12 +837,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF333639"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1700,16 +860,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,11 +1148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2003,9 +1160,7 @@
     <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.4140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.4140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.9140625" style="1"/>
+    <col min="4" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2300,10 +1455,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2372,7 +1527,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
@@ -2383,466 +1538,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="107" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9505D903-0936-4708-BBA8-2433DCE34EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF61677-9B46-4D6F-A783-73B50DB6C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="540" windowWidth="17280" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -783,6 +783,18 @@
   </si>
   <si>
     <t>“非常感谢您提供的https://www.bgi.com 的参考资料。我非常有兴趣阅读这个网站，了解基因组学和生物信息学作为我所主修科学的分支。祝您一切顺利！”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK-846298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的女儿很可爱！我找到这张粉红色的猫猫postcard，闪闪的，希望她会喜欢！祝圣诞快乐！新年进步！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的女兒很可愛！ 我找到這張粉紅色的貓貓postcard，閃閃的，希望她會喜歡！ 祝聖誕快樂！ 新年進步！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,11 +872,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1148,29 +1157,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26:E26"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.4140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1180,278 +1188,278 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1461,92 +1469,103 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF61677-9B46-4D6F-A783-73B50DB6C652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC050237-7D1F-4409-8BDF-0D5EE7198757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="540" windowWidth="17280" windowHeight="10716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>content_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UA-1928471</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,10 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,6 +787,14 @@
   </si>
   <si>
     <t>你的女兒很可愛！ 我找到這張粉紅色的貓貓postcard，閃閃的，希望她會喜歡！ 祝聖誕快樂！ 新年進步！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_original</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,8 +1160,8 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1173,399 +1173,399 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC050237-7D1F-4409-8BDF-0D5EE7198757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD1F6E5-BB3A-4D02-9533-A6ACF0C27CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,6 +795,22 @@
   </si>
   <si>
     <t>comment_original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NL-5628599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A card for you!
+I live in Rockanje, a little village near the sea and the beach.
+Greetings, Gerdientje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给你一张卡片！
+我住在Rockanje，一个靠近大海和海滩的小村庄。
+你好，Gerdientje</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,21 +1173,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1221,7 +1237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1232,7 +1248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1243,7 +1259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1254,7 +1270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1309,7 +1325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1320,7 +1336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1331,7 +1347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1364,7 +1380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1375,7 +1391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1386,7 +1402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1397,7 +1413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1419,7 +1435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1430,7 +1446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1441,7 +1457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1452,7 +1468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1469,7 +1485,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1480,7 +1496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1513,7 +1529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1524,7 +1540,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -1535,7 +1551,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -1546,7 +1562,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1557,7 +1573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -1566,6 +1582,17 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD1F6E5-BB3A-4D02-9533-A6ACF0C27CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4571A-3D55-46E0-8EE8-A08D96BBFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="290" yWindow="1350" windowWidth="10750" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -811,6 +811,76 @@
     <t>给你一张卡片！
 我住在Rockanje，一个靠近大海和海滩的小村庄。
 你好，Gerdientje</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-9911406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello,Arthur,
+Greetings from Moscow, Russia. My name is Alexander. I'm a metrotrain driver. I want to wish you to stay safe, to keep healthy and be happy!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，亚瑟，
+来自俄罗斯莫斯科的问候。我叫亚历山大。我是地铁司机。我想祝你平安无事，保持健康和快乐！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi,Arthur! 13.11.2023 22:20
+My name's Diana. I live with my beloved husband in a small town called Temruk. It's situated on the coast of the  Azov Sea. (Look at the map you'll see me!) I really enjoy my life here in this region. There's one more sea not far from here-- The Black Sea. I love it so much. I'm a great sea lover and can't imagine my life without that raise of sea waves. It really heals my soul and my body. Art and music also make me happy and my live with love. My favourite band is the Beatles. As all times! But there're more other bands I love. My fav. artist is van Gogh. I'm so into his piece of art. hope you'll like this cute picture and ginger cat on it.
+Ginger cats are my favourite one.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨，Arthur！2023年11月13日22:20
+我叫Diana，和我心爱的丈夫住在一个叫Temruk的小镇上。它位于亚速海的海岸线上。（你看地图就能找到我！）我非常喜欢这个地区的生活。离这里不远还有一个海——黑海。我非常喜欢它。我是一个热爱大海的人，无法想象没有海浪的生活。它真的能治愈我的灵魂和身体。艺术和音乐也让我快乐，让我的生活充满爱。我最喜欢的乐队是披头士。一直都是！但我还喜欢其他很多乐队。我最喜欢的艺术家是梵高。我对他的艺术作品非常着迷。希望你会喜欢这幅可爱的画和上面的姜色猫咪。
+姜色猫咪是我最喜欢的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-9847210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA-1412998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Arthur!
+Greetings from Montreal!
+I'd like to share a saying that I try to live by:
+Look for something positive in each day!
+Even if some days you have to look a little harder.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，Arthur！
+来自蒙特利尔的问候！
+我想分享一个我努力遵循的格言：
+每天都要寻找一些积极的事情！
+即使有些日子你需要更加努力去寻找。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, Arthur!
+I live in the city Gomel - the second largest city in Belarus.
+I was a teacher. Now I am retired.
+I like to read,to travel.
+I congratulate you and your family( your  daughter is adorable,with new year.and may all your dreams come true! Galina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY-3083966</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，亚瑟！
+我住在白俄罗斯第二大城市戈梅利。
+我是个老师。现在我退休了。
+我喜欢阅读，旅行。
+我祝贺你和你的家人（你的女儿很可爱，新年快乐。愿你所有的梦想成真！）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,11 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1595,6 +1665,50 @@
         <v>111</v>
       </c>
     </row>
+    <row r="37" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE4571A-3D55-46E0-8EE8-A08D96BBFB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47935D-AF1E-40B8-A916-245322BFCF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="1350" windowWidth="10750" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1050" windowWidth="10750" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +881,30 @@
 我是个老师。现在我退休了。
 我喜欢阅读，旅行。
 我祝贺你和你的家人（你的女儿很可爱，新年快乐。愿你所有的梦想成真！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI-4527706</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyraa joulua ja
+onnellista uutta vuotta
+5th Dec 2023
+Greetings from Finland!
+We had a christmas party today with my postcrossing friends.
+Had a great time!
+Laura/Salladeemus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[圣诞快乐和
+新年快乐]芬兰语
+二零二三年十二月五日
+来自芬兰的问候！
+我们今天和我的朋友们开了一个圣诞派对。
+玩得很开心！
+劳拉/萨拉迪穆斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1243,11 +1267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1709,6 +1733,17 @@
         <v>123</v>
       </c>
     </row>
+    <row r="41" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47935D-AF1E-40B8-A916-245322BFCF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E62EE2D-1CF7-4120-8354-9A9BC05759A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1050" windowWidth="10750" windowHeight="10990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -888,23 +888,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NL-5633161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GB-1710416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-13722056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello,
+many greetings from Germany.
+I am 67, married, retired from IT --work in a bank. Best Wishes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，
+来自德国的许多问候。
+我今年 67 岁，已婚，从 IT 行业退休，在一家银行工作。 最好的祝愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 年 12 月 5 日
+你好亚瑟，
+这些是英格兰北部的场景。
+我是在这附近长大的。
+最好的祝愿，戈登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[圣诞快乐和
+新年快乐]芬兰语
+2023 年 12 月 5 日
+来自芬兰的问候！
+我们今天和我的朋友们开了一个圣诞派对。
+玩得很开心！
+劳拉/萨拉迪穆斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ni hao Arthur,
+my name is Diane. your daughter is indeed adorable.
+Specially for her, I send this cute card :smile:
+We drink Wakuli coffee beans = "FAIRETRADE"
+enjoy life :heart:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好亚瑟，
+我叫黛安。你女儿真可爱。
+特别为她，我送上这张可爱的卡片 :smile:
+我们喝瓦库里咖啡豆=“公平贸易”
+享受生活 :heart:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5^th^ Dec 2023
+Hello Arthur,
+These are scenes in the north of England. 
+I grew up near here.
+Best wishes, Gordon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Hyraa joulua ja
 onnellista uutta vuotta
-5th Dec 2023
+5^th^ Dec 2023
 Greetings from Finland!
 We had a christmas party today with my postcrossing friends.
 Had a great time!
 Laura/Salladeemus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[圣诞快乐和
-新年快乐]芬兰语
-二零二三年十二月五日
-来自芬兰的问候！
-我们今天和我的朋友们开了一个圣诞派对。
-玩得很开心！
-劳拉/萨拉迪穆斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,21 +1323,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1298,7 +1354,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1331,7 +1387,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1398,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1375,7 +1431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1386,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1397,7 +1453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1408,7 +1464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1430,7 +1486,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1441,7 +1497,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1474,7 +1530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1485,7 +1541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1496,7 +1552,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1507,7 +1563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1585,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1540,7 +1596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1551,7 +1607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1562,7 +1618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1590,7 +1646,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1612,7 +1668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1623,7 +1679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1634,7 +1690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -1645,7 +1701,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -1656,7 +1712,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1667,7 +1723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -1678,7 +1734,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -1689,7 +1745,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -1700,7 +1756,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -1711,7 +1767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
@@ -1722,7 +1778,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -1733,15 +1789,48 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E62EE2D-1CF7-4120-8354-9A9BC05759A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D7CD18-0C1F-4A19-9D3E-AD9B4A77ACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="1110" windowWidth="12620" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,6 +961,18 @@
 We had a christmas party today with my postcrossing friends.
 Had a great time!
 Laura/Salladeemus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-9911412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello from Russia! My name is Masha, I live in the city of Yekaterinburg. Take care :heart:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自俄罗斯的你好！ 我叫玛莎，住在叶卡捷琳堡市。 保重 :heart:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1323,21 +1335,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1387,7 +1399,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1431,7 +1443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1464,7 +1476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1475,7 +1487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1530,7 +1542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1574,7 +1586,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1596,7 +1608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1607,7 +1619,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1618,7 +1630,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1635,7 +1647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1646,7 +1658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1690,7 +1702,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -1701,7 +1713,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1723,7 +1735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -1745,7 +1757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
@@ -1778,7 +1790,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -1789,7 +1801,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -1811,7 +1823,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -1831,6 +1843,17 @@
       </c>
       <c r="C44" s="1" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D7CD18-0C1F-4A19-9D3E-AD9B4A77ACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC6B835-187D-4D94-B8F0-56C03EA3B4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1110" windowWidth="12620" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="730" yWindow="1270" windowWidth="15550" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -973,6 +973,24 @@
   </si>
   <si>
     <t>来自俄罗斯的你好！ 我叫玛莎，住在叶卡捷琳堡市。 保重 :heart:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL-1969946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, Greetings from Poland.
+Have a nice time.
+Robert
+5.12.2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，来自波兰的问候。
+祝你玩得愉快。
+罗伯特
+2023年12月5日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1856,6 +1874,17 @@
         <v>138</v>
       </c>
     </row>
+    <row r="46" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC6B835-187D-4D94-B8F0-56C03EA3B4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A52E3E-6256-4168-A857-C4980EFD6825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="730" yWindow="1270" windowWidth="15550" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1390" yWindow="850" windowWidth="13490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,6 +991,62 @@
 祝你玩得愉快。
 罗伯特
 2023年12月5日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-13755664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-9960301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN-569670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECEMBER 4 2023
+Hello SIYUAN.
+It's currently 2:00 PM. Here In White  Deer TX. The wind is blowing and the temperature is perfect. It's 70℉ definitely not normal for this time of year. measurable snow, just a bit of rain and ice. This usually means ice storms come Jauary. Have a wonderful day. take care --Nicole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023 年 12 月 4 日
+你好siyua。
+现在是下午 2:00。 这里是德克萨斯州白鹿市。 风徐徐吹来，温度恰到好处。 对于一年中的这个时候来说，70 华氏度绝对不正常。 可测量的降雪，只是少量的雨和冰。 这通常意味着一月会出现冰暴。 祝你有美好的一天。 保重--Nicole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Arthur,
+many greetings from Schorndorf,
+in the south of Germany. My name is Gabi and I like: musicals, movies,books long walks in the nature, animals, time with my friends, traveling, writing letters of postcards and sport.
+I wish you all the best for 2024.
+Gabi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好亚瑟，
+来自舍恩多夫的许多问候，
+在德国南部。 我叫加比，我喜欢：音乐剧、电影、书籍、在大自然中长途散步、动物、与朋友在一起的时光、旅行、写明信片和运动。
+祝您 2024 年一切顺利。
+加比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi,
+Greeting from India. My name is Ashok and I am leading a retired life in Chitradurga, a beautiful city 200 kms from Bengaluru in Karnataka.
+Hope this card finds you in good health and spirits. Sending you my best wishes. Stay healthy and keep smiling. 
+Regards.
+Wishing you a happy new year.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，
+来自印度的问候。 我叫 Ashok，现在在 Chitradurga 过着退休生活，Chitradurga 是一座距离卡纳塔克邦班加罗尔 200 公里的美丽城市。
+希望这张卡能让您身体健康、精神饱满。 向您致以我最美好的祝愿。 保持健康并保持微笑。
+问候。
+祝您新年快乐。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,21 +1409,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +1440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1395,7 +1451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1406,7 +1462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1428,7 +1484,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="94.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="94.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1506,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1483,7 +1539,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -1494,7 +1550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1505,7 +1561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1516,7 +1572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
@@ -1527,7 +1583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1538,7 +1594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1560,7 +1616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1571,7 +1627,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1582,7 +1638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1593,7 +1649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1604,7 +1660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1615,7 +1671,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1626,7 +1682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1637,7 +1693,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
@@ -1648,7 +1704,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1665,7 +1721,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="58.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
@@ -1676,7 +1732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1687,7 +1743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +1754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1720,7 +1776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -1731,7 +1787,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>92</v>
       </c>
@@ -1742,7 +1798,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>98</v>
       </c>
@@ -1753,7 +1809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -1764,7 +1820,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -1775,7 +1831,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>112</v>
       </c>
@@ -1786,7 +1842,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -1797,7 +1853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
@@ -1808,7 +1864,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>122</v>
       </c>
@@ -1819,7 +1875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -1830,7 +1886,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
@@ -1841,7 +1897,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>126</v>
       </c>
@@ -1852,7 +1908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>127</v>
       </c>
@@ -1863,7 +1919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>136</v>
       </c>
@@ -1874,7 +1930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>139</v>
       </c>
@@ -1883,6 +1939,39 @@
       </c>
       <c r="C46" s="1" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A52E3E-6256-4168-A857-C4980EFD6825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2A036D-B982-45E2-8E0A-D1E237771C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1390" yWindow="850" windowWidth="13490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2260" yWindow="1120" windowWidth="10790" windowHeight="8840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>content_cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,6 +1047,18 @@
 希望这张卡能让您身体健康、精神饱满。 向您致以我最美好的祝愿。 保持健康并保持微笑。
 问候。
 祝您新年快乐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-13743074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Siyuan, greetings from Leverkusen in the west of Germany! Today is the "1st day of Christmas", but in Germany the main day of celebrating Christmas is December 24th. Funnily, it's only the 25th and the 26th that are public holidays. But as this year the 24th fell on a Sunday, everyone had 3 days off. :) Frohes neues Jahr - Happy New Yeas! Hanna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好siyuan，来自德国西部勒沃库森的问候！ 今天是“圣诞节的第一天”，但在德国庆祝圣诞节的主要日子是12月24日。 有趣的是，只有25日和26日是公共假期。 但今年24号恰逢周日，大家都放了3天假。 :) Frohes neues Jahr - 新年快乐！ 汉娜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,11 +1421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1974,6 +1986,17 @@
         <v>148</v>
       </c>
     </row>
+    <row r="50" spans="1:3" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,23 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="13700" windowHeight="9280"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>id</t>
   </si>
@@ -384,6 +397,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hello from Ukraine!
 Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
 Hope you like it
@@ -395,7 +414,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>і</t>
     </r>
@@ -404,7 +423,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> пажаданням</t>
     </r>
@@ -413,7 +432,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>і</t>
     </r>
@@ -422,7 +441,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Valeriia
@@ -431,6 +450,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>来自乌克兰的你好！
 在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
 希望你喜欢
@@ -442,7 +467,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>і</t>
     </r>
@@ -451,7 +476,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> пажаданням</t>
     </r>
@@ -460,7 +485,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>і</t>
     </r>
@@ -469,7 +494,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -479,7 +504,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Valeriia
 2014年3月4日</t>
@@ -584,6 +609,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
     </r>
     <r>
@@ -591,7 +622,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -601,7 +632,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Good day! Siyuan</t>
     </r>
@@ -610,7 +641,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Warm greetings from far Lietuva. Hope You'll like XXX XXX and something  one.
@@ -620,6 +651,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
     </r>
     <r>
@@ -627,7 +664,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -637,7 +674,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>祝你愉快的一天！Siyuan
 来自遥远的立陶宛的热情问候。希望你会喜欢XXX XXX和其他一些东西。
@@ -909,36 +946,446 @@
 我真的不能推荐任何咖啡豆，但希望你能找到你喜欢的东西 :heart:
 保重，帕特里夏 :smile:</t>
   </si>
+  <si>
+    <t>DE-13942438</t>
+  </si>
+  <si>
+    <t>February,22nd,2024 9℃
+Hello, this card just means: Sleep well! I'm Anja and in wintertime I like to play boardgames with my friends and family. In spring and summer I like hiking very much. I'm sending you best wishes, Anja</t>
+  </si>
+  <si>
+    <t>2024年2月22日 9℃
+你好，这张卡的意思就是：睡个好觉！ 我是 Anja，冬天我喜欢和我的朋友和家人一起玩棋盘游戏。 春天和夏天我非常喜欢徒步旅行。 我向你致以最美好的祝愿，安雅</t>
+  </si>
+  <si>
+    <t>NL-5673465</t>
+  </si>
+  <si>
+    <t>Hi Arthur! I hope Xiao Xiao likes this card of a cat! He's stealing a fish. I recently adopted a kitten and he's very cheety too. His name is Apollo.
+Happy postcrossing and best wishes from the Netherlands!
+Femke</t>
+  </si>
+  <si>
+    <t>嗨亚瑟！ 希望小小喜欢这张猫的卡片！ 他正在偷鱼。 我最近收养了一只小猫，他也很顽皮。 他的名字叫阿波罗。
+穿越后快乐，来自荷兰的最美好的祝愿！
+费姆克</t>
+  </si>
+  <si>
+    <t>US-10137660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13.24 SUNNY 62 ℉
+HELLO ARTHUR AND XIAOXIAO, I HOPE YOU BOTH LIKE THIS CARD. IT WAS MADE BY A LOCAL ARTIST. I LIVE IN NORTHERN CALIFORNIA, NEAR SACRAMENTO, WITCH IS THE CAPITAL. I TOOK A 10 YEAR BREAK FROM POSTCROSSING :smile:
+LOCAL COFFEE - TEMPLE, PHILZ AND THE MIU 
+-TRISH   </t>
+  </si>
+  <si>
+    <t>2.13.24 晴 62 华氏度
+你好亚瑟和潇潇，我希望你们都喜欢这张卡片。 它是由当地艺术家制作的。 我住在北加州，靠近萨克拉门托，女巫是首都。 我在穿越后休息了 10 年:smile:
+当地咖啡 - Temple、PHILZ 和 MIU
+-特里什</t>
+  </si>
+  <si>
+    <t>US-10143953</t>
+  </si>
+  <si>
+    <t>13-2-24 37℉
+Hello, Welcome back to Postcrossing! I am Mary from Massachusetts, USA. I visited H.K. a very long time ago in 1987! I enjoyed the neon and the lovely countryside,too! I hope you a safed well! XO</t>
+  </si>
+  <si>
+    <t>13-2-24 37°F
+您好，欢迎回到Postcrossing！ 我是来自美国马萨诸塞州的玛丽。 我访问过香港 很久以前，1987年！ 我也喜欢霓虹灯和可爱的乡村！ 希望您一切安好！ XO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -947,39 +1394,315 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,10 +1713,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1031,71 +1754,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1123,7 +1846,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1146,11 +1869,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1159,13 +1882,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1175,7 +1898,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1184,7 +1907,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1193,7 +1916,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1201,10 +1924,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1264,31 +1987,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="52.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="52.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.1454545454545" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4363636363636" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.45" customFormat="1" s="1">
+    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.45" customFormat="1" s="1">
+    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1315,10 +2037,8 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1328,10 +2048,8 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1341,10 +2059,8 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1354,10 +2070,8 @@
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="94.2" customFormat="1" s="1">
+    </row>
+    <row r="6" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1367,10 +2081,8 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1380,10 +2092,8 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="8" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1393,10 +2103,8 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="9" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1406,10 +2114,8 @@
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="10" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1419,10 +2125,8 @@
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="11" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1432,10 +2136,8 @@
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="12" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1445,10 +2147,8 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="13" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1458,10 +2158,8 @@
       <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="14" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -1471,10 +2169,8 @@
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="15" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -1484,10 +2180,8 @@
       <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -1497,10 +2191,8 @@
       <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -1510,10 +2202,8 @@
       <c r="C17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -1523,10 +2213,8 @@
       <c r="C18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1536,10 +2224,8 @@
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -1549,10 +2235,8 @@
       <c r="C20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -1562,10 +2246,8 @@
       <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1575,10 +2257,8 @@
       <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -1588,10 +2268,8 @@
       <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -1601,10 +2279,8 @@
       <c r="C24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -1614,10 +2290,8 @@
       <c r="C25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="26" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -1634,7 +2308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="58.20000000000001" customFormat="1" s="1">
+    <row r="27" s="1" customFormat="1" ht="58.2" customHeight="1" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -1644,10 +2318,8 @@
       <c r="C27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -1657,10 +2329,8 @@
       <c r="C28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -1670,10 +2340,8 @@
       <c r="C29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="153.75" customFormat="1" s="1">
+    </row>
+    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -1683,10 +2351,8 @@
       <c r="C30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -1696,10 +2362,8 @@
       <c r="C31" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -1709,10 +2373,8 @@
       <c r="C32" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -1722,10 +2384,8 @@
       <c r="C33" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -1735,10 +2395,8 @@
       <c r="C34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -1748,10 +2406,8 @@
       <c r="C35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -1761,10 +2417,8 @@
       <c r="C36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -1774,10 +2428,8 @@
       <c r="C37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -1787,10 +2439,8 @@
       <c r="C38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="39" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -1800,10 +2450,8 @@
       <c r="C39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="40" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -1813,10 +2461,8 @@
       <c r="C40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="41" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -1826,10 +2472,8 @@
       <c r="C41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="42" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -1839,10 +2483,8 @@
       <c r="C42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="43" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -1852,10 +2494,8 @@
       <c r="C43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="44" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -1865,10 +2505,8 @@
       <c r="C44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="45" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
@@ -1878,10 +2516,8 @@
       <c r="C45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="46" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
@@ -1891,10 +2527,8 @@
       <c r="C46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="47" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -1904,10 +2538,8 @@
       <c r="C47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="48" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
@@ -1917,10 +2549,8 @@
       <c r="C48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.45" customFormat="1" s="1">
+    </row>
+    <row r="49" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -1930,10 +2560,8 @@
       <c r="C49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -1943,23 +2571,19 @@
       <c r="C50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="3" t="s">
+    </row>
+    <row r="51" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="84" customFormat="1" s="1">
+    </row>
+    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -1969,10 +2593,53 @@
       <c r="C52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+    </row>
+    <row r="53" ht="70" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" ht="98" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" ht="112" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" ht="70" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -975,13 +975,13 @@
   </si>
   <si>
     <t xml:space="preserve">2.13.24 SUNNY 62 ℉
-HELLO ARTHUR AND XIAOXIAO, I HOPE YOU BOTH LIKE THIS CARD. IT WAS MADE BY A LOCAL ARTIST. I LIVE IN NORTHERN CALIFORNIA, NEAR SACRAMENTO, WITCH IS THE CAPITAL. I TOOK A 10 YEAR BREAK FROM POSTCROSSING :smile:
+HELLO ARTHUR AND XIAOXIAO, I HOPE YOU BOTH LIKE THIS CARD. IT WAS MADE BY A LOCAL ARTIST. I LIVE IN NORTHERN CALIFORNIA, NEAR SACRAMENTO, WHITCH IS THE CAPITAL. I TOOK A 10 YEAR BREAK FROM POSTCROSSING :smile:
 LOCAL COFFEE - TEMPLE, PHILZ AND THE MIU 
 -TRISH   </t>
   </si>
   <si>
     <t>2.13.24 晴 62 华氏度
-你好亚瑟和潇潇，我希望你们都喜欢这张卡片。 它是由当地艺术家制作的。 我住在北加州，靠近萨克拉门托，女巫是首都。 我在穿越后休息了 10 年:smile:
+你好亚瑟和潇潇，我希望你们都喜欢这张卡片。 它是由当地艺术家制作的。 我住在北加州，靠近首府萨克拉门托。 我在穿越后休息了 10 年😄
 当地咖啡 - Temple、PHILZ 和 MIU
 -特里什</t>
   </si>
@@ -1007,7 +1007,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,13 +1020,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1494,148 +1487,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2000,7 +1993,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13700" windowHeight="9280"/>
+    <workbookView windowWidth="20850" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,25 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>id</t>
   </si>
@@ -996,11 +983,37 @@
     <t>13-2-24 37°F
 您好，欢迎回到Postcrossing！ 我是来自美国马萨诸塞州的玛丽。 我访问过香港 很久以前，1987年！ 我也喜欢霓虹灯和可爱的乡村！ 希望您一切安好！ XO</t>
   </si>
+  <si>
+    <t>FI-4563419</t>
+  </si>
+  <si>
+    <t>9.2.2024 -22℃
+Hello.
+[talviset terveiset ta alta lumisesta suomesta] = Winter greetings from here snowy Finland. At this moment snow level is about 80 cm. But still 2 months time rain more. Then it's start melt away. I hope Best wishes, JARI</t>
+  </si>
+  <si>
+    <t>2024年9月2日 -22℃
+你好。
+[talviset terveiset ta alta lumisesta suomesta]=来自白雪皑皑的芬兰这里的冬季问候。 此时积雪高度约为80厘米。 但还有2个月时间雨较多。 然后它开始融化。 我希望最良好的祝愿，JARI</t>
+  </si>
+  <si>
+    <t>DE-13904674</t>
+  </si>
+  <si>
+    <t>14, February 2024 
+Many greetings from Almuth in Lower Saxony. I live in a small town called Quakenbrück, with a frog symbol, Already founded in 1235.
+Best wishes to your daughter too.</t>
+  </si>
+  <si>
+    <t>2024 年 2 月 14 日
+来自下萨克森州阿尔穆斯的许多问候。 我住在一个名叫奎肯布吕克 (Quakenbrück) 的小镇，有青蛙标志，建于 1235 年。
+也祝愿你的女儿。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1988,12 +2001,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2631,6 +2644,28 @@
         <v>171</v>
       </c>
     </row>
+    <row r="57" ht="98" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" ht="70" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20850" windowHeight="10480"/>
+    <workbookView windowWidth="18348" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>id</t>
   </si>
@@ -1008,6 +1008,88 @@
     <t>2024 年 2 月 14 日
 来自下萨克森州阿尔穆斯的许多问候。 我住在一个名叫奎肯布吕克 (Quakenbrück) 的小镇，有青蛙标志，建于 1235 年。
 也祝愿你的女儿。</t>
+  </si>
+  <si>
+    <t>DE-13722055</t>
+  </si>
+  <si>
+    <t>March 01, 2024, 7°C,rainy
+Hello Arthur and your family,
+I'm delighted to be sending you a postcard. I'm Lara and I'm from Stuttgart, Germany. Today is my friend's birthday He's turning 41.
+However, he doesn't enjoy celebrating his birthday much, so we're working as usual today and will go out for dinner after work My friend is from South Korea, and we both love Korean food Normally, we enjoy cooking ourselves, but in the past few months, many Korean restaurants have opened here, and some of them are quite good.
+Last year, we also spent a month in South Korea with his family. It was one of the best trips I've ever taken. I learned so much about the culture and life there, as we stayed with his family, of course. I'm already looking forward to the next time we visit his family.
+[Redet mit jedem Menschen freundlich: alles, was ihr sagt, soll mit Salz gewürzt sein. Bemüht euch darum, für jeden die richtigen Worte zu finden.]
+At the front of the card in German it says:
+Speak kindly to everyone, everything you say should be seasoned with salt. Endeavor to find the right words for each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024年3月1日，气温7°C，下雨
+你好，Arthur和你的家人，
+我很高兴给你们寄一张明信片。我是Lara，来自德国的斯图加特。今天是我朋友的生日，他41岁了。
+然而，他并不喜欢过生日，所以我们今天像平常一样工作，下班后会出去吃晚餐。我的朋友来自韩国，我们都喜欢韩国菜。通常，我们喜欢自己做饭，但在过去的几个月里，这里开了很多韩国餐厅，有些还挺不错的。
+去年，我们还和他的家人在韩国度过了一个月。那是我经历过的最好的旅行之一。我们当然是和他的家人住在一起，我从中学到了很多关于那里的文化和生活。我已经开始期待下次我们去看望他的家人了。
+[Redet mit jedem Menschen freundlich: alles, was ihr sagt, soll mit Salz gewürzt sein. Bemüht euch darum, für jeden die richtigen Worte zu finden.]
+在卡片的德语部分写着：
+对每个人都要友善，你说的每一句话都应该加点儿盐。努力为每个人找到合适的话语。
+</t>
+  </si>
+  <si>
+    <t>CA-1436021</t>
+  </si>
+  <si>
+    <t>Feb 10 2024
+HEllO FROM TORONTO
+XiaoXiao is so adorable, what a beautiful daughter you have. Is she as sweet as she look? I have a 29 yr old daugiter and a son who wil be 34 this summer.
+I tell you don't blink and don't waste money on toys, expensive trps and fancy clothes they remember nothing. The time together playing is the best. I wish you all good health and much happiness.
+From Sandra</t>
+  </si>
+  <si>
+    <t>2024 年 2 月 10 日
+你好，来自多伦多
+笑笑真可爱，你的女儿真漂亮。 她真的像看上去那么甜美吗？ 我有一个 29 岁的女儿和一个今年夏天就 34 岁的儿子。
+我告诉你别眨眼，别把钱浪费在玩具、昂贵的玩具和漂亮的衣服上，他们什么都不记得了。 一起玩耍的时光是最美好的。 祝大家身体健康，幸福快乐。
+来自桑德拉</t>
+  </si>
+  <si>
+    <t>DE-13953758</t>
+  </si>
+  <si>
+    <t>Hey, Arthur,
+Greetings from my weekend trip to the Sauerland and the Kahlen asten mountain.
+Happy Postcrossing.</t>
+  </si>
+  <si>
+    <t>嘿，亚瑟，
+我周末去绍尔兰和卡伦阿斯滕山的旅行向您致以问候。
+穿越后快乐。</t>
+  </si>
+  <si>
+    <t>US-10173049</t>
+  </si>
+  <si>
+    <t>Hello siyuan!
+Greetings from sw Florida in USA! We visit this zoo often and see Walter! He is so handsome! I live 7 miles from the ocean, and we get the most gorgeous sunsets! We also have sea turtle nesting season here. all nests are protected. I wish for more and less hate in the world.</t>
+  </si>
+  <si>
+    <t>siyuan你好！
+来自美国佛罗里达州西南部的问候！ 我们经常参观这个动物园并看到沃尔特！ 他好帅啊！ 我住的地方距离大海 7 英里，我们可以看到最美丽的日落！ 我们这里也有海龟筑巢季节。 所有巢穴都受到保护。 我希望世界上多一些爱，少一些恨。</t>
+  </si>
+  <si>
+    <t>FI-4563418</t>
+  </si>
+  <si>
+    <t>February 10, 2024
+Moi,Hello Arthur!
+greetings from Finland!
+My name is Emmi, I live in the western part of Finland in a city called Tampere. It's located between two beautiful lakes. It is said Finland is the land of a thousand lakes - we have so many of them! :)
+Happy postcrossing!</t>
+  </si>
+  <si>
+    <t>2024 年 2 月 10 日
+Moi，你好，亚瑟！
+来自芬兰的问候！
+我叫艾米，我住在芬兰西部一个叫坦佩雷的城市。 它位于两个美丽的湖泊之间。 据说芬兰是千湖之国——我们有很多湖泊！ :)
+穿越后快乐！</t>
   </si>
 </sst>
 </file>
@@ -2001,19 +2083,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1454545454545" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4363636363636" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1481481481481" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4351851851852" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5740740740741" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -2600,7 +2682,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" ht="72" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2611,7 +2693,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" ht="100.8" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2622,7 +2704,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" ht="115.2" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2633,7 +2715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" ht="72" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2644,7 +2726,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" ht="100.8" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2655,7 +2737,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" ht="72" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2664,6 +2746,61 @@
       </c>
       <c r="C58" s="1" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="59" ht="360" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" ht="172.8" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" ht="57.6" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" ht="100.8" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" ht="129.6" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18348" windowHeight="6900"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -1039,7 +1039,7 @@
   <si>
     <t>Feb 10 2024
 HEllO FROM TORONTO
-XiaoXiao is so adorable, what a beautiful daughter you have. Is she as sweet as she look? I have a 29 yr old daugiter and a son who wil be 34 this summer.
+XiaoXiao is so adorable, what a beautiful daughter you have. Is she as sweet as she look? I have a 29 yr old daughter and a son who wil be 34 this summer.
 I tell you don't blink and don't waste money on toys, expensive trps and fancy clothes they remember nothing. The time together playing is the best. I wish you all good health and much happiness.
 From Sandra</t>
   </si>
@@ -1055,23 +1055,25 @@
   </si>
   <si>
     <t>Hey, Arthur,
-Greetings from my weekend trip to the Sauerland and the Kahlen asten mountain.
-Happy Postcrossing.</t>
+Greetings from my weekend trip to the Sauerland and the Kahler Asten mountain.
+Happy Postcrossing.
+Kai-Jan</t>
   </si>
   <si>
     <t>嘿，亚瑟，
-我周末去绍尔兰和卡伦阿斯滕山的旅行向您致以问候。
-穿越后快乐。</t>
+我周末去绍尔兰和卡勒阿斯滕山的旅行向您致以问候。
+穿越后快乐。
+Kai-Jan</t>
   </si>
   <si>
     <t>US-10173049</t>
   </si>
   <si>
     <t>Hello siyuan!
-Greetings from sw Florida in USA! We visit this zoo often and see Walter! He is so handsome! I live 7 miles from the ocean, and we get the most gorgeous sunsets! We also have sea turtle nesting season here. all nests are protected. I wish for more and less hate in the world.</t>
-  </si>
-  <si>
-    <t>siyuan你好！
+Greetings from sw Florida in USA! We visit this zoo often and see Walter! He is so handsome! I live 7 miles from the ocean, and we get the most gorgeous sunsets! We also have sea turtle nesting season here. All nests are protected. I wish for more and less hate in the world.</t>
+  </si>
+  <si>
+    <t>你好siyuan！
 来自美国佛罗里达州西南部的问候！ 我们经常参观这个动物园并看到沃尔特！ 他好帅啊！ 我住的地方距离大海 7 英里，我们可以看到最美丽的日落！ 我们这里也有海龟筑巢季节。 所有巢穴都受到保护。 我希望世界上多一些爱，少一些恨。</t>
   </si>
   <si>
@@ -1090,6 +1092,24 @@
 来自芬兰的问候！
 我叫艾米，我住在芬兰西部一个叫坦佩雷的城市。 它位于两个美丽的湖泊之间。 据说芬兰是千湖之国——我们有很多湖泊！ :)
 穿越后快乐！</t>
+  </si>
+  <si>
+    <t>TW-3636606</t>
+  </si>
+  <si>
+    <t>Bonjour Arthur et Bonjour XiaoXiao!
+Joyeux nouvel An chinois! Je vous souhaite beaucoup de chance et une bonne santé! (Happy lunar new year! I wish you a lot of luck and great health.)
+I am currently traveling through China and south east asia , I have been to singapore and Hong Kong and I'm currently in Taiwan! They make incredibly strong coffee!!
+Best, Sophie
+26.02.24</t>
+  </si>
+  <si>
+    <t>你好，Arthur和XiaoXiao！
+[Joyeux nouvel An chinois! Je vous souhaite beaucoup de chance et une bonne santé!]
+（新春快乐！祝你们好运连连，健康如意。）
+我现在正在中国和东南亚地区旅行，我已经去过新加坡和香港，现在我在台湾！他们做的咖啡非常浓烈！
+最好的祝福，Sophie
+2024年2月26日</t>
   </si>
 </sst>
 </file>
@@ -2083,19 +2103,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1481481481481" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4351851851852" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5740740740741" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1454545454545" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4363636363636" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -2682,7 +2702,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="72" spans="1:3">
+    <row r="53" ht="70" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2693,7 +2713,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="100.8" spans="1:3">
+    <row r="54" ht="98" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2704,7 +2724,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="115.2" spans="1:3">
+    <row r="55" ht="112" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2715,7 +2735,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="72" spans="1:3">
+    <row r="56" ht="70" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2726,7 +2746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="100.8" spans="1:3">
+    <row r="57" ht="98" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2737,7 +2757,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="72" spans="1:3">
+    <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="360" spans="1:3">
+    <row r="59" ht="350" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="172.8" spans="1:3">
+    <row r="60" ht="168" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="57.6" spans="1:3">
+    <row r="61" ht="70" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2781,7 +2801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="100.8" spans="1:3">
+    <row r="62" ht="98" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2792,7 +2812,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="129.6" spans="1:3">
+    <row r="63" ht="126" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2801,6 +2821,17 @@
       </c>
       <c r="C63" s="1" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="64" ht="140" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>id</t>
   </si>
@@ -1110,6 +1110,15 @@
 我现在正在中国和东南亚地区旅行，我已经去过新加坡和香港，现在我在台湾！他们做的咖啡非常浓烈！
 最好的祝福，Sophie
 2024年2月26日</t>
+  </si>
+  <si>
+    <t>US-10173050</t>
+  </si>
+  <si>
+    <t>Hello from New Hampshire, USA! I'm 32 ＆ live with my husband. We are enjoying a nice, cozy weekend. Later we are meeting friends for dinner. Cleers! Blair</t>
+  </si>
+  <si>
+    <t>来自美国新罕布什尔州的问候！我32岁，和我的丈夫一起生活。我们正在享受一个美好、舒适的周末。稍后我们将和朋友们一起吃晚餐。干杯！布莱尔</t>
   </si>
 </sst>
 </file>
@@ -2103,12 +2112,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2834,6 +2843,17 @@
         <v>195</v>
       </c>
     </row>
+    <row r="65" ht="56" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
   <si>
     <t>id</t>
   </si>
@@ -1119,6 +1119,44 @@
   </si>
   <si>
     <t>来自美国新罕布什尔州的问候！我32岁，和我的丈夫一起生活。我们正在享受一个美好、舒适的周末。稍后我们将和朋友们一起吃晚餐。干杯！布莱尔</t>
+  </si>
+  <si>
+    <t>US-10240079</t>
+  </si>
+  <si>
+    <t>Stamp Out Boring Mail!
+14 march 2024
+Hello from Minnesota. We are called "The Land of 10000 Lakes" and "The North Star State". 
+Your daughter is super cute!
+I've lived here most of my life, but also in other states. I like it here but winters are cold.
+Wishing you and your family health and joy, Melissa.</t>
+  </si>
+  <si>
+    <t>消灭无聊的邮件！
+2024 年 3 月 14 日
+你好，来自明尼苏达州。 我们被称为“万湖之地”和“北极星之州”。
+你女儿超级可爱！
+我一生大部分时间都住在这里，但也在其他州住过。 我喜欢这里，但冬天很冷。
+祝您和您的家人健康快乐，梅丽莎。</t>
+  </si>
+  <si>
+    <t>MY-634790</t>
+  </si>
+  <si>
+    <t>嗨！思远，你好！
+Apa khabar? （马来文）
+我是诗慧，来自马来西亚柔佛州，现在在雪兰莪州工作（车程大概3个小时）。我的祖父母从福建永春离乡背井来到马来西亚。2007年春节，我们一家陪祖母回到永春，看见到了她们那里的亲戚，也算是认祖归宗吧！明信片展示的是这里马来同袍的皮影戏。祝福你顺心如意！
+诗慧 SALLY
+16/03/24</t>
+  </si>
+  <si>
+    <t>DE-14019750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello arthur, greetings from germany. my name is michaela and I live in Fürth, a city near nuremberg. yes your daughter looks very sweet. I've a 4 y.o. son, named Lucas. I love my coffee in the morning. At the moment I've beens from india with chocolate, nougat and grapes. All the best to you &amp; your family. Michaela </t>
+  </si>
+  <si>
+    <t>你好，亚瑟，来自德国的问候。我叫米凯拉，住在纽伦堡附近的富尔斯。是的，你女儿看起来很可爱。我有一个4岁的儿子，叫卢卡斯。我喜欢早上喝咖啡。目前，我从印度带着巧克力、牛轧糖和葡萄来了。祝你和你的家人一切顺利。米凯拉</t>
   </si>
 </sst>
 </file>
@@ -2112,12 +2150,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2854,6 +2892,39 @@
         <v>198</v>
       </c>
     </row>
+    <row r="66" ht="126" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" ht="126" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" ht="98" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
   <si>
     <t>id</t>
   </si>
@@ -1157,6 +1157,12 @@
   </si>
   <si>
     <t>你好，亚瑟，来自德国的问候。我叫米凯拉，住在纽伦堡附近的富尔斯。是的，你女儿看起来很可爱。我有一个4岁的儿子，叫卢卡斯。我喜欢早上喝咖啡。目前，我从印度带着巧克力、牛轧糖和葡萄来了。祝你和你的家人一切顺利。米凯拉</t>
+  </si>
+  <si>
+    <t>“Hello! I'm glad you liked the card and stamps. Yes, some of the stamps that I use are very old. Some are more than 50 or 60 years old, and some 1-cent stamps that I use are even more than 100 years old! Our postal service allows us to keep using them. I had never heard of the Tomb Sweeping holiday, so I looked it up online and read about it. It sounds like a wonderful way to honor lost loved ones and ancestors. I hope you found it peaceful and heart-filling. Sending best wishes on a sunny Saturday in Minnesota! Melissa”</t>
+  </si>
+  <si>
+    <t>“你好！ 我很高兴你喜欢这张卡片和邮票。 是的，我使用的一些邮票非常旧。 有些已经有50或60多年的历史了，有些我使用的1美分邮票甚至有100多年的历史了！ 我们的邮政服务使我们能够继续使用它们。 我从来没有听说过清明节，所以我在网上查了一下并了解了它。 这听起来是一种纪念逝去亲人和祖先的绝妙方式。 我希望你发现它平静且充满心灵。 在明尼苏达州阳光明媚的星期六送上最美好的祝福！ 梅丽莎”</t>
   </si>
 </sst>
 </file>
@@ -2153,16 +2159,17 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.1454545454545" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.4363636363636" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -2914,7 +2921,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" ht="409.5" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>204</v>
       </c>
@@ -2923,6 +2930,12 @@
       </c>
       <c r="C68" s="1" t="s">
         <v>206</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1140,6 +1140,12 @@
 祝您和您的家人健康快乐，梅丽莎。</t>
   </si>
   <si>
+    <t>“Hello! I'm glad you liked the card and stamps. Yes, some of the stamps that I use are very old. Some are more than 50 or 60 years old, and some 1-cent stamps that I use are even more than 100 years old! Our postal service allows us to keep using them. I had never heard of the Tomb Sweeping holiday, so I looked it up online and read about it. It sounds like a wonderful way to honor lost loved ones and ancestors. I hope you found it peaceful and heart-filling. Sending best wishes on a sunny Saturday in Minnesota! Melissa”</t>
+  </si>
+  <si>
+    <t>“你好！ 我很高兴你喜欢这张卡片和邮票。 是的，我使用的一些邮票非常旧。 有些已经有50或60多年的历史了，有些我使用的1美分邮票甚至有100多年的历史了！ 我们的邮政服务使我们能够继续使用它们。 我从来没有听说过清明节，所以我在网上查了一下并了解了它。 这听起来是一种纪念逝去亲人和祖先的绝妙方式。 我希望你发现它平静且充满心灵。 在明尼苏达州阳光明媚的星期六送上最美好的祝福！ 梅丽莎”</t>
+  </si>
+  <si>
     <t>MY-634790</t>
   </si>
   <si>
@@ -1157,12 +1163,6 @@
   </si>
   <si>
     <t>你好，亚瑟，来自德国的问候。我叫米凯拉，住在纽伦堡附近的富尔斯。是的，你女儿看起来很可爱。我有一个4岁的儿子，叫卢卡斯。我喜欢早上喝咖啡。目前，我从印度带着巧克力、牛轧糖和葡萄来了。祝你和你的家人一切顺利。米凯拉</t>
-  </si>
-  <si>
-    <t>“Hello! I'm glad you liked the card and stamps. Yes, some of the stamps that I use are very old. Some are more than 50 or 60 years old, and some 1-cent stamps that I use are even more than 100 years old! Our postal service allows us to keep using them. I had never heard of the Tomb Sweeping holiday, so I looked it up online and read about it. It sounds like a wonderful way to honor lost loved ones and ancestors. I hope you found it peaceful and heart-filling. Sending best wishes on a sunny Saturday in Minnesota! Melissa”</t>
-  </si>
-  <si>
-    <t>“你好！ 我很高兴你喜欢这张卡片和邮票。 是的，我使用的一些邮票非常旧。 有些已经有50或60多年的历史了，有些我使用的1美分邮票甚至有100多年的历史了！ 我们的邮政服务使我们能够继续使用它们。 我从来没有听说过清明节，所以我在网上查了一下并了解了它。 这听起来是一种纪念逝去亲人和祖先的绝妙方式。 我希望你发现它平静且充满心灵。 在明尼苏达州阳光明媚的星期六送上最美好的祝福！ 梅丽莎”</t>
   </si>
 </sst>
 </file>
@@ -2159,9 +2159,9 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2899,7 +2899,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="126" spans="1:3">
+    <row r="66" ht="409.5" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -2909,32 +2909,32 @@
       <c r="C66" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="D66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="67" ht="126" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" ht="409.5" spans="1:5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" ht="98" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="1" t="s">
         <v>208</v>
       </c>
     </row>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1162,7 +1162,7 @@
     <t xml:space="preserve">hello arthur, greetings from germany. my name is michaela and I live in Fürth, a city near nuremberg. yes your daughter looks very sweet. I've a 4 y.o. son, named Lucas. I love my coffee in the morning. At the moment I've beens from india with chocolate, nougat and grapes. All the best to you &amp; your family. Michaela </t>
   </si>
   <si>
-    <t>你好，亚瑟，来自德国的问候。我叫米凯拉，住在纽伦堡附近的富尔斯。是的，你女儿看起来很可爱。我有一个4岁的儿子，叫卢卡斯。我喜欢早上喝咖啡。目前，我从印度带着巧克力、牛轧糖和葡萄来了。祝你和你的家人一切顺利。米凯拉</t>
+    <t>你好亚瑟，来自德国的问候。 我叫迈克尔，住在纽伦堡附近的菲尔特市。 是的，你的女儿看起来很可爱。 我有一个4岁的 儿子，名叫卢卡斯。 我喜欢早上喝咖啡。 目前我喝的是来自印度的咖啡，里面有巧克力、牛轧糖和葡萄。 祝您和您的家人一切顺利。 米凯拉</t>
   </si>
 </sst>
 </file>
@@ -2159,9 +2159,9 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66:E66"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="212">
   <si>
     <t>id</t>
   </si>
@@ -1163,6 +1163,17 @@
   </si>
   <si>
     <t>你好亚瑟，来自德国的问候。 我叫迈克尔，住在纽伦堡附近的菲尔特市。 是的，你的女儿看起来很可爱。 我有一个4岁的 儿子，名叫卢卡斯。 我喜欢早上喝咖啡。 目前我喝的是来自印度的咖啡，里面有巧克力、牛轧糖和葡萄。 祝您和您的家人一切顺利。 米凯拉</t>
+  </si>
+  <si>
+    <t>RU-9991671</t>
+  </si>
+  <si>
+    <t>Arthur, Greetings from Russia! I live in moscow. Today -5 degrees. I'm looking forward to spring. I'm sending this bird to your little daughter. I wish you health and smiles. Happy postcrossing. с[Амые лучшие пожелания вашей семье.] :)
+21.02.24 Yulid</t>
+  </si>
+  <si>
+    <t>亚瑟，来自俄罗斯的问候！ 我住在莫斯科。 今天-5度。 我期待着春天。 我要把这只鸟送给你的小女儿。 祝您健康和微笑。 快乐的后交叉。 向您的家人致以最美好的祝愿。
+21.02.24 Yulid</t>
   </si>
 </sst>
 </file>
@@ -2156,12 +2167,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2938,6 +2949,17 @@
         <v>208</v>
       </c>
     </row>
+    <row r="69" ht="98" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
   <si>
     <t>id</t>
   </si>
@@ -1175,11 +1188,22 @@
     <t>亚瑟，来自俄罗斯的问候！ 我住在莫斯科。 今天-5度。 我期待着春天。 我要把这只鸟送给你的小女儿。 祝您健康和微笑。 快乐的后交叉。 向您的家人致以最美好的祝愿。
 21.02.24 Yulid</t>
   </si>
+  <si>
+    <t>RU-9991674</t>
+  </si>
+  <si>
+    <t>Greetings from the historical center of Moscow. I love crochet and sometimes make toys to my childrens. +1 ℃
+Good luck! Ledon2015. 24.02.24</t>
+  </si>
+  <si>
+    <t>来自莫斯科历史中心的问候。我喜欢钩针编织，有时会给我的孩子做玩具。+1℃
+祝你好运！莱登2015。24.02.24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2167,12 +2191,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -2960,6 +2984,17 @@
         <v>211</v>
       </c>
     </row>
+    <row r="70" ht="56" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1181,12 +1181,18 @@
     <t>RU-9991671</t>
   </si>
   <si>
-    <t>Arthur, Greetings from Russia! I live in moscow. Today -5 degrees. I'm looking forward to spring. I'm sending this bird to your little daughter. I wish you health and smiles. Happy postcrossing. с[Амые лучшие пожелания вашей семье.] :)
-21.02.24 Yulid</t>
-  </si>
-  <si>
-    <t>亚瑟，来自俄罗斯的问候！ 我住在莫斯科。 今天-5度。 我期待着春天。 我要把这只鸟送给你的小女儿。 祝您健康和微笑。 快乐的后交叉。 向您的家人致以最美好的祝愿。
-21.02.24 Yulid</t>
+    <t>Arthur!
+Greetings from Russia! I live in Moscow. Today - 5 degrees. I'm looking forward to spring. I'm sending this bird to your little daughter. I wish you health and smiles. Happy postcrossing.
+И самые лучшие пожелания вашей семье. :)
+Yulia
+21.02.24</t>
+  </si>
+  <si>
+    <t>Arthur!
+来自俄罗斯的问候！我住在莫斯科。今天 - 零下5度。我期待着春天的到来。我把这只鸟送给你的女儿。祝你健康快乐，微笑常在。快乐的明信片交换。
+最美好的祝愿给你的家庭。 :)
+尤利娅
+2024年2月21日</t>
   </si>
   <si>
     <t>RU-9991674</t>
@@ -2196,15 +2202,15 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1454545454545" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1481481481481" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4351851851852" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.0925925925926" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5740740740741" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -2791,7 +2797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" ht="72" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2802,7 +2808,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" ht="100.8" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" ht="115.2" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2824,7 +2830,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" ht="72" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" ht="100.8" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" ht="72" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="350" spans="1:3">
+    <row r="59" ht="360" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="168" spans="1:3">
+    <row r="60" ht="172.8" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
+    <row r="61" ht="72" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="98" spans="1:3">
+    <row r="62" ht="100.8" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="126" spans="1:3">
+    <row r="63" ht="129.6" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" ht="144" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:3">
+    <row r="65" ht="57.6" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="126" spans="1:3">
+    <row r="67" ht="129.6" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -2962,7 +2968,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" ht="100.8" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="98" spans="1:3">
+    <row r="69" ht="158.4" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="56" spans="1:3">
+    <row r="70" ht="57.6" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -1204,6 +1204,16 @@
   <si>
     <t>来自莫斯科历史中心的问候。我喜欢钩针编织，有时会给我的孩子做玩具。+1℃
 祝你好运！莱登2015。24.02.24</t>
+  </si>
+  <si>
+    <t>JP-2075151</t>
+  </si>
+  <si>
+    <t>你好 こんにちは！我是博子。來自日本的問候。這張明信片描繪了自1624年左右開始舉辦的節慶。如果你喜歡的話我會很高興。祝你天天快樂。博子</t>
+  </si>
+  <si>
+    <t>你好 こんにちは！（你好！）我是博子。来自
+日本的问候。这张明信片描绘了自1624年左右开始举办的节庆。如果你喜欢的话我会很高兴。祝你天天快乐。博子</t>
   </si>
 </sst>
 </file>
@@ -2197,20 +2207,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1481481481481" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4351851851852" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.0925925925926" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5740740740741" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1454545454545" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4363636363636" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -2797,7 +2807,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="72" spans="1:3">
+    <row r="53" ht="70" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="100.8" spans="1:3">
+    <row r="54" ht="98" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2819,7 +2829,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="115.2" spans="1:3">
+    <row r="55" ht="112" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="72" spans="1:3">
+    <row r="56" ht="70" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="100.8" spans="1:3">
+    <row r="57" ht="98" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="72" spans="1:3">
+    <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2863,7 +2873,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="360" spans="1:3">
+    <row r="59" ht="350" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="172.8" spans="1:3">
+    <row r="60" ht="168" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="72" spans="1:3">
+    <row r="61" ht="70" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2896,7 +2906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="100.8" spans="1:3">
+    <row r="62" ht="98" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="129.6" spans="1:3">
+    <row r="63" ht="126" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2918,7 +2928,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="144" spans="1:3">
+    <row r="64" ht="140" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="57.6" spans="1:3">
+    <row r="65" ht="56" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -2957,7 +2967,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="129.6" spans="1:3">
+    <row r="67" ht="126" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -2968,7 +2978,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="100.8" spans="1:3">
+    <row r="68" ht="98" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -2979,7 +2989,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="158.4" spans="1:3">
+    <row r="69" ht="154" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="57.6" spans="1:3">
+    <row r="70" ht="56" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -2999,6 +3009,17 @@
       </c>
       <c r="C70" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="71" ht="42" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -1214,6 +1214,21 @@
   <si>
     <t>你好 こんにちは！（你好！）我是博子。来自
 日本的问候。这张明信片描绘了自1624年左右开始举办的节庆。如果你喜欢的话我会很高兴。祝你天天快乐。博子</t>
+  </si>
+  <si>
+    <t>AT-729734</t>
+  </si>
+  <si>
+    <t>Hallo Siyuan Feng!
+SEND YOU BEST WISHES FROM MY WONDERFUL CITY INNSBRUCK/AUSTRIA EUROPA! :) THE CITY IS SURROUNDED BY LOTS OF MOUNTAINS WHICH GIVE US MANY OPPORTUNITIES FOR GREAT SPORT ADVENTURES.
+TAKE CARE
+Karin</t>
+  </si>
+  <si>
+    <t>你好，冯思远！
+送上我最美好的祝愿，从我美丽的城市因斯布鲁克/奥地利欧洲发来！:) 这座城市被许多群山环绕，给我们带来了许多进行极限运动冒险的机会。
+保重
+卡琳</t>
   </si>
 </sst>
 </file>
@@ -2207,12 +2222,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3022,6 +3037,17 @@
         <v>217</v>
       </c>
     </row>
+    <row r="72" ht="98" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -1229,6 +1229,15 @@
 送上我最美好的祝愿，从我美丽的城市因斯布鲁克/奥地利欧洲发来！:) 这座城市被许多群山环绕，给我们带来了许多进行极限运动冒险的机会。
 保重
 卡琳</t>
+  </si>
+  <si>
+    <t>HR-108981</t>
+  </si>
+  <si>
+    <t>Dear Arthur, I send you and your family sunny greetings from Zadar, Croatia. I'm Jill, 21 and from Bielefeld in Germany. Your daughter is lovely! In October I'm starting to study medicine! I'm so excited. Check out the coffee from Hamburg "Speicherstadt"! All the best, Alles Liebe für Dich! (我祝你一切顺利！)</t>
+  </si>
+  <si>
+    <t>亲爱的阿瑟，我向你和你的家人送上来自克罗地亚扎达尔的阳光问候。我是吉尔，21岁，来自德国比勒费尔德。你女儿很可爱！十月我即将开始学习医学！我很激动。请品尝一下来自汉堡“仓库城”的咖啡！祝一切顺利！我祝你一切顺利！</t>
   </si>
 </sst>
 </file>
@@ -2222,12 +2231,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3048,6 +3057,17 @@
         <v>220</v>
       </c>
     </row>
+    <row r="73" ht="98" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
   <si>
     <t>id</t>
   </si>
@@ -1238,6 +1238,26 @@
   </si>
   <si>
     <t>亲爱的阿瑟，我向你和你的家人送上来自克罗地亚扎达尔的阳光问候。我是吉尔，21岁，来自德国比勒费尔德。你女儿很可爱！十月我即将开始学习医学！我很激动。请品尝一下来自汉堡“仓库城”的咖啡！祝一切顺利！我祝你一切顺利！</t>
+  </si>
+  <si>
+    <t>GB-1757199</t>
+  </si>
+  <si>
+    <t>May 7th
+Dear Arthur,Here is a view of a popular place for tourists to visit in England. There are many beautiful areas to walk in e.g. woodlands where you can see wildlife. Best wishes, Laura</t>
+  </si>
+  <si>
+    <t>5 月 7 日
+亲爱的 Arthur，这里是一个受游客欢迎的英格兰景点。有许多美丽的地方可以散步，例如可以看见野生动物的树林里。致以最诚挚的祝福，Laura</t>
+  </si>
+  <si>
+    <t>NL-5735018</t>
+  </si>
+  <si>
+    <t>Hello Siyuan, Greetings from The Netherlands. My name is Willem and I live in the small village of Wezep. I send you this card from the Dutch island of Texel. It's nickname is Sheep island. I wish you all the best, Willem.</t>
+  </si>
+  <si>
+    <t>你好, 思远。来自荷兰的问候。我的名字是Willem，我住在一个叫Wezep的小村庄。我从荷兰的Texel岛寄给你这张明信片。它的昵称是Sheep island（绵羊岛）。祝你一切顺利，Willem。</t>
   </si>
 </sst>
 </file>
@@ -2231,12 +2251,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3068,6 +3088,28 @@
         <v>223</v>
       </c>
     </row>
+    <row r="74" ht="70" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" ht="70" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>id</t>
   </si>
@@ -1258,6 +1258,16 @@
   </si>
   <si>
     <t>你好, 思远。来自荷兰的问候。我的名字是Willem，我住在一个叫Wezep的小村庄。我从荷兰的Texel岛寄给你这张明信片。它的昵称是Sheep island（绵羊岛）。祝你一切顺利，Willem。</t>
+  </si>
+  <si>
+    <t>US-10392528</t>
+  </si>
+  <si>
+    <t>Greetings from Las Vegas! We are currently in the middle of our spring, which is my favorite season before we have our desert summer heat! -Demian</t>
+  </si>
+  <si>
+    <t>来自拉斯维加斯的问候！我们目前正处
+于春季，这是我最喜欢的季节，然后是沙漠夏季的酷热！-Demian</t>
   </si>
 </sst>
 </file>
@@ -2251,12 +2261,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3110,6 +3120,17 @@
         <v>229</v>
       </c>
     </row>
+    <row r="76" ht="42" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="236">
   <si>
     <t>id</t>
   </si>
@@ -1268,6 +1268,15 @@
   <si>
     <t>来自拉斯维加斯的问候！我们目前正处
 于春季，这是我最喜欢的季节，然后是沙漠夏季的酷热！-Demian</t>
+  </si>
+  <si>
+    <t>DE-14183067</t>
+  </si>
+  <si>
+    <t>Hello Siyuan, My name is Frank I send you greetings  and best wishes from Germany.Frank</t>
+  </si>
+  <si>
+    <t>你好，Siyuan，我叫 Frank，我向你致以来自德国的问候和祝福。Frank</t>
   </si>
 </sst>
 </file>
@@ -2261,12 +2270,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3131,6 +3140,17 @@
         <v>232</v>
       </c>
     </row>
+    <row r="77" ht="28" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -1277,6 +1277,25 @@
   </si>
   <si>
     <t>你好，Siyuan，我叫 Frank，我向你致以来自德国的问候和祝福。Frank</t>
+  </si>
+  <si>
+    <t>ID IN-592435</t>
+  </si>
+  <si>
+    <t>7 May 2024
+Bengaluru 
+Dear, Feng Siyuan 
+Namaskara from Karnataka India, I'm thrilled to share with you a unique aspect of our cultural heritage Bhuta kola, a traditional folk dance form that's an integral Part of our state's rich traditions. 
+Bhuta kola is a vibrant and energetic dance form that's performed to appease the spirits and ancestors. The dancers, adorned in elaborate costumes and masks, enact mythological stories and legends, accompanied by rhythmic drumbeats and music. This ancient art form is a testament to our state's cultural diversity and rich history.
+Thank you!</t>
+  </si>
+  <si>
+    <t>2024年5月7日 
+班加罗尔 
+亲爱的， Feng Siyuan 
+来自印度卡纳塔克邦的 Namaskara，我很高兴与您分享我们文化遗产 Bhuta kola 的独特方面，这是一种传统的民间舞蹈形式，是我们州丰富传统不可或缺的一部分。
+Bhuta kola 是一种充满活力和活力的舞蹈形式，旨在安抚灵魂和祖先。舞者身着精致的服装和面具，演绎神话故事和传说，伴随着有节奏的鼓声和音乐。这种古老的艺术形式证明了我们州的文化多样性和丰富的历史。
+谢谢！</t>
   </si>
 </sst>
 </file>
@@ -2270,12 +2289,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3151,6 +3170,17 @@
         <v>235</v>
       </c>
     </row>
+    <row r="78" ht="224" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1279,7 +1279,7 @@
     <t>你好，Siyuan，我叫 Frank，我向你致以来自德国的问候和祝福。Frank</t>
   </si>
   <si>
-    <t>ID IN-592435</t>
+    <t>IN-592435</t>
   </si>
   <si>
     <t>7 May 2024
@@ -2294,7 +2294,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,25 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -1297,11 +1284,31 @@
 Bhuta kola 是一种充满活力和活力的舞蹈形式，旨在安抚灵魂和祖先。舞者身着精致的服装和面具，演绎神话故事和传说，伴随着有节奏的鼓声和音乐。这种古老的艺术形式证明了我们州的文化多样性和丰富的历史。
 谢谢！</t>
   </si>
+  <si>
+    <t>DE-14183085</t>
+  </si>
+  <si>
+    <t>Hello, I send greetings from the Baltic Sea. I'm 67, work in the garden,have 2 parrots,do crossword puzzles, meet friends for coffee and cheese cake. Best wishes, Marie</t>
+  </si>
+  <si>
+    <t>你好，我从波罗的海向你问好。我今年 67 岁，在花园里工作，养了两只鹦鹉，玩填字游戏，和朋友一起喝咖啡、吃奶酪蛋糕。祝一切顺利，玛丽</t>
+  </si>
+  <si>
+    <t>DE-14228192</t>
+  </si>
+  <si>
+    <t>May 20th, 24
+Hello Arthur,my name is Karin. I am 61 years old. I have been married for 35 years and we have two adult children. I hope you have fun with your little daughter. A child is special. Greetings from Aschaffenburg, Germany. I hope you like this animal card! Regards.</t>
+  </si>
+  <si>
+    <t>2024年5月20日
+你好，Arthur，我的名字是Karin。我今年61岁。我已经结婚35年了，我们有两个已经成年的孩子。我希望你和你的小女儿玩得开心。孩子是特别的。来自德国阿沙芬堡的问候。我希望你喜欢这张动物卡片！致敬。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2289,12 +2296,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3181,6 +3188,28 @@
         <v>238</v>
       </c>
     </row>
+    <row r="79" ht="56" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" ht="98" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -12,12 +12,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="248">
   <si>
     <t>id</t>
   </si>
@@ -1304,11 +1317,20 @@
     <t>2024年5月20日
 你好，Arthur，我的名字是Karin。我今年61岁。我已经结婚35年了，我们有两个已经成年的孩子。我希望你和你的小女儿玩得开心。孩子是特别的。来自德国阿沙芬堡的问候。我希望你喜欢这张动物卡片！致敬。</t>
   </si>
+  <si>
+    <t>RU-10097926</t>
+  </si>
+  <si>
+    <t>Hi Siyuan and adorable Xiaoxiao! Greetings from Russia! I'm 31 y.o. mom of 1.5 y.o. daughter. I work at the Russian Post office. Hope that Xiaoxiao like this gopher postcard. Wish you health and lot of joy. Tatiana.</t>
+  </si>
+  <si>
+    <t>嗨，思远和可爱的笑笑！ 来自俄罗斯的问候！ 我是一个31岁的妈妈，有一个1.5岁的女儿。 我在俄罗斯邮局工作。 希望小小喜欢这张地鼠明信片。 祝你健康和快乐。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -2296,12 +2318,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3210,6 +3232,17 @@
         <v>244</v>
       </c>
     </row>
+    <row r="81" ht="70" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -1325,6 +1325,37 @@
   </si>
   <si>
     <t>嗨，思远和可爱的笑笑！ 来自俄罗斯的问候！ 我是一个31岁的妈妈，有一个1.5岁的女儿。 我在俄罗斯邮局工作。 希望小小喜欢这张地鼠明信片。 祝你健康和快乐。</t>
+  </si>
+  <si>
+    <t>US-10397099</t>
+  </si>
+  <si>
+    <t>New York City
+May 13, 2024
+Hello Arthur—
+Here are some books I’ve recently enjoyed: HHhH by Laurent Binet; A Gentleman 
+in Moscow by Amor Towles; 
+A Few Right Thinking Men by Sulari Gentillu; Six Four by Hideo Yokoyama; 
+Small Mercies by Dennis Lehane; 
+A Rising Man by Abir Mukherjee.
+Best, Jonathan</t>
+  </si>
+  <si>
+    <t>纽约市
+2024年5月13日
+你好，Arthur—
+以下是我最近很喜欢的一些书：《HHhH》，Laurent Binet著；《A Gentleman in Moscow》，Amor Towles著；《A Few Right Thinking Men》，Sulari Gentillu著；《Six Four》，横山秀夫（Hideo Yokoyama）著；《Small Mercies》，Dennis Lehane著；《A Rising Man》，Abir Mukherjee著。
+最好的祝福，Jonathan</t>
+  </si>
+  <si>
+    <t>US-10443866</t>
+  </si>
+  <si>
+    <t>In the fall - this is pretty much what Nebraska looks like :). Be well - Charlene</t>
+  </si>
+  <si>
+    <t>在秋天，这几乎就是内布拉斯加的样子。:)
+保重 - Charlene</t>
   </si>
 </sst>
 </file>
@@ -2318,12 +2349,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3243,6 +3274,28 @@
         <v>247</v>
       </c>
     </row>
+    <row r="82" ht="154" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" ht="28" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
   <si>
     <t>id</t>
   </si>
@@ -1356,6 +1356,21 @@
   <si>
     <t>在秋天，这几乎就是内布拉斯加的样子。:)
 保重 - Charlene</t>
+  </si>
+  <si>
+    <t>US-10415575</t>
+  </si>
+  <si>
+    <t>Hello Feng,
+I am Vidhya from India I live in USA now. How is Xiao?
+She is cute. Have you tried any Indian cuisines?
+Have a great day.</t>
+  </si>
+  <si>
+    <t>你好，Feng，
+我是来自印度的Vidhya，我现在住在美国。Xiao怎么样？
+她很可爱。你尝试过印度的美食吗？
+祝你有美好的一天。</t>
   </si>
 </sst>
 </file>
@@ -2349,12 +2364,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3296,6 +3311,17 @@
         <v>253</v>
       </c>
     </row>
+    <row r="84" ht="70" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -1371,6 +1371,49 @@
 我是来自印度的Vidhya，我现在住在美国。Xiao怎么样？
 她很可爱。你尝试过印度的美食吗？
 祝你有美好的一天。</t>
+  </si>
+  <si>
+    <t>FI-4633650</t>
+  </si>
+  <si>
+    <t>Hei
+17th of Juney 2024
+Greeting from sunny Finland. Now at 8.30 am is 20° C. Sun has arisen at 3.37 am and will go down at 10.50 pm.
+I’m a biology, geography, and social studies teacher (also math this school year) in upper comprehensive school for pupils with 13-16 years old. I like my job very much.
+I have MCTD. It’s rare of rheumatism disease. I have so much pain in articulations that handwriting isn’t possible. June 2023, I got another rheumatism diagnoses, psoriatic arthritis.
+I try to be positive. I have personal assistant who help me with Postcrossing and many other things.
+On school time I got to work by taxi because public transport isn’t going near to school (I should walk from bus stop about a one km). At school I’m not allowed to walk stairs alone, my classroom is at 3rd floor and in my school isn’t lift/elevator.
+I want to go work because when I’m teaching, I don’t think about pain. I have use wheelchair in my free time.
+Our school year ended at 1st of June and back to schools we go at mid-August.
+Anne (veverka)</t>
+  </si>
+  <si>
+    <t>嗨
+2024年6月17日
+来自阳光明媚的芬兰的问候。现在早上8:30，温度是20摄氏度。太阳3:37升起，晚上10:50落下。
+我是生物、地理和社会学老师（这学年还包括数学），在初级综合学校教13-16岁的学生。我非常喜欢我的工作。
+我患有MCTD。这是一种罕见的风湿病。我关节疼痛严重，几乎无法手写。2023年6月，我被诊断出另一种风湿病——银屑病关节炎。
+我尝试保持积极。我有一个私人助理，他帮助我处理明信片互寄和其他许多事情。
+在学校时间，我乘出租车上班，因为公共交通不中转到学校附近（我得从公交车站步行大约一公里）。在学校里，我不被允许独自上下楼梯，我的教室位于三楼，而学校没有电梯。
+我想去工作，因为在教书时，我不会去想疼痛。我在空闲时间使用轮椅。
+我们的学年在6月1日结束，学校在8月中旬重新开学。
+安妮（veverka）</t>
+  </si>
+  <si>
+    <t>US-10478110</t>
+  </si>
+  <si>
+    <t>Dear Arthur:
+Howdy, (Texan for hello) from the pine forests of Northeastern Texas! I'm Mike, 70 years (body only. The Mind is much younger :))
+Married to Lewa the past 43 mostly happy years :)
+Retired, we live in a small city of 23000 with Lucy our puppy :)
+Happy Post Crossings!</t>
+  </si>
+  <si>
+    <t>您好，（德州式的问候）来自德州东北部的松树林！我叫迈克，今年70岁（仅指身体，心灵则年轻得多 :))
+与Lewa结婚43年，大部分时间都很幸福 :)
+退休了，我们与小狗露西住在一个有23000人的小城市里 :)
+祝您快乐的邮政越境！</t>
   </si>
 </sst>
 </file>
@@ -2364,12 +2407,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3322,6 +3365,28 @@
         <v>256</v>
       </c>
     </row>
+    <row r="85" ht="364" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" ht="112" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="269">
   <si>
     <t>id</t>
   </si>
@@ -1414,6 +1414,28 @@
 与Lewa结婚43年，大部分时间都很幸福 :)
 退休了，我们与小狗露西住在一个有23000人的小城市里 :)
 祝您快乐的邮政越境！</t>
+  </si>
+  <si>
+    <t>AT-729735</t>
+  </si>
+  <si>
+    <t>Dear Xiaoxiao,
+I hope that you like this card of a baby bear. Isn't it cute?
+Lovely greetings, Becky</t>
+  </si>
+  <si>
+    <t>亲爱的笑笑，
+我希望你喜欢这张小熊的卡片。它是不是很可爱呢？
+美好的问候，贝基</t>
+  </si>
+  <si>
+    <t>IE-259244</t>
+  </si>
+  <si>
+    <t>Dia dhuit meaning hello in Irish, or, it's literal translation is 'God be with you'. My name is Zoe from Ireland; I was born &amp; bred here. I love animals and work as a veterinary nurse in Dublin. And I just got married 2 weeks ago at the 'Cliffs of Moher'. Best wishes, Zoe :)</t>
+  </si>
+  <si>
+    <t>Dia dhuit 意味着“你好”在爱尔兰语里，或者，它的字面翻译是“愿上帝与你同在”。我叫Zoe，来自爱尔兰；我在这里出生并长大。我爱动物，并在都柏林做一名兽医护士。两周前 我刚刚在“莫赫悬崖”结婚。致以最美好的祝愿，Zoe :)</t>
   </si>
 </sst>
 </file>
@@ -2407,12 +2429,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3387,6 +3409,28 @@
         <v>262</v>
       </c>
     </row>
+    <row r="87" ht="56" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" ht="84" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
   <si>
     <t>id</t>
   </si>
@@ -1436,6 +1436,15 @@
   </si>
   <si>
     <t>Dia dhuit 意味着“你好”在爱尔兰语里，或者，它的字面翻译是“愿上帝与你同在”。我叫Zoe，来自爱尔兰；我在这里出生并长大。我爱动物，并在都柏林做一名兽医护士。两周前 我刚刚在“莫赫悬崖”结婚。致以最美好的祝愿，Zoe :)</t>
+  </si>
+  <si>
+    <t>DE-14306905</t>
+  </si>
+  <si>
+    <t>Dear Arthur,This postcard comes to you from Northern Germany. I love books and sports and I am a volunteer with the Red Cross. That's fun! Best regards from Europe,INGE</t>
+  </si>
+  <si>
+    <t>亲爱的阿瑟，这张明信片来自德国北部。我喜欢书籍和运动，我是红十字会的志愿者。这很有趣！来自欧洲的问候，英格</t>
   </si>
 </sst>
 </file>
@@ -2429,12 +2438,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3431,6 +3440,17 @@
         <v>268</v>
       </c>
     </row>
+    <row r="89" ht="56" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="274">
   <si>
     <t>id</t>
   </si>
@@ -1371,6 +1371,20 @@
 我是来自印度的Vidhya，我现在住在美国。Xiao怎么样？
 她很可爱。你尝试过印度的美食吗？
 祝你有美好的一天。</t>
+  </si>
+  <si>
+    <t>2024/7/11
+Hello Siyian,
+Good to hear that you liked the card.
+I was in US when I wrote the card and have now come to India where I posted it.
+Hence you find Indian stamps.</t>
+  </si>
+  <si>
+    <t>2024/7/11
+你好 Siyian，
+很高兴听到你喜欢这张卡片。
+我写这张卡片时在美国，现在我来到了印度，并在那里寄出了它。
+因此你找到了印度邮票。</t>
   </si>
   <si>
     <t>FI-4633650</t>
@@ -2441,17 +2455,17 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1454545454545" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4363636363636" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1481481481481" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4351851851852" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.0925925925926" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5740740740741" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -3038,7 +3052,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" ht="72" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -3049,7 +3063,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" ht="100.8" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -3060,7 +3074,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" ht="115.2" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" ht="72" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -3082,7 +3096,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" ht="100.8" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" ht="72" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -3104,7 +3118,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="350" spans="1:3">
+    <row r="59" ht="360" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -3115,7 +3129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="168" spans="1:3">
+    <row r="60" ht="172.8" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
+    <row r="61" ht="72" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3137,7 +3151,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="98" spans="1:3">
+    <row r="62" ht="100.8" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3148,7 +3162,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="126" spans="1:3">
+    <row r="63" ht="129.6" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" ht="144" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -3170,7 +3184,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:3">
+    <row r="65" ht="57.6" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -3198,7 +3212,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="126" spans="1:3">
+    <row r="67" ht="129.6" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3209,7 +3223,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" ht="100.8" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -3220,7 +3234,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="154" spans="1:3">
+    <row r="69" ht="158.4" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -3231,7 +3245,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="56" spans="1:3">
+    <row r="70" ht="57.6" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -3242,7 +3256,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="42" spans="1:3">
+    <row r="71" ht="43.2" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -3253,7 +3267,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="98" spans="1:3">
+    <row r="72" ht="100.8" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -3264,7 +3278,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="98" spans="1:3">
+    <row r="73" ht="100.8" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3275,7 +3289,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="70" spans="1:3">
+    <row r="74" ht="72" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -3286,7 +3300,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="70" spans="1:3">
+    <row r="75" ht="72" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -3297,7 +3311,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="42" spans="1:3">
+    <row r="76" ht="43.2" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -3308,7 +3322,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:3">
+    <row r="77" ht="28.8" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -3319,7 +3333,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="224" spans="1:3">
+    <row r="78" ht="230.4" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -3330,7 +3344,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="56" spans="1:3">
+    <row r="79" ht="57.6" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -3341,7 +3355,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="98" spans="1:3">
+    <row r="80" ht="100.8" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3352,7 +3366,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="70" spans="1:3">
+    <row r="81" ht="72" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3363,7 +3377,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="154" spans="1:3">
+    <row r="82" ht="158.4" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3374,7 +3388,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:3">
+    <row r="83" ht="28.8" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3385,7 +3399,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="70" spans="1:3">
+    <row r="84" ht="187.2" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3395,60 +3409,66 @@
       <c r="C84" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="85" ht="364" spans="1:3">
+      <c r="D84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" ht="374.4" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" ht="112" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" ht="115.2" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="87" ht="56" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" ht="57.6" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="88" ht="84" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" ht="86.4" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="89" ht="56" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" ht="57.6" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C78693-8F39-4D43-B7B7-461417264043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="280">
   <si>
     <t>id</t>
   </si>
@@ -401,7 +407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Hello from Ukraine!
 Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
@@ -454,7 +460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>来自乌克兰的你好！
 在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
@@ -494,7 +500,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -613,7 +619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
     </r>
@@ -622,7 +628,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -655,7 +661,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
     </r>
@@ -664,7 +670,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -1361,12 +1367,6 @@
     <t>US-10415575</t>
   </si>
   <si>
-    <t>Hello Feng,
-I am Vidhya from India I live in USA now. How is Xiao?
-She is cute. Have you tried any Indian cuisines?
-Have a great day.</t>
-  </si>
-  <si>
     <t>你好，Feng，
 我是来自印度的Vidhya，我现在住在美国。Xiao怎么样？
 她很可爱。你尝试过印度的美食吗？
@@ -1460,18 +1460,57 @@
   <si>
     <t>亲爱的阿瑟，这张明信片来自德国北部。我喜欢书籍和运动，我是红十字会的志愿者。这很有趣！来自欧洲的问候，英格</t>
   </si>
+  <si>
+    <t>Hello Feng,
+I am Vidhya from India I live in USA now. How is Xiao?
+She is cute. Have you tried any Indian cuisines?
+Have a great day.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>7th July 2024
+Hi Feng!
+My name is Paula and hometown Lahti. We have one dog called Roxy. He is a basenji 13 years old. He is at home with my husband ’cause I’m with our daughter at her cottage with two of her dogs.
+All the best to you!
+Paula</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI-4642929</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年7月7日
+嗨，Feng!
+我叫Paula，家乡是Lahti。我们有一只叫Roxy的狗。他是一只13岁的巴仙吉犬。他和我丈夫待在家里，因为我和我们的女儿在她的小屋里和她的两只狗在一起。
+祝你一切顺利！
+Paula</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI-4642961</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello!
+My name is Minna and I live in small town called Kauhajoki. There is about 13000 inhabitants, but I like live here.
+I like reading and listening to music. Also I collect stamps and Garfield and cow-cards. I like animals very much, especially cats.
+Happy postcrossing! Minna</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好！
+我的名字是Minna，我住在一个名叫Kauhajoki的小镇。这里大约有13000名居民，但我喜欢住在这里。
+我喜欢阅读和听音乐。我也收藏邮票和加菲猫及奶牛卡片。我非常喜欢动物，特别是猫。
+祝你玩得开心！ Minna</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1483,151 +1522,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1639,210 +1534,39 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1850,253 +1574,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2104,62 +1586,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2444,38 +1894,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1481481481481" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4351851851852" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.0925925925926" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5740740740741" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2485,278 +1935,278 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2766,443 +2216,443 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="58.2" customHeight="1" spans="1:3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" ht="18.75" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="72" spans="1:3">
+    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="100.8" spans="1:3">
+    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="115.2" spans="1:3">
+    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="72" spans="1:3">
+    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="100.8" spans="1:3">
+    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="72" spans="1:3">
+    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="360" spans="1:3">
+    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="172.8" spans="1:3">
+    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="72" spans="1:3">
+    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="100.8" spans="1:3">
+    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="129.6" spans="1:3">
+    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="144" spans="1:3">
+    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="57.6" spans="1:3">
+    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="409.5" spans="1:5">
+    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>201</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -3212,267 +2662,289 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="129.6" spans="1:3">
+    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="100.8" spans="1:3">
+    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="158.4" spans="1:3">
+    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="57.6" spans="1:3">
+    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="43.2" spans="1:3">
+    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="100.8" spans="1:3">
+    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="100.8" spans="1:3">
+    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="72" spans="1:3">
+    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="72" spans="1:3">
+    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="43.2" spans="1:3">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28.8" spans="1:3">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="230.4" spans="1:3">
+    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="57.6" spans="1:3">
+    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="100.8" spans="1:3">
+    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="72" spans="1:3">
+    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="158.4" spans="1:3">
+    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:3">
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="187.2" spans="1:5">
+    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="85" ht="374.4" spans="1:3">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="86" ht="115.2" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="87" ht="57.6" spans="1:3">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="88" ht="86.4" spans="1:3">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="89" ht="57.6" spans="1:3">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>273</v>
+    </row>
+    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C78693-8F39-4D43-B7B7-461417264043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C63F8A-8146-4C2E-9469-53121EB20E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -1503,6 +1503,22 @@
 我的名字是Minna，我住在一个名叫Kauhajoki的小镇。这里大约有13000名居民，但我喜欢住在这里。
 我喜欢阅读和听音乐。我也收藏邮票和加菲猫及奶牛卡片。我非常喜欢动物，特别是猫。
 祝你玩得开心！ Minna</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hey,
+how is life? Mine is exciting because of a job change. Today it's runing in Wuppertal. Yesterday it was sunny and I lied at the Wupper River in Wuppertal.
+Have a good sunny day!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨，
+生活如何？我的生活因为换工作而充满了兴奋。今天在伍珀塔尔下雨。昨天阳光明媚，我躺在伍珀河边。
+祝你有阳光灿烂的一天！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14374200</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1903,22 +1919,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +1973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1979,7 +1995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +2006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2001,7 +2017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2012,7 +2028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2023,7 +2039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2034,7 +2050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2045,7 +2061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2056,7 +2072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2067,7 +2083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2078,7 +2094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2089,7 +2105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2100,7 +2116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2111,7 +2127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2122,7 +2138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2133,7 +2149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2144,7 +2160,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2155,7 +2171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2166,7 +2182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2177,7 +2193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2188,7 +2204,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2199,7 +2215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2216,7 +2232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2227,7 +2243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2238,7 +2254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2249,7 +2265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2260,7 +2276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2271,7 +2287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2282,7 +2298,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2293,7 +2309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -2315,7 +2331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -2326,7 +2342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -2348,7 +2364,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -2359,7 +2375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -2370,7 +2386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -2381,7 +2397,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -2392,7 +2408,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -2403,7 +2419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -2414,7 +2430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
@@ -2436,7 +2452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -2447,7 +2463,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
@@ -2458,7 +2474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -2469,7 +2485,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -2491,7 +2507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -2502,7 +2518,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2513,7 +2529,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2524,7 +2540,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2535,7 +2551,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2546,7 +2562,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2557,7 +2573,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -2579,7 +2595,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -2590,7 +2606,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2601,7 +2617,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2612,7 +2628,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2623,7 +2639,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -2634,7 +2650,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -2645,7 +2661,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -2662,7 +2678,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -2673,7 +2689,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -2684,7 +2700,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -2695,7 +2711,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -2706,7 +2722,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -2717,7 +2733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -2739,7 +2755,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -2750,7 +2766,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -2761,7 +2777,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -2772,7 +2788,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -2783,7 +2799,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -2794,7 +2810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -2816,7 +2832,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -2827,7 +2843,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -2838,7 +2854,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -2849,7 +2865,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -2866,7 +2882,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
@@ -2877,7 +2893,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -2888,7 +2904,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
@@ -2899,7 +2915,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
@@ -2910,7 +2926,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>270</v>
       </c>
@@ -2921,7 +2937,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>275</v>
       </c>
@@ -2932,7 +2948,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>277</v>
       </c>
@@ -2941,6 +2957,17 @@
       </c>
       <c r="C91" s="6" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C63F8A-8146-4C2E-9469-53121EB20E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E9098-C569-4ED5-8FD5-D34DB8F66ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="292">
   <si>
     <t>id</t>
   </si>
@@ -1521,12 +1521,90 @@
     <t>DE-14374200</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>US-10584950</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT-945721</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10529701</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hello! I hope you are doing great! I love this card, I got it in a set of 10 and it's been so difficult to send them all out. It's been 4 years since I got them :D I always make the same mistake of getting a set of cards and then struggling to send them out. You know how you don't like some of the cards in the set :D Best wishes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deimante</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">你好！ 我希望你过得很好！我喜欢这张卡片，我在一套10张中得到了它，很难全部寄出去。我得到它们已经4年了:D我总是犯同样的错误，买了一套卡片然后挣扎着寄出去。你知道你不喜欢这套中的一些卡片:D 祝好 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 赛曼特</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello from hot and sunny New Mexico, USA. I like living in the American Southwest. We moved from Arizona, where this animal park is located. It's fantastic! It is also near the Grand Canyon, which I have seen several times. We're going on holiday to Canada in October. GARCI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自炎热而阳光明媚的新墨西哥，美国。 我喜欢住在美国的西南部。 我们从亚利桑那州搬来了，这个动物园就在那里。 这很棒！ 它也靠近大峡谷，我已经去过几次了。 我们计划十 月份去加拿大度假。 GARCI</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Arthur, Greetings from the USA. Your daughter is so cute. Where I live we make more RV's (travel trailers-motorhomes) than anywhere else in the world. I hope you are having a great 2024. Prayers for your health and happiness. In friendship, Valerie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，阿瑟，来自美国的问候。你的女儿真可爱。我住的地方制造了更多的RV（旅行拖车-房车），比世界上任何其他地方都多。我希望你有一个愉快的2024年。为你的健康和幸福祈祷 。友谊长存，瓦莱丽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,6 +1650,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1919,11 +2003,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2970,6 +3054,39 @@
         <v>281</v>
       </c>
     </row>
+    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E9098-C569-4ED5-8FD5-D34DB8F66ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED2E29-61A7-46F1-8EF3-5345D0C05E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="298">
   <si>
     <t>id</t>
   </si>
@@ -1597,6 +1597,32 @@
   </si>
   <si>
     <t>你好，阿瑟，来自美国的问候。你的女儿真可爱。我住的地方制造了更多的RV（旅行拖车-房车），比世界上任何其他地方都多。我希望你有一个愉快的2024年。为你的健康和幸福祈祷 。友谊长存，瓦莱丽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FI-4654970</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Arthur, I am Jussi from Helsinki, Finland. I am working in the hotel industry and will retire in the end of next year. I love gardening at my country cabin, hunting mushrooms, visiting museums, eating out and travelling. My husband turns 60 on August 25th. We are going to celebrate his birthday in Torrevieja, Spain. Peace &amp; Love, Jussi.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，Arthur，我是来自芬兰赫尔辛基的Jussi。我在酒店业工作，计划在明年年底退休。我喜欢在乡下的小屋里园艺、采蘑菇、参观博物馆、外出就餐和旅行。我的丈夫将在8月25日满60岁。我们将去西班牙托雷维耶哈庆祝他的生日。和平与爱，Jussi。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10584951</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greetings from Boston! We have visited Beijing and loved it. I hope Xiaoxiao enjoys the Sesame Street stamps. Warm Wishes,
+Sarah</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自波士顿的问候！我们参观了北京并喜欢那里。希望笑笑喜欢芝麻街的邮票。温暖的祝福,
+Sarah</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2003,22 +2029,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2035,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2046,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2090,7 +2116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2101,7 +2127,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2112,7 +2138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2123,7 +2149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2134,7 +2160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2145,7 +2171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2156,7 +2182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2167,7 +2193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2178,7 +2204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2189,7 +2215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2200,7 +2226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2211,7 +2237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2222,7 +2248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2233,7 +2259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2244,7 +2270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2255,7 +2281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2266,7 +2292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2277,7 +2303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2288,7 +2314,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2299,7 +2325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2316,7 +2342,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2327,7 +2353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2338,7 +2364,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2349,7 +2375,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2360,7 +2386,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2371,7 +2397,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2382,7 +2408,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2393,7 +2419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2404,7 +2430,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -2415,7 +2441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -2426,7 +2452,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2437,7 +2463,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -2448,7 +2474,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -2459,7 +2485,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -2470,7 +2496,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -2481,7 +2507,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -2492,7 +2518,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -2503,7 +2529,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -2514,7 +2540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
@@ -2525,7 +2551,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
@@ -2536,7 +2562,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -2547,7 +2573,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
@@ -2558,7 +2584,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -2569,7 +2595,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -2591,7 +2617,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -2602,7 +2628,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2613,7 +2639,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2624,7 +2650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2635,7 +2661,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2646,7 +2672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2657,7 +2683,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2668,7 +2694,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -2679,7 +2705,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -2690,7 +2716,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2701,7 +2727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2712,7 +2738,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2723,7 +2749,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -2734,7 +2760,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -2745,7 +2771,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -2762,7 +2788,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -2773,7 +2799,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -2784,7 +2810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -2795,7 +2821,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -2806,7 +2832,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -2817,7 +2843,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -2828,7 +2854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -2839,7 +2865,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -2850,7 +2876,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -2861,7 +2887,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -2872,7 +2898,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -2883,7 +2909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -2894,7 +2920,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -2905,7 +2931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -2916,7 +2942,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -2927,7 +2953,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -2938,7 +2964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -2949,7 +2975,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -2966,7 +2992,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
@@ -2977,7 +3003,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -2988,7 +3014,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
@@ -2999,7 +3025,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
@@ -3010,7 +3036,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>270</v>
       </c>
@@ -3021,7 +3047,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>275</v>
       </c>
@@ -3032,7 +3058,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>277</v>
       </c>
@@ -3043,7 +3069,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>282</v>
       </c>
@@ -3054,7 +3080,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>283</v>
       </c>
@@ -3065,7 +3091,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>284</v>
       </c>
@@ -3076,7 +3102,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>285</v>
       </c>
@@ -3085,6 +3111,28 @@
       </c>
       <c r="C95" s="6" t="s">
         <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ED2E29-61A7-46F1-8EF3-5345D0C05E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B7586C-BAFA-46E5-8F81-ACFFC7F44AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
   <si>
     <t>id</t>
   </si>
@@ -1623,6 +1623,31 @@
   <si>
     <t>来自波士顿的问候！我们参观了北京并喜欢那里。希望笑笑喜欢芝麻街的邮票。温暖的祝福,
 Sarah</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14443316</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-10168180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, this card comes from Southern Germany. The castle was built in the 19th century by a crazy king who wanted to escape into a fairy tales world. Today one of the most visited place in our country. Best wishes, Patrick 26. July 30°C</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，这张明信片来自德国南部。这座城堡建于19世纪，由一位希望逃入童话世界的疯狂国王所建造。如今，它是我国访问量最大的地方之一。最美好的祝愿，帕特里克 7 月26日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, Arthur! Greetings from Russia. I live in Moscow, but recently I spend my holidays in Crimea, in Sevastopol (Black Sea, Russia)—it's a beautiful place. Welcome to Russia! Russia is grateful to China for the support in this difficult time. Best wishes, Andrey</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，Arthur！来自俄罗斯的问候。我住在莫斯科，但最近我在克里米亚的塞瓦斯托波尔（黑海，俄罗斯）度假，这里是一个美丽的地方。欢迎来俄罗斯！俄罗斯感谢中国
+在这困难时刻的支持。最好的祝愿，Andrey</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2029,22 +2054,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2061,7 +2086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2083,7 +2108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2094,7 +2119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2116,7 +2141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2127,7 +2152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2138,7 +2163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2149,7 +2174,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2160,7 +2185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2171,7 +2196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2182,7 +2207,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2193,7 +2218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2204,7 +2229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2215,7 +2240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2226,7 +2251,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2237,7 +2262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2248,7 +2273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2259,7 +2284,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2270,7 +2295,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2281,7 +2306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2292,7 +2317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2303,7 +2328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2314,7 +2339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2325,7 +2350,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2342,7 +2367,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2353,7 +2378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2364,7 +2389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2375,7 +2400,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2386,7 +2411,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2397,7 +2422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2408,7 +2433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2419,7 +2444,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2430,7 +2455,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -2441,7 +2466,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -2452,7 +2477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2463,7 +2488,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -2474,7 +2499,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -2485,7 +2510,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -2496,7 +2521,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -2507,7 +2532,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -2518,7 +2543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -2529,7 +2554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -2540,7 +2565,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
@@ -2551,7 +2576,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
@@ -2562,7 +2587,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -2573,7 +2598,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
@@ -2584,7 +2609,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -2595,7 +2620,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -2617,7 +2642,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -2628,7 +2653,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2639,7 +2664,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2650,7 +2675,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2661,7 +2686,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2672,7 +2697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2683,7 +2708,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2694,7 +2719,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -2705,7 +2730,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -2716,7 +2741,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2727,7 +2752,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2738,7 +2763,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2749,7 +2774,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -2760,7 +2785,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -2771,7 +2796,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -2788,7 +2813,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -2799,7 +2824,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -2810,7 +2835,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -2821,7 +2846,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -2832,7 +2857,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -2843,7 +2868,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -2854,7 +2879,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -2865,7 +2890,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -2876,7 +2901,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -2887,7 +2912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -2898,7 +2923,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -2909,7 +2934,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -2920,7 +2945,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -2931,7 +2956,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -2942,7 +2967,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -2953,7 +2978,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -2964,7 +2989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -2975,7 +3000,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -2992,7 +3017,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
@@ -3003,7 +3028,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -3014,7 +3039,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
@@ -3025,7 +3050,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
@@ -3036,7 +3061,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>270</v>
       </c>
@@ -3047,7 +3072,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>275</v>
       </c>
@@ -3058,7 +3083,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>277</v>
       </c>
@@ -3069,7 +3094,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>282</v>
       </c>
@@ -3080,7 +3105,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>283</v>
       </c>
@@ -3091,7 +3116,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>284</v>
       </c>
@@ -3102,7 +3127,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>285</v>
       </c>
@@ -3113,7 +3138,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>292</v>
       </c>
@@ -3124,7 +3149,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>295</v>
       </c>
@@ -3133,6 +3158,28 @@
       </c>
       <c r="C97" s="6" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B7586C-BAFA-46E5-8F81-ACFFC7F44AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAD03B-8529-4846-AAFC-60EA4D49CE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="307">
   <si>
     <t>id</t>
   </si>
@@ -1650,12 +1650,72 @@
 在这困难时刻的支持。最好的祝愿，Andrey</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>DE-14475272</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.8.24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>☁️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +22°C
+你好，Athena，我的名字是Lothar，我来自Wuppertal，这个镇有360,000名居民。它位于一个有多个水坝的绿色区域，以悬挂铁路和被称为弗里德里希·恩格斯而
+闻名。
+祝好，HEPHAN</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.8.24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>☁️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +22°C
+Hello Arthur, my name is Lothar and I come from Wuppertal, a town of 360,000 inhabitants. It is situated in a green area with several dams and well known for the suspension railway and Friedrich Engels.
+Best wishes, HEPHAN</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,6 +1767,18 @@
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2054,11 +2126,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3182,6 +3254,17 @@
         <v>303</v>
       </c>
     </row>
+    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAD03B-8529-4846-AAFC-60EA4D49CE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA76B2E-F074-40C6-8647-6243511BFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1663,34 +1663,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>☁️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +22°C
-你好，Athena，我的名字是Lothar，我来自Wuppertal，这个镇有360,000名居民。它位于一个有多个水坝的绿色区域，以悬挂铁路和被称为弗里德里希·恩格斯而
-闻名。
-祝好，HEPHAN</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7.8.24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
         <family val="3"/>
       </rPr>
       <t>☁️</t>
@@ -1707,6 +1679,34 @@
       <t xml:space="preserve"> +22°C
 Hello Arthur, my name is Lothar and I come from Wuppertal, a town of 360,000 inhabitants. It is situated in a green area with several dams and well known for the suspension railway and Friedrich Engels.
 Best wishes, HEPHAN</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.8.24 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>☁️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +22°C
+你好，Arthur，我的名字是Lothar，我来自Wuppertal，这个镇有360,000名居民。它位于一个有多个水坝的绿色区域，以悬挂铁路和被称为弗里德里希·恩格斯而
+闻名。
+祝好，HEPHAN</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2130,7 +2130,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3259,10 +3259,10 @@
         <v>304</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA76B2E-F074-40C6-8647-6243511BFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807E8BD-AA7D-49A0-924F-D2725BAA3184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="316">
   <si>
     <t>id</t>
   </si>
@@ -1708,6 +1708,58 @@
 闻名。
 祝好，HEPHAN</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE-237946</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14501760</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14440000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello Arthur, warm greeting from southern germany. Your daughter is very cute. Does she know peppa pig. all the best, PIA</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，Arthur，来自德国南部的温暖问候。你女儿非常可爱。她认识佩奇吗？祝好，皮雅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>My name is Holger. I'm a teacher of mathematics and ethics, married, father of two sons. We live in a 172 years old house with our own library.
+Best Wishes! 
+Herzlich Grüße! Holger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>我叫 Holger。我是一名数学和伦理学老师，已婚，有两个儿子。我们住在一栋有 172 年历史的房子里，有自己的图书馆。
+祝一切顺利！
+致以最诚挚的问候！Holger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stockholm 20240808
+Hi Siyuan(SE 237946)
+Hi ! (hedgehog turn around)
+Quite a long address, Now I copy it in Chinese.
+Never been to China, But I should like to go
+Greetings
+Gunnar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯德哥尔摩 20240808
+嗨 Siyuan(SE 237946)
+嗨！（刺猬转身）
+地址好长，现在我把它抄成中文。
+从未去过中国，但我很想去
+问候
+Gunnar</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2126,22 +2178,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2158,7 +2210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2191,7 +2243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2213,7 +2265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2224,7 +2276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2246,7 +2298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2257,7 +2309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2268,7 +2320,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2279,7 +2331,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2290,7 +2342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2301,7 +2353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2312,7 +2364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2323,7 +2375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2334,7 +2386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2345,7 +2397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2356,7 +2408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2367,7 +2419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2378,7 +2430,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2389,7 +2441,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2400,7 +2452,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2411,7 +2463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2422,7 +2474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2439,7 +2491,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2450,7 +2502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2461,7 +2513,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2472,7 +2524,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2483,7 +2535,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2494,7 +2546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2505,7 +2557,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2516,7 +2568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2527,7 +2579,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -2538,7 +2590,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -2549,7 +2601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -2560,7 +2612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -2571,7 +2623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -2582,7 +2634,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -2593,7 +2645,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -2604,7 +2656,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -2626,7 +2678,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -2637,7 +2689,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
@@ -2648,7 +2700,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
@@ -2659,7 +2711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -2670,7 +2722,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
@@ -2681,7 +2733,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -2692,7 +2744,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -2714,7 +2766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -2725,7 +2777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -2736,7 +2788,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -2747,7 +2799,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -2758,7 +2810,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -2769,7 +2821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -2780,7 +2832,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2791,7 +2843,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -2802,7 +2854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -2813,7 +2865,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -2824,7 +2876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -2835,7 +2887,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -2846,7 +2898,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -2857,7 +2909,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -2868,7 +2920,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -2885,7 +2937,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -2896,7 +2948,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -2907,7 +2959,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -2918,7 +2970,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -2929,7 +2981,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -2940,7 +2992,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -2951,7 +3003,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -2962,7 +3014,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -2973,7 +3025,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -2984,7 +3036,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -2995,7 +3047,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -3006,7 +3058,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -3017,7 +3069,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -3028,7 +3080,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3039,7 +3091,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3050,7 +3102,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3061,7 +3113,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3072,7 +3124,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3089,7 +3141,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>258</v>
       </c>
@@ -3100,7 +3152,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>261</v>
       </c>
@@ -3111,7 +3163,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>264</v>
       </c>
@@ -3122,7 +3174,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>267</v>
       </c>
@@ -3133,7 +3185,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>270</v>
       </c>
@@ -3144,7 +3196,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>275</v>
       </c>
@@ -3155,7 +3207,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>277</v>
       </c>
@@ -3166,7 +3218,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>282</v>
       </c>
@@ -3177,7 +3229,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>283</v>
       </c>
@@ -3188,7 +3240,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>284</v>
       </c>
@@ -3199,7 +3251,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>285</v>
       </c>
@@ -3210,7 +3262,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>292</v>
       </c>
@@ -3221,7 +3273,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>295</v>
       </c>
@@ -3232,7 +3284,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>298</v>
       </c>
@@ -3243,7 +3295,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>299</v>
       </c>
@@ -3254,7 +3306,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>304</v>
       </c>
@@ -3263,6 +3315,39 @@
       </c>
       <c r="C100" s="6" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807E8BD-AA7D-49A0-924F-D2725BAA3184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C405C4-EEFB-439C-BEC9-4E22BBBB792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3130" yWindow="1310" windowWidth="17300" windowHeight="8830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="319">
   <si>
     <t>id</t>
   </si>
@@ -1760,6 +1760,18 @@
 从未去过中国，但我很想去
 问候
 Gunnar</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Arthur! I am Jaime from Bilbao, North Spain. I selected this card thinking about your nice boy Xiaoxiao. Hope you enjoy. All the best for your great family, Jaime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES-808083</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨，亚瑟！我是来自西班牙北部毕尔巴鄂的海梅。我选择了这张卡片，想着你可爱的儿子笑笑。希望你喜欢。祝你和你伟大的家庭一切顺利，海梅</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2178,11 +2190,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D101" sqref="D101"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3350,6 +3362,17 @@
         <v>311</v>
       </c>
     </row>
+    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C405C4-EEFB-439C-BEC9-4E22BBBB792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A85E6-8686-457D-A0BB-E9B24BE5A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3130" yWindow="1310" windowWidth="17300" windowHeight="8830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="322">
   <si>
     <t>id</t>
   </si>
@@ -1772,6 +1772,18 @@
   </si>
   <si>
     <t>嗨，亚瑟！我是来自西班牙北部毕尔巴鄂的海梅。我选择了这张卡片，想着你可爱的儿子笑笑。希望你喜欢。祝你和你伟大的家庭一切顺利，海梅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RU-10208779</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big hello from Moscow, I just got here from my trip to Rwanda and Egypt, bought this postcard in a local store in Cairo. I think it is cute and also has cool lenticular eyes. My niece turned 1 y.o. three weeks ago. Time passes by so quickly but that's okay. It is part of life.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自莫斯科的问候，我刚从埃及和卢旺达的旅行回来，在开罗的一个本地商店买了这张明信片。我觉得它很可爱，还有很酷的透镜眼。我的侄女在三周前刚满一岁。时间过得真快，但这没关系。这是生活的一部分。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2190,11 +2202,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3373,6 +3385,17 @@
         <v>318</v>
       </c>
     </row>
+    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41A85E6-8686-457D-A0BB-E9B24BE5A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DD81C-B8EE-4986-97EF-0FFE4EC5F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="325">
   <si>
     <t>id</t>
   </si>
@@ -1784,6 +1784,18 @@
   </si>
   <si>
     <t>来自莫斯科的问候，我刚从埃及和卢旺达的旅行回来，在开罗的一个本地商店买了这张明信片。我觉得它很可爱，还有很酷的透镜眼。我的侄女在三周前刚满一岁。时间过得真快，但这没关系。这是生活的一部分。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Feng. My name is Annette. Greetings from San Antonio, Texas, USA. 26 August 2024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10662757</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好冯。我叫安妮特。来自美国德克萨斯州圣安东尼奥的问候。2024年8月26日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2202,11 +2214,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3396,6 +3408,17 @@
         <v>321</v>
       </c>
     </row>
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DD81C-B8EE-4986-97EF-0FFE4EC5F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BB3F2-765A-4E6E-BBAE-C06CAE5BB61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,88 +614,10 @@
     <t>LT-913966</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">🌥️
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Good day! Siyuan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Warm greetings from far Lietuva. Hope You'll like XXX XXX and something  one.
-Take care
-Gintaras</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">20 $\frac {x}{17}$ 23 +4℃ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">🌥️
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>祝你愉快的一天！Siyuan
-来自遥远的立陶宛的热情问候。希望你会喜欢XXX XXX和其他一些东西。
-保重
-Gintaras</t>
-    </r>
-  </si>
-  <si>
     <t>HK-846298</t>
   </si>
   <si>
     <t>你的女兒很可愛！ 我找到這張粉紅色的貓貓postcard，閃閃的，希望她會喜歡！ 祝聖誕快樂！ 新年進步！</t>
-  </si>
-  <si>
-    <t>你的女儿很可爱！我找到这张粉红色的猫猫postcard，闪闪的，希望她会喜欢！祝圣诞快乐！新年进步！</t>
   </si>
   <si>
     <t>NL-5628599</t>
@@ -1798,12 +1720,136 @@
     <t>你好冯。我叫安妮特。来自美国德克萨斯州圣安东尼奥的问候。2024年8月26日</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>20 $\frac {x}{17}$ 23 +4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">🌥️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Good day! Siyuan
+Warm greetings from far Lietuva. Hope You'll like both my cards and something one :)
+Take care
+Gintaras</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20 $\frac {x}{17}$ 23 +4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="1"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">🌥️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祝你愉快的一天！Siyuan
+来自遥远的立陶宛的热情问候。希望你喜欢我寄来的两张明信片，还有一些小礼物 :)
+保重
+Gintaras</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的女儿很可爱！我找到这张粉红色的猫猫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>postcard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，闪闪的，希望她会喜欢！祝圣诞快乐！新年进步！</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1868,6 +1914,26 @@
       <name val="Segoe UI Emoji"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1889,7 +1955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1908,6 +1974,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2217,19 +2286,19 @@
   <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2246,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2257,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2268,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2279,7 +2348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2301,7 +2370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2312,7 +2381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2323,7 +2392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2334,7 +2403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2345,7 +2414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2356,7 +2425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2367,7 +2436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2378,7 +2447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2389,7 +2458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2400,7 +2469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2411,7 +2480,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2422,7 +2491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2433,7 +2502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2444,7 +2513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2455,7 +2524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2466,7 +2535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2477,7 +2546,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2488,7 +2557,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2499,7 +2568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2510,7 +2579,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2527,7 +2596,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2538,7 +2607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2549,7 +2618,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2560,7 +2629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2571,7 +2640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2582,7 +2651,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2593,7 +2662,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2604,819 +2673,819 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="C35" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B53" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="E66" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="5" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="C67" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B74" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B75" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C76" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B83" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B84" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="D84" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+    </row>
+    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+    </row>
+    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="B95" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C97" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="B99" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C98" s="6" t="s">
+    </row>
+    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="B100" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C100" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B101" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="B102" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="B103" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="C103" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="B104" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C104" s="6" t="s">
+      <c r="C105" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C105" s="6" t="s">
+      <c r="C106" s="6" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3BB3F2-765A-4E6E-BBAE-C06CAE5BB61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55684D9A-9E78-4CAD-9B7A-300979D31D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="328">
   <si>
     <t>id</t>
   </si>
@@ -1842,6 +1842,18 @@
       </rPr>
       <t>，闪闪的，希望她会喜欢！祝圣诞快乐！新年进步！</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello from Georgia! My name is Dani and I live on a small farm in Georgia south of Atlanta. Atlanta is the home of the world's busiest airport and was the birth city of Coke-a-Cola. I hope your daughter likes the cat and horses. Peace + Smiles :)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自乔治亚州的问候！我叫Dani，我住在乔治亚州亚特兰大南部的一个农场。亚特兰大是世界上最繁忙的机场的所在地，并且是可口可乐的诞生城市。我希望你的女儿喜欢猫和马。和平与微笑 :)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10593683</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2283,22 +2295,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2370,7 +2382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2403,7 +2415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +2437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2447,7 +2459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2469,7 +2481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2502,7 +2514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2513,7 +2525,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2524,7 +2536,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2535,7 +2547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2579,7 +2591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2629,7 +2641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2640,7 +2652,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2651,7 +2663,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2695,7 +2707,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2739,7 +2751,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -2761,7 +2773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2772,7 +2784,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -2783,7 +2795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
@@ -2794,7 +2806,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -2805,7 +2817,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2849,7 +2861,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2893,7 +2905,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -2915,7 +2927,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -2959,7 +2971,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
@@ -2970,7 +2982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -2992,7 +3004,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
@@ -3003,7 +3015,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
@@ -3025,7 +3037,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3042,7 +3054,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -3119,7 +3131,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3130,7 +3142,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3141,7 +3153,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -3152,7 +3164,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
@@ -3163,7 +3175,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>233</v>
       </c>
@@ -3174,7 +3186,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
@@ -3185,7 +3197,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
@@ -3196,7 +3208,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -3218,7 +3230,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -3268,7 +3280,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>261</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
@@ -3290,7 +3302,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
@@ -3301,7 +3313,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3312,7 +3324,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3334,7 +3346,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>280</v>
       </c>
@@ -3345,7 +3357,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>281</v>
       </c>
@@ -3356,7 +3368,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
@@ -3367,7 +3379,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
@@ -3378,7 +3390,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>292</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>296</v>
       </c>
@@ -3411,7 +3423,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
@@ -3422,7 +3434,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>304</v>
       </c>
@@ -3433,7 +3445,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
@@ -3444,7 +3456,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>306</v>
       </c>
@@ -3455,7 +3467,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>314</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>316</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>320</v>
       </c>
@@ -3486,6 +3498,17 @@
       </c>
       <c r="C106" s="6" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55684D9A-9E78-4CAD-9B7A-300979D31D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD20AA1-F556-4BA7-8322-7BB39C8F42B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="331">
   <si>
     <t>id</t>
   </si>
@@ -1856,12 +1856,76 @@
     <t>US-10593683</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>BA-14379</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hello Feng,
+my name is Leila and I am thrilled to introduce you to Bosnia, an ex-Yugoslavian country in the heart of the Balkans.
+I'll start with "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ejf", a concept about savoring the moment, like enjoying a cup of coffee or a conversation with a friend, taking time to relax is a cherished tradition here.
+Jufat - a Bosnian treat, a kind of stubborn pride or defiance. It helped Bosnians persevere through challenging times.
+Deret - it conveys a deep sense of sorrow and heartache, it reflects pain, but also embodies the idea of enduring and sharing one's burden with others.     
+Veliki pozdrav iz Sarajeva</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>你好，冯，
+我叫Leila，我很高兴向你介绍波斯尼亚，这个位于巴尔干半岛中心的前南斯拉夫国家。
+我从“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ć</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ejf”开始，这是关于享受当下的概念，比如享受一杯咖啡或与朋友的谈话，放松时间在这里是珍贵的传统。
+Jufat - 一种波斯尼亚的美食，一种倔强的骄傲或反抗。它帮助波斯尼亚人在困难时期坚持下去。
+Deret - 传达深刻的悲伤和心痛，反映痛苦，同时也体现了忍耐和与他人分享重担的理念。
+来自萨拉热窝的诚挚问候</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1945,6 +2009,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2295,22 +2365,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2349,7 +2419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2360,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2371,7 +2441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2382,7 +2452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2393,7 +2463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2404,7 +2474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2415,7 +2485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2426,7 +2496,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2437,7 +2507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2448,7 +2518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2459,7 +2529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +2540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2492,7 +2562,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2503,7 +2573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2514,7 +2584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2525,7 +2595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2536,7 +2606,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2547,7 +2617,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2558,7 +2628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2569,7 +2639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2580,7 +2650,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2591,7 +2661,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2608,7 +2678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2619,7 +2689,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2630,7 +2700,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2641,7 +2711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2652,7 +2722,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2663,7 +2733,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2674,7 +2744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2685,7 +2755,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2696,7 +2766,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2707,7 +2777,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -2718,7 +2788,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2729,7 +2799,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2740,7 +2810,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2751,7 +2821,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -2762,7 +2832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -2773,7 +2843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2784,7 +2854,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -2795,7 +2865,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
@@ -2806,7 +2876,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -2817,7 +2887,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
@@ -2828,7 +2898,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -2839,7 +2909,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -2850,7 +2920,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2861,7 +2931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -2883,7 +2953,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -2894,7 +2964,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2905,7 +2975,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -2916,7 +2986,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -2927,7 +2997,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -2938,7 +3008,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -2949,7 +3019,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
@@ -2960,7 +3030,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -2971,7 +3041,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
@@ -2982,7 +3052,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -2993,7 +3063,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -3004,7 +3074,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
@@ -3015,7 +3085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
@@ -3026,7 +3096,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
@@ -3037,7 +3107,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3054,7 +3124,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -3065,7 +3135,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -3076,7 +3146,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -3087,7 +3157,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -3098,7 +3168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -3109,7 +3179,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -3120,7 +3190,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -3131,7 +3201,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3142,7 +3212,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3153,7 +3223,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -3164,7 +3234,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
@@ -3175,7 +3245,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>233</v>
       </c>
@@ -3186,7 +3256,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
@@ -3197,7 +3267,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
@@ -3208,7 +3278,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
@@ -3219,7 +3289,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -3230,7 +3300,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -3241,7 +3311,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -3258,7 +3328,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -3269,7 +3339,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -3280,7 +3350,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>261</v>
       </c>
@@ -3291,7 +3361,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
@@ -3302,7 +3372,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
@@ -3313,7 +3383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3324,7 +3394,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
@@ -3335,7 +3405,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3346,7 +3416,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>280</v>
       </c>
@@ -3357,7 +3427,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>281</v>
       </c>
@@ -3368,7 +3438,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
@@ -3379,7 +3449,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
@@ -3390,7 +3460,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>292</v>
       </c>
@@ -3401,7 +3471,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
@@ -3412,7 +3482,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>296</v>
       </c>
@@ -3423,7 +3493,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
@@ -3434,7 +3504,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>304</v>
       </c>
@@ -3445,7 +3515,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
@@ -3456,7 +3526,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>306</v>
       </c>
@@ -3467,7 +3537,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>314</v>
       </c>
@@ -3478,7 +3548,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>316</v>
       </c>
@@ -3489,7 +3559,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>320</v>
       </c>
@@ -3500,7 +3570,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>327</v>
       </c>
@@ -3509,6 +3579,17 @@
       </c>
       <c r="C107" s="6" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="319.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD20AA1-F556-4BA7-8322-7BB39C8F42B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAAD153-AA88-4035-9279-9F0220E5607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="336">
   <si>
     <t>id</t>
   </si>
@@ -1918,6 +1918,27 @@
 Deret - 传达深刻的悲伤和心痛，反映痛苦，同时也体现了忍耐和与他人分享重担的理念。
 来自萨拉热窝的诚挚问候</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>JP-2152688</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK-881204</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近很累、很困，不知道怎么样才能好好休息到 T_T。
+YY 2024</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんにちは！（konnichiwa, hello） My name is 和永（Kazue） I live in 奈良（Naha）, Japan. Nara「～～」1185, the old city where there was the capital called 平城京（Heijo-kyo）about 1300 years ago. This is 祇園祭（the Gion Festival in Kyoto），which takes place every July. Happy postcrossing! 2024.10.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好！（您好） 我的名字是和永（Kazue）我住在日本的奈良（Naha）。 那是1185年的旧城，当时有个叫平城京（Heijo-kyo）的首都大约1300年前。 这是京都的祇园祭，每年七月举行。祝你愉快！ 2024.10.23</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2037,7 +2058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2059,6 +2080,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2365,22 +2389,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2441,7 +2465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2452,7 +2476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2463,7 +2487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2485,7 +2509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2496,7 +2520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2507,7 +2531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2518,7 +2542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2529,7 +2553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2551,7 +2575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2562,7 +2586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2584,7 +2608,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2595,7 +2619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2606,7 +2630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2617,7 +2641,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2639,7 +2663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2650,7 +2674,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2678,7 +2702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2689,7 +2713,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2700,7 +2724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2711,7 +2735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2722,7 +2746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2733,7 +2757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2744,7 +2768,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2755,7 +2779,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2766,7 +2790,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2777,7 +2801,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -2788,7 +2812,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2799,7 +2823,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2821,7 +2845,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -2843,7 +2867,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2854,7 +2878,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -2865,7 +2889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
@@ -2876,7 +2900,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -2887,7 +2911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
@@ -2898,7 +2922,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -2909,7 +2933,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -2920,7 +2944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2931,7 +2955,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -2953,7 +2977,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -2964,7 +2988,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2975,7 +2999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -2986,7 +3010,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -2997,7 +3021,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -3008,7 +3032,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -3019,7 +3043,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
@@ -3030,7 +3054,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3041,7 +3065,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
@@ -3052,7 +3076,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -3063,7 +3087,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -3074,7 +3098,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
@@ -3085,7 +3109,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
@@ -3096,7 +3120,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
@@ -3107,7 +3131,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3124,7 +3148,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -3135,7 +3159,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -3146,7 +3170,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -3168,7 +3192,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -3179,7 +3203,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -3190,7 +3214,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -3201,7 +3225,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3212,7 +3236,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3223,7 +3247,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -3234,7 +3258,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
@@ -3245,7 +3269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>233</v>
       </c>
@@ -3256,7 +3280,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
@@ -3267,7 +3291,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
@@ -3278,7 +3302,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
@@ -3289,7 +3313,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -3300,7 +3324,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -3311,7 +3335,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -3328,7 +3352,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -3339,7 +3363,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -3350,7 +3374,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>261</v>
       </c>
@@ -3361,7 +3385,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
@@ -3372,7 +3396,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
@@ -3383,7 +3407,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
@@ -3405,7 +3429,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3416,7 +3440,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>280</v>
       </c>
@@ -3427,7 +3451,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>281</v>
       </c>
@@ -3438,7 +3462,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
@@ -3449,7 +3473,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
@@ -3460,7 +3484,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>292</v>
       </c>
@@ -3471,7 +3495,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
@@ -3482,7 +3506,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>296</v>
       </c>
@@ -3493,7 +3517,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
@@ -3504,7 +3528,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>304</v>
       </c>
@@ -3515,7 +3539,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
@@ -3526,7 +3550,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>306</v>
       </c>
@@ -3537,7 +3561,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>314</v>
       </c>
@@ -3548,7 +3572,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>316</v>
       </c>
@@ -3559,7 +3583,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>320</v>
       </c>
@@ -3570,7 +3594,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>327</v>
       </c>
@@ -3581,7 +3605,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="319.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="310.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>328</v>
       </c>
@@ -3590,6 +3614,28 @@
       </c>
       <c r="C108" s="6" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAAD153-AA88-4035-9279-9F0220E5607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74602BF1-939A-40BD-972F-2549942D0606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="342">
   <si>
     <t>id</t>
   </si>
@@ -1939,6 +1939,34 @@
   </si>
   <si>
     <t>你好！（您好） 我的名字是和永（Kazue）我住在日本的奈良（Naha）。 那是1185年的旧城，当时有个叫平城京（Heijo-kyo）的首都大约1300年前。 这是京都的祇园祭，每年七月举行。祝你愉快！ 2024.10.23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14747621</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14754578</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>23. Oct. 2024
+Hello Arthur,
+viele Grüße an Dich und Deine Familie - many greetings to you and your family. I'm Grit and I live in Leipzig, a large city in the east of Germany. I'm a doctor and work in a dialysis unit. All the best for you!</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年10月23日
+你好，Arthur，
+[viele Grüße an Dich und Deine Familie]——祝你和你的家人一切顺利——致以亲切的问候。我叫Grit，住在德国东部的大城市莱比锡。我是一名医生，在透析科工作。祝一切顺利！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hallo ... German Phrases! Du gehst mir auf den Keks! Literal Translation: You're walking on my cake/cookie. Meaning: You are annoying me! Happy Postcrossing. Lovely Claudine.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好... 德语短语！你真让我心烦！字面意思：你在我的蛋糕/饼干上走。意思是：你真让我心烦！愉快的明信片交换。亲爱的克劳丁。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2389,22 +2417,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2421,7 +2449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +2471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +2482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2465,7 +2493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2476,7 +2504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2487,7 +2515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2498,7 +2526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2509,7 +2537,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2520,7 +2548,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2542,7 +2570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2553,7 +2581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2564,7 +2592,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2575,7 +2603,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2586,7 +2614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2597,7 +2625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2608,7 +2636,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2619,7 +2647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2630,7 +2658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2641,7 +2669,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2652,7 +2680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2663,7 +2691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2674,7 +2702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2685,7 +2713,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2702,7 +2730,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2713,7 +2741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2724,7 +2752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2735,7 +2763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2746,7 +2774,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2757,7 +2785,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2768,7 +2796,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2779,7 +2807,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2790,7 +2818,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2801,7 +2829,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -2812,7 +2840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2823,7 +2851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2834,7 +2862,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2845,7 +2873,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -2856,7 +2884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -2867,7 +2895,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2878,7 +2906,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -2889,7 +2917,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
@@ -2900,7 +2928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -2911,7 +2939,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
@@ -2922,7 +2950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -2933,7 +2961,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -2944,7 +2972,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2955,7 +2983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -2977,7 +3005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -2988,7 +3016,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2999,7 +3027,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3010,7 +3038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -3021,7 +3049,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -3032,7 +3060,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -3043,7 +3071,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
@@ -3054,7 +3082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3065,7 +3093,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
@@ -3076,7 +3104,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -3087,7 +3115,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -3098,7 +3126,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
@@ -3109,7 +3137,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
@@ -3120,7 +3148,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
@@ -3131,7 +3159,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3148,7 +3176,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -3159,7 +3187,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -3170,7 +3198,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -3181,7 +3209,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -3192,7 +3220,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -3203,7 +3231,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -3214,7 +3242,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -3225,7 +3253,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3236,7 +3264,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3247,7 +3275,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -3258,7 +3286,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
@@ -3269,7 +3297,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>233</v>
       </c>
@@ -3280,7 +3308,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
@@ -3291,7 +3319,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
@@ -3302,7 +3330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
@@ -3313,7 +3341,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -3324,7 +3352,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -3335,7 +3363,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -3352,7 +3380,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -3363,7 +3391,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -3374,7 +3402,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>261</v>
       </c>
@@ -3385,7 +3413,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
@@ -3396,7 +3424,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
@@ -3407,7 +3435,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3418,7 +3446,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
@@ -3429,7 +3457,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3440,7 +3468,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>280</v>
       </c>
@@ -3451,7 +3479,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>281</v>
       </c>
@@ -3462,7 +3490,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
@@ -3473,7 +3501,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
@@ -3484,7 +3512,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>292</v>
       </c>
@@ -3495,7 +3523,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
@@ -3506,7 +3534,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>296</v>
       </c>
@@ -3517,7 +3545,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
@@ -3528,7 +3556,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>304</v>
       </c>
@@ -3539,7 +3567,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
@@ -3550,7 +3578,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>306</v>
       </c>
@@ -3561,7 +3589,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>314</v>
       </c>
@@ -3572,7 +3600,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>316</v>
       </c>
@@ -3583,7 +3611,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>320</v>
       </c>
@@ -3594,7 +3622,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="70" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>327</v>
       </c>
@@ -3605,7 +3633,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="310.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="319.2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>328</v>
       </c>
@@ -3616,7 +3644,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="98" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>331</v>
       </c>
@@ -3627,7 +3655,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>332</v>
       </c>
@@ -3636,6 +3664,28 @@
       </c>
       <c r="C110" s="6" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74602BF1-939A-40BD-972F-2549942D0606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86B4D9-8706-4A4E-A3D0-BC7F225966B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -1967,6 +1967,26 @@
   </si>
   <si>
     <t>你好... 德语短语！你真让我心烦！字面意思：你在我的蛋糕/饼干上走。意思是：你真让我心烦！愉快的明信片交换。亲爱的克劳丁。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10842005</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday October 21, 2024
+Arthur and Xiaoxiao,
+Greetings from south west Wisconsin, USA.
+We are enjoying warm days although it is Autumn. The leaves are changing color.        
+Merlin AKA xenop</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年10月21日星期一
+Arthur和笑笑，
+来自美国西南威斯康辛的问候。
+尽管现在是秋天，我们还是享受着温暖的日子。树叶正在变色。
+梅林，又名泽诺普</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2417,22 +2437,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C111" sqref="C111"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2471,7 +2491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2493,7 +2513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -2504,7 +2524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2515,7 +2535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2526,7 +2546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2537,7 +2557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2548,7 +2568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2559,7 +2579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2570,7 +2590,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -2581,7 +2601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -2592,7 +2612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -2603,7 +2623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
@@ -2614,7 +2634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>53</v>
       </c>
@@ -2636,7 +2656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -2647,7 +2667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2658,7 +2678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2669,7 +2689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2680,7 +2700,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -2691,7 +2711,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -2702,7 +2722,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2713,7 +2733,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2730,7 +2750,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2741,7 +2761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2752,7 +2772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -2763,7 +2783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -2774,7 +2794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2785,7 +2805,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2796,7 +2816,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -2807,7 +2827,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -2818,7 +2838,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -2829,7 +2849,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>106</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
@@ -2851,7 +2871,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -2862,7 +2882,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
@@ -2873,7 +2893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>118</v>
       </c>
@@ -2884,7 +2904,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -2895,7 +2915,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -2906,7 +2926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -2917,7 +2937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>130</v>
       </c>
@@ -2928,7 +2948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>133</v>
       </c>
@@ -2939,7 +2959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>136</v>
       </c>
@@ -2950,7 +2970,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>139</v>
       </c>
@@ -2961,7 +2981,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>142</v>
       </c>
@@ -2972,7 +2992,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>145</v>
       </c>
@@ -2983,7 +3003,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -3005,7 +3025,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -3016,7 +3036,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -3027,7 +3047,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3038,7 +3058,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -3049,7 +3069,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -3060,7 +3080,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -3071,7 +3091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
@@ -3082,7 +3102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>175</v>
       </c>
@@ -3093,7 +3113,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>181</v>
       </c>
@@ -3115,7 +3135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -3126,7 +3146,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
@@ -3137,7 +3157,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>190</v>
       </c>
@@ -3148,7 +3168,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>193</v>
       </c>
@@ -3159,7 +3179,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>196</v>
       </c>
@@ -3176,7 +3196,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>201</v>
       </c>
@@ -3187,7 +3207,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -3198,7 +3218,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -3209,7 +3229,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -3220,7 +3240,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -3231,7 +3251,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -3242,7 +3262,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -3253,7 +3273,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -3264,7 +3284,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -3275,7 +3295,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -3286,7 +3306,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
@@ -3297,7 +3317,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>233</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>236</v>
       </c>
@@ -3319,7 +3339,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>239</v>
       </c>
@@ -3330,7 +3350,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>242</v>
       </c>
@@ -3341,7 +3361,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>245</v>
       </c>
@@ -3352,7 +3372,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>248</v>
       </c>
@@ -3363,7 +3383,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>251</v>
       </c>
@@ -3380,7 +3400,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -3391,7 +3411,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -3402,7 +3422,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>261</v>
       </c>
@@ -3413,7 +3433,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>264</v>
       </c>
@@ -3424,7 +3444,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>267</v>
       </c>
@@ -3435,7 +3455,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3446,7 +3466,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>274</v>
       </c>
@@ -3457,7 +3477,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3468,7 +3488,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>280</v>
       </c>
@@ -3479,7 +3499,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>281</v>
       </c>
@@ -3490,7 +3510,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>282</v>
       </c>
@@ -3501,7 +3521,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>289</v>
       </c>
@@ -3512,7 +3532,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>292</v>
       </c>
@@ -3523,7 +3543,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>295</v>
       </c>
@@ -3534,7 +3554,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>296</v>
       </c>
@@ -3545,7 +3565,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>301</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>304</v>
       </c>
@@ -3567,7 +3587,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>305</v>
       </c>
@@ -3578,7 +3598,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>306</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>314</v>
       </c>
@@ -3600,7 +3620,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>316</v>
       </c>
@@ -3611,7 +3631,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>320</v>
       </c>
@@ -3622,7 +3642,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="70" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>327</v>
       </c>
@@ -3633,7 +3653,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="319.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="310.5" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>328</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>331</v>
       </c>
@@ -3655,7 +3675,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>332</v>
       </c>
@@ -3666,7 +3686,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>336</v>
       </c>
@@ -3677,7 +3697,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="98" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>337</v>
       </c>
@@ -3686,6 +3706,17 @@
       </c>
       <c r="C112" s="6" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="140" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86B4D9-8706-4A4E-A3D0-BC7F225966B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="354">
   <si>
     <t>id</t>
   </si>
@@ -407,7 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Hello from Ukraine!
 Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
@@ -460,7 +454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>来自乌克兰的你好！
 在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
@@ -500,7 +494,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -614,10 +608,141 @@
     <t>LT-913966</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20 $\frac {x}{17}$ 23 +4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌥️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Good day! Siyuan
+Warm greetings from far Lietuva. Hope You'll like both my cards and something one :)
+Take care
+Gintaras</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20 $\frac {x}{17}$ 23 +4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Segoe UI Emoji"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">🌥️
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祝你愉快的一天！Siyuan
+来自遥远的立陶宛的热情问候。希望你喜欢我寄来的两张明信片，还有一些小礼物 :)
+保重
+Gintaras</t>
+    </r>
+  </si>
+  <si>
     <t>HK-846298</t>
   </si>
   <si>
     <t>你的女兒很可愛！ 我找到這張粉紅色的貓貓postcard，閃閃的，希望她會喜歡！ 祝聖誕快樂！ 新年進步！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你的女儿很可爱！我找到这张粉红色的猫猫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>postcard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，闪闪的，希望她会喜欢！祝圣诞快乐！新年进步！</t>
+    </r>
   </si>
   <si>
     <t>NL-5628599</t>
@@ -1287,6 +1412,12 @@
   </si>
   <si>
     <t>US-10415575</t>
+  </si>
+  <si>
+    <t>Hello Feng,
+I am Vidhya from India I live in USA now. How is Xiao?
+She is cute. Have you tried any Indian cuisines?
+Have a great day.</t>
   </si>
   <si>
     <t>你好，Feng，
@@ -1383,11 +1514,7 @@
     <t>亲爱的阿瑟，这张明信片来自德国北部。我喜欢书籍和运动，我是红十字会的志愿者。这很有趣！来自欧洲的问候，英格</t>
   </si>
   <si>
-    <t>Hello Feng,
-I am Vidhya from India I live in USA now. How is Xiao?
-She is cute. Have you tried any Indian cuisines?
-Have a great day.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>FI-4642929</t>
   </si>
   <si>
     <t>7th July 2024
@@ -1395,11 +1522,6 @@
 My name is Paula and hometown Lahti. We have one dog called Roxy. He is a basenji 13 years old. He is at home with my husband ’cause I’m with our daughter at her cottage with two of her dogs.
 All the best to you!
 Paula</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FI-4642929</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2024年7月7日
@@ -1407,56 +1529,56 @@
 我叫Paula，家乡是Lahti。我们有一只叫Roxy的狗。他是一只13岁的巴仙吉犬。他和我丈夫待在家里，因为我和我们的女儿在她的小屋里和她的两只狗在一起。
 祝你一切顺利！
 Paula</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FI-4642961</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hello!
 My name is Minna and I live in small town called Kauhajoki. There is about 13000 inhabitants, but I like live here.
 I like reading and listening to music. Also I collect stamps and Garfield and cow-cards. I like animals very much, especially cats.
 Happy postcrossing! Minna</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>你好！
 我的名字是Minna，我住在一个名叫Kauhajoki的小镇。这里大约有13000名居民，但我喜欢住在这里。
 我喜欢阅读和听音乐。我也收藏邮票和加菲猫及奶牛卡片。我非常喜欢动物，特别是猫。
 祝你玩得开心！ Minna</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14374200</t>
   </si>
   <si>
     <t>Hey,
 how is life? Mine is exciting because of a job change. Today it's runing in Wuppertal. Yesterday it was sunny and I lied at the Wupper River in Wuppertal.
 Have a good sunny day!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>嗨，
 生活如何？我的生活因为换工作而充满了兴奋。今天在伍珀塔尔下雨。昨天阳光明媚，我躺在伍珀河边。
 祝你有阳光灿烂的一天！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE-14374200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>US-10584950</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello Arthur, Greetings from the USA. Your daughter is so cute. Where I live we make more RV's (travel trailers-motorhomes) than anywhere else in the world. I hope you are having a great 2024. Prayers for your health and happiness. In friendship, Valerie</t>
+  </si>
+  <si>
+    <t>你好，阿瑟，来自美国的问候。你的女儿真可爱。我住的地方制造了更多的RV（旅行拖车-房车），比世界上任何其他地方都多。我希望你有一个愉快的2024年。为你的健康和幸福祈祷 。友谊长存，瓦莱丽</t>
   </si>
   <si>
     <t>LT-945721</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>US-10529701</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">hello! I hope you are doing great! I love this card, I got it in a set of 10 and it's been so difficult to send them all out. It's been 4 years since I got them :D I always make the same mistake of getting a set of cards and then struggling to send them out. You know how you don't like some of the cards in the set :D Best wishes </t>
     </r>
     <r>
@@ -1464,7 +1586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1478,10 +1600,16 @@
       </rPr>
       <t xml:space="preserve"> deimante</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">你好！ 我希望你过得很好！我喜欢这张卡片，我在一套10张中得到了它，很难全部寄出去。我得到它们已经4年了:D我总是犯同样的错误，买了一套卡片然后挣扎着寄出去。你知道你不喜欢这套中的一些卡片:D 祝好 </t>
     </r>
     <r>
@@ -1489,7 +1617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1503,81 +1631,67 @@
       </rPr>
       <t xml:space="preserve"> 赛曼特</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10529701</t>
   </si>
   <si>
     <t>Hello from hot and sunny New Mexico, USA. I like living in the American Southwest. We moved from Arizona, where this animal park is located. It's fantastic! It is also near the Grand Canyon, which I have seen several times. We're going on holiday to Canada in October. GARCI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>来自炎热而阳光明媚的新墨西哥，美国。 我喜欢住在美国的西南部。 我们从亚利桑那州搬来了，这个动物园就在那里。 这很棒！ 它也靠近大峡谷，我已经去过几次了。 我们计划十 月份去加拿大度假。 GARCI</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello Arthur, Greetings from the USA. Your daughter is so cute. Where I live we make more RV's (travel trailers-motorhomes) than anywhere else in the world. I hope you are having a great 2024. Prayers for your health and happiness. In friendship, Valerie</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，阿瑟，来自美国的问候。你的女儿真可爱。我住的地方制造了更多的RV（旅行拖车-房车），比世界上任何其他地方都多。我希望你有一个愉快的2024年。为你的健康和幸福祈祷 。友谊长存，瓦莱丽</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FI-4654970</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hello Arthur, I am Jussi from Helsinki, Finland. I am working in the hotel industry and will retire in the end of next year. I love gardening at my country cabin, hunting mushrooms, visiting museums, eating out and travelling. My husband turns 60 on August 25th. We are going to celebrate his birthday in Torrevieja, Spain. Peace &amp; Love, Jussi.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>你好，Arthur，我是来自芬兰赫尔辛基的Jussi。我在酒店业工作，计划在明年年底退休。我喜欢在乡下的小屋里园艺、采蘑菇、参观博物馆、外出就餐和旅行。我的丈夫将在8月25日满60岁。我们将去西班牙托雷维耶哈庆祝他的生日。和平与爱，Jussi。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>US-10584951</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Greetings from Boston! We have visited Beijing and loved it. I hope Xiaoxiao enjoys the Sesame Street stamps. Warm Wishes,
 Sarah</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>来自波士顿的问候！我们参观了北京并喜欢那里。希望笑笑喜欢芝麻街的邮票。温暖的祝福,
 Sarah</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DE-14443316</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello, this card comes from Southern Germany. The castle was built in the 19th century by a crazy king who wanted to escape into a fairy tales world. Today one of the most visited place in our country. Best wishes, Patrick 26. July 30°C</t>
+  </si>
+  <si>
+    <t>你好，这张明信片来自德国南部。这座城堡建于19世纪，由一位希望逃入童话世界的疯狂国王所建造。如今，它是我国访问量最大的地方之一。最美好的祝愿，帕特里克 7 月26日</t>
   </si>
   <si>
     <t>RU-10168180</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello, this card comes from Southern Germany. The castle was built in the 19th century by a crazy king who wanted to escape into a fairy tales world. Today one of the most visited place in our country. Best wishes, Patrick 26. July 30°C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，这张明信片来自德国南部。这座城堡建于19世纪，由一位希望逃入童话世界的疯狂国王所建造。如今，它是我国访问量最大的地方之一。最美好的祝愿，帕特里克 7 月26日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Hello, Arthur! Greetings from Russia. I live in Moscow, but recently I spend my holidays in Crimea, in Sevastopol (Black Sea, Russia)—it's a beautiful place. Welcome to Russia! Russia is grateful to China for the support in this difficult time. Best wishes, Andrey</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>你好，Arthur！来自俄罗斯的问候。我住在莫斯科，但最近我在克里米亚的塞瓦斯托波尔（黑海，俄罗斯）度假，这里是一个美丽的地方。欢迎来俄罗斯！俄罗斯感谢中国
 在这困难时刻的支持。最好的祝愿，Andrey</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DE-14475272</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">7.8.24 </t>
     </r>
     <r>
@@ -1585,7 +1699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1594,7 +1708,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1602,10 +1715,16 @@
 Hello Arthur, my name is Lothar and I come from Wuppertal, a town of 360,000 inhabitants. It is situated in a green area with several dams and well known for the suspension railway and Friedrich Engels.
 Best wishes, HEPHAN</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">7.8.24 </t>
     </r>
     <r>
@@ -1613,7 +1732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1630,39 +1749,9 @@
 闻名。
 祝好，HEPHAN</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SE-237946</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE-14501760</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE-14440000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello Arthur, warm greeting from southern germany. Your daughter is very cute. Does she know peppa pig. all the best, PIA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，Arthur，来自德国南部的温暖问候。你女儿非常可爱。她认识佩奇吗？祝好，皮雅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>My name is Holger. I'm a teacher of mathematics and ethics, married, father of two sons. We live in a 172 years old house with our own library.
-Best Wishes! 
-Herzlich Grüße! Holger</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>我叫 Holger。我是一名数学和伦理学老师，已婚，有两个儿子。我们住在一栋有 172 年历史的房子里，有自己的图书馆。
-祝一切顺利！
-致以最诚挚的问候！Holger</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Stockholm 20240808
@@ -1672,7 +1761,6 @@
 Never been to China, But I should like to go
 Greetings
 Gunnar</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>斯德哥尔摩 20240808
@@ -1682,186 +1770,77 @@
 从未去过中国，但我很想去
 问候
 Gunnar</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14501760</t>
+  </si>
+  <si>
+    <t>My name is Holger. I'm a teacher of mathematics and ethics, married, father of two sons. We live in a 172 years old house with our own library.
+Best Wishes! 
+Herzlich Grüße! Holger</t>
+  </si>
+  <si>
+    <t>我叫 Holger。我是一名数学和伦理学老师，已婚，有两个儿子。我们住在一栋有 172 年历史的房子里，有自己的图书馆。
+祝一切顺利！
+致以最诚挚的问候！Holger</t>
+  </si>
+  <si>
+    <t>DE-14440000</t>
+  </si>
+  <si>
+    <t>hello Arthur, warm greeting from southern germany. Your daughter is very cute. Does she know peppa pig. all the best, PIA</t>
+  </si>
+  <si>
+    <t>你好，Arthur，来自德国南部的温暖问候。你女儿非常可爱。她认识佩奇吗？祝好，皮雅</t>
+  </si>
+  <si>
+    <t>ES-808083</t>
   </si>
   <si>
     <t>Hi Arthur! I am Jaime from Bilbao, North Spain. I selected this card thinking about your nice boy Xiaoxiao. Hope you enjoy. All the best for your great family, Jaime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES-808083</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>嗨，亚瑟！我是来自西班牙北部毕尔巴鄂的海梅。我选择了这张卡片，想着你可爱的儿子笑笑。希望你喜欢。祝你和你伟大的家庭一切顺利，海梅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>RU-10208779</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Big hello from Moscow, I just got here from my trip to Rwanda and Egypt, bought this postcard in a local store in Cairo. I think it is cute and also has cool lenticular eyes. My niece turned 1 y.o. three weeks ago. Time passes by so quickly but that's okay. It is part of life.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>来自莫斯科的问候，我刚从埃及和卢旺达的旅行回来，在开罗的一个本地商店买了这张明信片。我觉得它很可爱，还有很酷的透镜眼。我的侄女在三周前刚满一岁。时间过得真快，但这没关系。这是生活的一部分。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10662757</t>
   </si>
   <si>
     <t>Hello Feng. My name is Annette. Greetings from San Antonio, Texas, USA. 26 August 2024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>US-10662757</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>你好冯。我叫安妮特。来自美国德克萨斯州圣安东尼奥的问候。2024年8月26日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20 $\frac {x}{17}$ 23 +4</t>
-    </r>
+  </si>
+  <si>
+    <t>US-10593683</t>
+  </si>
+  <si>
+    <t>Hello from Georgia! My name is Dani and I live on a small farm in Georgia south of Atlanta. Atlanta is the home of the world's busiest airport and was the birth city of Coke-a-Cola. I hope your daughter likes the cat and horses. Peace + Smiles :)</t>
+  </si>
+  <si>
+    <t>来自乔治亚州的问候！我叫Dani，我住在乔治亚州亚特兰大南部的一个农场。亚特兰大是世界上最繁忙的机场的所在地，并且是可口可乐的诞生城市。我希望你的女儿喜欢猫和马。和平与微笑 :)</t>
+  </si>
+  <si>
+    <t>BA-14379</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">🌥️
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Good day! Siyuan
-Warm greetings from far Lietuva. Hope You'll like both my cards and something one :)
-Take care
-Gintaras</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20 $\frac {x}{17}$ 23 +4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">🌥️
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>祝你愉快的一天！Siyuan
-来自遥远的立陶宛的热情问候。希望你喜欢我寄来的两张明信片，还有一些小礼物 :)
-保重
-Gintaras</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>你的女儿很可爱！我找到这张粉红色的猫猫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>postcard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，闪闪的，希望她会喜欢！祝圣诞快乐！新年进步！</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello from Georgia! My name is Dani and I live on a small farm in Georgia south of Atlanta. Atlanta is the home of the world's busiest airport and was the birth city of Coke-a-Cola. I hope your daughter likes the cat and horses. Peace + Smiles :)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自乔治亚州的问候！我叫Dani，我住在乔治亚州亚特兰大南部的一个农场。亚特兰大是世界上最繁忙的机场的所在地，并且是可口可乐的诞生城市。我希望你的女儿喜欢猫和马。和平与微笑 :)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>US-10593683</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BA-14379</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Hello Feng,
 my name is Leila and I am thrilled to introduce you to Bosnia, an ex-Yugoslavian country in the heart of the Balkans.
 I'll start with "</t>
@@ -1871,7 +1850,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -1888,10 +1867,16 @@
 Deret - it conveys a deep sense of sorrow and heartache, it reflects pain, but also embodies the idea of enduring and sharing one's burden with others.     
 Veliki pozdrav iz Sarajeva</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你好，冯，
 我叫Leila，我很高兴向你介绍波斯尼亚，这个位于巴尔干半岛中心的前南斯拉夫国家。
 我从“</t>
@@ -1901,7 +1886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -1918,60 +1903,47 @@
 Deret - 传达深刻的悲伤和心痛，反映痛苦，同时也体现了忍耐和与他人分享重担的理念。
 来自萨拉热窝的诚挚问候</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>JP-2152688</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんにちは！（konnichiwa, hello） My name is 和永（Kazue） I live in 奈良（Naha）, Japan. Nara「～～」1185, the old city where there was the capital called 平城京（Heijo-kyo）about 1300 years ago. This is 祇園祭（the Gion Festival in Kyoto），which takes place every July. Happy postcrossing! 2024.10.23</t>
+  </si>
+  <si>
+    <t>你好！（您好） 我的名字是和永（Kazue）我住在日本的奈良（Naha）。 那是1185年的旧城，当时有个叫平城京（Heijo-kyo）的首都大约1300年前。 这是京都的祇园祭，每年七月举行。祝你愉快！ 2024.10.23</t>
   </si>
   <si>
     <t>HK-881204</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最近很累、很困，不知道怎么样才能好好休息到 T_T。
 YY 2024</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>こんにちは！（konnichiwa, hello） My name is 和永（Kazue） I live in 奈良（Naha）, Japan. Nara「～～」1185, the old city where there was the capital called 平城京（Heijo-kyo）about 1300 years ago. This is 祇園祭（the Gion Festival in Kyoto），which takes place every July. Happy postcrossing! 2024.10.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好！（您好） 我的名字是和永（Kazue）我住在日本的奈良（Naha）。 那是1185年的旧城，当时有个叫平城京（Heijo-kyo）的首都大约1300年前。 这是京都的祇园祭，每年七月举行。祝你愉快！ 2024.10.23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DE-14747621</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hallo ... German Phrases! Du gehst mir auf den Keks! Literal Translation: You're walking on my cake/cookie. Meaning: You are annoying me! Happy Postcrossing. Lovely Claudine.</t>
+  </si>
+  <si>
+    <t>你好... 德语短语！你真让我心烦！字面意思：你在我的蛋糕/饼干上走。意思是：你真让我心烦！愉快的明信片交换。亲爱的克劳丁。</t>
   </si>
   <si>
     <t>DE-14754578</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>23. Oct. 2024
 Hello Arthur,
 viele Grüße an Dich und Deine Familie - many greetings to you and your family. I'm Grit and I live in Leipzig, a large city in the east of Germany. I'm a doctor and work in a dialysis unit. All the best for you!</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2024年10月23日
 你好，Arthur，
 [viele Grüße an Dich und Deine Familie]——祝你和你的家人一切顺利——致以亲切的问候。我叫Grit，住在德国东部的大城市莱比锡。我是一名医生，在透析科工作。祝一切顺利！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hallo ... German Phrases! Du gehst mir auf den Keks! Literal Translation: You're walking on my cake/cookie. Meaning: You are annoying me! Happy Postcrossing. Lovely Claudine.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好... 德语短语！你真让我心烦！字面意思：你在我的蛋糕/饼干上走。意思是：你真让我心烦！愉快的明信片交换。亲爱的克劳丁。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>US-10842005</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Monday October 21, 2024
@@ -1979,7 +1951,6 @@
 Greetings from south west Wisconsin, USA.
 We are enjoying warm days although it is Autumn. The leaves are changing color.        
 Merlin AKA xenop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2024年10月21日星期一
@@ -1987,14 +1958,55 @@
 来自美国西南威斯康辛的问候。
 尽管现在是秋天，我们还是享受着温暖的日子。树叶正在变色。
 梅林，又名泽诺普</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>US-10847318</t>
+  </si>
+  <si>
+    <t>Hi Arthur! I'm Matt from Arizona. I love coffee. My favorite coffee is from Philz, a company in California. Best wishes! Matt</t>
+  </si>
+  <si>
+    <t>嗨，Arthur！我是来自亚利桑那州 的Matt。我喜欢咖啡。我最喜欢的咖啡来自加州的一家公司Philz。祝好！Matt</t>
+  </si>
+  <si>
+    <t>US-10847283</t>
+  </si>
+  <si>
+    <t>Dear Feng,
+I love all the national parks in the US and California has the most.
+Sending you best wishes from La La Land.
+Cheers!
+Cardiffgal</t>
+  </si>
+  <si>
+    <t>亲爱的冯，
+我爱美国所有的国家公园，而加州的国家公园是我最喜欢的。
+向你致以来自洛杉矶的最诚挚祝福。
+干杯！
+卡迪夫加尔</t>
+  </si>
+  <si>
+    <t>RU-10292586</t>
+  </si>
+  <si>
+    <t>Hello Arthur and Xiaoxiao!♡ My name is Nastya. Warm greetings from Russia! I have a son, he's 2 y.o. now. His favorite animal now is an elephant :) On the back is an inscription: "the world breathes love".♡ Let your home be full of love and comfort!♡ All the best, Nastya, Voronezh, Russia.</t>
+  </si>
+  <si>
+    <t>你好，Arthur和笑笑！♡ 我的名字是Nastya。来自俄罗斯的温
+暖问候！我有一个儿子，他现在2岁了。他现在最喜欢的动物是大象 :) 背面有一段铭文：“世界呼吸着爱”。♡ 愿你的家充满爱和安慰！♡ 祝一切顺利， Nastya，俄罗斯沃罗涅日。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2006,7 +2018,188 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2016,85 +2209,218 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2102,48 +2428,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2428,32 +3037,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5454545454545" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2462,15 +3071,15 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2480,8 +3089,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2491,8 +3100,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2502,8 +3111,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2513,8 +3122,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="1" customFormat="1" ht="94.25" customHeight="1" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2524,8 +3133,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2535,8 +3144,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2546,8 +3155,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2557,8 +3166,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2568,8 +3177,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2579,8 +3188,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2590,8 +3199,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2601,8 +3210,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2612,8 +3221,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2623,8 +3232,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+    <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2634,8 +3243,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+    <row r="17" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2645,8 +3254,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+    <row r="18" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2656,8 +3265,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+    <row r="19" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2667,8 +3276,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2678,8 +3287,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+    <row r="21" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2689,8 +3298,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="22" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2700,8 +3309,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="23" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2711,8 +3320,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2722,8 +3331,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+    <row r="25" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2733,8 +3342,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
+      <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2743,15 +3352,15 @@
       <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="27" s="1" customFormat="1" ht="58.25" customHeight="1" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2761,8 +3370,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2772,8 +3381,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="29" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2783,8 +3392,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2794,8 +3403,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="31" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2805,8 +3414,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -2816,8 +3425,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="33" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -2827,900 +3436,933 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="34" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" ht="70" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" ht="98" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" ht="112" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" ht="70" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" ht="98" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" ht="70" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" ht="350" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" ht="168" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" ht="70" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" ht="98" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" ht="126" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" ht="140" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" ht="56" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" ht="409.5" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" ht="126" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" ht="98" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" ht="154" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" ht="56" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" ht="42" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" ht="98" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" ht="98" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" ht="70" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" ht="70" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" ht="42" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" ht="28" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" ht="224" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" ht="56" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" ht="98" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" ht="70" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" ht="154" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" ht="28" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" ht="182" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" ht="364" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" ht="112" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" ht="56" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" ht="84" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" ht="56" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" ht="112" spans="1:3">
+      <c r="A90" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" ht="112" spans="1:3">
+      <c r="A91" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" ht="84" spans="1:3">
+      <c r="A92" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="93" ht="84" spans="1:3">
+      <c r="A93" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="94" ht="100.5" spans="1:3">
+      <c r="A94" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" ht="84" spans="1:3">
+      <c r="A95" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" ht="98" spans="1:3">
+      <c r="A96" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" ht="56" spans="1:3">
+      <c r="A97" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" ht="70" spans="1:3">
+      <c r="A98" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" ht="84" spans="1:3">
+      <c r="A99" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" ht="100.5" spans="1:3">
+      <c r="A100" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" ht="98" spans="1:3">
+      <c r="A101" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" ht="70" spans="1:3">
+      <c r="A102" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" ht="42" spans="1:3">
+      <c r="A103" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" ht="56" spans="1:3">
+      <c r="A104" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="105" ht="84" spans="1:3">
+      <c r="A105" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" ht="28" spans="1:3">
+      <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="B106" s="5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="112" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="350" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="168" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="126" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="154" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="70" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="70" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="224" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="70" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="154" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="28" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="182" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="364" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="56" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="112" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="84" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="98" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="100.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="42" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="84" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="70" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="107" ht="70" spans="1:3">
+      <c r="A107" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="310.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+    </row>
+    <row r="108" ht="282.5" spans="1:3">
+      <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+    <row r="109" ht="98" spans="1:3">
+      <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="110" ht="28" spans="1:3">
+      <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="56" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
+      <c r="C110" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" ht="56" spans="1:3">
+      <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" ht="98" spans="1:3">
+      <c r="A112" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C112" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="98" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="140" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+    <row r="113" ht="84" spans="1:3">
+      <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>344</v>
       </c>
     </row>
+    <row r="114" ht="42" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" ht="84" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="116" ht="84" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="359">
   <si>
     <t>id</t>
   </si>
@@ -1995,6 +1995,32 @@
     <t>你好，Arthur和笑笑！♡ 我的名字是Nastya。来自俄罗斯的温
 暖问候！我有一个儿子，他现在2岁了。他现在最喜欢的动物是大象 :) 背面有一段铭文：“世界呼吸着爱”。♡ 愿你的家充满爱和安慰！♡ 祝一切顺利， Nastya，俄罗斯沃罗涅日。</t>
   </si>
+  <si>
+    <t>CN-3893939</t>
+  </si>
+  <si>
+    <t>友友好！请查收来自中大的明信片。 我叫霜仙，是在穗厦门人，我现在在中山大学读博。寒暑假才会回去，这是我拍的厦门后田海滩，我把它做成明信片送给你。背面是我设计的。希望你喜欢。
+    中大今年一百周年校庆非常隆重。第三校歌《快来报中大》太燃了，还有广寒宫的歌舞也很美！欢迎友友来中大
+2024.11.22</t>
+  </si>
+  <si>
+    <t>US-10877429</t>
+  </si>
+  <si>
+    <t>Original Text:
+ November 3, 2024
+Hello Arthur and Xiaoxiao and mama!
+Greetings from Washington State USA.
+I think this card is very cute, I hope you like it! Best wishes to you! 😊
+☮Archelle</t>
+  </si>
+  <si>
+    <t>2024年11月3日
+你好，Arthur、笑笑，还有妈妈！
+来自美国华盛顿州的问候。
+我觉得这张卡片很可爱，希望你喜欢！祝你一切顺利！😊
+☮Archelle</t>
+  </si>
 </sst>
 </file>
 
@@ -2006,7 +2032,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,13 +2045,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2174,13 +2193,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2197,7 +2210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
@@ -2209,14 +2222,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2544,133 +2551,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2688,13 +2695,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3045,20 +3052,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1851851851852" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4537037037037" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.0925925925926" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5462962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
@@ -3645,7 +3652,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" ht="72" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -3656,7 +3663,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" ht="100.8" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -3667,7 +3674,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" ht="115.2" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3678,7 +3685,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" ht="72" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -3689,7 +3696,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" ht="100.8" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" ht="72" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -3711,7 +3718,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="350" spans="1:3">
+    <row r="59" ht="360" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -3722,7 +3729,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="168" spans="1:3">
+    <row r="60" ht="172.8" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -3733,7 +3740,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
+    <row r="61" ht="72" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3744,7 +3751,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="98" spans="1:3">
+    <row r="62" ht="100.8" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3755,7 +3762,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="126" spans="1:3">
+    <row r="63" ht="129.6" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3766,7 +3773,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" ht="144" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -3777,7 +3784,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:3">
+    <row r="65" ht="57.6" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -3805,7 +3812,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="126" spans="1:3">
+    <row r="67" ht="129.6" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3816,7 +3823,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" ht="100.8" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -3827,7 +3834,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="154" spans="1:3">
+    <row r="69" ht="158.4" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="56" spans="1:3">
+    <row r="70" ht="57.6" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -3849,7 +3856,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="42" spans="1:3">
+    <row r="71" ht="43.2" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="98" spans="1:3">
+    <row r="72" ht="100.8" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -3871,7 +3878,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="98" spans="1:3">
+    <row r="73" ht="100.8" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3882,7 +3889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="70" spans="1:3">
+    <row r="74" ht="72" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -3893,7 +3900,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="70" spans="1:3">
+    <row r="75" ht="72" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -3904,7 +3911,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="42" spans="1:3">
+    <row r="76" ht="43.2" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:3">
+    <row r="77" ht="28.8" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="224" spans="1:3">
+    <row r="78" ht="230.4" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -3937,7 +3944,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="56" spans="1:3">
+    <row r="79" ht="57.6" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="98" spans="1:3">
+    <row r="80" ht="100.8" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3959,7 +3966,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="70" spans="1:3">
+    <row r="81" ht="72" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3970,7 +3977,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="154" spans="1:3">
+    <row r="82" ht="158.4" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3981,7 +3988,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:3">
+    <row r="83" ht="28.8" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3992,7 +3999,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="182" spans="1:5">
+    <row r="84" ht="187.2" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4009,7 +4016,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="364" spans="1:3">
+    <row r="85" ht="374.4" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4020,7 +4027,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="112" spans="1:3">
+    <row r="86" ht="115.2" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4031,7 +4038,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="56" spans="1:3">
+    <row r="87" ht="57.6" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4042,7 +4049,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="84" spans="1:3">
+    <row r="88" ht="86.4" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="56" spans="1:3">
+    <row r="89" ht="57.6" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4064,7 +4071,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="112" spans="1:3">
+    <row r="90" ht="115.2" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4075,7 +4082,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="112" spans="1:3">
+    <row r="91" ht="115.2" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4086,7 +4093,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="84" spans="1:3">
+    <row r="92" ht="86.4" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="84" spans="1:3">
+    <row r="93" ht="86.4" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="100.5" spans="1:3">
+    <row r="94" ht="103.2" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4119,7 +4126,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="84" spans="1:3">
+    <row r="95" ht="86.4" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4130,7 +4137,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="98" spans="1:3">
+    <row r="96" ht="100.8" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4141,7 +4148,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="56" spans="1:3">
+    <row r="97" ht="57.6" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4152,7 +4159,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="70" spans="1:3">
+    <row r="98" ht="72" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4163,7 +4170,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="84" spans="1:3">
+    <row r="99" ht="86.4" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4174,7 +4181,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="100.5" spans="1:3">
+    <row r="100" ht="102" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4185,7 +4192,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="98" spans="1:3">
+    <row r="101" ht="100.8" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="70" spans="1:3">
+    <row r="102" ht="72" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4207,7 +4214,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="42" spans="1:3">
+    <row r="103" ht="43.2" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4218,7 +4225,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="56" spans="1:3">
+    <row r="104" ht="57.6" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4229,7 +4236,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="84" spans="1:3">
+    <row r="105" ht="86.4" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="28" spans="1:3">
+    <row r="106" ht="28.8" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4251,7 +4258,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="70" spans="1:3">
+    <row r="107" ht="72" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4262,7 +4269,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="282.5" spans="1:3">
+    <row r="108" ht="290.4" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4273,7 +4280,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="98" spans="1:3">
+    <row r="109" ht="100.8" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4284,7 +4291,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:3">
+    <row r="110" ht="28.8" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="56" spans="1:3">
+    <row r="111" ht="57.6" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4306,7 +4313,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="98" spans="1:3">
+    <row r="112" ht="100.8" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4317,7 +4324,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="84" spans="1:3">
+    <row r="113" ht="86.4" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4328,7 +4335,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="42" spans="1:3">
+    <row r="114" ht="43.2" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4339,7 +4346,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="84" spans="1:3">
+    <row r="115" ht="86.4" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4350,7 +4357,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="84" spans="1:3">
+    <row r="116" ht="86.4" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4359,6 +4366,28 @@
       </c>
       <c r="C116" s="2" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="117" ht="115.2" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="118" ht="100.8" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="365">
   <si>
     <t>id</t>
   </si>
@@ -2020,6 +2020,42 @@
 来自美国华盛顿州的问候。
 我觉得这张卡片很可爱，希望你喜欢！祝你一切顺利！😊
 ☮Archelle</t>
+  </si>
+  <si>
+    <t>LU-115905</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+Postcards are a beautiful way to connect people and cultures. I find it fascinating how Luxembourg and China have built a strong relationship over the years, especially in trade and culture. Here in Luxembourg, we have a vibrant Chinese restaurant scene, and we love enjoying Chinese cuisine!
+I truly believe we should leave a better world for our children, and it's inspiring to see how Postcrossing fosters these connections.
+I hope this postcard brings a smile to you and Xiaoxiao! 😊   
+Best wishes,
+Laurent</t>
+  </si>
+  <si>
+    <t>你好 Arthur，
+明信片是一种连接人们和文化的美好方式。我觉得卢森堡与中国多年来在贸易 和文化上的紧密关系非常有趣。在卢森堡，我们有很多充满活力的中餐馆，我 们非常喜欢享受中国美食！
+我真心相信我们应该为我们的孩子留下一个更美好的世界，看到Postcrossing 如何促进这些联系令人鼓舞。
+希望这张明信片能给你和笑笑带来微笑😊
+最好的祝愿，
+Laurent</t>
+  </si>
+  <si>
+    <t>AT-759553</t>
+  </si>
+  <si>
+    <t>October 21, 2024
+Hello Arthur!
+My name is Jutta. I live in Vienna, Austria, Europe, in an apartment with a small balcony. There I often get visits from nice birds, butterflies, bees, bats, and cute squirrels. Ich wünsche Dir und Deiner Familie Freude und Gesundheit.
+Viele liebe Grüße,
+Jutta</t>
+  </si>
+  <si>
+    <t>你好，Arthur！
+我叫尤塔。我住在奥地利维也纳的一个小阳台公寓里。那里经常有可爱的鸟、蝴蝶、蜜蜂、蝙蝠和可爱的松鼠来拜访。[Ich wünsche Dir und Deiner Familie Freude und Gesundheit.
+Viele liebe Grüße]我祝你和你的家人快乐和健康。
+亲切的问候，
+Jutta</t>
   </si>
 </sst>
 </file>
@@ -2193,24 +2229,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
@@ -2222,8 +2246,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3052,12 +3088,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4390,6 +4426,28 @@
         <v>358</v>
       </c>
     </row>
+    <row r="119" ht="201.6" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" ht="129.6" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="368">
   <si>
     <t>id</t>
   </si>
@@ -2056,6 +2056,19 @@
 Viele liebe Grüße]我祝你和你的家人快乐和健康。
 亲切的问候，
 Jutta</t>
+  </si>
+  <si>
+    <t>RU-10295172</t>
+  </si>
+  <si>
+    <t>Hello Arthun and Xiaoxiao! My name is Yulia. I live in Istra(Moscow region). 
+Привет из России
+23.10.24</t>
+  </si>
+  <si>
+    <t>你好，Arthun 和 Xiaoxiao！我叫 Yulia，住在伊斯特拉（莫斯科州）。
+[Привет из России]来自俄罗斯的问候
+23.10.24</t>
   </si>
 </sst>
 </file>
@@ -2229,12 +2242,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
@@ -2246,14 +2259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2265,7 +2278,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3088,12 +3101,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4448,6 +4461,17 @@
         <v>364</v>
       </c>
     </row>
+    <row r="121" ht="57.6" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="371">
   <si>
     <t>id</t>
   </si>
@@ -2069,6 +2069,19 @@
     <t>你好，Arthun 和 Xiaoxiao！我叫 Yulia，住在伊斯特拉（莫斯科州）。
 [Привет из России]来自俄罗斯的问候
 23.10.24</t>
+  </si>
+  <si>
+    <t>DE-14747622</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+greetings from Hamburg, in north Germany! I am drinking coffee right now, the brand is called Jacobs. It's autumn here, so I hope your daughter will enjoy this autumn forest and that you all have a good day!
+Best wishes, Ricarda</t>
+  </si>
+  <si>
+    <t>你好，Arthur，
+来自北德汉堡的问候！我现在正在喝咖啡，品牌叫Jacobs。这里是秋天，所以我希望你的女儿会喜欢这片秋季森林，也希望你们大家都有美好的一天！
+致以最美好的祝愿，Ricarda</t>
   </si>
 </sst>
 </file>
@@ -2247,14 +2260,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2266,19 +2291,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3101,10 +3114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
@@ -4472,6 +4485,17 @@
         <v>367</v>
       </c>
     </row>
+    <row r="122" ht="100.8" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="377">
   <si>
     <t>id</t>
   </si>
@@ -2082,6 +2082,30 @@
     <t>你好，Arthur，
 来自北德汉堡的问候！我现在正在喝咖啡，品牌叫Jacobs。这里是秋天，所以我希望你的女儿会喜欢这片秋季森林，也希望你们大家都有美好的一天！
 致以最美好的祝愿，Ricarda</t>
+  </si>
+  <si>
+    <t>DE-14747625</t>
+  </si>
+  <si>
+    <t>Hello Arthur. My name is Iris. I live in a small town in the middle of Germany. I like going out for walks, especially in autumn in forests because of all the beautiful colors of the trees. And most times I take my camera with me. I love books and I collect cookbooks. I wish you all the best. Stay healthy and enjoy life. Warm regards, Iris.</t>
+  </si>
+  <si>
+    <t>你好，Arthur。我叫Iris。我住在德国中部的一个小镇里。我喜欢去散步，特别是在秋天的森林里，因为树叶的颜色非常漂亮。大多数时候我会带上我的相机。我喜欢书 籍并收集各种烹饪书。祝你一切顺利。保持健康，享受生活。温暖的问候，Iris。</t>
+  </si>
+  <si>
+    <t>RU-10292585</t>
+  </si>
+  <si>
+    <t>Hi Feng Siyuan, My name is Natalia. I live in a small Ural town. I really want you to get my postcard. And it will bring you joy and a smile. You have a very beautiful daughter. May your family live in love and harmony. Всего вам самого доброго С любовью из России!!! от Натальи
+Не знаю сколько будет в пути это письмо, хочу поздравить вашу семью с наступающим Новым годом 2025!!!
+Пусть новогодняя ночь будет волшебной и принесёт много подарков.
+Наталья</t>
+  </si>
+  <si>
+    <t>你好，冯思远， 我叫娜塔莉亚。我住在一个小小的乌拉尔镇。我真的希望你能收到我的明信片。它会给你带来快乐和微笑。 你有一个非常漂亮的女儿。愿你的家庭生活充满爱与和谐。 [Всего вам самого доброго С любовью из России!!! от Натальи]祝您一切美 好 来自俄罗斯的爱！ 来自娜塔莉亚
+我不知道这封信会在路上走多久，但我想提前祝贺你们全家新年快乐，2025年!!!
+愿新年的夜晚充满魔力，带来许多礼物。
+娜塔莉娅</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2279,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2267,31 +2297,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3114,20 +3138,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.1851851851852" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4537037037037" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.0925925925926" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5462962962963" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1818181818182" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5454545454545" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
@@ -3714,7 +3738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="72" spans="1:3">
+    <row r="53" ht="70" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -3725,7 +3749,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="100.8" spans="1:3">
+    <row r="54" ht="98" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -3736,7 +3760,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="115.2" spans="1:3">
+    <row r="55" ht="112" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3747,7 +3771,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="72" spans="1:3">
+    <row r="56" ht="70" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -3758,7 +3782,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="100.8" spans="1:3">
+    <row r="57" ht="98" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -3769,7 +3793,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="72" spans="1:3">
+    <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -3780,7 +3804,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="360" spans="1:3">
+    <row r="59" ht="350" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -3791,7 +3815,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="172.8" spans="1:3">
+    <row r="60" ht="168" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -3802,7 +3826,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="72" spans="1:3">
+    <row r="61" ht="70" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3813,7 +3837,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="100.8" spans="1:3">
+    <row r="62" ht="98" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3824,7 +3848,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="129.6" spans="1:3">
+    <row r="63" ht="126" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3835,7 +3859,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="144" spans="1:3">
+    <row r="64" ht="140" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -3846,7 +3870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="57.6" spans="1:3">
+    <row r="65" ht="56" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -3874,7 +3898,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="129.6" spans="1:3">
+    <row r="67" ht="126" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3885,7 +3909,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="100.8" spans="1:3">
+    <row r="68" ht="98" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -3896,7 +3920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="158.4" spans="1:3">
+    <row r="69" ht="154" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -3907,7 +3931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="57.6" spans="1:3">
+    <row r="70" ht="56" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -3918,7 +3942,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="43.2" spans="1:3">
+    <row r="71" ht="42" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -3929,7 +3953,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="100.8" spans="1:3">
+    <row r="72" ht="98" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -3940,7 +3964,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="100.8" spans="1:3">
+    <row r="73" ht="98" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3951,7 +3975,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="72" spans="1:3">
+    <row r="74" ht="70" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -3962,7 +3986,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="72" spans="1:3">
+    <row r="75" ht="70" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -3973,7 +3997,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="43.2" spans="1:3">
+    <row r="76" ht="42" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -3984,7 +4008,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28.8" spans="1:3">
+    <row r="77" ht="28" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -3995,7 +4019,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="230.4" spans="1:3">
+    <row r="78" ht="224" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4006,7 +4030,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="57.6" spans="1:3">
+    <row r="79" ht="56" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4017,7 +4041,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="100.8" spans="1:3">
+    <row r="80" ht="98" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4028,7 +4052,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="72" spans="1:3">
+    <row r="81" ht="70" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4039,7 +4063,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="158.4" spans="1:3">
+    <row r="82" ht="154" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4050,7 +4074,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:3">
+    <row r="83" ht="28" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4061,7 +4085,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="187.2" spans="1:5">
+    <row r="84" ht="182" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4078,7 +4102,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="374.4" spans="1:3">
+    <row r="85" ht="364" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4089,7 +4113,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="115.2" spans="1:3">
+    <row r="86" ht="112" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4100,7 +4124,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="57.6" spans="1:3">
+    <row r="87" ht="56" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4111,7 +4135,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="86.4" spans="1:3">
+    <row r="88" ht="84" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4122,7 +4146,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="57.6" spans="1:3">
+    <row r="89" ht="56" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4133,7 +4157,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="115.2" spans="1:3">
+    <row r="90" ht="112" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4144,7 +4168,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="115.2" spans="1:3">
+    <row r="91" ht="112" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4155,7 +4179,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="86.4" spans="1:3">
+    <row r="92" ht="84" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4166,7 +4190,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="86.4" spans="1:3">
+    <row r="93" ht="84" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4177,7 +4201,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="103.2" spans="1:3">
+    <row r="94" ht="100.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4188,7 +4212,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="86.4" spans="1:3">
+    <row r="95" ht="84" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4199,7 +4223,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="100.8" spans="1:3">
+    <row r="96" ht="98" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4210,7 +4234,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="57.6" spans="1:3">
+    <row r="97" ht="56" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4221,7 +4245,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="72" spans="1:3">
+    <row r="98" ht="70" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4232,7 +4256,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="86.4" spans="1:3">
+    <row r="99" ht="84" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4243,7 +4267,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="102" spans="1:3">
+    <row r="100" ht="100.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4254,7 +4278,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="100.8" spans="1:3">
+    <row r="101" ht="98" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4265,7 +4289,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="72" spans="1:3">
+    <row r="102" ht="70" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4276,7 +4300,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="43.2" spans="1:3">
+    <row r="103" ht="42" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4287,7 +4311,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="57.6" spans="1:3">
+    <row r="104" ht="56" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4298,7 +4322,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="86.4" spans="1:3">
+    <row r="105" ht="84" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4309,7 +4333,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="28.8" spans="1:3">
+    <row r="106" ht="28" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4320,7 +4344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="72" spans="1:3">
+    <row r="107" ht="70" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4331,7 +4355,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="290.4" spans="1:3">
+    <row r="108" ht="282.5" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4342,7 +4366,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="100.8" spans="1:3">
+    <row r="109" ht="98" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4353,7 +4377,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="28.8" spans="1:3">
+    <row r="110" ht="28" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4364,7 +4388,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="57.6" spans="1:3">
+    <row r="111" ht="56" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4375,7 +4399,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="100.8" spans="1:3">
+    <row r="112" ht="98" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4386,7 +4410,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="86.4" spans="1:3">
+    <row r="113" ht="84" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4397,7 +4421,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="43.2" spans="1:3">
+    <row r="114" ht="42" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4408,7 +4432,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="86.4" spans="1:3">
+    <row r="115" ht="84" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4419,7 +4443,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="86.4" spans="1:3">
+    <row r="116" ht="84" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4430,7 +4454,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="115.2" spans="1:3">
+    <row r="117" ht="112" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4441,7 +4465,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="100.8" spans="1:3">
+    <row r="118" ht="98" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -4452,7 +4476,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="201.6" spans="1:3">
+    <row r="119" ht="196" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -4463,7 +4487,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="129.6" spans="1:3">
+    <row r="120" ht="126" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -4474,7 +4498,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="57.6" spans="1:3">
+    <row r="121" ht="56" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4485,7 +4509,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="100.8" spans="1:3">
+    <row r="122" ht="98" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -4494,6 +4518,28 @@
       </c>
       <c r="C122" s="2" t="s">
         <v>370</v>
+      </c>
+    </row>
+    <row r="123" ht="98" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="124" ht="224" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728AE20A-6DF7-45F9-8461-0F444A4B02E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="382">
   <si>
     <t>id</t>
   </si>
@@ -401,7 +407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Hello from Ukraine!
 Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
@@ -454,7 +460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>来自乌克兰的你好！
 在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
@@ -494,7 +500,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -613,7 +619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -622,7 +628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -631,7 +637,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -640,7 +646,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -664,7 +670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -673,7 +679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -682,7 +688,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -691,7 +697,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -730,7 +736,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>postcard</t>
     </r>
@@ -1586,7 +1592,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1617,7 +1623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1699,7 +1705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1732,7 +1738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1850,7 +1856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -1886,7 +1892,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -2107,18 +2113,329 @@
 愿新年的夜晚充满魔力，带来许多礼物。
 娜塔莉娅</t>
   </si>
+  <si>
+    <t>FI-4719313</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22.11.2024
+-3℃
+Hello Arthur and Xiaoxiao,
+Greetings from Finland!
+Here is a winter-time, little bit snow and sunny. I like to this time. I like to walking in the nearest forest and swimming in lake or pool.
+Kaikkea hyvää sinulle ja perheellesi. -&gt; All the best for you and your family!
+T. Paula</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.11.2024
+-3℃
+Hello Arthur 和笑笑,
+来自芬兰的问候!
+这是一个冬天，有一点点雪和阳光，我喜欢这种时间。我喜欢在最近的森林里散步，游泳在湖里或游泳池。
+[Kaikkea hyvää sinulle ja perheellesi.] -&gt; 祝你和你的家人一切都好!
+T. Paula</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2024/10/21
+Wait, I sent it in an envelope
+2024/10/21
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Привет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>мне</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>выпала</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>возможность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>отправить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тебе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>открытку</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>можно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>мне</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>отправить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тебе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>конверте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?
+2024/12/11
+I am very glad that the envelope got to you. I wish you all the best. Have a nice day and a huge hello to your family. Be happy!!!</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/10/21
+等等，我用信封寄了
+2024/10/21
+您好，我有机会给您寄一张明信片，可以用信封寄给您吗？
+2024/12/11
+我很高兴你收到了信封。祝你一切顺利。祝您有美好的一天并向您的家人问好。要开心！！！”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2130,163 +2447,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2298,13 +2471,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2316,204 +2489,40 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2521,253 +2530,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2787,65 +2554,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3130,31 +2859,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1818181818182" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +2911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3193,7 +2922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3204,7 +2933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3215,7 +2944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="94.25" customHeight="1" spans="1:3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -3226,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -3237,7 +2966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3248,7 +2977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -3259,7 +2988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -3270,7 +2999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -3281,7 +3010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -3292,7 +3021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3303,7 +3032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3314,7 +3043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -3325,7 +3054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3336,7 +3065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -3347,7 +3076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -3358,7 +3087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3369,7 +3098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -3380,7 +3109,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -3391,7 +3120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -3402,7 +3131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -3413,7 +3142,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -3424,7 +3153,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -3435,7 +3164,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
@@ -3452,7 +3181,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="58.25" customHeight="1" spans="1:3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -3463,7 +3192,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -3474,7 +3203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -3485,7 +3214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
@@ -3496,7 +3225,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3507,7 +3236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
@@ -3518,7 +3247,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
@@ -3529,7 +3258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -3540,7 +3269,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
@@ -3551,7 +3280,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -3562,7 +3291,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
@@ -3573,7 +3302,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -3584,7 +3313,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
@@ -3595,7 +3324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
@@ -3606,7 +3335,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>124</v>
       </c>
@@ -3617,7 +3346,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
@@ -3628,7 +3357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
@@ -3639,7 +3368,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -3650,7 +3379,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
@@ -3661,7 +3390,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>139</v>
       </c>
@@ -3672,7 +3401,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>142</v>
       </c>
@@ -3683,7 +3412,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>145</v>
       </c>
@@ -3694,7 +3423,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>148</v>
       </c>
@@ -3705,7 +3434,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -3716,7 +3445,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" ht="18.75" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -3727,7 +3456,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
@@ -3738,7 +3467,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -3749,7 +3478,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -3760,7 +3489,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3771,7 +3500,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -3782,7 +3511,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -3793,7 +3522,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -3804,7 +3533,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="350" spans="1:3">
+    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -3815,7 +3544,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="168" spans="1:3">
+    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -3826,7 +3555,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
+    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3837,7 +3566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="98" spans="1:3">
+    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3848,7 +3577,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="126" spans="1:3">
+    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3859,7 +3588,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -3870,7 +3599,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:3">
+    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -3881,7 +3610,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="409.5" spans="1:5">
+    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -3898,7 +3627,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="126" spans="1:3">
+    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3909,7 +3638,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -3920,7 +3649,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="154" spans="1:3">
+    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -3931,7 +3660,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="56" spans="1:3">
+    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -3942,7 +3671,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="42" spans="1:3">
+    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -3953,7 +3682,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="98" spans="1:3">
+    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -3964,7 +3693,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="98" spans="1:3">
+    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3975,7 +3704,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="70" spans="1:3">
+    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -3986,7 +3715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="70" spans="1:3">
+    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -3997,7 +3726,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="42" spans="1:3">
+    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4008,7 +3737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:3">
+    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4019,7 +3748,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="224" spans="1:3">
+    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4030,7 +3759,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="56" spans="1:3">
+    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4041,7 +3770,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="98" spans="1:3">
+    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4052,7 +3781,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="70" spans="1:3">
+    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4063,7 +3792,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="154" spans="1:3">
+    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4074,7 +3803,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:3">
+    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4085,7 +3814,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="182" spans="1:5">
+    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4102,7 +3831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="364" spans="1:3">
+    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4113,7 +3842,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="112" spans="1:3">
+    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4124,7 +3853,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="56" spans="1:3">
+    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4135,7 +3864,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="84" spans="1:3">
+    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4146,7 +3875,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="56" spans="1:3">
+    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4157,7 +3886,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="112" spans="1:3">
+    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4168,7 +3897,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="112" spans="1:3">
+    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4179,7 +3908,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="84" spans="1:3">
+    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4190,7 +3919,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="84" spans="1:3">
+    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4201,7 +3930,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="100.5" spans="1:3">
+    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4212,7 +3941,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="84" spans="1:3">
+    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4223,7 +3952,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="98" spans="1:3">
+    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4234,7 +3963,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="56" spans="1:3">
+    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4245,7 +3974,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="70" spans="1:3">
+    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4256,7 +3985,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="84" spans="1:3">
+    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4267,7 +3996,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="100.5" spans="1:3">
+    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4278,7 +4007,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="98" spans="1:3">
+    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4289,7 +4018,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="70" spans="1:3">
+    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4300,7 +4029,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="42" spans="1:3">
+    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4311,7 +4040,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="56" spans="1:3">
+    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4322,7 +4051,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="84" spans="1:3">
+    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4333,7 +4062,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="28" spans="1:3">
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4344,7 +4073,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="70" spans="1:3">
+    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4355,7 +4084,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="282.5" spans="1:3">
+    <row r="108" spans="1:3" ht="319.2" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4366,7 +4095,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="98" spans="1:3">
+    <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4377,7 +4106,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:3">
+    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4388,7 +4117,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="56" spans="1:3">
+    <row r="111" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4399,7 +4128,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="98" spans="1:3">
+    <row r="112" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4410,7 +4139,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="84" spans="1:3">
+    <row r="113" spans="1:5" ht="144" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4421,7 +4150,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="42" spans="1:3">
+    <row r="114" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4432,7 +4161,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="84" spans="1:3">
+    <row r="115" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4443,7 +4172,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="84" spans="1:3">
+    <row r="116" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4454,7 +4183,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="112" spans="1:3">
+    <row r="117" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4465,7 +4194,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="98" spans="1:3">
+    <row r="118" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -4476,7 +4205,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="196" spans="1:3">
+    <row r="119" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -4487,7 +4216,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="126" spans="1:3">
+    <row r="120" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -4498,7 +4227,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="56" spans="1:3">
+    <row r="121" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4509,7 +4238,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="98" spans="1:3">
+    <row r="122" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -4520,7 +4249,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="98" spans="1:3">
+    <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -4531,7 +4260,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:3">
+    <row r="124" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -4541,9 +4270,26 @@
       <c r="C124" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="D124" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="144" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728AE20A-6DF7-45F9-8461-0F444A4B02E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="391">
   <si>
     <t>id</t>
   </si>
@@ -407,7 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Hello from Ukraine!
 Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
@@ -460,7 +454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>来自乌克兰的你好！
 在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
@@ -500,7 +494,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -619,7 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -628,7 +622,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -637,7 +631,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -646,7 +640,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -670,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -679,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -688,7 +682,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -697,7 +691,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -736,7 +730,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>postcard</t>
     </r>
@@ -1592,7 +1586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1623,7 +1617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1705,7 +1699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1738,7 +1732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1856,7 +1850,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -1892,7 +1886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -2114,8 +2108,279 @@
 娜塔莉娅</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2024/10/21
+Wait, I sent it in an envelope
+2024/10/21
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Привет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>мне</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>выпала</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>возможность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>отправить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тебе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>открытку</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>можно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>мне</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>отправить</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>тебе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="204"/>
+      </rPr>
+      <t>конверте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?
+2024/12/11
+I am very glad that the envelope got to you. I wish you all the best. Have a nice day and a huge hello to your family. Be happy!!!</t>
+    </r>
+  </si>
+  <si>
+    <t>2024/10/21
+等等，我用信封寄了
+2024/10/21
+您好，我有机会给您寄一张明信片，可以用信封寄给您吗？
+2024/12/11
+我很高兴你收到了信封。祝你一切顺利。祝您有美好的一天并向您的家人问好。要开心！！！”</t>
+  </si>
+  <si>
     <t>FI-4719313</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 22.11.2024
@@ -2125,7 +2390,6 @@
 Here is a winter-time, little bit snow and sunny. I like to this time. I like to walking in the nearest forest and swimming in lake or pool.
 Kaikkea hyvää sinulle ja perheellesi. -&gt; All the best for you and your family!
 T. Paula</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>22.11.2024
@@ -2135,307 +2399,62 @@
 这是一个冬天，有一点点雪和阳光，我喜欢这种时间。我喜欢在最近的森林里散步，游泳在湖里或游泳池。
 [Kaikkea hyvää sinulle ja perheellesi.] -&gt; 祝你和你的家人一切都好!
 T. Paula</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2024/10/21
-Wait, I sent it in an envelope
-2024/10/21
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Привет</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>мне</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>выпала</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>возможность</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>отправить</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>тебе</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>открытку</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>можно</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>мне</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>отправить</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>тебе</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>конверте</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?
-2024/12/11
-I am very glad that the envelope got to you. I wish you all the best. Have a nice day and a huge hello to your family. Be happy!!!</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024/10/21
-等等，我用信封寄了
-2024/10/21
-您好，我有机会给您寄一张明信片，可以用信封寄给您吗？
-2024/12/11
-我很高兴你收到了信封。祝你一切顺利。祝您有美好的一天并向您的家人问好。要开心！！！”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE-14827045</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+Diese Rose ist von meiner Tochter für deine süße Tochter. Sie kommt aus einer kleinen Stadt im Süden Deutschlands. Ich wünsche dir und deiner Familie alles Gute, beste Gesundheit und jetzt viel Spaß an einer richtig tollen Rose! Love, Emily,80 years old</t>
+  </si>
+  <si>
+    <t>你好，Arthur，
+这朵玫瑰是我女儿送给你可爱女儿的。它来自德国南部的一个小镇。我祝你和你的家人一切顺利，身体健康，现在享受这朵真正美丽的玫瑰吧！爱你的，艾米丽，80岁</t>
+  </si>
+  <si>
+    <t>FI-4708463</t>
+  </si>
+  <si>
+    <t>Hello!
+Greetings from Finland! I hope maybe your daughter likes this card. Is her nickname 小小? If so, that is a very cute nickname!
+Here in Finland, it has started snowing.
+Best regards,
+Kuu</t>
+  </si>
+  <si>
+    <t>你好!
+来自芬兰的问候！希望你的女儿喜欢这张卡片。她的小名是笑笑吗？如果是的话，那真是个很可爱的昵称！
+在芬兰，这里已经开始下雪了。
+此致，
+Kuu</t>
+  </si>
+  <si>
+    <t>US-10929032</t>
+  </si>
+  <si>
+    <t>Hello. Three things about me! 
+#1- I voted for Kamala
+#2- I am 50 years old 
+#3- I ❤ Diet Coke</t>
+  </si>
+  <si>
+    <t>你好。关于我三件事！
+#1- 我投票支持卡马拉·哈里斯
+#2- 我50岁了 
+#3- 我爱健怡可乐</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2447,19 +2466,157 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2469,15 +2626,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2487,42 +2650,212 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2530,11 +2863,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2554,27 +3129,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2859,31 +3472,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H124" sqref="H124"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2181818181818" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1090909090909" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2900,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -2911,7 +3524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -2922,7 +3535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2933,7 +3546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2944,7 +3557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -2966,7 +3579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -2977,7 +3590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -2988,7 +3601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2999,7 +3612,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -3010,7 +3623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -3021,7 +3634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3032,7 +3645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3043,7 +3656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -3054,7 +3667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3065,7 +3678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -3076,7 +3689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -3087,7 +3700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3098,7 +3711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -3109,7 +3722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -3120,7 +3733,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -3131,7 +3744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -3142,7 +3755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -3153,7 +3766,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -3164,7 +3777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
@@ -3181,7 +3794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" s="1" customFormat="1" ht="58.2" customHeight="1" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -3192,7 +3805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -3203,7 +3816,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -3214,7 +3827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
@@ -3225,7 +3838,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3236,7 +3849,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
@@ -3247,7 +3860,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
@@ -3258,7 +3871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -3269,7 +3882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
@@ -3280,7 +3893,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -3291,7 +3904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
@@ -3302,7 +3915,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -3313,7 +3926,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
@@ -3324,7 +3937,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
@@ -3335,7 +3948,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>124</v>
       </c>
@@ -3346,7 +3959,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
@@ -3357,7 +3970,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
@@ -3368,7 +3981,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -3379,7 +3992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
@@ -3390,7 +4003,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>139</v>
       </c>
@@ -3401,7 +4014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>142</v>
       </c>
@@ -3412,7 +4025,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>145</v>
       </c>
@@ -3423,7 +4036,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>148</v>
       </c>
@@ -3434,7 +4047,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="18.75" customHeight="1" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -3445,7 +4058,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" ht="18.75" customHeight="1" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -3456,7 +4069,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
@@ -3467,7 +4080,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="53" ht="70" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -3478,7 +4091,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="54" ht="98" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -3489,7 +4102,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="55" ht="112" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3500,7 +4113,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="56" ht="70" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -3511,7 +4124,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="57" ht="98" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -3522,7 +4135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -3533,7 +4146,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" ht="350" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -3544,7 +4157,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="60" ht="168" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -3555,7 +4168,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="61" ht="70" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3566,7 +4179,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="62" ht="98" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3577,7 +4190,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="63" ht="126" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3588,7 +4201,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="144" x14ac:dyDescent="0.25">
+    <row r="64" ht="140" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -3599,7 +4212,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="65" ht="56" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -3610,7 +4223,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -3627,7 +4240,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="67" ht="126" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3638,7 +4251,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="68" ht="98" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -3649,7 +4262,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="69" ht="154" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -3660,7 +4273,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="70" ht="56" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -3671,7 +4284,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="71" ht="42" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -3682,7 +4295,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="72" ht="98" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -3693,7 +4306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="73" ht="98" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3704,7 +4317,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="74" ht="70" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -3715,7 +4328,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="75" ht="70" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -3726,7 +4339,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="76" ht="42" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -3737,7 +4350,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" ht="28" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -3748,7 +4361,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="230.4" x14ac:dyDescent="0.25">
+    <row r="78" ht="224" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -3759,7 +4372,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="79" ht="56" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -3770,7 +4383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="80" ht="98" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -3781,7 +4394,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="81" ht="70" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -3792,7 +4405,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="82" ht="154" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -3803,7 +4416,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="83" ht="28" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3814,7 +4427,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -3831,7 +4444,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="85" ht="364" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -3842,7 +4455,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="86" ht="112" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -3853,7 +4466,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="87" ht="56" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -3864,7 +4477,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="88" ht="84" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -3875,7 +4488,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="89" ht="56" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -3886,7 +4499,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="90" ht="112" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -3897,7 +4510,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="91" ht="112" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -3908,7 +4521,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="92" ht="84" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -3919,7 +4532,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="93" ht="84" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -3930,7 +4543,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="103.2" x14ac:dyDescent="0.25">
+    <row r="94" ht="100.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -3941,7 +4554,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="95" ht="84" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -3952,7 +4565,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="96" ht="98" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -3963,7 +4576,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="97" ht="56" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -3974,7 +4587,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="98" ht="70" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -3985,7 +4598,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="99" ht="84" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -3996,7 +4609,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="102" x14ac:dyDescent="0.25">
+    <row r="100" ht="100.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4007,7 +4620,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="101" ht="98" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4018,7 +4631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="102" ht="70" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4029,7 +4642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="103" ht="42" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4040,7 +4653,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="104" ht="56" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4051,7 +4664,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="105" ht="84" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4062,7 +4675,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="106" ht="28" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4073,7 +4686,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="107" ht="70" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4084,7 +4697,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="319.2" x14ac:dyDescent="0.25">
+    <row r="108" ht="282.5" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4095,7 +4708,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="109" ht="98" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4106,7 +4719,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="110" ht="28" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4117,7 +4730,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="111" ht="56" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4128,7 +4741,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="112" ht="98" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4139,7 +4752,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="144" x14ac:dyDescent="0.25">
+    <row r="113" ht="84" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4150,7 +4763,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="114" ht="42" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4161,7 +4774,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="115" ht="84" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4172,7 +4785,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="116" ht="84" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4183,7 +4796,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="117" ht="112" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4194,7 +4807,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="118" ht="98" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -4205,7 +4818,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="244.8" x14ac:dyDescent="0.25">
+    <row r="119" ht="196" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -4216,7 +4829,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="120" ht="126" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -4227,7 +4840,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="121" ht="56" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4238,7 +4851,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="122" ht="98" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -4249,7 +4862,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="123" ht="98" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -4260,7 +4873,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="273.60000000000002" x14ac:dyDescent="0.25">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -4270,26 +4883,59 @@
       <c r="C124" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D124" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" ht="140" spans="1:3">
+      <c r="A125" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="C125" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="144" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>379</v>
+    <row r="126" ht="98" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" ht="126" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" ht="56" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="397">
   <si>
     <t>id</t>
   </si>
@@ -2442,6 +2442,30 @@
 #1- 我投票支持卡马拉·哈里斯
 #2- 我50岁了 
 #3- 我爱健怡可乐</t>
+  </si>
+  <si>
+    <t>BE-940862</t>
+  </si>
+  <si>
+    <t>Dear Arthur,
+Belgium is great for cycling (very flat), but this view is paradoxically from a hill. Mont des Arts is a part of Brussels with many museums and historical buildings.        
+Happy 2025 and happy pedalling!
+Michael</t>
+  </si>
+  <si>
+    <t>亲爱的Arthur，
+比利时非常适合骑自行车（非常平坦），但这个景观却是从一个山丘上看到的。蒙得斯艺术山是布鲁塞尔的一部分，这里有很多博物馆和历史建筑。
+2025年快乐，骑车愉快！
+Michael</t>
+  </si>
+  <si>
+    <t>BY-3194098</t>
+  </si>
+  <si>
+    <t>Прывітанне з Беларусі!!! My name is Dima. I live in the city of Volkovysk near the border with Poland. I'm 48 years old. I like rock music and travel. Прыветная посткроссинг!!!</t>
+  </si>
+  <si>
+    <t>来自白俄罗斯的问候！！！ 我的名字叫迪马。我住在靠近波兰边境的沃尔科维斯克市。我今年48岁。我喜欢摇滚音乐和旅行。 友善的明信片交换！！！</t>
   </si>
 </sst>
 </file>
@@ -2614,20 +2638,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2644,21 +2680,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3480,12 +3504,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -4934,6 +4958,28 @@
         <v>390</v>
       </c>
     </row>
+    <row r="129" ht="98" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="130" ht="70" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="406">
   <si>
     <t>id</t>
   </si>
@@ -2466,6 +2466,57 @@
   </si>
   <si>
     <t>来自白俄罗斯的问候！！！ 我的名字叫迪马。我住在靠近波兰边境的沃尔科维斯克市。我今年48岁。我喜欢摇滚音乐和旅行。 友善的明信片交换！！！</t>
+  </si>
+  <si>
+    <t>US-11073689</t>
+  </si>
+  <si>
+    <t>January 18, 2025
+Hello Arthur!
+Greetings from San Diego. Good luck with your cycling goal! It's great to set up goals like these to keep the motivation up. I'm not a sporty person, but I'm trying to increase my activity this year.
+Wish you all the best!
+Martina</t>
+  </si>
+  <si>
+    <t>2025年1月18日
+你好，Arthur！
+来自圣地亚哥的问候。祝你实现骑行目标！设置这些目标来保持动力真的很棒。我不是一个运动型的人，但我今年在努力增加我的活动量。
+祝你一切顺利！
+Martina</t>
+  </si>
+  <si>
+    <t>DE-15094234</t>
+  </si>
+  <si>
+    <t>18.01.25
+-2°C
+Dear Arthur,
+I send you a lot of greetings from Germany. I'm living with my family in the near of Hamburg. We love it to travel. :) Best wishes &amp; a lot of fun with post-crossing.
+Andrea</t>
+  </si>
+  <si>
+    <t>18.01.25
+-2°C
+亲爱的Arthur,
+我从德国向你致以诚挚的问候。我现在和家人住在汉堡附近。我们喜欢旅行。:) 祝你一切顺利，祝你在明信片交流中获得很多乐趣。
+Andrea</t>
+  </si>
+  <si>
+    <t>DE-15094223</t>
+  </si>
+  <si>
+    <t>Chemnitz 20.1.25
+Hallo Arthur,
+We hope that you like this Postcard
+Have a nice day
+Siegfried</t>
+  </si>
+  <si>
+    <t>开姆尼茨 2025年1月20日
+你好, Arthur,
+我们希望你喜欢这张明信片
+祝你有美好的一天
+Siegfried</t>
   </si>
 </sst>
 </file>
@@ -2638,33 +2689,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2681,7 +2708,31 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3504,20 +3555,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2181818181818" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4444444444444" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -4104,7 +4155,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" ht="72" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -4115,7 +4166,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" ht="100.8" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4126,7 +4177,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" ht="115.2" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -4137,7 +4188,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" ht="72" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -4148,7 +4199,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" ht="100.8" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -4159,7 +4210,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" ht="72" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4170,7 +4221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="350" spans="1:3">
+    <row r="59" ht="360" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4181,7 +4232,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="168" spans="1:3">
+    <row r="60" ht="172.8" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4192,7 +4243,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
+    <row r="61" ht="72" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4203,7 +4254,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="98" spans="1:3">
+    <row r="62" ht="100.8" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4214,7 +4265,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="126" spans="1:3">
+    <row r="63" ht="129.6" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4225,7 +4276,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" ht="144" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -4236,7 +4287,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:3">
+    <row r="65" ht="57.6" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -4247,7 +4298,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="259.2" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4264,7 +4315,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="126" spans="1:3">
+    <row r="67" ht="129.6" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4275,7 +4326,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" ht="100.8" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -4286,7 +4337,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="154" spans="1:3">
+    <row r="69" ht="158.4" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4297,7 +4348,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="56" spans="1:3">
+    <row r="70" ht="57.6" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4308,7 +4359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="42" spans="1:3">
+    <row r="71" ht="43.2" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4319,7 +4370,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="98" spans="1:3">
+    <row r="72" ht="100.8" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -4330,7 +4381,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="98" spans="1:3">
+    <row r="73" ht="100.8" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -4341,7 +4392,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="70" spans="1:3">
+    <row r="74" ht="72" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -4352,7 +4403,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="70" spans="1:3">
+    <row r="75" ht="72" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4363,7 +4414,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="42" spans="1:3">
+    <row r="76" ht="43.2" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4374,7 +4425,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:3">
+    <row r="77" ht="28.8" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4385,7 +4436,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="224" spans="1:3">
+    <row r="78" ht="230.4" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4396,7 +4447,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="56" spans="1:3">
+    <row r="79" ht="57.6" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4407,7 +4458,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="98" spans="1:3">
+    <row r="80" ht="100.8" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4418,7 +4469,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="70" spans="1:3">
+    <row r="81" ht="72" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4429,7 +4480,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="154" spans="1:3">
+    <row r="82" ht="158.4" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4440,7 +4491,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:3">
+    <row r="83" ht="28.8" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4451,7 +4502,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="115.2" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4468,7 +4519,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="364" spans="1:3">
+    <row r="85" ht="374.4" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4479,7 +4530,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="112" spans="1:3">
+    <row r="86" ht="115.2" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4490,7 +4541,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="56" spans="1:3">
+    <row r="87" ht="57.6" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4501,7 +4552,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="84" spans="1:3">
+    <row r="88" ht="86.4" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4512,7 +4563,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="56" spans="1:3">
+    <row r="89" ht="57.6" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4523,7 +4574,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="112" spans="1:3">
+    <row r="90" ht="115.2" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4534,7 +4585,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="112" spans="1:3">
+    <row r="91" ht="115.2" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4545,7 +4596,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="84" spans="1:3">
+    <row r="92" ht="86.4" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4556,7 +4607,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="84" spans="1:3">
+    <row r="93" ht="86.4" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4567,7 +4618,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="100.5" spans="1:3">
+    <row r="94" ht="103.2" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4578,7 +4629,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="84" spans="1:3">
+    <row r="95" ht="86.4" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4589,7 +4640,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="98" spans="1:3">
+    <row r="96" ht="100.8" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4600,7 +4651,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="56" spans="1:3">
+    <row r="97" ht="57.6" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4611,7 +4662,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="70" spans="1:3">
+    <row r="98" ht="72" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4622,7 +4673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="84" spans="1:3">
+    <row r="99" ht="86.4" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4633,7 +4684,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="100.5" spans="1:3">
+    <row r="100" ht="102" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4644,7 +4695,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="98" spans="1:3">
+    <row r="101" ht="100.8" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4655,7 +4706,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="70" spans="1:3">
+    <row r="102" ht="72" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4666,7 +4717,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="42" spans="1:3">
+    <row r="103" ht="43.2" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4677,7 +4728,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="56" spans="1:3">
+    <row r="104" ht="57.6" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4688,7 +4739,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="84" spans="1:3">
+    <row r="105" ht="86.4" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4699,7 +4750,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="28" spans="1:3">
+    <row r="106" ht="28.8" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4710,7 +4761,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="70" spans="1:3">
+    <row r="107" ht="72" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4721,7 +4772,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="282.5" spans="1:3">
+    <row r="108" ht="290.4" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4732,7 +4783,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="98" spans="1:3">
+    <row r="109" ht="100.8" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4743,7 +4794,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:3">
+    <row r="110" ht="28.8" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4754,7 +4805,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="56" spans="1:3">
+    <row r="111" ht="57.6" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4765,7 +4816,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="98" spans="1:3">
+    <row r="112" ht="100.8" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4776,7 +4827,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="84" spans="1:3">
+    <row r="113" ht="86.4" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4787,7 +4838,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="42" spans="1:3">
+    <row r="114" ht="43.2" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4798,7 +4849,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="84" spans="1:3">
+    <row r="115" ht="86.4" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4809,7 +4860,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="84" spans="1:3">
+    <row r="116" ht="86.4" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4820,7 +4871,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="112" spans="1:3">
+    <row r="117" ht="115.2" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4831,7 +4882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="98" spans="1:3">
+    <row r="118" ht="100.8" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -4842,7 +4893,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="196" spans="1:3">
+    <row r="119" ht="201.6" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -4853,7 +4904,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="126" spans="1:3">
+    <row r="120" ht="129.6" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -4864,7 +4915,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="56" spans="1:3">
+    <row r="121" ht="57.6" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4875,7 +4926,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="98" spans="1:3">
+    <row r="122" ht="100.8" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -4886,7 +4937,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="98" spans="1:3">
+    <row r="123" ht="100.8" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -4897,7 +4948,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="230.4" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -4914,7 +4965,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" ht="140" spans="1:3">
+    <row r="125" ht="144" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -4925,7 +4976,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" ht="98" spans="1:3">
+    <row r="126" ht="100.8" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -4936,7 +4987,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" ht="126" spans="1:3">
+    <row r="127" ht="129.6" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -4947,7 +4998,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="56" spans="1:3">
+    <row r="128" ht="57.6" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -4958,7 +5009,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" ht="98" spans="1:3">
+    <row r="129" ht="100.8" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -4969,7 +5020,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" ht="70" spans="1:3">
+    <row r="130" ht="72" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -4978,6 +5029,39 @@
       </c>
       <c r="C130" s="2" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="131" ht="115.2" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" ht="115.2" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="133" ht="86.4" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060"/>
+    <workbookView windowWidth="17190" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="418">
   <si>
     <t>id</t>
   </si>
@@ -2517,6 +2517,60 @@
 我们希望你喜欢这张明信片
 祝你有美好的一天
 Siegfried</t>
+  </si>
+  <si>
+    <t>CZ-2181877</t>
+  </si>
+  <si>
+    <t>Jan. 20, 2025
+Hello Arthur, many greetings from Czechia! I am Vladimir, and I live in Prague, the capital. I send you this picture of the nice dog, which is an Assistance Dog. I support an organization, it is called Helppes - means Help dog.
+Best wishes for you, Vladimir</t>
+  </si>
+  <si>
+    <t>2025年1月20日
+你好，Arthur，来自捷克的问候！我是Vladimir，住在首都布拉格。我寄给你一张好看的狗的照片，这是一只辅助犬。我支持一个组织，叫做Helppes——意思是帮助犬。
+祝你一切顺利，Vladimir</t>
+  </si>
+  <si>
+    <t>BY-3270850</t>
+  </si>
+  <si>
+    <t>"Привітанне з сельскай Беларусі! ❤️ (GP Belarus!)
+My name's Anna. I'm 22 y.o. and I live in the heart of our Blue-eyed country Belarus — in the clean, green, and cozy city of Minsk. ❤️ Merry Christmas and Happy New Year! ❤️️</t>
+  </si>
+  <si>
+    <t>来自白俄罗斯乡村的问候！❤️（GP 白俄罗斯！）
+我叫Anna。我今年22岁，住在我们蓝眼睛国家白俄罗斯的中心——干净、绿色和温馨的城市明斯克。❤️ 圣诞快乐，新年快乐！❤️</t>
+  </si>
+  <si>
+    <t>DE-15094224</t>
+  </si>
+  <si>
+    <t>Hello Siyuan,
+Kind regards from the north-east of Germany. I live in a small village just by the bay between Berlin and the Baltic Sea. This tower was built as a XXX co.100 years ago to provide all houses with fresh water. Today, it is empty and became the symbol of our village. Happy postcrossing, Lupe</t>
+  </si>
+  <si>
+    <t>你好，Siyuan，
+来自德国东北部的问候。我住在柏林和波罗的海之间的一个小村庄里。这座塔是 100 年前由 XXX 公司建造的，为所有房屋提供淡水。今天，它空了，成为了我们村庄的象征。祝你过个愉快的明信片，Lupe</t>
+  </si>
+  <si>
+    <t>DE-15094225</t>
+  </si>
+  <si>
+    <t>Hello Arthur,My name is Lutz.
+I live in Berlin, the capital of Germany.
+I'm a 65 years old single.
+I love it to be naked on the beach or at other places in nature, but the last summer is long over.
+Now I'm waiting for the next.
+Happy postcrossing and a good time to you!</t>
+  </si>
+  <si>
+    <t>你好，亚瑟，我叫卢茨。
+我住在德国首都柏林。
+我今年 65 岁，单身。
+我喜欢在海滩或其他自然场所裸体，但去年夏天早已过去。
+现在我正在等待下一个夏天。
+祝你交换帖子快乐，玩得开心！</t>
   </si>
 </sst>
 </file>
@@ -2690,31 +2744,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2726,14 +2762,32 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3555,20 +3609,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4444444444444" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.225" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -4155,7 +4209,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="72" spans="1:3">
+    <row r="53" ht="67.5" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -4166,7 +4220,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="100.8" spans="1:3">
+    <row r="54" ht="94.5" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4177,7 +4231,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="115.2" spans="1:3">
+    <row r="55" ht="108" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -4188,7 +4242,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="72" spans="1:3">
+    <row r="56" ht="67.5" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -4199,7 +4253,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="100.8" spans="1:3">
+    <row r="57" ht="94.5" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -4210,7 +4264,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="72" spans="1:3">
+    <row r="58" ht="67.5" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4221,7 +4275,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="360" spans="1:3">
+    <row r="59" ht="337.5" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4232,7 +4286,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="172.8" spans="1:3">
+    <row r="60" ht="162" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4243,7 +4297,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="72" spans="1:3">
+    <row r="61" ht="67.5" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4254,7 +4308,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="100.8" spans="1:3">
+    <row r="62" ht="94.5" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4265,7 +4319,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="129.6" spans="1:3">
+    <row r="63" ht="121.5" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4276,7 +4330,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="144" spans="1:3">
+    <row r="64" ht="135" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -4287,7 +4341,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="57.6" spans="1:3">
+    <row r="65" ht="54" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -4298,7 +4352,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="259.2" spans="1:5">
+    <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4315,7 +4369,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="129.6" spans="1:3">
+    <row r="67" ht="121.5" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4326,7 +4380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="100.8" spans="1:3">
+    <row r="68" ht="94.5" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -4337,7 +4391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="158.4" spans="1:3">
+    <row r="69" ht="148.5" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4348,7 +4402,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="57.6" spans="1:3">
+    <row r="70" ht="54" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4359,7 +4413,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="43.2" spans="1:3">
+    <row r="71" ht="40.5" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4370,7 +4424,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="100.8" spans="1:3">
+    <row r="72" ht="94.5" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -4381,7 +4435,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="100.8" spans="1:3">
+    <row r="73" ht="94.5" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -4392,7 +4446,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="72" spans="1:3">
+    <row r="74" ht="67.5" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -4403,7 +4457,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="72" spans="1:3">
+    <row r="75" ht="67.5" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4414,7 +4468,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="43.2" spans="1:3">
+    <row r="76" ht="40.5" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4425,7 +4479,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28.8" spans="1:3">
+    <row r="77" ht="27" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4436,7 +4490,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="230.4" spans="1:3">
+    <row r="78" ht="216" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4447,7 +4501,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="57.6" spans="1:3">
+    <row r="79" ht="54" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4458,7 +4512,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="100.8" spans="1:3">
+    <row r="80" ht="94.5" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4469,7 +4523,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="72" spans="1:3">
+    <row r="81" ht="67.5" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4480,7 +4534,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="158.4" spans="1:3">
+    <row r="82" ht="148.5" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4491,7 +4545,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:3">
+    <row r="83" ht="27" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4502,7 +4556,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="115.2" spans="1:5">
+    <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4519,7 +4573,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="374.4" spans="1:3">
+    <row r="85" ht="351" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4530,7 +4584,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="115.2" spans="1:3">
+    <row r="86" ht="108" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4541,7 +4595,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="57.6" spans="1:3">
+    <row r="87" ht="54" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4552,7 +4606,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="86.4" spans="1:3">
+    <row r="88" ht="81" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4563,7 +4617,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="57.6" spans="1:3">
+    <row r="89" ht="54" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4574,7 +4628,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="115.2" spans="1:3">
+    <row r="90" ht="108" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4585,7 +4639,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="115.2" spans="1:3">
+    <row r="91" ht="108" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4596,7 +4650,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="86.4" spans="1:3">
+    <row r="92" ht="81" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4607,7 +4661,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="86.4" spans="1:3">
+    <row r="93" ht="81" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4618,7 +4672,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="103.2" spans="1:3">
+    <row r="94" ht="97.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4629,7 +4683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="86.4" spans="1:3">
+    <row r="95" ht="81" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4640,7 +4694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="100.8" spans="1:3">
+    <row r="96" ht="94.5" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4651,7 +4705,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="57.6" spans="1:3">
+    <row r="97" ht="54" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4662,7 +4716,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="72" spans="1:3">
+    <row r="98" ht="67.5" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4673,7 +4727,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="86.4" spans="1:3">
+    <row r="99" ht="81" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4684,7 +4738,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="102" spans="1:3">
+    <row r="100" ht="97.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4695,7 +4749,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="100.8" spans="1:3">
+    <row r="101" ht="94.5" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4706,7 +4760,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="72" spans="1:3">
+    <row r="102" ht="67.5" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4717,7 +4771,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="43.2" spans="1:3">
+    <row r="103" ht="40.5" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4728,7 +4782,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="57.6" spans="1:3">
+    <row r="104" ht="54" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4739,7 +4793,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="86.4" spans="1:3">
+    <row r="105" ht="81" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4750,7 +4804,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="28.8" spans="1:3">
+    <row r="106" ht="27" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4761,7 +4815,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="72" spans="1:3">
+    <row r="107" ht="67.5" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4772,7 +4826,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="290.4" spans="1:3">
+    <row r="108" ht="273" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4783,7 +4837,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="100.8" spans="1:3">
+    <row r="109" ht="81" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4794,7 +4848,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="28.8" spans="1:3">
+    <row r="110" ht="27" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4805,7 +4859,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="57.6" spans="1:3">
+    <row r="111" ht="54" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4816,7 +4870,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="100.8" spans="1:3">
+    <row r="112" ht="94.5" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4827,7 +4881,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="86.4" spans="1:3">
+    <row r="113" ht="81" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4838,7 +4892,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="43.2" spans="1:3">
+    <row r="114" ht="40.5" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4849,7 +4903,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="86.4" spans="1:3">
+    <row r="115" ht="81" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4860,7 +4914,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="86.4" spans="1:3">
+    <row r="116" ht="81" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4871,7 +4925,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="115.2" spans="1:3">
+    <row r="117" ht="94.5" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4882,7 +4936,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="100.8" spans="1:3">
+    <row r="118" ht="94.5" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -4893,7 +4947,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="201.6" spans="1:3">
+    <row r="119" ht="189" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -4904,7 +4958,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="129.6" spans="1:3">
+    <row r="120" ht="121.5" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -4915,7 +4969,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="57.6" spans="1:3">
+    <row r="121" ht="54" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4926,7 +4980,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="100.8" spans="1:3">
+    <row r="122" ht="94.5" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -4937,7 +4991,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="100.8" spans="1:3">
+    <row r="123" ht="94.5" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -4948,7 +5002,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="230.4" spans="1:5">
+    <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -4965,7 +5019,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" ht="144" spans="1:3">
+    <row r="125" ht="135" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -4976,7 +5030,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" ht="100.8" spans="1:3">
+    <row r="126" ht="94.5" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -4987,7 +5041,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" ht="129.6" spans="1:3">
+    <row r="127" ht="121.5" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -4998,7 +5052,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="57.6" spans="1:3">
+    <row r="128" ht="54" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -5009,7 +5063,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" ht="100.8" spans="1:3">
+    <row r="129" ht="94.5" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -5020,7 +5074,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" ht="72" spans="1:3">
+    <row r="130" ht="67.5" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -5031,7 +5085,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" ht="115.2" spans="1:3">
+    <row r="131" ht="108" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>397</v>
       </c>
@@ -5042,7 +5096,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" ht="115.2" spans="1:3">
+    <row r="132" ht="108" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>400</v>
       </c>
@@ -5053,7 +5107,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" ht="86.4" spans="1:3">
+    <row r="133" ht="81" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>403</v>
       </c>
@@ -5062,6 +5116,50 @@
       </c>
       <c r="C133" s="2" t="s">
         <v>405</v>
+      </c>
+    </row>
+    <row r="134" ht="94.5" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" ht="81" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="136" ht="94.5" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="137" ht="94.5" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17190" windowHeight="8520"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="430">
   <si>
     <t>id</t>
   </si>
@@ -2571,6 +2571,59 @@
 我喜欢在海滩或其他自然场所裸体，但去年夏天早已过去。
 现在我正在等待下一个夏天。
 祝你交换帖子快乐，玩得开心！</t>
+  </si>
+  <si>
+    <t>DE-15094228</t>
+  </si>
+  <si>
+    <t>25.1.25.5
+Hello to the world from the Town Sprockhodel in Germany. I hope you like the posthaute... you see the olympic games in Paris in 2024. I ❤ this postcard.
+I live in a nice house on the edge from fields and woods with my little family. Every day I go with my Dog Elli ou little adventures... I wish you all the best and in the year 2025!</t>
+  </si>
+  <si>
+    <t>25.1.25.5
+来自德国斯普罗克霍德镇向世界问好。我希望你喜欢这张明信片……你将看到2024年巴黎的奥运会。我❤这张明信片。
+我和我的小家庭住在田野和树林边缘的一幢漂亮房子里。每天我都和我的狗埃莉一起进行小冒险……祝你一切顺利，并在2025年取得成功！</t>
+  </si>
+  <si>
+    <t>RU-10398212</t>
+  </si>
+  <si>
+    <t>Feng, hello!My name is Irina, 67 y.o.
+I live in Podolsk, Moscow Region. I like coffee, to read, to travel around Russia. Russia, July 2025 I want to go to St. Petersburg.
+Best wishes!</t>
+  </si>
+  <si>
+    <t>冯，你好！我叫伊琳娜，67岁。
+我住在莫斯科地区的波多尔斯克。我喜欢咖啡、读书和在俄罗斯旅行。
+2025年7月，我想去圣彼得堡。
+最好的祝愿！</t>
+  </si>
+  <si>
+    <t>DE-15094232</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+I'm Günter, live in Rödermark and are retired.
+I have a garden,like to travel, play bowling
+best wishes and stay healthy</t>
+  </si>
+  <si>
+    <t>你好，亚瑟，
+我叫冈特，住在罗德马克，现在已经退休。
+我有一个花园，喜欢旅行和打保龄球。
+祝你一切顺利，身体健康。</t>
+  </si>
+  <si>
+    <t>LV-433935</t>
+  </si>
+  <si>
+    <t>Hi！
+Hello from across the world.I'm Gelinda, nice to meet you.Your card is the first one in a really long time, so Happy Postcrossing and hope you have a nice day. I'll. I live in a small country named Latvia, it's small, but have a nice nature.</t>
+  </si>
+  <si>
+    <t>嗨！
+来自世界各地的问候。我是 Gelinda，很高兴认识你。这是很长一段时间以来的第一张卡片，祝你明信片交换愉快，祝你今天过得愉快。我会的。我住在一个叫拉脱维亚的小国，它很小，但自然风光很好。</t>
   </si>
 </sst>
 </file>
@@ -2744,37 +2797,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2786,8 +2815,32 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3609,20 +3662,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.225" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2272727272727" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1090909090909" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -4209,7 +4262,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="67.5" spans="1:3">
+    <row r="53" ht="70" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -4220,7 +4273,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="94.5" spans="1:3">
+    <row r="54" ht="98" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4231,7 +4284,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="108" spans="1:3">
+    <row r="55" ht="112" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -4242,7 +4295,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="67.5" spans="1:3">
+    <row r="56" ht="70" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -4253,7 +4306,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="94.5" spans="1:3">
+    <row r="57" ht="98" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -4264,7 +4317,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="67.5" spans="1:3">
+    <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4275,7 +4328,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="337.5" spans="1:3">
+    <row r="59" ht="350" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4286,7 +4339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="162" spans="1:3">
+    <row r="60" ht="168" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4297,7 +4350,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="67.5" spans="1:3">
+    <row r="61" ht="70" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4308,7 +4361,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="94.5" spans="1:3">
+    <row r="62" ht="98" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4319,7 +4372,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="121.5" spans="1:3">
+    <row r="63" ht="126" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4330,7 +4383,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="135" spans="1:3">
+    <row r="64" ht="140" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -4341,7 +4394,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="54" spans="1:3">
+    <row r="65" ht="56" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -4352,7 +4405,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="243" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4369,7 +4422,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="121.5" spans="1:3">
+    <row r="67" ht="126" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4380,7 +4433,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="94.5" spans="1:3">
+    <row r="68" ht="98" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -4391,7 +4444,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="148.5" spans="1:3">
+    <row r="69" ht="154" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4402,7 +4455,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="54" spans="1:3">
+    <row r="70" ht="56" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4413,7 +4466,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="40.5" spans="1:3">
+    <row r="71" ht="42" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4424,7 +4477,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="94.5" spans="1:3">
+    <row r="72" ht="98" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -4435,7 +4488,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="94.5" spans="1:3">
+    <row r="73" ht="98" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -4446,7 +4499,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="67.5" spans="1:3">
+    <row r="74" ht="70" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -4457,7 +4510,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="67.5" spans="1:3">
+    <row r="75" ht="70" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4468,7 +4521,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="40.5" spans="1:3">
+    <row r="76" ht="42" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4479,7 +4532,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:3">
+    <row r="77" ht="28" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4490,7 +4543,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="216" spans="1:3">
+    <row r="78" ht="224" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4501,7 +4554,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="54" spans="1:3">
+    <row r="79" ht="56" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4512,7 +4565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="94.5" spans="1:3">
+    <row r="80" ht="98" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4523,7 +4576,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="67.5" spans="1:3">
+    <row r="81" ht="70" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4534,7 +4587,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="148.5" spans="1:3">
+    <row r="82" ht="154" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4545,7 +4598,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:3">
+    <row r="83" ht="28" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4556,7 +4609,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="108" spans="1:5">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4573,7 +4626,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="351" spans="1:3">
+    <row r="85" ht="364" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4584,7 +4637,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="108" spans="1:3">
+    <row r="86" ht="112" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4595,7 +4648,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="54" spans="1:3">
+    <row r="87" ht="56" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4606,7 +4659,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="81" spans="1:3">
+    <row r="88" ht="84" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4617,7 +4670,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="54" spans="1:3">
+    <row r="89" ht="56" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4628,7 +4681,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="108" spans="1:3">
+    <row r="90" ht="112" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4639,7 +4692,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="108" spans="1:3">
+    <row r="91" ht="112" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4650,7 +4703,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="81" spans="1:3">
+    <row r="92" ht="84" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4661,7 +4714,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="81" spans="1:3">
+    <row r="93" ht="84" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4672,7 +4725,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="97.5" spans="1:3">
+    <row r="94" ht="100.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4683,7 +4736,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="81" spans="1:3">
+    <row r="95" ht="84" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4694,7 +4747,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="94.5" spans="1:3">
+    <row r="96" ht="98" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4705,7 +4758,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="54" spans="1:3">
+    <row r="97" ht="56" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4716,7 +4769,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="67.5" spans="1:3">
+    <row r="98" ht="70" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4727,7 +4780,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="81" spans="1:3">
+    <row r="99" ht="84" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4738,7 +4791,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="97.5" spans="1:3">
+    <row r="100" ht="100.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4749,7 +4802,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="94.5" spans="1:3">
+    <row r="101" ht="98" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4760,7 +4813,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="67.5" spans="1:3">
+    <row r="102" ht="70" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4771,7 +4824,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="40.5" spans="1:3">
+    <row r="103" ht="42" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4782,7 +4835,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="54" spans="1:3">
+    <row r="104" ht="56" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4793,7 +4846,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="81" spans="1:3">
+    <row r="105" ht="84" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4804,7 +4857,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="1:3">
+    <row r="106" ht="28" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4815,7 +4868,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="67.5" spans="1:3">
+    <row r="107" ht="70" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4826,7 +4879,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="273" spans="1:3">
+    <row r="108" ht="282.5" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4837,7 +4890,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="81" spans="1:3">
+    <row r="109" ht="98" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4848,7 +4901,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:3">
+    <row r="110" ht="28" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4859,7 +4912,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="54" spans="1:3">
+    <row r="111" ht="56" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4870,7 +4923,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="94.5" spans="1:3">
+    <row r="112" ht="98" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4881,7 +4934,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="81" spans="1:3">
+    <row r="113" ht="84" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4892,7 +4945,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="40.5" spans="1:3">
+    <row r="114" ht="42" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4903,7 +4956,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="81" spans="1:3">
+    <row r="115" ht="84" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4914,7 +4967,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="81" spans="1:3">
+    <row r="116" ht="84" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4925,7 +4978,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="94.5" spans="1:3">
+    <row r="117" ht="112" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4936,7 +4989,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="94.5" spans="1:3">
+    <row r="118" ht="98" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -4947,7 +5000,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="189" spans="1:3">
+    <row r="119" ht="196" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -4958,7 +5011,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="121.5" spans="1:3">
+    <row r="120" ht="126" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -4969,7 +5022,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="54" spans="1:3">
+    <row r="121" ht="56" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4980,7 +5033,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="94.5" spans="1:3">
+    <row r="122" ht="98" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -4991,7 +5044,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="94.5" spans="1:3">
+    <row r="123" ht="98" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -5002,7 +5055,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="216" spans="1:5">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -5019,7 +5072,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" ht="135" spans="1:3">
+    <row r="125" ht="140" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -5030,7 +5083,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" ht="94.5" spans="1:3">
+    <row r="126" ht="98" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -5041,7 +5094,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" ht="121.5" spans="1:3">
+    <row r="127" ht="126" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -5052,7 +5105,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="54" spans="1:3">
+    <row r="128" ht="56" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -5063,7 +5116,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" ht="94.5" spans="1:3">
+    <row r="129" ht="98" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -5074,7 +5127,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" ht="67.5" spans="1:3">
+    <row r="130" ht="70" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -5085,7 +5138,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" ht="108" spans="1:3">
+    <row r="131" ht="112" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>397</v>
       </c>
@@ -5096,7 +5149,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" ht="108" spans="1:3">
+    <row r="132" ht="112" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>400</v>
       </c>
@@ -5107,7 +5160,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" ht="81" spans="1:3">
+    <row r="133" ht="84" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>403</v>
       </c>
@@ -5118,7 +5171,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" ht="94.5" spans="1:3">
+    <row r="134" ht="98" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>406</v>
       </c>
@@ -5129,7 +5182,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" ht="81" spans="1:3">
+    <row r="135" ht="84" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
@@ -5140,7 +5193,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="136" ht="94.5" spans="1:3">
+    <row r="136" ht="98" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>412</v>
       </c>
@@ -5151,7 +5204,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" ht="94.5" spans="1:3">
+    <row r="137" ht="98" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>415</v>
       </c>
@@ -5160,6 +5213,50 @@
       </c>
       <c r="C137" s="2" t="s">
         <v>417</v>
+      </c>
+    </row>
+    <row r="138" ht="126" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="139" ht="70" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="140" ht="56" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" ht="84" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="12675" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="436">
   <si>
     <t>id</t>
   </si>
@@ -2624,6 +2624,28 @@
   <si>
     <t>嗨！
 来自世界各地的问候。我是 Gelinda，很高兴认识你。这是很长一段时间以来的第一张卡片，祝你明信片交换愉快，祝你今天过得愉快。我会的。我住在一个叫拉脱维亚的小国，它很小，但自然风光很好。</t>
+  </si>
+  <si>
+    <t>UA-1985093</t>
+  </si>
+  <si>
+    <t>Hello!
+my name is Julia. I am from Kyiv, Ukraine.
+18.01.2025</t>
+  </si>
+  <si>
+    <t>你好！
+我叫Julia。我来自乌克兰的基辅。
+2025年1月18日</t>
+  </si>
+  <si>
+    <t>US-11115566</t>
+  </si>
+  <si>
+    <t>Hi! from San Diego California! This card is from our favorite local coffee roaster. Just a short walk from our house— Happy Postcrossing! Many love &amp; greetings</t>
+  </si>
+  <si>
+    <t>你好！来自美国加利福尼亚州圣地亚哥市！这张明信片来自我们最喜欢的本地咖啡烘焙师。就在我们家附近— 祝你邮路愉快！许多爱与问候</t>
   </si>
 </sst>
 </file>
@@ -2797,6 +2819,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
@@ -2810,24 +2850,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3662,20 +3684,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2272727272727" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1090909090909" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.225" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.4416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1083333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
@@ -4262,7 +4284,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" ht="67.5" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -4273,7 +4295,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" ht="94.5" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4284,7 +4306,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" ht="108" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -4295,7 +4317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" ht="67.5" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -4306,7 +4328,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" ht="94.5" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -4317,7 +4339,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" ht="67.5" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4328,7 +4350,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="350" spans="1:3">
+    <row r="59" ht="337.5" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4339,7 +4361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="168" spans="1:3">
+    <row r="60" ht="162" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4350,7 +4372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
+    <row r="61" ht="67.5" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4361,7 +4383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="98" spans="1:3">
+    <row r="62" ht="94.5" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4372,7 +4394,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="126" spans="1:3">
+    <row r="63" ht="121.5" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4383,7 +4405,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" ht="135" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -4394,7 +4416,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:3">
+    <row r="65" ht="54" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -4405,7 +4427,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4422,7 +4444,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="126" spans="1:3">
+    <row r="67" ht="121.5" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4433,7 +4455,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" ht="94.5" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -4444,7 +4466,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="154" spans="1:3">
+    <row r="69" ht="148.5" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4455,7 +4477,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="56" spans="1:3">
+    <row r="70" ht="54" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4466,7 +4488,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="42" spans="1:3">
+    <row r="71" ht="40.5" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4477,7 +4499,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="98" spans="1:3">
+    <row r="72" ht="94.5" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -4488,7 +4510,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="98" spans="1:3">
+    <row r="73" ht="94.5" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -4499,7 +4521,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="70" spans="1:3">
+    <row r="74" ht="67.5" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -4510,7 +4532,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="70" spans="1:3">
+    <row r="75" ht="67.5" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4521,7 +4543,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="42" spans="1:3">
+    <row r="76" ht="40.5" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4532,7 +4554,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:3">
+    <row r="77" ht="27" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4543,7 +4565,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="224" spans="1:3">
+    <row r="78" ht="216" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4554,7 +4576,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="56" spans="1:3">
+    <row r="79" ht="54" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4565,7 +4587,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="98" spans="1:3">
+    <row r="80" ht="94.5" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4576,7 +4598,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="70" spans="1:3">
+    <row r="81" ht="67.5" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4587,7 +4609,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="154" spans="1:3">
+    <row r="82" ht="148.5" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4598,7 +4620,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:3">
+    <row r="83" ht="27" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4609,7 +4631,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4626,7 +4648,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="364" spans="1:3">
+    <row r="85" ht="351" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4637,7 +4659,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="112" spans="1:3">
+    <row r="86" ht="108" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4648,7 +4670,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="56" spans="1:3">
+    <row r="87" ht="54" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4659,7 +4681,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="84" spans="1:3">
+    <row r="88" ht="81" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4670,7 +4692,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="56" spans="1:3">
+    <row r="89" ht="54" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4681,7 +4703,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="112" spans="1:3">
+    <row r="90" ht="108" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4692,7 +4714,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="112" spans="1:3">
+    <row r="91" ht="108" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4703,7 +4725,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="84" spans="1:3">
+    <row r="92" ht="81" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4714,7 +4736,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="84" spans="1:3">
+    <row r="93" ht="81" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4725,7 +4747,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="100.5" spans="1:3">
+    <row r="94" ht="97.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4736,7 +4758,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="84" spans="1:3">
+    <row r="95" ht="81" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4747,7 +4769,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="98" spans="1:3">
+    <row r="96" ht="94.5" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4758,7 +4780,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="56" spans="1:3">
+    <row r="97" ht="54" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4769,7 +4791,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="70" spans="1:3">
+    <row r="98" ht="67.5" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4780,7 +4802,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="84" spans="1:3">
+    <row r="99" ht="81" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4791,7 +4813,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="100.5" spans="1:3">
+    <row r="100" ht="97.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4802,7 +4824,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="98" spans="1:3">
+    <row r="101" ht="94.5" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4813,7 +4835,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="70" spans="1:3">
+    <row r="102" ht="67.5" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4824,7 +4846,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="42" spans="1:3">
+    <row r="103" ht="40.5" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4835,7 +4857,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="56" spans="1:3">
+    <row r="104" ht="54" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4846,7 +4868,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="84" spans="1:3">
+    <row r="105" ht="81" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4857,7 +4879,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="28" spans="1:3">
+    <row r="106" ht="27" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4868,7 +4890,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="70" spans="1:3">
+    <row r="107" ht="67.5" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4879,7 +4901,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="282.5" spans="1:3">
+    <row r="108" ht="273" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4890,7 +4912,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="98" spans="1:3">
+    <row r="109" ht="81" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4901,7 +4923,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:3">
+    <row r="110" ht="27" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4912,7 +4934,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="56" spans="1:3">
+    <row r="111" ht="54" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4923,7 +4945,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="98" spans="1:3">
+    <row r="112" ht="94.5" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4934,7 +4956,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="84" spans="1:3">
+    <row r="113" ht="81" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4945,7 +4967,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="42" spans="1:3">
+    <row r="114" ht="40.5" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4956,7 +4978,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="84" spans="1:3">
+    <row r="115" ht="81" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4967,7 +4989,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="84" spans="1:3">
+    <row r="116" ht="81" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4978,7 +5000,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="112" spans="1:3">
+    <row r="117" ht="94.5" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4989,7 +5011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="98" spans="1:3">
+    <row r="118" ht="94.5" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -5000,7 +5022,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="196" spans="1:3">
+    <row r="119" ht="189" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -5011,7 +5033,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="126" spans="1:3">
+    <row r="120" ht="121.5" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -5022,7 +5044,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="56" spans="1:3">
+    <row r="121" ht="54" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -5033,7 +5055,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="98" spans="1:3">
+    <row r="122" ht="94.5" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -5044,7 +5066,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="98" spans="1:3">
+    <row r="123" ht="94.5" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -5055,7 +5077,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -5072,7 +5094,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" ht="140" spans="1:3">
+    <row r="125" ht="135" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -5083,7 +5105,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" ht="98" spans="1:3">
+    <row r="126" ht="94.5" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -5094,7 +5116,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" ht="126" spans="1:3">
+    <row r="127" ht="121.5" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -5105,7 +5127,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="56" spans="1:3">
+    <row r="128" ht="54" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -5116,7 +5138,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" ht="98" spans="1:3">
+    <row r="129" ht="94.5" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -5127,7 +5149,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" ht="70" spans="1:3">
+    <row r="130" ht="67.5" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -5138,7 +5160,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" ht="112" spans="1:3">
+    <row r="131" ht="108" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>397</v>
       </c>
@@ -5149,7 +5171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" ht="112" spans="1:3">
+    <row r="132" ht="108" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>400</v>
       </c>
@@ -5160,7 +5182,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" ht="84" spans="1:3">
+    <row r="133" ht="81" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>403</v>
       </c>
@@ -5171,7 +5193,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" ht="98" spans="1:3">
+    <row r="134" ht="94.5" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>406</v>
       </c>
@@ -5182,7 +5204,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" ht="84" spans="1:3">
+    <row r="135" ht="81" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
@@ -5193,7 +5215,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="136" ht="98" spans="1:3">
+    <row r="136" ht="94.5" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>412</v>
       </c>
@@ -5204,7 +5226,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" ht="98" spans="1:3">
+    <row r="137" ht="94.5" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>415</v>
       </c>
@@ -5215,7 +5237,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" ht="126" spans="1:3">
+    <row r="138" ht="121.5" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>418</v>
       </c>
@@ -5226,7 +5248,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="139" ht="70" spans="1:3">
+    <row r="139" ht="67.5" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>421</v>
       </c>
@@ -5237,7 +5259,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="140" ht="56" spans="1:3">
+    <row r="140" ht="54" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>424</v>
       </c>
@@ -5248,7 +5270,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="141" ht="84" spans="1:3">
+    <row r="141" ht="81" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>427</v>
       </c>
@@ -5257,6 +5279,28 @@
       </c>
       <c r="C141" s="2" t="s">
         <v>429</v>
+      </c>
+    </row>
+    <row r="142" ht="40.5" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="143" ht="54" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0468A8-063C-4E03-A7C5-9277C64C044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="12675" windowHeight="8025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -401,7 +407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Hello from Ukraine!
 Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
@@ -454,7 +460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>来自乌克兰的你好！
 在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
@@ -494,7 +500,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -613,7 +619,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -622,7 +628,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -631,7 +637,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -640,7 +646,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -664,7 +670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -673,7 +679,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -682,7 +688,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -691,7 +697,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -730,7 +736,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>postcard</t>
     </r>
@@ -1586,7 +1592,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1617,7 +1623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1699,7 +1705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1732,7 +1738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1850,7 +1856,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -1886,7 +1892,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -2647,18 +2653,25 @@
   <si>
     <t>你好！来自美国加利福尼亚州圣地亚哥市！这张明信片来自我们最喜欢的本地咖啡烘焙师。就在我们家附近— 祝你邮路愉快！许多爱与问候</t>
   </si>
+  <si>
+    <t>Hi Siyuan, Welcome from Winnipeg in the middle of Canada. What a cute avatar. My grandniece lives in Malaysia and is 2. I love to WhatsApp with her. She loves to sing with hand gestures! Cheers, Sandee</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA-1548364</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗨，思远，欢迎来自加拿大中部的温尼伯。你的头像真可爱。我的外甥女住在马来西亚，今年两岁。我喜欢用WhatsApp跟她交流。她很喜欢用手势唱歌！
+致意，珊迪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2670,163 +2683,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2844,13 +2713,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2862,204 +2731,33 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3067,253 +2765,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3333,65 +2789,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3676,31 +3094,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.225" style="1" customWidth="1"/>
-    <col min="2" max="3" width="52.4416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3717,7 +3135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3728,7 +3146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3739,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3750,7 +3168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3761,7 +3179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="94.2" customHeight="1" spans="1:3">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -3772,7 +3190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -3783,7 +3201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3794,7 +3212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -3805,7 +3223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -3816,7 +3234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -3827,7 +3245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -3838,7 +3256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3849,7 +3267,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3860,7 +3278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -3871,7 +3289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3882,7 +3300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -3893,7 +3311,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -3904,7 +3322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3915,7 +3333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -3926,7 +3344,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -3937,7 +3355,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -3948,7 +3366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -3959,7 +3377,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -3970,7 +3388,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -3981,7 +3399,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
@@ -3998,7 +3416,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="58.2" customHeight="1" spans="1:3">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -4009,7 +3427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -4020,7 +3438,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -4031,7 +3449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
@@ -4042,7 +3460,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -4053,7 +3471,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
@@ -4064,7 +3482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
@@ -4075,7 +3493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -4086,7 +3504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
@@ -4097,7 +3515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -4108,7 +3526,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
@@ -4119,7 +3537,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -4130,7 +3548,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
@@ -4141,7 +3559,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
@@ -4152,7 +3570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>124</v>
       </c>
@@ -4163,7 +3581,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
@@ -4174,7 +3592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
@@ -4185,7 +3603,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -4196,7 +3614,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
@@ -4207,7 +3625,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>139</v>
       </c>
@@ -4218,7 +3636,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>142</v>
       </c>
@@ -4229,7 +3647,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>145</v>
       </c>
@@ -4240,7 +3658,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:3">
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>148</v>
       </c>
@@ -4251,7 +3669,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:3">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -4262,7 +3680,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" ht="18.75" customHeight="1" spans="1:3">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -4273,7 +3691,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
+    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
@@ -4284,7 +3702,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="67.5" spans="1:3">
+    <row r="53" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -4295,7 +3713,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="94.5" spans="1:3">
+    <row r="54" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4306,7 +3724,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="108" spans="1:3">
+    <row r="55" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -4317,7 +3735,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="67.5" spans="1:3">
+    <row r="56" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -4328,7 +3746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="94.5" spans="1:3">
+    <row r="57" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -4339,7 +3757,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="67.5" spans="1:3">
+    <row r="58" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4350,7 +3768,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="337.5" spans="1:3">
+    <row r="59" spans="1:3" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4361,7 +3779,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="162" spans="1:3">
+    <row r="60" spans="1:3" ht="162" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4372,7 +3790,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="67.5" spans="1:3">
+    <row r="61" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4383,7 +3801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="94.5" spans="1:3">
+    <row r="62" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4394,7 +3812,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="121.5" spans="1:3">
+    <row r="63" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4405,7 +3823,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="135" spans="1:3">
+    <row r="64" spans="1:3" ht="135" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -4416,7 +3834,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="54" spans="1:3">
+    <row r="65" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -4427,7 +3845,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="243" spans="1:5">
+    <row r="66" spans="1:5" ht="243" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4444,7 +3862,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="121.5" spans="1:3">
+    <row r="67" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4455,7 +3873,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="94.5" spans="1:3">
+    <row r="68" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -4466,7 +3884,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="148.5" spans="1:3">
+    <row r="69" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4477,7 +3895,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="54" spans="1:3">
+    <row r="70" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4488,7 +3906,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="40.5" spans="1:3">
+    <row r="71" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4499,7 +3917,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="94.5" spans="1:3">
+    <row r="72" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -4510,7 +3928,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="94.5" spans="1:3">
+    <row r="73" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -4521,7 +3939,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="67.5" spans="1:3">
+    <row r="74" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -4532,7 +3950,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="67.5" spans="1:3">
+    <row r="75" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4543,7 +3961,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="40.5" spans="1:3">
+    <row r="76" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4554,7 +3972,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:3">
+    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4565,7 +3983,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="216" spans="1:3">
+    <row r="78" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4576,7 +3994,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="54" spans="1:3">
+    <row r="79" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4587,7 +4005,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="94.5" spans="1:3">
+    <row r="80" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4598,7 +4016,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="67.5" spans="1:3">
+    <row r="81" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4609,7 +4027,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="148.5" spans="1:3">
+    <row r="82" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4620,7 +4038,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:3">
+    <row r="83" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4631,7 +4049,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="108" spans="1:5">
+    <row r="84" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4648,7 +4066,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="351" spans="1:3">
+    <row r="85" spans="1:5" ht="351" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4659,7 +4077,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="108" spans="1:3">
+    <row r="86" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4670,7 +4088,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="54" spans="1:3">
+    <row r="87" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4681,7 +4099,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="81" spans="1:3">
+    <row r="88" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4692,7 +4110,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="54" spans="1:3">
+    <row r="89" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4703,7 +4121,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="108" spans="1:3">
+    <row r="90" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4714,7 +4132,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="108" spans="1:3">
+    <row r="91" spans="1:5" ht="108" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4725,7 +4143,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="81" spans="1:3">
+    <row r="92" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4736,7 +4154,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="81" spans="1:3">
+    <row r="93" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4747,7 +4165,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="97.5" spans="1:3">
+    <row r="94" spans="1:5" ht="97.5" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4758,7 +4176,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="81" spans="1:3">
+    <row r="95" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4769,7 +4187,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="94.5" spans="1:3">
+    <row r="96" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4780,7 +4198,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="54" spans="1:3">
+    <row r="97" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4791,7 +4209,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="67.5" spans="1:3">
+    <row r="98" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4802,7 +4220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="81" spans="1:3">
+    <row r="99" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4813,7 +4231,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="97.5" spans="1:3">
+    <row r="100" spans="1:3" ht="97.5" x14ac:dyDescent="0.15">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4824,7 +4242,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="94.5" spans="1:3">
+    <row r="101" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4835,7 +4253,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="67.5" spans="1:3">
+    <row r="102" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4846,7 +4264,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="40.5" spans="1:3">
+    <row r="103" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4857,7 +4275,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="54" spans="1:3">
+    <row r="104" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4868,7 +4286,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="81" spans="1:3">
+    <row r="105" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4879,7 +4297,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="1:3">
+    <row r="106" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4890,7 +4308,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="67.5" spans="1:3">
+    <row r="107" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4901,7 +4319,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="273" spans="1:3">
+    <row r="108" spans="1:3" ht="300" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4912,7 +4330,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="81" spans="1:3">
+    <row r="109" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -4923,7 +4341,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:3">
+    <row r="110" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4934,7 +4352,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="54" spans="1:3">
+    <row r="111" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4945,7 +4363,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="94.5" spans="1:3">
+    <row r="112" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4956,7 +4374,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="81" spans="1:3">
+    <row r="113" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4967,7 +4385,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="40.5" spans="1:3">
+    <row r="114" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4978,7 +4396,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="81" spans="1:3">
+    <row r="115" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4989,7 +4407,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="81" spans="1:3">
+    <row r="116" spans="1:5" ht="81" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -5000,7 +4418,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="94.5" spans="1:3">
+    <row r="117" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -5011,7 +4429,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="94.5" spans="1:3">
+    <row r="118" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -5022,7 +4440,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="189" spans="1:3">
+    <row r="119" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -5033,7 +4451,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="121.5" spans="1:3">
+    <row r="120" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -5044,7 +4462,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="54" spans="1:3">
+    <row r="121" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -5055,7 +4473,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="94.5" spans="1:3">
+    <row r="122" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -5066,7 +4484,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="94.5" spans="1:3">
+    <row r="123" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -5077,7 +4495,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="216" spans="1:5">
+    <row r="124" spans="1:5" ht="216" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -5094,7 +4512,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" ht="135" spans="1:3">
+    <row r="125" spans="1:5" ht="135" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -5105,7 +4523,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" ht="94.5" spans="1:3">
+    <row r="126" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -5116,7 +4534,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" ht="121.5" spans="1:3">
+    <row r="127" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -5127,7 +4545,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="54" spans="1:3">
+    <row r="128" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -5138,7 +4556,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" ht="94.5" spans="1:3">
+    <row r="129" spans="1:3" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -5149,7 +4567,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" ht="67.5" spans="1:3">
+    <row r="130" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -5160,7 +4578,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" ht="108" spans="1:3">
+    <row r="131" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>397</v>
       </c>
@@ -5171,7 +4589,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" ht="108" spans="1:3">
+    <row r="132" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>400</v>
       </c>
@@ -5182,7 +4600,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" ht="81" spans="1:3">
+    <row r="133" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>403</v>
       </c>
@@ -5193,7 +4611,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" ht="94.5" spans="1:3">
+    <row r="134" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>406</v>
       </c>
@@ -5204,7 +4622,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" ht="81" spans="1:3">
+    <row r="135" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
@@ -5215,7 +4633,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="136" ht="94.5" spans="1:3">
+    <row r="136" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>412</v>
       </c>
@@ -5226,7 +4644,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" ht="94.5" spans="1:3">
+    <row r="137" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>415</v>
       </c>
@@ -5237,7 +4655,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" ht="121.5" spans="1:3">
+    <row r="138" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>418</v>
       </c>
@@ -5248,7 +4666,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="139" ht="67.5" spans="1:3">
+    <row r="139" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>421</v>
       </c>
@@ -5259,7 +4677,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="140" ht="54" spans="1:3">
+    <row r="140" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>424</v>
       </c>
@@ -5270,7 +4688,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="141" ht="81" spans="1:3">
+    <row r="141" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>427</v>
       </c>
@@ -5281,7 +4699,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="142" ht="40.5" spans="1:3">
+    <row r="142" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>430</v>
       </c>
@@ -5292,7 +4710,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" ht="54" spans="1:3">
+    <row r="143" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>433</v>
       </c>
@@ -5303,8 +4721,19 @@
         <v>435</v>
       </c>
     </row>
+    <row r="144" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A144" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\Postcrossing_map_generator\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0468A8-063C-4E03-A7C5-9277C64C044F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="445">
   <si>
     <t>id</t>
   </si>
@@ -407,7 +401,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Hello from Ukraine!
 Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea
@@ -460,7 +454,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>来自乌克兰的你好！
 在这里你可以看到位于乌克兰——克里米亚南部的塔尔坎库特角
@@ -500,7 +494,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -619,7 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -628,7 +622,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -637,7 +631,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -646,7 +640,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -670,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>20 $\frac {x}{17}$ 23 +4</t>
     </r>
@@ -679,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -688,7 +682,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -697,7 +691,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">🌥️
 </t>
@@ -736,7 +730,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>postcard</t>
     </r>
@@ -1592,7 +1586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1623,7 +1617,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>♡</t>
     </r>
@@ -1705,7 +1699,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1738,7 +1732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>☁️</t>
     </r>
@@ -1856,7 +1850,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -1892,7 +1886,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Ć</t>
     </r>
@@ -2654,24 +2648,56 @@
     <t>你好！来自美国加利福尼亚州圣地亚哥市！这张明信片来自我们最喜欢的本地咖啡烘焙师。就在我们家附近— 祝你邮路愉快！许多爱与问候</t>
   </si>
   <si>
+    <t>CA-1548364</t>
+  </si>
+  <si>
     <t>Hi Siyuan, Welcome from Winnipeg in the middle of Canada. What a cute avatar. My grandniece lives in Malaysia and is 2. I love to WhatsApp with her. She loves to sing with hand gestures! Cheers, Sandee</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CA-1548364</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>嗨，思远，欢迎来自加拿大中部的温尼伯。你的头像真可爱。我的外甥女住在马来西亚，今年两岁。我喜欢用WhatsApp跟她交流。她很喜欢用手势唱歌！
 致意，珊迪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE-940863</t>
+  </si>
+  <si>
+    <t>Bonjour! Hello from Belgium!
+My name is Laurence. I live in Brussels.
+I love drawing as you can see on both sides.
+I love traveling too. We're back from a lovely spa break in Luxembourg.
+I wish you a wonderful 2025!
+Cheers!</t>
+  </si>
+  <si>
+    <t>你好！来自比利时的问候！
+我叫劳伦斯。我住在布鲁塞尔。
+我喜欢画画，正如你在两侧所见。
+我也喜欢旅行。我们刚从卢森堡的一个可爱的温泉假期回来。
+祝你2025年美好如意！
+干杯！</t>
+  </si>
+  <si>
+    <t>TW-3675643</t>
+  </si>
+  <si>
+    <t>你好，我來自台灣台南的Angela，這是我寄給你的第2張明信片。挑選今年生肖&lt;蛇&gt;。第一張可能遺失了，希望你不要介意</t>
+  </si>
+  <si>
+    <t>3/4. 2025
+你好，我来自台湾台南的Angela，这是我寄给你的第2张明信片。挑选今年生肖&lt;蛇&gt;。第一张可能遗失了，希望你不要介意</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2683,24 +2709,163 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2712,52 +2877,235 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2765,11 +3113,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2789,27 +3379,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3094,23 +3728,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
@@ -3118,7 +3752,7 @@
     <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3135,7 +3769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3146,7 +3780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -3157,7 +3791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3168,7 +3802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -3179,7 +3813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -3190,7 +3824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -3201,7 +3835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -3212,7 +3846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +3857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -3234,7 +3868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -3245,7 +3879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -3256,7 +3890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -3267,7 +3901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -3278,7 +3912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -3289,7 +3923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -3300,7 +3934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -3311,7 +3945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
@@ -3322,7 +3956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3333,7 +3967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
@@ -3355,7 +3989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -3366,7 +4000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -3377,7 +4011,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
@@ -3388,7 +4022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -3399,7 +4033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
@@ -3416,7 +4050,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" s="1" customFormat="1" ht="58.15" customHeight="1" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
@@ -3427,7 +4061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>85</v>
       </c>
@@ -3438,7 +4072,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -3449,7 +4083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>91</v>
       </c>
@@ -3460,7 +4094,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -3471,7 +4105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
@@ -3482,7 +4116,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>100</v>
       </c>
@@ -3493,7 +4127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>103</v>
       </c>
@@ -3504,7 +4138,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>106</v>
       </c>
@@ -3515,7 +4149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>109</v>
       </c>
@@ -3526,7 +4160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>112</v>
       </c>
@@ -3537,7 +4171,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -3548,7 +4182,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
@@ -3559,7 +4193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
@@ -3570,7 +4204,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>124</v>
       </c>
@@ -3581,7 +4215,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
@@ -3592,7 +4226,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
@@ -3603,7 +4237,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -3614,7 +4248,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>136</v>
       </c>
@@ -3625,7 +4259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>139</v>
       </c>
@@ -3636,7 +4270,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>142</v>
       </c>
@@ -3647,7 +4281,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>145</v>
       </c>
@@ -3658,7 +4292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>148</v>
       </c>
@@ -3669,7 +4303,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" ht="18.75" customHeight="1" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>151</v>
       </c>
@@ -3680,7 +4314,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="18.75" customHeight="1" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -3691,7 +4325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>157</v>
       </c>
@@ -3702,7 +4336,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="53" ht="67.5" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -3713,7 +4347,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="54" ht="94.5" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -3724,7 +4358,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+    <row r="55" ht="108" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -3735,7 +4369,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="56" ht="67.5" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -3746,7 +4380,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="57" ht="94.5" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -3757,7 +4391,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="58" ht="67.5" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -3768,7 +4402,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="337.5" x14ac:dyDescent="0.15">
+    <row r="59" ht="337.5" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -3779,7 +4413,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+    <row r="60" ht="162" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -3790,7 +4424,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="61" ht="67.5" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -3801,7 +4435,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="62" ht="94.5" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -3812,7 +4446,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="63" ht="121.5" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -3823,7 +4457,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="135" x14ac:dyDescent="0.15">
+    <row r="64" ht="135" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -3834,7 +4468,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="65" ht="54" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -3845,7 +4479,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="243" x14ac:dyDescent="0.15">
+    <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -3862,7 +4496,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="67" ht="121.5" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -3873,7 +4507,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="68" ht="94.5" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -3884,7 +4518,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="69" ht="148.5" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -3895,7 +4529,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="70" ht="54" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -3906,7 +4540,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="71" ht="40.5" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -3917,7 +4551,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="72" ht="94.5" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -3928,7 +4562,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="73" ht="94.5" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -3939,7 +4573,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="74" ht="67.5" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -3950,7 +4584,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="75" ht="67.5" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -3961,7 +4595,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="76" ht="40.5" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -3972,7 +4606,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" ht="27" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -3983,7 +4617,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="78" ht="216" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -3994,7 +4628,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="79" ht="54" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4005,7 +4639,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="80" ht="94.5" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4016,7 +4650,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="81" ht="67.5" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4027,7 +4661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="82" ht="148.5" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4038,7 +4672,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" ht="27" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4049,7 +4683,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4066,7 +4700,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="351" x14ac:dyDescent="0.15">
+    <row r="85" ht="351" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4077,7 +4711,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="86" ht="108" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4088,7 +4722,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="87" ht="54" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4099,7 +4733,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="88" ht="81" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4110,7 +4744,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="89" ht="54" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4121,7 +4755,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="90" ht="108" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4132,7 +4766,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="108" x14ac:dyDescent="0.15">
+    <row r="91" ht="108" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4143,7 +4777,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="92" ht="81" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4154,7 +4788,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="93" ht="81" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4165,7 +4799,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="97.5" x14ac:dyDescent="0.15">
+    <row r="94" ht="97.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4176,7 +4810,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="95" ht="81" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4187,7 +4821,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="96" ht="94.5" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4198,7 +4832,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="97" ht="54" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4209,7 +4843,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="98" ht="67.5" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4220,7 +4854,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+    <row r="99" ht="81" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4231,7 +4865,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="97.5" x14ac:dyDescent="0.15">
+    <row r="100" ht="97.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4242,7 +4876,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="101" ht="94.5" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4253,7 +4887,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="102" ht="67.5" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4264,7 +4898,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="103" ht="40.5" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -4275,7 +4909,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="104" ht="54" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -4286,7 +4920,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+    <row r="105" ht="81" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -4297,7 +4931,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="106" ht="27" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -4308,7 +4942,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="107" ht="67.5" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -4319,7 +4953,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="300" x14ac:dyDescent="0.15">
+    <row r="108" ht="273" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -4330,18 +4964,18 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+    <row r="109" ht="81" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="9" t="s">
         <v>332</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" ht="27" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -4352,7 +4986,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="111" ht="54" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -4363,7 +4997,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="112" ht="94.5" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -4374,7 +5008,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="113" ht="81" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -4385,7 +5019,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="114" ht="40.5" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -4396,7 +5030,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="115" ht="81" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -4407,7 +5041,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+    <row r="116" ht="81" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -4418,7 +5052,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="117" ht="94.5" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -4429,7 +5063,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="118" ht="94.5" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -4440,7 +5074,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="119" ht="189" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -4451,7 +5085,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="120" ht="121.5" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -4462,7 +5096,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="121" ht="54" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -4473,7 +5107,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="122" ht="94.5" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -4484,7 +5118,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="123" ht="94.5" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -4495,7 +5129,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="216" x14ac:dyDescent="0.15">
+    <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -4512,7 +5146,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="125" ht="135" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -4523,7 +5157,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="126" ht="94.5" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -4534,7 +5168,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="127" ht="121.5" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -4545,7 +5179,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="54" x14ac:dyDescent="0.15">
+    <row r="128" ht="54" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -4556,7 +5190,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="129" ht="94.5" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -4567,7 +5201,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="130" ht="67.5" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -4578,7 +5212,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+    <row r="131" ht="108" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>397</v>
       </c>
@@ -4589,7 +5223,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+    <row r="132" ht="108" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>400</v>
       </c>
@@ -4600,7 +5234,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+    <row r="133" ht="81" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>403</v>
       </c>
@@ -4611,7 +5245,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="134" ht="94.5" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>406</v>
       </c>
@@ -4622,7 +5256,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+    <row r="135" ht="81" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
@@ -4633,7 +5267,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="136" ht="94.5" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>412</v>
       </c>
@@ -4644,7 +5278,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="137" ht="94.5" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>415</v>
       </c>
@@ -4655,7 +5289,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="138" ht="121.5" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>418</v>
       </c>
@@ -4666,7 +5300,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="139" ht="67.5" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>421</v>
       </c>
@@ -4677,7 +5311,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="140" ht="54" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>424</v>
       </c>
@@ -4688,7 +5322,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+    <row r="141" ht="81" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>427</v>
       </c>
@@ -4699,7 +5333,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="142" ht="40.5" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>430</v>
       </c>
@@ -4710,7 +5344,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="143" ht="54" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>433</v>
       </c>
@@ -4721,19 +5355,41 @@
         <v>435</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="54" x14ac:dyDescent="0.15">
-      <c r="A144" s="9" t="s">
+    <row r="144" ht="54" spans="1:3">
+      <c r="A144" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>437</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>436</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>438</v>
       </c>
     </row>
+    <row r="145" ht="94.5" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" ht="40.5" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="451">
   <si>
     <t>id</t>
   </si>
@@ -2685,6 +2685,44 @@
   <si>
     <t>3/4. 2025
 你好，我来自台湾台南的Angela，这是我寄给你的第2张明信片。挑选今年生肖&lt;蛇&gt;。第一张可能遗失了，希望你不要介意</t>
+  </si>
+  <si>
+    <t>DE-15398865</t>
+  </si>
+  <si>
+    <t>Hello Arthur, I'm Christiane and I live in a suburb of Berlin. I also really enjoy cycling. I travel by bike, meaning I carry all my luggage on my bike. I really enjoy it. Sometimes a trip can be 100 km long, even though I only plan for about 80-90 km. A day trip can sometimes be 120 km long. I think we have a great hobby.
+In winter, I plan my trips, I read books with historical background and write postcards. I wish you and yours all the best! And always enough air in the tires!
+Kind regards, Christiane"</t>
+  </si>
+  <si>
+    <t>你好，Arthur，我叫 Christiane，住在柏林郊区。我也非常喜欢骑自行车。我骑自行车出行，也就是说，我会把所有行李都放在车上。我真的很享受。有时，一次行程可以长达 100 公里，尽管我计划的行程只有 80-90 公里。有时，一日游可以长达 120 公里。我觉得我们有一个很棒的爱好。
+冬天，我会计划旅行，阅读历史书籍，写明信片。祝你和你的家人一切顺利！祝你轮胎永远充满气！
+此致敬礼，Christiane</t>
+  </si>
+  <si>
+    <t>FR-1798160</t>
+  </si>
+  <si>
+    <t>P1：
+Hello From France
+You who love sports
+I found a card (sliding sports) and a surprise for your daughter.
+I'm writing to you in French my first name and where I'm writing from.
+je m'appelle CHANTAL
+je vis sur la côte Atlantique dans le Sud-ouest de la France. Bisous. - Chantal
+P2:
+A little surprise For you, my little love. You are very pretty. I send you Big hugs. :) CHANTAL</t>
+  </si>
+  <si>
+    <t>P1：
+你好，来自法国
+你们这些热爱运动的人
+我找到了一张卡片（滑行运动）以及一个送给你女儿的惊喜。
+我用法语写信给你并介绍我的名字和我写信的地方。
+je m'appelle CHANTAL--我叫CHANTAL（香塔尔）。
+je vis sur la côte Atlantique dans le Sud-ouest de la France. Bisous. - Chantal--我住在法国西南部的大西洋海岸。亲亲。 - 香塔尔
+P2:
+给你一个小惊喜，我的小宝贝。你真漂亮。给你一个大大的拥抱。:) CHANTAL</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +2735,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2710,13 +2748,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2865,19 +2896,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2888,8 +2919,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2900,15 +2931,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3229,13 +3260,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3244,122 +3278,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3378,12 +3409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3736,12 +3761,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
+      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4968,7 +4993,7 @@
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="7" t="s">
         <v>332</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -5356,13 +5381,13 @@
       </c>
     </row>
     <row r="144" ht="54" spans="1:3">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="5" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5386,6 +5411,28 @@
       </c>
       <c r="C146" s="2" t="s">
         <v>444</v>
+      </c>
+    </row>
+    <row r="147" ht="178" customHeight="1" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="148" ht="202.5" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="463">
   <si>
     <t>id</t>
   </si>
@@ -2723,6 +2723,78 @@
 je vis sur la côte Atlantique dans le Sud-ouest de la France. Bisous. - Chantal--我住在法国西南部的大西洋海岸。亲亲。 - 香塔尔
 P2:
 给你一个小惊喜，我的小宝贝。你真漂亮。给你一个大大的拥抱。:) CHANTAL</t>
+  </si>
+  <si>
+    <t>LU-121426</t>
+  </si>
+  <si>
+    <t>Greetings from Luxembourg!
+Originally I am from Russia but I have lived in this small green and calm country for 3 years.
+I think this postcard will arrive after 7th May, but I still want to wish you all the best
+wherever you are and whatever you do—I hope you enjoy life and have fun! 😊
+Warm hugs from Luxembourg!
+Daria
+24.04.25</t>
+  </si>
+  <si>
+    <t>来自卢森堡的问候！
+我本来是俄罗斯人，但我已经在这个小而绿色、宁静的国家生活了3年。
+我觉得这张明信片可能会在5月7日之后到达，但我依然想送上最好的祝福，
+无论你身在何处，无论你做什么——希望你享受生活，充满快乐！ 😊
+来自卢森堡的温暖拥抱！
+达莉亚
+2025年4月24日</t>
+  </si>
+  <si>
+    <t>US-11342115</t>
+  </si>
+  <si>
+    <t>Arthur, hello from the mountains of North Carolina 
+This is along the Appalachian trail, the longest hiking-only trail in the world.
+It runs for 3524 km through 14 states.
+Best Wishes
+Jim</t>
+  </si>
+  <si>
+    <t>阿瑟，来自北卡罗来纳山脉的问候 
+这里是阿巴拉契亚小径，它是世界上最长的徒步旅行专用小径。
+小径全长3524公里，穿越14个州。
+祝一切顺利
+吉姆</t>
+  </si>
+  <si>
+    <t>US-11342120</t>
+  </si>
+  <si>
+    <t>Hello, Arthur
+Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!
+- Olivia</t>
+  </si>
+  <si>
+    <t>你好，Arthur，
+你的女儿真可爱！我希望她能喜欢那些兔子。我也希望你能达成骑行100次的目标。我已经至少10年没有骑过自行车了，我很怀念这种感觉！
+—— 奥利维亚</t>
+  </si>
+  <si>
+    <t>DE-15398868</t>
+  </si>
+  <si>
+    <t>Hi Siyuan Feng,
+If this card reaches you past 7th May:
+Happy Birthday to you.
+I hope you and your family are doing good.
+Your daughter looks so cute on your profile picture! ❤️ May she be blessed with health and lots of love :)
+With kind regards,
+Nicole 🌸</t>
+  </si>
+  <si>
+    <t>Hi 冯思远：
+如果这张卡片在5月7日后到达你的手中：
+祝你生日快乐。
+希望你和家人一切安好。
+你的女儿在你的头像中看起来好可爱！❤️愿她健康平安，充满爱意 :)
+亲切的问候，
+Nicole 🌸</t>
   </si>
 </sst>
 </file>
@@ -2896,12 +2968,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
@@ -2909,6 +2975,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2925,14 +2997,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3761,12 +3833,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5435,6 +5507,50 @@
         <v>450</v>
       </c>
     </row>
+    <row r="149" ht="148.5" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="150" ht="94.5" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="151" ht="94.5" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="152" ht="121.5" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="469">
   <si>
     <t>id</t>
   </si>
@@ -2795,6 +2795,51 @@
 你的女儿在你的头像中看起来好可爱！❤️愿她健康平安，充满爱意 :)
 亲切的问候，
 Nicole 🌸</t>
+  </si>
+  <si>
+    <t>DE-15398867</t>
+  </si>
+  <si>
+    <t>Hello Arthur!
+GREETINGS FROM COLLEEN CRAFTYHILL
+a Canadian living in Speyer, Germany on the Rhine at Km 400.6.
+The Rhine is low at 2.80 m but it is up from 2.19 m at which much of Rhine transport was halted.
+I wish you all the best with your goal of 100 100 km road races. Very cool!!
+Your daughter is very cute indeed. My "fur baby," Dante, is quite cute, too.
+I'm a tourist guide here in Speyer. I love my job!
+All the best,
+Colleen</t>
+  </si>
+  <si>
+    <t>你好，Arthur！
+来自科琳·克拉夫蒂希尔的问候
+她是一位加拿大人，居住在德国施派尔，莱茵河畔，海拔400.6公里处。
+莱茵河水位较低，为2.80米，但比莱茵河大部分交通工具停止运行的2.19米水位有所上升。
+祝你100场100公里公路赛的目标一切顺利。太棒了！！
+你的女儿真是太可爱了。我的“毛孩子”但丁也很可爱。
+我在施派尔做导游。我热爱我的工作！
+祝你一切顺利，
+科琳</t>
+  </si>
+  <si>
+    <t>MO-69924</t>
+  </si>
+  <si>
+    <t>hello
+I'm CATIA from Macao.
+Happy to share my artwork with you.
+"When you start appreciating what you have, instead of lamenting what you don't have, something shifts."
+HAPPY POSTCROSSING
+CATIA
+8.5.2025</t>
+  </si>
+  <si>
+    <t>你好
+我是来自澳门的CATIA。
+很高兴和你分享我的艺术作品。
+“当你开始感激你所拥有的东西，而不是哀叹你没有的东西时，一切都会有所改变。”
+祝快乐邮递！
+CATIA</t>
   </si>
 </sst>
 </file>
@@ -2973,12 +3018,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
@@ -2991,6 +3030,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <charset val="134"/>
@@ -2998,8 +3043,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3010,8 +3055,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3833,20 +3878,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -4433,7 +4478,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="67.5" spans="1:3">
+    <row r="53" ht="70" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -4444,7 +4489,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="94.5" spans="1:3">
+    <row r="54" ht="98" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4455,7 +4500,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="108" spans="1:3">
+    <row r="55" ht="112" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -4466,7 +4511,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="67.5" spans="1:3">
+    <row r="56" ht="70" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -4477,7 +4522,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="94.5" spans="1:3">
+    <row r="57" ht="98" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -4488,7 +4533,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="67.5" spans="1:3">
+    <row r="58" ht="70" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4499,7 +4544,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="337.5" spans="1:3">
+    <row r="59" ht="350" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4510,7 +4555,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="162" spans="1:3">
+    <row r="60" ht="168" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4521,7 +4566,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="67.5" spans="1:3">
+    <row r="61" ht="70" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4532,7 +4577,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="94.5" spans="1:3">
+    <row r="62" ht="98" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4543,7 +4588,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="121.5" spans="1:3">
+    <row r="63" ht="126" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4554,7 +4599,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="135" spans="1:3">
+    <row r="64" ht="140" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -4565,7 +4610,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="54" spans="1:3">
+    <row r="65" ht="56" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -4576,7 +4621,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="243" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4593,7 +4638,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="121.5" spans="1:3">
+    <row r="67" ht="126" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4604,7 +4649,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="94.5" spans="1:3">
+    <row r="68" ht="98" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -4615,7 +4660,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="148.5" spans="1:3">
+    <row r="69" ht="154" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4626,7 +4671,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="54" spans="1:3">
+    <row r="70" ht="56" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4637,7 +4682,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="40.5" spans="1:3">
+    <row r="71" ht="42" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4648,7 +4693,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="94.5" spans="1:3">
+    <row r="72" ht="98" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -4659,7 +4704,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="94.5" spans="1:3">
+    <row r="73" ht="98" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -4670,7 +4715,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="67.5" spans="1:3">
+    <row r="74" ht="70" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -4681,7 +4726,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="67.5" spans="1:3">
+    <row r="75" ht="70" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4692,7 +4737,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="40.5" spans="1:3">
+    <row r="76" ht="42" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4703,7 +4748,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:3">
+    <row r="77" ht="28" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4714,7 +4759,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="216" spans="1:3">
+    <row r="78" ht="224" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4725,7 +4770,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="54" spans="1:3">
+    <row r="79" ht="56" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4736,7 +4781,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="94.5" spans="1:3">
+    <row r="80" ht="98" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4747,7 +4792,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="67.5" spans="1:3">
+    <row r="81" ht="70" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4758,7 +4803,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="148.5" spans="1:3">
+    <row r="82" ht="154" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4769,7 +4814,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:3">
+    <row r="83" ht="28" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4780,7 +4825,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="108" spans="1:5">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4797,7 +4842,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="351" spans="1:3">
+    <row r="85" ht="364" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4808,7 +4853,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="108" spans="1:3">
+    <row r="86" ht="112" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4819,7 +4864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="54" spans="1:3">
+    <row r="87" ht="56" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4830,7 +4875,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="81" spans="1:3">
+    <row r="88" ht="84" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4841,7 +4886,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="54" spans="1:3">
+    <row r="89" ht="56" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4852,7 +4897,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="108" spans="1:3">
+    <row r="90" ht="112" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4863,7 +4908,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="108" spans="1:3">
+    <row r="91" ht="112" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4874,7 +4919,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="81" spans="1:3">
+    <row r="92" ht="84" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4885,7 +4930,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="81" spans="1:3">
+    <row r="93" ht="84" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4896,7 +4941,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="97.5" spans="1:3">
+    <row r="94" ht="100.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4907,7 +4952,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="81" spans="1:3">
+    <row r="95" ht="84" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4918,7 +4963,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="94.5" spans="1:3">
+    <row r="96" ht="98" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4929,7 +4974,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="54" spans="1:3">
+    <row r="97" ht="56" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4940,7 +4985,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="67.5" spans="1:3">
+    <row r="98" ht="70" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4951,7 +4996,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="81" spans="1:3">
+    <row r="99" ht="84" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -4962,7 +5007,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="97.5" spans="1:3">
+    <row r="100" ht="100.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -4973,7 +5018,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="94.5" spans="1:3">
+    <row r="101" ht="98" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -4984,7 +5029,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="67.5" spans="1:3">
+    <row r="102" ht="70" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -4995,7 +5040,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="40.5" spans="1:3">
+    <row r="103" ht="42" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -5006,7 +5051,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="54" spans="1:3">
+    <row r="104" ht="56" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -5017,7 +5062,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="81" spans="1:3">
+    <row r="105" ht="84" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -5028,7 +5073,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="1:3">
+    <row r="106" ht="28" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -5039,7 +5084,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="67.5" spans="1:3">
+    <row r="107" ht="70" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -5050,7 +5095,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="273" spans="1:3">
+    <row r="108" ht="282.5" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -5061,7 +5106,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="81" spans="1:3">
+    <row r="109" ht="98" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -5072,7 +5117,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:3">
+    <row r="110" ht="28" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -5083,7 +5128,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="54" spans="1:3">
+    <row r="111" ht="56" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -5094,7 +5139,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="94.5" spans="1:3">
+    <row r="112" ht="98" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -5105,7 +5150,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="81" spans="1:3">
+    <row r="113" ht="84" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -5116,7 +5161,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="40.5" spans="1:3">
+    <row r="114" ht="42" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -5127,7 +5172,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="81" spans="1:3">
+    <row r="115" ht="84" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -5138,7 +5183,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="81" spans="1:3">
+    <row r="116" ht="84" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -5149,7 +5194,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="94.5" spans="1:3">
+    <row r="117" ht="112" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -5160,7 +5205,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="94.5" spans="1:3">
+    <row r="118" ht="98" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -5171,7 +5216,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="189" spans="1:3">
+    <row r="119" ht="196" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -5182,7 +5227,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="121.5" spans="1:3">
+    <row r="120" ht="126" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -5193,7 +5238,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="54" spans="1:3">
+    <row r="121" ht="56" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -5204,7 +5249,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="94.5" spans="1:3">
+    <row r="122" ht="98" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -5215,7 +5260,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="94.5" spans="1:3">
+    <row r="123" ht="98" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -5226,7 +5271,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="216" spans="1:5">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -5243,7 +5288,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" ht="135" spans="1:3">
+    <row r="125" ht="140" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -5254,7 +5299,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" ht="94.5" spans="1:3">
+    <row r="126" ht="98" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -5265,7 +5310,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" ht="121.5" spans="1:3">
+    <row r="127" ht="126" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -5276,7 +5321,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="54" spans="1:3">
+    <row r="128" ht="56" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -5287,7 +5332,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" ht="94.5" spans="1:3">
+    <row r="129" ht="98" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -5298,7 +5343,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" ht="67.5" spans="1:3">
+    <row r="130" ht="70" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -5309,7 +5354,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" ht="108" spans="1:3">
+    <row r="131" ht="112" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>397</v>
       </c>
@@ -5320,7 +5365,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" ht="108" spans="1:3">
+    <row r="132" ht="112" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>400</v>
       </c>
@@ -5331,7 +5376,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" ht="81" spans="1:3">
+    <row r="133" ht="84" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>403</v>
       </c>
@@ -5342,7 +5387,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" ht="94.5" spans="1:3">
+    <row r="134" ht="98" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>406</v>
       </c>
@@ -5353,7 +5398,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" ht="81" spans="1:3">
+    <row r="135" ht="84" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
@@ -5364,7 +5409,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="136" ht="94.5" spans="1:3">
+    <row r="136" ht="98" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>412</v>
       </c>
@@ -5375,7 +5420,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" ht="94.5" spans="1:3">
+    <row r="137" ht="98" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>415</v>
       </c>
@@ -5386,7 +5431,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" ht="121.5" spans="1:3">
+    <row r="138" ht="126" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>418</v>
       </c>
@@ -5397,7 +5442,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="139" ht="67.5" spans="1:3">
+    <row r="139" ht="70" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>421</v>
       </c>
@@ -5408,7 +5453,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="140" ht="54" spans="1:3">
+    <row r="140" ht="56" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>424</v>
       </c>
@@ -5419,7 +5464,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="141" ht="81" spans="1:3">
+    <row r="141" ht="84" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>427</v>
       </c>
@@ -5430,7 +5475,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="142" ht="40.5" spans="1:3">
+    <row r="142" ht="42" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>430</v>
       </c>
@@ -5441,7 +5486,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" ht="54" spans="1:3">
+    <row r="143" ht="56" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>433</v>
       </c>
@@ -5452,7 +5497,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="144" ht="54" spans="1:3">
+    <row r="144" ht="56" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>436</v>
       </c>
@@ -5463,7 +5508,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="145" ht="94.5" spans="1:3">
+    <row r="145" ht="98" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>439</v>
       </c>
@@ -5474,7 +5519,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="146" ht="40.5" spans="1:3">
+    <row r="146" ht="56" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>442</v>
       </c>
@@ -5496,7 +5541,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="148" ht="202.5" spans="1:3">
+    <row r="148" ht="210" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>448</v>
       </c>
@@ -5507,7 +5552,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="149" ht="148.5" spans="1:3">
+    <row r="149" ht="154" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>451</v>
       </c>
@@ -5518,7 +5563,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="150" ht="94.5" spans="1:3">
+    <row r="150" ht="98" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>454</v>
       </c>
@@ -5529,7 +5574,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="151" ht="94.5" spans="1:3">
+    <row r="151" ht="98" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>457</v>
       </c>
@@ -5540,7 +5585,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="152" ht="121.5" spans="1:3">
+    <row r="152" ht="126" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>460</v>
       </c>
@@ -5549,6 +5594,28 @@
       </c>
       <c r="C152" s="2" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="153" ht="224" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="154" ht="140" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="481">
   <si>
     <t>id</t>
   </si>
@@ -2840,6 +2840,72 @@
 “当你开始感激你所拥有的东西，而不是哀叹你没有的东西时，一切都会有所改变。”
 祝快乐邮递！
 CATIA</t>
+  </si>
+  <si>
+    <t>US-11342114</t>
+  </si>
+  <si>
+    <t>2025 April 24
+Hello Arthur!
+Here in Skagit Valley we host a Tulip Festival every April. People visit from all over the country and world to see them. I have also taken up cycling recently though mine is an e-bike with extra storage capacity for camping trips. I'm currently in a state of anxiety for 3 months because of Trump, who is causing a lot of disruption in the US and internationally. I hope your work is not impacted. I am a scientist and some of my colleagues are unable to do their work due to federal funding cuts. It is madness.</t>
+  </si>
+  <si>
+    <t>2025年4月24日
+你好，Arthur！
+在Skagit Valley（斯凯吉特峡谷），我们每年四月份都会举办郁金香节。人们从全国各地乃至世界各地赶来观赏。我最近也开始喜欢骑行，不过我的车是一辆带有额外储物空间的电动自行车，适合露营旅行。我目前已连续三个月处于焦虑状态，原因是特朗普，他在美国国内和国际上造成了很多混乱。我希望你的工作不受影响。我是一名科学家，我的一些同事由于联邦经费削减而无法完成他们的工作。太疯狂了！</t>
+  </si>
+  <si>
+    <t>JP-2252269</t>
+  </si>
+  <si>
+    <t>Hello arthurfsy,
+My name is Eiichi (栄一). I live in Tokyo, Japan.
+I have retired. Now, I enjoy collecting world postage stamps and walking as a daily routine.
+I send a photo postcard of Hokkaido Squirrel (エゾリス).
+Please take care and enjoy your favorite.
+Happy Postcrossing!</t>
+  </si>
+  <si>
+    <t>你好，arthurfsy
+我的名字是栄一（Eiichi）。我住在日本东京。
+我已经退休。现在我喜欢收集世界邮票以及每天散步。
+我寄了一张北海道松鼠（エゾリス）的照片明信片。
+请保重，享受你最喜欢的东西。
+祝你愉快的Postcrossing！</t>
+  </si>
+  <si>
+    <t>DE-15398863</t>
+  </si>
+  <si>
+    <t>Much greetings from Germany.
+My name is Jana and I live in Cottbus.
+Have a great day,
+Jana</t>
+  </si>
+  <si>
+    <t>来自德国的问候。
+我的名字是 Jana，我住在科特布斯。
+祝你有美好的一天，
+Jana</t>
+  </si>
+  <si>
+    <t>US-11345356</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+I hope you and your daughter like the card.
+Good luck with your bike riding.
+Happy Birthday!
+God Bless,
+Diana</t>
+  </si>
+  <si>
+    <t>你好，Arthur，
+希望你和你的女儿喜欢这张卡片。
+祝你骑自行车顺利。
+生日快乐！
+愿上帝保佑你，
+Diana</t>
   </si>
 </sst>
 </file>
@@ -3036,15 +3102,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3055,8 +3121,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3878,20 +3944,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E153" sqref="E153"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -4478,7 +4544,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" ht="70" spans="1:3">
+    <row r="53" ht="67.5" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>160</v>
       </c>
@@ -4489,7 +4555,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" ht="98" spans="1:3">
+    <row r="54" ht="94.5" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4500,7 +4566,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" ht="112" spans="1:3">
+    <row r="55" ht="108" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>166</v>
       </c>
@@ -4511,7 +4577,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" ht="70" spans="1:3">
+    <row r="56" ht="67.5" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>169</v>
       </c>
@@ -4522,7 +4588,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="57" ht="98" spans="1:3">
+    <row r="57" ht="94.5" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>172</v>
       </c>
@@ -4533,7 +4599,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" ht="70" spans="1:3">
+    <row r="58" ht="67.5" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>175</v>
       </c>
@@ -4544,7 +4610,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" ht="350" spans="1:3">
+    <row r="59" ht="337.5" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>178</v>
       </c>
@@ -4555,7 +4621,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" ht="168" spans="1:3">
+    <row r="60" ht="162" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4566,7 +4632,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="61" ht="70" spans="1:3">
+    <row r="61" ht="67.5" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>184</v>
       </c>
@@ -4577,7 +4643,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" ht="98" spans="1:3">
+    <row r="62" ht="94.5" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>187</v>
       </c>
@@ -4588,7 +4654,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="63" ht="126" spans="1:3">
+    <row r="63" ht="121.5" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>190</v>
       </c>
@@ -4599,7 +4665,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" ht="140" spans="1:3">
+    <row r="64" ht="135" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>193</v>
       </c>
@@ -4610,7 +4676,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" ht="56" spans="1:3">
+    <row r="65" ht="54" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>196</v>
       </c>
@@ -4621,7 +4687,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -4638,7 +4704,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="126" spans="1:3">
+    <row r="67" ht="121.5" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>204</v>
       </c>
@@ -4649,7 +4715,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" ht="98" spans="1:3">
+    <row r="68" ht="94.5" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
@@ -4660,7 +4726,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" ht="154" spans="1:3">
+    <row r="69" ht="148.5" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>209</v>
       </c>
@@ -4671,7 +4737,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" ht="56" spans="1:3">
+    <row r="70" ht="54" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>212</v>
       </c>
@@ -4682,7 +4748,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="71" ht="42" spans="1:3">
+    <row r="71" ht="40.5" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>215</v>
       </c>
@@ -4693,7 +4759,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" ht="98" spans="1:3">
+    <row r="72" ht="94.5" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>218</v>
       </c>
@@ -4704,7 +4770,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" ht="98" spans="1:3">
+    <row r="73" ht="94.5" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
@@ -4715,7 +4781,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" ht="70" spans="1:3">
+    <row r="74" ht="67.5" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>224</v>
       </c>
@@ -4726,7 +4792,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="75" ht="70" spans="1:3">
+    <row r="75" ht="67.5" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
@@ -4737,7 +4803,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" ht="42" spans="1:3">
+    <row r="76" ht="40.5" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -4748,7 +4814,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:3">
+    <row r="77" ht="27" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>233</v>
       </c>
@@ -4759,7 +4825,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" ht="224" spans="1:3">
+    <row r="78" ht="216" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>236</v>
       </c>
@@ -4770,7 +4836,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" ht="56" spans="1:3">
+    <row r="79" ht="54" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>239</v>
       </c>
@@ -4781,7 +4847,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" ht="98" spans="1:3">
+    <row r="80" ht="94.5" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>242</v>
       </c>
@@ -4792,7 +4858,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" ht="70" spans="1:3">
+    <row r="81" ht="67.5" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>245</v>
       </c>
@@ -4803,7 +4869,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="154" spans="1:3">
+    <row r="82" ht="148.5" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>248</v>
       </c>
@@ -4814,7 +4880,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" ht="28" spans="1:3">
+    <row r="83" ht="27" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -4825,7 +4891,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -4842,7 +4908,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="364" spans="1:3">
+    <row r="85" ht="351" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>259</v>
       </c>
@@ -4853,7 +4919,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" ht="112" spans="1:3">
+    <row r="86" ht="108" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>262</v>
       </c>
@@ -4864,7 +4930,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" ht="56" spans="1:3">
+    <row r="87" ht="54" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>265</v>
       </c>
@@ -4875,7 +4941,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" ht="84" spans="1:3">
+    <row r="88" ht="81" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>268</v>
       </c>
@@ -4886,7 +4952,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" ht="56" spans="1:3">
+    <row r="89" ht="54" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>271</v>
       </c>
@@ -4897,7 +4963,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" ht="112" spans="1:3">
+    <row r="90" ht="108" spans="1:3">
       <c r="A90" s="6" t="s">
         <v>274</v>
       </c>
@@ -4908,7 +4974,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" ht="112" spans="1:3">
+    <row r="91" ht="108" spans="1:3">
       <c r="A91" s="6" t="s">
         <v>277</v>
       </c>
@@ -4919,7 +4985,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" ht="84" spans="1:3">
+    <row r="92" ht="81" spans="1:3">
       <c r="A92" s="6" t="s">
         <v>280</v>
       </c>
@@ -4930,7 +4996,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" ht="84" spans="1:3">
+    <row r="93" ht="81" spans="1:3">
       <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
@@ -4941,7 +5007,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" ht="100.5" spans="1:3">
+    <row r="94" ht="97.5" spans="1:3">
       <c r="A94" s="6" t="s">
         <v>286</v>
       </c>
@@ -4952,7 +5018,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" ht="84" spans="1:3">
+    <row r="95" ht="81" spans="1:3">
       <c r="A95" s="6" t="s">
         <v>289</v>
       </c>
@@ -4963,7 +5029,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" ht="98" spans="1:3">
+    <row r="96" ht="94.5" spans="1:3">
       <c r="A96" s="6" t="s">
         <v>292</v>
       </c>
@@ -4974,7 +5040,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" ht="56" spans="1:3">
+    <row r="97" ht="54" spans="1:3">
       <c r="A97" s="6" t="s">
         <v>295</v>
       </c>
@@ -4985,7 +5051,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" ht="70" spans="1:3">
+    <row r="98" ht="67.5" spans="1:3">
       <c r="A98" s="6" t="s">
         <v>298</v>
       </c>
@@ -4996,7 +5062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" ht="84" spans="1:3">
+    <row r="99" ht="81" spans="1:3">
       <c r="A99" s="6" t="s">
         <v>301</v>
       </c>
@@ -5007,7 +5073,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" ht="100.5" spans="1:3">
+    <row r="100" ht="97.5" spans="1:3">
       <c r="A100" s="6" t="s">
         <v>304</v>
       </c>
@@ -5018,7 +5084,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" ht="98" spans="1:3">
+    <row r="101" ht="94.5" spans="1:3">
       <c r="A101" s="6" t="s">
         <v>307</v>
       </c>
@@ -5029,7 +5095,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" ht="70" spans="1:3">
+    <row r="102" ht="67.5" spans="1:3">
       <c r="A102" s="6" t="s">
         <v>310</v>
       </c>
@@ -5040,7 +5106,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" ht="42" spans="1:3">
+    <row r="103" ht="40.5" spans="1:3">
       <c r="A103" s="6" t="s">
         <v>313</v>
       </c>
@@ -5051,7 +5117,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" ht="56" spans="1:3">
+    <row r="104" ht="54" spans="1:3">
       <c r="A104" s="6" t="s">
         <v>316</v>
       </c>
@@ -5062,7 +5128,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" ht="84" spans="1:3">
+    <row r="105" ht="81" spans="1:3">
       <c r="A105" s="6" t="s">
         <v>319</v>
       </c>
@@ -5073,7 +5139,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" ht="28" spans="1:3">
+    <row r="106" ht="27" spans="1:3">
       <c r="A106" s="6" t="s">
         <v>322</v>
       </c>
@@ -5084,7 +5150,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" ht="70" spans="1:3">
+    <row r="107" ht="67.5" spans="1:3">
       <c r="A107" s="6" t="s">
         <v>325</v>
       </c>
@@ -5095,7 +5161,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="282.5" spans="1:3">
+    <row r="108" ht="273" spans="1:3">
       <c r="A108" s="6" t="s">
         <v>328</v>
       </c>
@@ -5106,7 +5172,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" ht="98" spans="1:3">
+    <row r="109" ht="81" spans="1:3">
       <c r="A109" s="6" t="s">
         <v>331</v>
       </c>
@@ -5117,7 +5183,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:3">
+    <row r="110" ht="27" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>334</v>
       </c>
@@ -5128,7 +5194,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="111" ht="56" spans="1:3">
+    <row r="111" ht="54" spans="1:3">
       <c r="A111" s="6" t="s">
         <v>336</v>
       </c>
@@ -5139,7 +5205,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="112" ht="98" spans="1:3">
+    <row r="112" ht="94.5" spans="1:3">
       <c r="A112" s="6" t="s">
         <v>339</v>
       </c>
@@ -5150,7 +5216,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" ht="84" spans="1:3">
+    <row r="113" ht="81" spans="1:3">
       <c r="A113" s="6" t="s">
         <v>342</v>
       </c>
@@ -5161,7 +5227,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="114" ht="42" spans="1:3">
+    <row r="114" ht="40.5" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>345</v>
       </c>
@@ -5172,7 +5238,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="115" ht="84" spans="1:3">
+    <row r="115" ht="81" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>348</v>
       </c>
@@ -5183,7 +5249,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" ht="84" spans="1:3">
+    <row r="116" ht="81" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>351</v>
       </c>
@@ -5194,7 +5260,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="117" ht="112" spans="1:3">
+    <row r="117" ht="94.5" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>354</v>
       </c>
@@ -5205,7 +5271,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" ht="98" spans="1:3">
+    <row r="118" ht="94.5" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>356</v>
       </c>
@@ -5216,7 +5282,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" ht="196" spans="1:3">
+    <row r="119" ht="189" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>359</v>
       </c>
@@ -5227,7 +5293,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" ht="126" spans="1:3">
+    <row r="120" ht="121.5" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>362</v>
       </c>
@@ -5238,7 +5304,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="121" ht="56" spans="1:3">
+    <row r="121" ht="54" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>365</v>
       </c>
@@ -5249,7 +5315,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" ht="98" spans="1:3">
+    <row r="122" ht="94.5" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>368</v>
       </c>
@@ -5260,7 +5326,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" ht="98" spans="1:3">
+    <row r="123" ht="94.5" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>371</v>
       </c>
@@ -5271,7 +5337,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>374</v>
       </c>
@@ -5288,7 +5354,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" ht="140" spans="1:3">
+    <row r="125" ht="135" spans="1:3">
       <c r="A125" s="6" t="s">
         <v>379</v>
       </c>
@@ -5299,7 +5365,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" ht="98" spans="1:3">
+    <row r="126" ht="94.5" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -5310,7 +5376,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" ht="126" spans="1:3">
+    <row r="127" ht="121.5" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>385</v>
       </c>
@@ -5321,7 +5387,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" ht="56" spans="1:3">
+    <row r="128" ht="54" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>388</v>
       </c>
@@ -5332,7 +5398,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" ht="98" spans="1:3">
+    <row r="129" ht="94.5" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>391</v>
       </c>
@@ -5343,7 +5409,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="130" ht="70" spans="1:3">
+    <row r="130" ht="67.5" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>394</v>
       </c>
@@ -5354,7 +5420,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="131" ht="112" spans="1:3">
+    <row r="131" ht="108" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>397</v>
       </c>
@@ -5365,7 +5431,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="132" ht="112" spans="1:3">
+    <row r="132" ht="108" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>400</v>
       </c>
@@ -5376,7 +5442,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="133" ht="84" spans="1:3">
+    <row r="133" ht="81" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>403</v>
       </c>
@@ -5387,7 +5453,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="134" ht="98" spans="1:3">
+    <row r="134" ht="94.5" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>406</v>
       </c>
@@ -5398,7 +5464,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="135" ht="84" spans="1:3">
+    <row r="135" ht="81" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
@@ -5409,7 +5475,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="136" ht="98" spans="1:3">
+    <row r="136" ht="94.5" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>412</v>
       </c>
@@ -5420,7 +5486,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" ht="98" spans="1:3">
+    <row r="137" ht="94.5" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>415</v>
       </c>
@@ -5431,7 +5497,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" ht="126" spans="1:3">
+    <row r="138" ht="121.5" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>418</v>
       </c>
@@ -5442,7 +5508,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="139" ht="70" spans="1:3">
+    <row r="139" ht="67.5" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>421</v>
       </c>
@@ -5453,7 +5519,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="140" ht="56" spans="1:3">
+    <row r="140" ht="54" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>424</v>
       </c>
@@ -5464,7 +5530,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="141" ht="84" spans="1:3">
+    <row r="141" ht="81" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>427</v>
       </c>
@@ -5475,7 +5541,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="142" ht="42" spans="1:3">
+    <row r="142" ht="40.5" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>430</v>
       </c>
@@ -5486,7 +5552,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="143" ht="56" spans="1:3">
+    <row r="143" ht="54" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>433</v>
       </c>
@@ -5497,7 +5563,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="144" ht="56" spans="1:3">
+    <row r="144" ht="54" spans="1:3">
       <c r="A144" s="6" t="s">
         <v>436</v>
       </c>
@@ -5508,7 +5574,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="145" ht="98" spans="1:3">
+    <row r="145" ht="94.5" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>439</v>
       </c>
@@ -5519,7 +5585,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="146" ht="56" spans="1:3">
+    <row r="146" ht="40.5" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>442</v>
       </c>
@@ -5541,7 +5607,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="148" ht="210" spans="1:3">
+    <row r="148" ht="202.5" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>448</v>
       </c>
@@ -5552,7 +5618,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="149" ht="154" spans="1:3">
+    <row r="149" ht="148.5" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>451</v>
       </c>
@@ -5563,7 +5629,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="150" ht="98" spans="1:3">
+    <row r="150" ht="94.5" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>454</v>
       </c>
@@ -5574,7 +5640,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="151" ht="98" spans="1:3">
+    <row r="151" ht="94.5" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>457</v>
       </c>
@@ -5585,7 +5651,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="152" ht="126" spans="1:3">
+    <row r="152" ht="121.5" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>460</v>
       </c>
@@ -5596,7 +5662,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="153" ht="224" spans="1:3">
+    <row r="153" ht="216" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>463</v>
       </c>
@@ -5607,7 +5673,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="154" ht="140" spans="1:3">
+    <row r="154" ht="135" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>466</v>
       </c>
@@ -5616,6 +5682,50 @@
       </c>
       <c r="C154" s="2" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="155" ht="189" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="156" ht="108" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="157" ht="67.5" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="158" ht="94.5" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="490">
   <si>
     <t>id</t>
   </si>
@@ -2906,6 +2906,44 @@
 生日快乐！
 愿上帝保佑你，
 Diana</t>
+  </si>
+  <si>
+    <t>UA-1997314</t>
+  </si>
+  <si>
+    <t>Hello Arthur! Greetings from Kyiv Ukraine!
+Берегите один одного та мир в країні!
+Take care of each other and peace in the country!
+Natalia</t>
+  </si>
+  <si>
+    <t>你好，Arthur！来自基普，乌克兰的问候！
+Берегите один одного та мир в країні!--愿你们彼此关爱，并愿国家和平！
+Natalia</t>
+  </si>
+  <si>
+    <t>TW-3851534</t>
+  </si>
+  <si>
+    <t>Arthur你好。
+我是來自台北市的穎菲。寄上一張休閒活的一騎腳踏車的聚會片，加上一張自行車道的郵票，希望你喜歡！ :)</t>
+  </si>
+  <si>
+    <t>Arthur你好。
+我是来自台北市的颖菲。寄上一张休闲活的一骑脚踏车的聚会片，加上一张自行车道的邮票，希望你喜欢！ :)</t>
+  </si>
+  <si>
+    <t>MY-682667</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+Greetings from Malaysia! My name is Sookfun. I like to collect stamped and written postcards. My goal is to collect at least a card from every country in the world. Stay safe. Take care.
+21 May 2025.</t>
+  </si>
+  <si>
+    <t>你好，Arthur，
+来自马来西亚的问候！我叫Sookfun。我喜欢收集盖过邮戳并写有手写内容的明信片。我的目标是至少收集到来自世界上每个国家的一张明信片。保持安全，保重。
+2025年5月21日。</t>
   </si>
 </sst>
 </file>
@@ -3084,8 +3122,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Emoji"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3096,14 +3140,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3944,12 +3982,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5728,6 +5766,39 @@
         <v>480</v>
       </c>
     </row>
+    <row r="159" ht="67.5" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="160" ht="40.5" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="161" ht="81" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="493">
   <si>
     <t>id</t>
   </si>
@@ -2944,6 +2944,23 @@
     <t>你好，Arthur，
 来自马来西亚的问候！我叫Sookfun。我喜欢收集盖过邮戳并写有手写内容的明信片。我的目标是至少收集到来自世界上每个国家的一张明信片。保持安全，保重。
 2025年5月21日。</t>
+  </si>
+  <si>
+    <t>AU-1009099</t>
+  </si>
+  <si>
+    <t>Hello Arthur, Warm greetings from Australia on this late autumn day. 
+I thought this funny postcard with the cycling kangaroo would satisfy you and your daughter. 
+I'm sure you could pedal faster. 
+Best wishes, 
+John</t>
+  </si>
+  <si>
+    <t>你好，亚瑟，来自澳大利亚的温暖问候，在这个深秋的日子里。
+我觉得这张骑自行车的袋鼠搞笑的明信片会让你和你女儿喜欢。
+我相信你们骑车的速度一定可以更快。
+祝好，
+约翰</t>
   </si>
 </sst>
 </file>
@@ -3117,12 +3134,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -3134,8 +3145,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3147,13 +3158,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3982,12 +3999,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5799,6 +5816,17 @@
         <v>489</v>
       </c>
     </row>
+    <row r="162" ht="108" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25605" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="499">
   <si>
     <t>id</t>
   </si>
@@ -2961,6 +2961,40 @@
 我相信你们骑车的速度一定可以更快。
 祝好，
 约翰</t>
+  </si>
+  <si>
+    <t>JP-2252270</t>
+  </si>
+  <si>
+    <t>Hello Siyuan!! Greetings from Japan.
+I live in Yokohama, next to Tokyo.
+中国の漢字は難しいです。日本の小学校では1026文字も習います。
+When writing an address in Japan, we write '様' at the end of the name, but do we do it in China? 元気 でね!
+♡ Xiaoxiao かわいいね ♡
+Azusa"</t>
+  </si>
+  <si>
+    <t>你好，思远！！来自日本的问候。
+我住在横滨，靠近东京。
+中国的汉字好难啊。在日本的小学学习多达1026个汉字。
+在日本写地址时，我们会在名字后加上“様”（先生/女士的敬称），但在中国也会这样吗？祝你健康愉快！
+♡ 笑笑，好可爱呀 ♡
+梓</t>
+  </si>
+  <si>
+    <t>US-11408234</t>
+  </si>
+  <si>
+    <t>Happy Belated Birthday!
+A horse stamp and our beautiful black bears
+for your adorable daughter!
+❤️ Lisa</t>
+  </si>
+  <si>
+    <t>迟到的生日快乐！
+一枚马邮票和我们美丽的黑熊，
+献给你可爱的女儿！
+❤️ Lisa</t>
   </si>
 </sst>
 </file>
@@ -3134,13 +3168,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3164,7 +3198,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3176,8 +3210,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3999,12 +4033,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
+      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5827,6 +5861,28 @@
         <v>492</v>
       </c>
     </row>
+    <row r="163" ht="121.5" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="164" ht="54" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="502">
   <si>
     <t>id</t>
   </si>
@@ -2995,6 +2995,22 @@
 一枚马邮票和我们美丽的黑熊，
 献给你可爱的女儿！
 ❤️ Lisa</t>
+  </si>
+  <si>
+    <t>US-11408235</t>
+  </si>
+  <si>
+    <t>"Hi from the state of Minnesota, in north central USA.
+People like to spend vacation time on the shores of lakes in the north woods.
+This is a beautiful area. Sometimes I feel sad that 200 years ago when the land was being settled,   
+so much natural grassland was destroyed to plant crops.
+STACY</t>
+  </si>
+  <si>
+    <t>你好，这里是位于美国中北部的明尼苏达州。
+人们喜欢在湖泊的岸边和北部森林度过假期。这是一个美丽的地方。
+有时候我很难过，因为在200年前，这片土地被开发时，有很多天然的草原被破坏以种植农作物。
+——斯泰西</t>
   </si>
 </sst>
 </file>
@@ -3168,8 +3184,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3180,7 +3196,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3198,19 +3220,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4033,12 +4049,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
+      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5883,6 +5899,17 @@
         <v>498</v>
       </c>
     </row>
+    <row r="165" ht="121.5" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="505">
   <si>
     <t>id</t>
   </si>
@@ -3011,6 +3011,27 @@
 人们喜欢在湖泊的岸边和北部森林度过假期。这是一个美丽的地方。
 有时候我很难过，因为在200年前，这片土地被开发时，有很多天然的草原被破坏以种植农作物。
 ——斯泰西</t>
+  </si>
+  <si>
+    <t>IN-656658</t>
+  </si>
+  <si>
+    <t>Namaste from India.
+I live in a small town Aruppukottai in South India.
+My town is famous for cotton mills and handloom weaving.
+I love collecting stamps, currencies and postcards.
+Wishing you lots of happiness and good health.
+V. Visweswaran
+4 May 2025</t>
+  </si>
+  <si>
+    <t>来自印度的问候。
+我住在南印度一个名叫阿鲁普科泰的小镇。
+我的家乡以棉纺厂和手织品闻名。
+我喜欢收藏邮票、货币和明信片。
+祝你幸福安康。
+维斯韦斯瓦兰
+2025年5月4日</t>
   </si>
 </sst>
 </file>
@@ -3184,6 +3205,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
@@ -3191,18 +3224,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3219,14 +3240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4049,12 +4070,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C165" sqref="C165"/>
+      <selection pane="bottomLeft" activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5910,6 +5931,17 @@
         <v>501</v>
       </c>
     </row>
+    <row r="166" ht="108" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="509">
   <si>
     <t>id</t>
   </si>
@@ -274,27 +274,28 @@
     <t>NL-1979851</t>
   </si>
   <si>
-    <t>Nihao Feng Siyuan,
-Traveled to China in 2006 for 4 weeks, learned a few words of chinese while stay there, loved Guilin and the Great Wall.
-Greetings Maria</t>
-  </si>
-  <si>
-    <t>你好，Feng Siyuan，
-2006年我去中国旅行了4周，在那里学了一些中文，喜欢桂林和长城。
-问候 玛丽亚</t>
+    <t>Nihao Feng, Siyuan
+Traveled to China in 2006 for 4 weeks, learned a few words of Chinese while I was there, loved Guilin and the Great Wall.
+Greetings,
+Maria</t>
+  </si>
+  <si>
+    <t>你好，冯思远：
+2006年我曾去中国旅行了四周，期间我学了一些中文，同时非常喜欢桂林和长城。
+致意，
+玛丽亚</t>
   </si>
   <si>
     <t>NL-2169514</t>
   </si>
   <si>
-    <t xml:space="preserve">Hello Siyuan,
+    <t>Hello Siyuan,
 I'm writhing you from my town Voerendaal in the south of the netherlands. It has a population of +/- 12500 people.
 It is very chilly here. At the moment 3℃(12 hour) 
 Since this week the frost set in night. Brrr…
 We are getting ready to celebrate Sinterklaas on December 5. IT is a fest for children. Unfortunally it was on the internatial news because some people think that his happy helpers Zwarte Piet(black Petes) and racism. Believe me, anyone who celebrate this fest for children doesn't agree to that. Maybe you heared something about it.
 My daughter(3) likes sinterklaas and the zwarte pieten very much. It is a beautiful tradition where we like to  kids the same as we do about Santa Claus!
-Groetjes  Tamara
-</t>
+Groetjes  Tamara</t>
   </si>
   <si>
     <t>你好，Siyuan，
@@ -1905,6 +1906,36 @@
     </r>
   </si>
   <si>
+    <t>2024/09/30
+Hello
+hope you are fine?
+Wanted to ask if you have received my card BA-14379
+KR
+Leila
+2024/10/03
+Dear
+I am sorry, I did not take a picture, I usually do it, so I don't remember when exactly I have sent it.
+We will wait, hopefully it will arrive soon. The ones sent to India got there, so fingers crossed.
+Please just let me know.
+Kind Regards
+Leila</t>
+  </si>
+  <si>
+    <t>2024年9月30日
+你好，
+希望你一切都好？
+想问问你是否收到了我寄的卡片 BA-14379。
+此致，
+礼娜
+2024年10月3日
+亲爱的，
+我很抱歉，我没有拍照，我通常会这样做，所以我不记得我具体什么时候发送的。
+我们会耐心等待，希望它能尽快到达。寄往印度的那些已经到达了，所以我们祝好运。
+请随时告诉我。
+此致，
+礼娜</t>
+  </si>
+  <si>
     <t>JP-2152688</t>
   </si>
   <si>
@@ -2980,6 +3011,12 @@
 在日本写地址时，我们会在名字后加上“様”（先生/女士的敬称），但在中国也会这样吗？祝你健康愉快！
 ♡ 笑笑，好可爱呀 ♡
 梓</t>
+  </si>
+  <si>
+    <t>Thank you for your message. Yes, that's right. Kanji is difficult, but English is difficult too. Sorry for writing in Japanese. I always use Google Translate. Take care. Happy Postcrossing. Azusa</t>
+  </si>
+  <si>
+    <t>感谢你的留言。是的，没错。汉字很难，但英语也难。抱歉用日语写。我总是使用谷歌翻译。保重。祝你快乐的明信片交换。梓玲</t>
   </si>
   <si>
     <t>US-11408234</t>
@@ -3044,7 +3081,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3056,6 +3093,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3205,30 +3248,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
@@ -3240,8 +3259,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3249,6 +3280,18 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3569,16 +3612,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3587,119 +3627,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3711,6 +3754,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4073,9 +4119,9 @@
   <dimension ref="A1:E166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D165" sqref="D165"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4286,7 +4332,7 @@
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5021,7 +5067,7 @@
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>255</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -5090,856 +5136,868 @@
       </c>
     </row>
     <row r="90" ht="108" spans="1:3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="91" ht="108" spans="1:3">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="92" ht="81" spans="1:3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="93" ht="81" spans="1:3">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="94" ht="97.5" spans="1:3">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="95" ht="81" spans="1:3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="96" ht="94.5" spans="1:3">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="97" ht="54" spans="1:3">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="98" ht="67.5" spans="1:3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="6" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="99" ht="81" spans="1:3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="100" ht="97.5" spans="1:3">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="101" ht="94.5" spans="1:3">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="6" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="102" ht="67.5" spans="1:3">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="6" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="103" ht="40.5" spans="1:3">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="6" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="104" ht="54" spans="1:3">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="6" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="105" ht="81" spans="1:3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="6" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="106" ht="27" spans="1:3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="6" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="107" ht="67.5" spans="1:3">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="108" ht="273" spans="1:3">
-      <c r="A108" s="6" t="s">
+    <row r="108" ht="337.5" spans="1:5">
+      <c r="A108" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="6" t="s">
         <v>330</v>
       </c>
+      <c r="D108" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="109" ht="81" spans="1:3">
-      <c r="A109" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C109" s="5" t="s">
+      <c r="A109" s="7" t="s">
         <v>333</v>
       </c>
+      <c r="B109" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="110" ht="27" spans="1:3">
-      <c r="A110" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>335</v>
+      <c r="A110" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="111" ht="54" spans="1:3">
-      <c r="A111" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="5" t="s">
+      <c r="A111" s="7" t="s">
         <v>338</v>
       </c>
+      <c r="B111" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="112" ht="94.5" spans="1:3">
-      <c r="A112" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="A112" s="7" t="s">
         <v>341</v>
       </c>
+      <c r="B112" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="113" ht="81" spans="1:3">
-      <c r="A113" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C113" s="5" t="s">
+      <c r="A113" s="7" t="s">
         <v>344</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="114" ht="40.5" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="115" ht="81" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" ht="81" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" ht="94.5" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" ht="94.5" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" ht="189" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" ht="121.5" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" ht="54" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" ht="94.5" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" ht="94.5" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E124" s="6" t="s">
         <v>378</v>
       </c>
+      <c r="D124" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="125" ht="135" spans="1:3">
-      <c r="A125" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C125" s="5" t="s">
+      <c r="A125" s="7" t="s">
         <v>381</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="126" ht="94.5" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" ht="121.5" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" ht="54" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" ht="94.5" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" ht="67.5" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" ht="108" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" ht="108" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" ht="81" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" ht="94.5" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" ht="81" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" ht="94.5" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" ht="94.5" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" ht="121.5" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" ht="67.5" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" ht="54" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" ht="81" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" ht="40.5" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" ht="54" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" ht="54" spans="1:3">
-      <c r="A144" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="C144" s="5" t="s">
+      <c r="A144" s="7" t="s">
         <v>438</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="145" ht="94.5" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" ht="40.5" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" ht="178" customHeight="1" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" ht="202.5" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="149" ht="148.5" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" ht="94.5" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="151" ht="94.5" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" ht="121.5" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="153" ht="216" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" ht="135" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="155" ht="189" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" ht="108" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" ht="67.5" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" ht="94.5" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" ht="67.5" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" ht="40.5" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" ht="81" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="162" ht="108" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="163" ht="121.5" spans="1:3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="163" ht="121.5" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="164" ht="54" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" ht="121.5" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" ht="108" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$168</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="519">
   <si>
     <t>id</t>
   </si>
@@ -269,6 +269,12 @@
 很高兴见到你，我送你这张卡片是有原因的。这张明信片意味着我们必须珍惜时间。不要浪费这一周什么都不做。时间是宝贵的。我希望你能理解明信片的意义，并在你的日常生活中做到这一点。
 除此之外，我还有一个请求。你能给我寄张明信片吗？我对中国的明信片很感兴趣。谢谢你。
 出发地：kaiQin</t>
+  </si>
+  <si>
+    <t>You are welcome,Siyuan.I am so happy that you can understand the meaning of the postcard!</t>
+  </si>
+  <si>
+    <t>不客气，siyuan。我很高兴你能理解明信片的意思！</t>
   </si>
   <si>
     <t>NL-1979851</t>
@@ -333,6 +339,28 @@
 你想知道如何用我们的语言说“我爱你”——在荷兰语中，你说：“IK hou van jou”。
 祝福你和你的家人。快乐的明信片交流。最亲切的问候。
 Hugo</t>
+  </si>
+  <si>
+    <t>Hello Siyuan,
+I have sent today a postcard to you.
+I hope it arrives quickly, it must cross a long distance.
+Most kindest regards,
+Hugo Pereira
+Hegedykje nr. 5
+9218 RC Opeinde (Friesland)
+The Netherlands
+NL-2441827</t>
+  </si>
+  <si>
+    <t>你好，思远，
+我今天给你寄了一张明信片。
+我希望它能尽快到达，因为它需要穿越很长的距离。
+最诚挚的问候，
+雨果·佩雷拉
+Hegedykje nr. 5
+9218 RC Opeinde (弗里斯兰)
+荷兰
+编号 NL-2441827</t>
   </si>
   <si>
     <t>RU-2144539</t>
@@ -3069,6 +3097,40 @@
 祝你幸福安康。
 维斯韦斯瓦兰
 2025年5月4日</t>
+  </si>
+  <si>
+    <t>NO-98572</t>
+  </si>
+  <si>
+    <t>Hello Siyuan!
+I`m happy that you liked the stamp, but I`m sorry that I don`t remember which one you got.
+I know that I try to use special turist stamps. These are with typical norwegian motives (Nature, northern ligths or buildings)
+If you are really interested in finding out, you may send me a picture of the stamp and I will try to answer your question a little better this time.
+Have a nice day
+Dani</t>
+  </si>
+  <si>
+    <t>你好，思远！
+我很高兴你喜欢这枚邮票，但我很抱歉我不记得你得到的是哪一枚。
+我知道我尽量使用特别的旅游邮票。这些邮票上有典型的挪威主题（大自然，北极光或建筑）。
+如果你真的有兴趣了解更多，可以给我发送这枚邮票的照片，我会尽量更好地回答你的问题。
+祝你有美好的一天！
+丹尼</t>
+  </si>
+  <si>
+    <t>NL-2813278</t>
+  </si>
+  <si>
+    <t>Hi Arthur,
+nice to meet you, I hope you and your girl are okay. I've sent you a postcard more than 60 days ago, so that one has expired. Yesterday I've sent you a second postcard. I hope that postcard will reach you in prefect shape.
+I wish you two all the best, warm greetings, Jolanda (Pippi2014 in postcrossing)
+The id of the postcard is NL-2813278</t>
+  </si>
+  <si>
+    <t>中文: 嗨，亚瑟，
+很高兴认识你， 希望你和你的女孩都很好。我在60多天前给你寄了一张明信片，所以那张已经过期了。昨天我给你寄了第二张明信片。希望那张明信片能完好无损地到达你那里。
+祝你们二位一切顺利，温暖的问候，霍兰达（在明信片交流中的用户名Pippi2014）
+这张明信片的编号是 NL-2813278</t>
   </si>
 </sst>
 </file>
@@ -3247,6 +3309,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
@@ -3254,7 +3328,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3266,25 +3346,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4113,15 +4175,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4149,7 +4211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="3" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -4171,7 +4233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="4" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -4182,7 +4244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="5" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -4193,7 +4255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="94.15" customHeight="1" spans="1:3">
+    <row r="6" s="1" customFormat="1" ht="94.15" hidden="1" customHeight="1" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -4204,7 +4266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="7" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -4215,7 +4277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="8" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -4226,7 +4288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="9" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -4237,7 +4299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="10" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -4248,7 +4310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="11" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -4259,7 +4321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="12" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -4270,7 +4332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="13" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -4281,7 +4343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="14" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -4292,7 +4354,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="15" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -4303,7 +4365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="16" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -4314,7 +4376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+    <row r="17" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -4324,1683 +4386,1901 @@
       <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="58.15" customHeight="1" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="58.15" hidden="1" customHeight="1" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="153.75" customHeight="1" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="153.75" hidden="1" customHeight="1" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="18.4" hidden="1" customHeight="1" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" hidden="1" customHeight="1" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" ht="18.75" customHeight="1" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" hidden="1" customHeight="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="84" customHeight="1" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="84" hidden="1" customHeight="1" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" ht="67.5" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" ht="67.5" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" ht="94.5" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" ht="94.5" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" ht="108" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" ht="108" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" ht="67.5" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" ht="67.5" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" ht="94.5" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" ht="94.5" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" ht="67.5" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" ht="67.5" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" ht="337.5" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" ht="337.5" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" ht="162" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" ht="162" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="61" ht="67.5" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" ht="67.5" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" ht="94.5" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" ht="94.5" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" ht="121.5" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" ht="121.5" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" ht="135" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" ht="135" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" ht="54" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" ht="54" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" ht="121.5" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" ht="121.5" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" ht="94.5" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" ht="94.5" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" ht="148.5" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" ht="148.5" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" ht="54" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" ht="54" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="71" ht="40.5" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" ht="40.5" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" ht="94.5" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" ht="94.5" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" ht="94.5" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" ht="94.5" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" ht="67.5" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" ht="67.5" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75" ht="67.5" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="75" ht="67.5" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" ht="40.5" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" ht="40.5" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="77" ht="27" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" ht="27" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" ht="216" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" ht="216" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="79" ht="54" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" ht="54" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="80" ht="94.5" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" ht="94.5" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" ht="67.5" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="81" ht="67.5" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" ht="148.5" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" ht="148.5" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" ht="27" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" ht="27" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" ht="351" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" ht="351" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" ht="108" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" ht="108" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" ht="54" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" ht="54" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="88" ht="81" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" ht="81" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" ht="54" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" ht="54" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" ht="108" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" ht="108" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" ht="108" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" ht="108" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" ht="81" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" ht="81" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="93" ht="81" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" ht="81" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="94" ht="97.5" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" ht="97.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" ht="81" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" ht="81" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="96" ht="94.5" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" ht="94.5" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" ht="54" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="97" ht="54" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" ht="67.5" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" ht="67.5" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" ht="81" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="99" ht="81" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="100" ht="97.5" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" ht="97.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="101" ht="94.5" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="101" ht="94.5" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="102" ht="67.5" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" ht="67.5" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="103" ht="40.5" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" ht="40.5" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" ht="54" spans="1:3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" ht="54" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="105" ht="81" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" ht="81" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="106" ht="27" spans="1:3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" ht="27" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" ht="67.5" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" ht="67.5" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" ht="337.5" spans="1:5">
       <c r="A108" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="109" ht="81" spans="1:3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109" ht="81" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="110" ht="27" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="110" ht="27" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="111" ht="54" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" ht="54" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="112" ht="94.5" spans="1:3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" ht="94.5" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="113" ht="81" spans="1:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" ht="81" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" ht="40.5" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="114" ht="40.5" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="115" ht="81" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="115" ht="81" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="116" ht="81" spans="1:3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" ht="81" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="117" ht="94.5" spans="1:3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" ht="94.5" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="118" ht="94.5" spans="1:3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" ht="94.5" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="119" ht="189" spans="1:3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="119" ht="189" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="120" ht="121.5" spans="1:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="120" ht="121.5" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="121" ht="54" spans="1:3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" ht="54" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="122" ht="94.5" spans="1:3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" ht="94.5" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="123" ht="94.5" spans="1:3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="123" ht="94.5" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="125" ht="135" spans="1:3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" ht="135" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="126" ht="94.5" spans="1:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" ht="94.5" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="127" ht="121.5" spans="1:3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="127" ht="121.5" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="128" ht="54" spans="1:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="128" ht="54" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="129" ht="94.5" spans="1:3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129" ht="94.5" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="130" ht="67.5" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" ht="67.5" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="131" ht="108" spans="1:3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="131" ht="108" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="132" ht="108" spans="1:3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="132" ht="108" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="133" ht="81" spans="1:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" ht="81" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="134" ht="94.5" spans="1:3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="134" ht="94.5" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="135" ht="81" spans="1:3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="135" ht="81" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="136" ht="94.5" spans="1:3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" ht="94.5" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="137" ht="94.5" spans="1:3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="137" ht="94.5" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="138" ht="121.5" spans="1:3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="138" ht="121.5" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="139" ht="67.5" spans="1:3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="139" ht="67.5" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="140" ht="54" spans="1:3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="140" ht="54" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="141" ht="81" spans="1:3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="141" ht="81" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="142" ht="40.5" spans="1:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="142" ht="40.5" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="143" ht="54" spans="1:3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="143" ht="54" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="144" ht="54" spans="1:3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" ht="54" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="145" ht="94.5" spans="1:3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" ht="94.5" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="146" ht="40.5" spans="1:3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="146" ht="40.5" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="147" ht="178" customHeight="1" spans="1:3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="147" ht="178" hidden="1" customHeight="1" spans="1:3">
       <c r="A147" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="148" ht="202.5" spans="1:3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="148" ht="202.5" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="149" ht="148.5" spans="1:3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="149" ht="148.5" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="150" ht="94.5" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="150" ht="94.5" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="151" ht="94.5" spans="1:3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="151" ht="94.5" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="152" ht="121.5" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="152" ht="121.5" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="153" ht="216" spans="1:3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="153" ht="216" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="154" ht="135" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="154" ht="135" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="155" ht="189" spans="1:3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="155" ht="189" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="156" ht="108" spans="1:3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="156" ht="108" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="157" ht="67.5" spans="1:3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="157" ht="67.5" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="158" ht="94.5" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="158" ht="94.5" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="159" ht="67.5" spans="1:3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="159" ht="67.5" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="160" ht="40.5" spans="1:3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="160" ht="40.5" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="161" ht="81" spans="1:3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="161" ht="81" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="162" ht="108" spans="1:3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" ht="108" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="163" ht="121.5" spans="1:5">
       <c r="A163" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="164" ht="54" spans="1:3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="164" ht="54" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="165" ht="121.5" spans="1:3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="165" ht="121.5" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="166" ht="108" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="166" ht="108" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="167" ht="270" hidden="1" spans="1:5">
+      <c r="A167" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="168" ht="216" hidden="1" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E168" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>
+        <filter val="Hey,&#10;how is life? Mine is exciting because of a job change. Today it's runing in Wuppertal. Yesterday it was sunny and I lied at the Wupper River in Wuppertal.&#10;Have a good sunny day!"/>
+        <filter val="20 $\frac {x}{17}$ 23 +4℃ 🌥️&#10;Good day! Siyuan&#10;Warm greetings from far Lietuva. Hope You'll like both my cards and something one :)&#10;Take care&#10;Gintaras"/>
+        <filter val="Hyraa joulua ja&#10;onnellista uutta vuotta&#10;5^th^ Dec 2023&#10;Greetings from Finland!&#10;We had a christmas party today with my postcrossing friends.&#10;Had a great time!&#10;Laura/Salladeemus"/>
+        <filter val="Hello Feng. My name is Annette. Greetings from San Antonio, Texas, USA. 26 August 2024"/>
+        <filter val="Hello, I send greetings from the Baltic Sea. I'm 67, work in the garden,have 2 parrots,do crossword puzzles, meet friends for coffee and cheese cake. Best wishes, Marie"/>
+        <filter val="Namaste from India.&#10;I live in a small town Aruppukottai in South India.&#10;My town is famous for cotton mills and handloom weaving.&#10;I love collecting stamps, currencies and postcards.&#10;Wishing you lots of happiness and good health.&#10;V. Visweswaran&#10;4 May 2025"/>
+        <filter val="A card for you!&#10;I live in Rockanje, a little village near the sea and the beach.&#10;Greetings, Gerdientje"/>
+        <filter val="Hello,Feng Siyuan&#10;my name is Anja, Nice to meet you. I send you warm greetings from Pelzerhaken in Germany. Pelzerhaken is a seaside town at the baltic sea. In the summertime a lot of vacationers spend their holidays here. You want to (know) what, &quot;I love you&quot; in german is:&quot;Ich liebe dich&quot;&#10;Take care"/>
+        <filter val="Hi Siyuan Feng,&#10;If this card reaches you past 7th May:&#10;Happy Birthday to you.&#10;I hope you and your family are doing good.&#10;Your daughter looks so cute on your profile picture! ❤️ May she be blessed with health and lots of love :)&#10;With kind regards,&#10;Nicole 🌸"/>
+        <filter val="hi~你好。 Happy New Year. 好難得可以用中文來寫明信片呢！我也正在learning English喔！！！&#10;2014 1月1號 By. Yun Hung（匀虹）"/>
+        <filter val="Arthur你好。&#10;我是來自台北市的穎菲。寄上一張休閒活的一騎腳踏車的聚會片，加上一張自行車道的郵票，希望你喜歡！ :)"/>
+        <filter val="你的女兒很可愛！ 我找到這張粉紅色的貓貓postcard，閃閃的，希望她會喜歡！ 祝聖誕快樂！ 新年進步！"/>
+        <filter val="September 28,2023&#10;greetings from Socorro, New Mexico, USA.&#10;Many happy postcrossing lucks for you!&#10; Karla"/>
+        <filter val="Dearest Arthur,&#10;  Canada is now 156 years old, our flag is 58, like me.&#10;  I like to garden veggies, bake spelf bread, read, and cycle to work. Coffee and chocolate is my weakness. I work in the prison dental clinic.&#10;Wishing you much joy in your letterbox.&#10;  Linda"/>
+        <filter val="Hello from Ukraine!&#10;Here you can see the cape Tarkhankut which is situated in the south of ukraine-Crimea&#10;Hope you like it&#10;Love you: Кохаю тебе!&#10;Best regards: з найлепшымі пажаданнямі&#10;Valeriia&#10;4 march 2014"/>
+        <filter val="Feb. 9, 2024&#10;Hello Arthur and Xiaoxiao, I choose this cute rabbit for Xiaoxiao, I hope she likes it?!&#10;For your wife: I love the series:  &quot;the good doctor &quot;. Unfortunately for you I don't drink coffee...&#10;[Ik wens jou en je familie veel geluk en liefde! Groetjes van]&#10;Anne-Louise"/>
+        <filter val="hello&#10;I'm CATIA from Macao.&#10;Happy to share my artwork with you.&#10;&quot;When you start appreciating what you have, instead of lamenting what you don't have, something shifts.&quot;&#10;&#10;HAPPY POSTCROSSING&#10;CATIA&#10;8.5.2025"/>
+        <filter val="Hello Siyuan,&#10;Kind regards from the north-east of Germany. I live in a small village just by the bay between Berlin and the Baltic Sea. This tower was built as a XXX co.100 years ago to provide all houses with fresh water. Today, it is empty and became the symbol of our village. Happy postcrossing, Lupe"/>
+        <filter val="Dear Arthur, I send you and your family sunny greetings from Zadar, Croatia. I'm Jill, 21 and from Bielefeld in Germany. Your daughter is lovely! In October I'm starting to study medicine! I'm so excited. Check out the coffee from Hamburg &quot;Speicherstadt&quot;! All the best, Alles Liebe für Dich! (我祝你一切顺利！)"/>
+        <filter val="Hallo ... German Phrases! Du gehst mir auf den Keks! Literal Translation: You're walking on my cake/cookie. Meaning: You are annoying me! Happy Postcrossing. Lovely Claudine."/>
+        <filter val="23. Oct. 2024&#10;Hello Arthur,&#10;viele Grüße an Dich und Deine Familie - many greetings to you and your family. I'm Grit and I live in Leipzig, a large city in the east of Germany. I'm a doctor and work in a dialysis unit. All the best for you!"/>
+        <filter val="Feng, hello!My name is Irina, 67 y.o.&#10;I live in Podolsk, Moscow Region. I like coffee, to read, to travel around Russia. Russia, July 2025 I want to go to St. Petersburg.&#10;Best wishes!"/>
+        <filter val="hello arthur, greetings from germany. my name is michaela and I live in Fürth, a city near nuremberg. yes your daughter looks very sweet. I've a 4 y.o. son, named Lucas. I love my coffee in the morning. At the moment I've beens from india with chocolate, nougat and grapes. All the best to you &amp; your family. Michaela"/>
+        <filter val="Hello, Greetings from Poland.&#10;Have a nice time.&#10;Robert&#10;5.12.2023"/>
+        <filter val="2.10.2023&#10;Hello Arthur and Xiaoxiao!&#10;Many autumn greetings from Finland! I love the colors of autumn.&#10;Sorry I can't recommend you any coffee because I drink only tea. I love tea.&#10;I wish you all the best and stay happy!&#10;Bye, SARI"/>
+        <filter val="Hello from Russia! My name is Masha, I live in the city of Yekaterinburg. Take care :heart:"/>
+        <filter val="Hi Siyuan and adorable Xiaoxiao! Greetings from Russia! I'm 31 y.o. mom of 1.5 y.o. daughter. I work at the Russian Post office. Hope that Xiaoxiao like this gopher postcard. Wish you health and lot of joy. Tatiana."/>
+        <filter val="Hello Siyuan, Greetings from The Netherlands. My name is Willem and I live in the small village of Wezep. I send you this card from the Dutch island of Texel. It's nickname is Sheep island. I wish you all the best, Willem."/>
+        <filter val="Hello Siyuan,&#10;I'm writhing you from my town Voerendaal in the south of the netherlands. It has a population of +/- 12500 people.&#10;It is very chilly here. At the moment 3℃(12 hour) &#10;Since this week the frost set in night. Brrr…&#10;We are getting ready to celebrate Sinterklaas on December 5. IT is a fest for children. Unfortunally it was on the internatial news because some people think that his happy helpers Zwarte Piet(black Petes) and racism. Believe me, anyone who celebrate this fest for children doesn't agree to that. Maybe you heared something about it.&#10;My daughter(3) likes sinterklaas and the zwarte pieten very much. It is a beautiful tradition where we like to  kids the same as we do about Santa Claus!&#10;Groetjes  Tamara"/>
+        <filter val="Hello Siyuan, greetings from Leverkusen in the west of Germany! Today is the &quot;1st day of Christmas&quot;, but in Germany the main day of celebrating Christmas is December 24th. Funnily, it's only the 25th and the 26th that are public holidays. But as this year the 24th fell on a Sunday, everyone had 3 days off. :) Frohes neues Jahr - Happy New Yeas! Hanna"/>
+        <filter val="Hello siyuan feng and greetings from autumn Germany!&#10;I like coffee too, esp Cappuccino.There's a German Brand -Dallmayr. They were the supplier of the royal family and till now have a beautiful store in Munich. Another famous Brand is Melitta. All the best and good tastes!&#10;Victoria 28.09.2023 +24℃"/>
+        <filter val="Hello Arthur,&#10;&#10;Diese Rose ist von meiner Tochter für deine süße Tochter. Sie kommt aus einer kleinen Stadt im Süden Deutschlands. Ich wünsche dir und deiner Familie alles Gute, beste Gesundheit und jetzt viel Spaß an einer richtig tollen Rose! Love, Emily,80 years old"/>
+        <filter val="嗨！思远，你好！&#10;Apa khabar? （马来文）&#10;我是诗慧，来自马来西亚柔佛州，现在在雪兰莪州工作（车程大概3个小时）。我的祖父母从福建永春离乡背井来到马来西亚。2007年春节，我们一家陪祖母回到永春，看见到了她们那里的亲戚，也算是认祖归宗吧！明信片展示的是这里马来同袍的皮影戏。祝福你顺心如意！&#10;诗慧 SALLY&#10;16/03/24"/>
+        <filter val="Hello Arthur. My name is Iris. I live in a small town in the middle of Germany. I like going out for walks, especially in autumn in forests because of all the beautiful colors of the trees. And most times I take my camera with me. I love books and I collect cookbooks. I wish you all the best. Stay healthy and enjoy life. Warm regards, Iris."/>
+        <filter val="7.8.24 ☁️ +22°C&#10;Hello Arthur, my name is Lothar and I come from Wuppertal, a town of 360,000 inhabitants. It is situated in a green area with several dams and well known for the suspension railway and Friedrich Engels.&#10;Best wishes, HEPHAN"/>
+        <filter val="Hi,&#10;Greeting from India. My name is Ashok and I am leading a retired life in Chitradurga, a beautiful city 200 kms from Bengaluru in Karnataka.&#10;Hope this card finds you in good health and spirits. Sending you my best wishes. Stay healthy and keep smiling. &#10;Regards.&#10;Wishing you a happy new year."/>
+        <filter val="Hey, Arthur,&#10;Greetings from my weekend trip to the Sauerland and the Kahler Asten mountain.&#10;Happy Postcrossing.&#10;Kai-Jan"/>
+        <filter val="你好，我來自台灣台南的Angela，這是我寄給你的第2張明信片。挑選今年生肖&lt;蛇&gt;。第一張可能遺失了，希望你不要介意"/>
+        <filter val="&quot;Привітанне з сельскай Беларусі! ❤️ (GP Belarus!)&#10;My name's Anna. I'm 22 y.o. and I live in the heart of our Blue-eyed country Belarus — in the clean, green, and cozy city of Minsk. ❤️ Merry Christmas and Happy New Year! ❤️️"/>
+        <filter val="13-2-24 37℉&#10;Hello, Welcome back to Postcrossing! I am Mary from Massachusetts, USA. I visited H.K. a very long time ago in 1987! I enjoyed the neon and the lovely countryside,too! I hope you a safed well! XO"/>
+        <filter val="22.11.2024&#10;-3℃&#10;Hello Arthur and Xiaoxiao,&#10;Greetings from Finland!&#10;Here is a winter-time, little bit snow and sunny. I like to this time. I like to walking in the nearest forest and swimming in lake or pool.&#10;Kaikkea hyvää sinulle ja perheellesi. -&gt; All the best for you and your family!&#10;T. Paula"/>
+        <filter val="February,22nd,2024 9℃&#10;Hello, this card just means: Sleep well! I'm Anja and in wintertime I like to play boardgames with my friends and family. In spring and summer I like hiking very much. I'm sending you best wishes, Anja"/>
+        <filter val="HELLO!My name Kate. Greetings from saint-Petersburge, Russian Federation! I'm 28 years old. I have the husband and the son. We wish you a Merry Christmas and Happy New Year!"/>
+        <filter val="May 7th&#10;Dear Arthur,Here is a view of a popular place for tourists to visit in England. There are many beautiful areas to walk in e.g. woodlands where you can see wildlife. Best wishes, Laura"/>
+        <filter val="Hello Arthur! Greetings from Kyiv Ukraine!&#10;Берегите один одного та мир в країні!&#10;Take care of each other and peace in the country!&#10;Natalia"/>
+        <filter val="hello Arthur, warm greeting from southern germany. Your daughter is very cute. Does she know peppa pig. all the best, PIA"/>
+        <filter val="Jan. 20, 2025&#10;Hello Arthur, many greetings from Czechia! I am Vladimir, and I live in Prague, the capital. I send you this picture of the nice dog, which is an Assistance Dog. I support an organization, it is called Helppes - means Help dog.&#10;Best wishes for you, Vladimir"/>
+        <filter val="Hello,&#10;many greetings from Germany.&#10;I am 67, married, retired from IT --work in a bank. Best Wishes"/>
+        <filter val="Dear Arthur, &#10;I'm very glad to send you the postcard because I rarely send a card to a person also speak Chinese. I still write the card in English since I want to seize every opportunity to improve it. You must be cheerful to have a charming girlfriend. Falling in love with someone is always joyful. Hope you two in love smoothly forever. Penny 30.3.2014&#10;Happy postcrossing"/>
+        <filter val="Dear Arthur:&#10;Howdy, (Texan for hello) from the pine forests of Northeastern Texas! I'm Mike, 70 years (body only. The Mind is much younger :))&#10;Married to Lewa the past 43 mostly happy years :)&#10;Retired, we live in a small city of 23000 with Lucy our puppy :)&#10;Happy Post Crossings!"/>
+        <filter val="Happy Belated Birthday!&#10;A horse stamp and our beautiful black bears&#10;for your adorable daughter!&#10;❤️ Lisa"/>
+        <filter val="Hello from New Hampshire, USA! I'm 32 ＆ live with my husband. We are enjoying a nice, cozy weekend. Later we are meeting friends for dinner. Cleers! Blair"/>
+        <filter val="Bonjour Arthur et Bonjour XiaoXiao!&#10;Joyeux nouvel An chinois! Je vous souhaite beaucoup de chance et une bonne santé! (Happy lunar new year! I wish you a lot of luck and great health.)&#10;I am currently traveling through China and south east asia , I have been to singapore and Hong Kong and I'm currently in Taiwan! They make incredibly strong coffee!!&#10;Best, Sophie&#10;26.02.24"/>
+        <filter val="最近很累、很困，不知道怎么样才能好好休息到 T_T。&#10;YY 2024"/>
+        <filter val="hello! I hope you are doing great! I love this card, I got it in a set of 10 and it's been so difficult to send them all out. It's been 4 years since I got them :D I always make the same mistake of getting a set of cards and then struggling to send them out. You know how you don't like some of the cards in the set :D Best wishes ♡ deimante"/>
+        <filter val="Hello!&#10;Greetings from Finland! I hope maybe your daughter likes this card. Is her nickname 小小? If so, that is a very cute nickname!&#10;&#10;Here in Finland, it has started snowing.&#10;&#10;Best regards,&#10;Kuu"/>
+        <filter val="Dear Xiaoxiao,&#10;I hope that you like this card of a baby bear. Isn't it cute?&#10;Lovely greetings, Becky"/>
+        <filter val="Hello Arthur and Xiaoxiao!♡ My name is Nastya. Warm greetings from Russia! I have a son, he's 2 y.o. now. His favorite animal now is an elephant :) On the back is an inscription: &quot;the world breathes love&quot;.♡ Let your home be full of love and comfort!♡ All the best, Nastya, Voronezh, Russia."/>
+        <filter val="Hello!My name Polina, I'm 13! I very love China's cities! Happy Postcrossing."/>
+        <filter val="Hallo Siyuan Feng!&#10;SEND YOU BEST WISHES FROM MY WONDERFUL CITY INNSBRUCK/AUSTRIA EUROPA! :) THE CITY IS SURROUNDED BY LOTS OF MOUNTAINS WHICH GIVE US MANY OPPORTUNITIES FOR GREAT SPORT ADVENTURES.&#10;TAKE CARE&#10;Karin"/>
+        <filter val="May 20th, 24&#10;Hello Arthur,my name is Karin. I am 61 years old. I have been married for 35 years and we have two adult children. I hope you have fun with your little daughter. A child is special. Greetings from Aschaffenburg, Germany. I hope you like this animal card! Regards."/>
+        <filter val="Hello Siyuan feng,&#10;nice to write you my first english writing postcard.&#10;My name is Jannie, iI'm 29 years old and my hobbies are geocachen, my fishtank with south american fishes, writing my  book blog (bluebutterfly.wordpress.com). You want to learn to write&quot;I love you&quot; in Germany &quot;Ich liebe Dich&quot;&#10;With best regards to oyou and your girlfriend.  &#10;Janine"/>
+        <filter val="Hello Arthur!&#10;Greetings from Montreal!&#10;I'd like to share a saying that I try to live by:&#10;Look for something positive in each day!&#10;Even if some days you have to look a little harder."/>
+        <filter val="Hello Arthur, I am Jussi from Helsinki, Finland. I am working in the hotel industry and will retire in the end of next year. I love gardening at my country cabin, hunting mushrooms, visiting museums, eating out and travelling. My husband turns 60 on August 25th. We are going to celebrate his birthday in Torrevieja, Spain. Peace &amp; Love, Jussi."/>
+        <filter val="2025 April 24&#10;&#10;Hello Arthur!&#10;Here in Skagit Valley we host a Tulip Festival every April. People visit from all over the country and world to see them. I have also taken up cycling recently though mine is an e-bike with extra storage capacity for camping trips. I'm currently in a state of anxiety for 3 months because of Trump, who is causing a lot of disruption in the US and internationally. I hope your work is not impacted. I am a scientist and some of my colleagues are unable to do their work due to federal funding cuts. It is madness."/>
+        <filter val="Bonjour! Hello from Belgium!&#10;My name is Laurence. I live in Brussels.&#10;I love drawing as you can see on both sides.&#10;I love traveling too. We're back from a lovely spa break in Luxembourg.&#10;I wish you a wonderful 2025!&#10;Cheers!"/>
+        <filter val="Hello, this card comes from Southern Germany. The castle was built in the 19th century by a crazy king who wanted to escape into a fairy tales world. Today one of the most visited place in our country. Best wishes, Patrick 26. July 30°C"/>
+        <filter val="Chemnitz 20.1.25&#10;&#10;Hallo Arthur,&#10;We hope that you like this Postcard&#10;Have a nice day&#10;Siegfried"/>
+        <filter val="Greetings from the historical center of Moscow. I love crochet and sometimes make toys to my childrens. +1 ℃&#10;Good luck! Ledon2015. 24.02.24"/>
+        <filter val="Hello Arthur, Greetings from the USA. Your daughter is so cute. Where I live we make more RV's (travel trailers-motorhomes) than anywhere else in the world. I hope you are having a great 2024. Prayers for your health and happiness. In friendship, Valerie"/>
+        <filter val="Hi Arthur! I hope Xiao Xiao likes this card of a cat! He's stealing a fish. I recently adopted a kitten and he's very cheety too. His name is Apollo.&#10;Happy postcrossing and best wishes from the Netherlands!&#10;Femke"/>
+        <filter val="So nice to visit with you again. I hope 2023 has been good so far.&#10;&#10;My card shows 3 generations of weddingsin my family. Notice that all 3 brides are wearing the same gown. My mom in 1954, Me in 1985 and my daughter in November when she married the love of her life. It's once again set aside for the next bride, ifshe desires to follow suit&#10;&#10;Thanks for swapping and here's to a mailbox full of great cards!&#10;&#10;Arthur- I sent this Card earlier this year, and thought you might like it.&#10;your daughter is cute!&#10;Ilyse"/>
+        <filter val="Dear Feng,&#10;Happy new year!&#10;2014-sarah"/>
+        <filter val="&quot;Hi from the state of Minnesota, in north central USA.&#10;People like to spend vacation time on the shores of lakes in the north woods.&#10;This is a beautiful area. Sometimes I feel sad that 200 years ago when the land was being settled,   &#10;so much natural grassland was destroyed to plant crops.&#10;STACY"/>
+        <filter val="Hello,&#10;here's coming a postcard from little island called Föhr.&#10; It's in the north of germany. I live here along mh live. &#10;Have a nice time.&#10;Greetings Kirstin"/>
+        <filter val="Hello Arthur,&#10;how're you? My name's Tereza, I'm 20. In the picture you can see hotel,where I work like a receptionist and some landscapes. Yeah, you're in Texas right now! It's really interesting!&#10;Hope you 're enjoying summer&#10;Have a good time,Tereza."/>
+        <filter val="Dear Arthur, best regards from essen in the ruhr-area, Germany. I'm Anne, 66 years old. your daughter is really cute, she looks like a doll. I have 4 grandchildren, but they are all boys, the youngest is only 4 months old."/>
+        <filter val="Feb 10 2024&#10;HEllO FROM TORONTO&#10;XiaoXiao is so adorable, what a beautiful daughter you have. Is she as sweet as she look? I have a 29 yr old daughter and a son who wil be 34 this summer.&#10;I tell you don't blink and don't waste money on toys, expensive trps and fancy clothes they remember nothing. The time together playing is the best. I wish you all good health and much happiness.&#10;From Sandra"/>
+        <filter val="Hello Siyuan!! Greetings from Japan.&#10;I live in Yokohama, next to Tokyo.&#10;中国の漢字は難しいです。日本の小学校では1026文字も習います。&#10;When writing an address in Japan, we write '様' at the end of the name, but do we do it in China? 元気 でね!&#10;♡ Xiaoxiao かわいいね ♡&#10;Azusa&quot;"/>
+        <filter val="友友好！请查收来自中大的明信片。 我叫霜仙，是在穗厦门人，我现在在中山大学读博。寒暑假才会回去，这是我拍的厦门后田海滩，我把它做成明信片送给你。背面是我设计的。希望你喜欢。&#10;    中大今年一百周年校庆非常隆重。第三校歌《快来报中大》太燃了，还有广寒宫的歌舞也很美！欢迎友友来中大&#10;2024.11.22"/>
+        <filter val="Happy New year and Christmas!!! &#10;Lesya 10.12.2013"/>
+        <filter val="Hi Siyuan, Welcome from Winnipeg in the middle of Canada. What a cute avatar. My grandniece lives in Malaysia and is 2. I love to WhatsApp with her. She loves to sing with hand gestures! Cheers, Sandee"/>
+        <filter val="Dear Arthur,&#10;Hi, my name is Sarah and I live in the small city of Auburn in New York State. Fall is my favorite season because the countryside looks like this postcard.&#10;Happy Postcrossing! -Sarah"/>
+        <filter val="Hello from Georgia! My name is Dani and I live on a small farm in Georgia south of Atlanta. Atlanta is the home of the world's busiest airport and was the birth city of Coke-a-Cola. I hope your daughter likes the cat and horses. Peace + Smiles :)"/>
+        <filter val="eine herzliche Umarmung für deine süße Tochter&#10;(=a hearty hug for your sweet daughter)&#10;Today is word-postcard-day, you can colour this card and changes the image when you are ready.&#10;stay healthy and peace in the world.&#10;Be (Bruno)&#10;"/>
+        <filter val="Ni hao Arthur,&#10;my name is Diane. your daughter is indeed adorable.&#10;Specially for her, I send this cute card :smile:&#10;We drink Wakuli coffee beans = &quot;FAIRETRADE&quot;&#10;enjoy life :heart:"/>
+        <filter val="Hi! My name is Darina, I'm from Samara(Russian) Hope you'd like this card with the view of the Hermitage Museum in St. Petersburg&#10;Good luck and happy postcrossing."/>
+        <filter val="Hello Arthur, Warm greetings from Australia on this late autumn day. &#10;I thought this funny postcard with the cycling kangaroo would satisfy you and your daughter. &#10;I'm sure you could pedal faster. &#10;&#10;Best wishes, &#10;John"/>
+        <filter val="Hello siyuan!&#10;Greetings from sw Florida in USA! We visit this zoo often and see Walter! He is so handsome! I live 7 miles from the ocean, and we get the most gorgeous sunsets! We also have sea turtle nesting season here. All nests are protected. I wish for more and less hate in the world."/>
+        <filter val="February 10, 2024&#10;Moi,Hello Arthur!&#10;greetings from Finland!&#10;My name is Emmi, I live in the western part of Finland in a city called Tampere. It's located between two beautiful lakes. It is said Finland is the land of a thousand lakes - we have so many of them! :)&#10;Happy postcrossing!"/>
+        <filter val="18.01.25&#10;-2°C&#10;Dear Arthur,&#10;I send you a lot of greetings from Germany. I'm living with my family in the near of Hamburg. We love it to travel. :) Best wishes &amp; a lot of fun with post-crossing.&#10;Andrea"/>
+        <filter val="Dreumel, 17-10-2023&#10;Hello Arthur,&#10;My name is Esther and I live in avery small village with my man and our dog and cat. l do like alot. like reading, writing, Escape rooms, traveling and baking sweet treats, mainly cup cakes.(Insta:Essies_cupcakes).&#10;ik hoop dat jij deze kaart leuk vindt. Ik doe dit (diamond painting) als ic myn hoofd leeg wil maken. Ik werk full time in de IT sector als applicatie consultant. so l hope it make sense if you try to translate it. I wish you a nice day and of course Happy Postcrossing.&#10;kind regards,&#10;Esther"/>
+        <filter val="My name is Holger. I'm a teacher of mathematics and ethics, married, father of two sons. We live in a 172 years old house with our own library.&#10;Best Wishes! &#10;Herzlich Grüße! Holger"/>
+        <filter val="Arthur!&#10;&#10;Greetings from Russia! I live in Moscow. Today - 5 degrees. I'm looking forward to spring. I'm sending this bird to your little daughter. I wish you health and smiles. Happy postcrossing.&#10;И самые лучшие пожелания вашей семье. :)&#10;&#10;Yulia&#10;21.02.24"/>
+        <filter val="Hei&#10;17th of Juney 2024&#10;Greeting from sunny Finland. Now at 8.30 am is 20° C. Sun has arisen at 3.37 am and will go down at 10.50 pm.&#10;I’m a biology, geography, and social studies teacher (also math this school year) in upper comprehensive school for pupils with 13-16 years old. I like my job very much.&#10;I have MCTD. It’s rare of rheumatism disease. I have so much pain in articulations that handwriting isn’t possible. June 2023, I got another rheumatism diagnoses, psoriatic arthritis.&#10;I try to be positive. I have personal assistant who help me with Postcrossing and many other things.&#10;On school time I got to work by taxi because public transport isn’t going near to school (I should walk from bus stop about a one km). At school I’m not allowed to walk stairs alone, my classroom is at 3rd floor and in my school isn’t lift/elevator.&#10;I want to go work because when I’m teaching, I don’t think about pain. I have use wheelchair in my free time.&#10;Our school year ended at 1st of June and back to schools we go at mid-August.&#10;Anne (veverka)"/>
+        <filter val="Dear Feng,&#10;I love all the national parks in the US and California has the most.&#10;Sending you best wishes from La La Land.&#10;Cheers!&#10;Cardiffgal"/>
+        <filter val="Big hello from Moscow, I just got here from my trip to Rwanda and Egypt, bought this postcard in a local store in Cairo. I think it is cute and also has cool lenticular eyes. My niece turned 1 y.o. three weeks ago. Time passes by so quickly but that's okay. It is part of life."/>
+        <filter val="Hi Feng Siyuan, My name is Natalia. I live in a small Ural town. I really want you to get my postcard. And it will bring you joy and a smile. You have a very beautiful daughter. May your family live in love and harmony. Всего вам самого доброго С любовью из России!!! от Натальи&#10;&#10;Не знаю сколько будет в пути это письмо, хочу поздравить вашу семью с наступающим Новым годом 2025!!!&#10;Пусть новогодняя ночь будет волшебной и принесёт много подарков.&#10;Наталья"/>
+        <filter val="Hello Feng,&#10;my name is Leila and I am thrilled to introduce you to Bosnia, an ex-Yugoslavian country in the heart of the Balkans.&#10;&#10;I'll start with &quot;Ćejf&quot;, a concept about savoring the moment, like enjoying a cup of coffee or a conversation with a friend, taking time to relax is a cherished tradition here.&#10;&#10;Jufat - a Bosnian treat, a kind of stubborn pride or defiance. It helped Bosnians persevere through challenging times.&#10;&#10;Deret - it conveys a deep sense of sorrow and heartache, it reflects pain, but also embodies the idea of enduring and sharing one's burden with others.     &#10;&#10;Veliki pozdrav iz Sarajeva"/>
+        <filter val="25.1.25.5&#10;Hello to the world from the Town Sprockhodel in Germany. I hope you like the posthaute... you see the olympic games in Paris in 2024. I ❤ this postcard.&#10;I live in a nice house on the edge from fields and woods with my little family. Every day I go with my Dog Elli ou little adventures... I wish you all the best and in the year 2025!"/>
+        <filter val="Прывітанне з Беларусі!!! My name is Dima. I live in the city of Volkovysk near the border with Poland. I'm 48 years old. I like rock music and travel. Прыветная посткроссинг!!!"/>
+        <filter val="2.13.24 SUNNY 62 ℉&#10;HELLO ARTHUR AND XIAOXIAO, I HOPE YOU BOTH LIKE THIS CARD. IT WAS MADE BY A LOCAL ARTIST. I LIVE IN NORTHERN CALIFORNIA, NEAR SACRAMENTO, WHITCH IS THE CAPITAL. I TOOK A 10 YEAR BREAK FROM POSTCROSSING :smile:&#10;LOCAL COFFEE - TEMPLE, PHILZ AND THE MIU &#10;-TRISH"/>
+        <filter val="Hello Arthur!&#10;GREETINGS FROM COLLEEN CRAFTYHILL&#10;a Canadian living in Speyer, Germany on the Rhine at Km 400.6.&#10;&#10;The Rhine is low at 2.80 m but it is up from 2.19 m at which much of Rhine transport was halted.&#10;I wish you all the best with your goal of 100 100 km road races. Very cool!!&#10;&#10;Your daughter is very cute indeed. My &quot;fur baby,&quot; Dante, is quite cute, too.&#10;I'm a tourist guide here in Speyer. I love my job!&#10;&#10;All the best,&#10;Colleen"/>
+        <filter val="Hello, Arthur!&#10;I live in the city Gomel - the second largest city in Belarus.&#10;I was a teacher. Now I am retired.&#10;I like to read,to travel.&#10;I congratulate you and your family( your  daughter is adorable,with new year.and may all your dreams come true! Galina"/>
+        <filter val="Hi! from San Diego California! This card is from our favorite local coffee roaster. Just a short walk from our house— Happy Postcrossing! Many love &amp; greetings"/>
+        <filter val="Greetings from Luxembourg!&#10;Originally I am from Russia but I have lived in this small green and calm country for 3 years.&#10;I think this postcard will arrive after 7th May, but I still want to wish you all the best&#10;wherever you are and whatever you do—I hope you enjoy life and have fun! 😊&#10;&#10;Warm hugs from Luxembourg!&#10;Daria&#10;24.04.25"/>
+        <filter val="9.2.2024 -22℃&#10;Hello.&#10;[talviset terveiset ta alta lumisesta suomesta] = Winter greetings from here snowy Finland. At this moment snow level is about 80 cm. But still 2 months time rain more. Then it's start melt away. I hope Best wishes, JARI"/>
+        <filter val="Hello Arthur,&#10;I'm Günter, live in Rödermark and are retired.&#10;I have a garden,like to travel, play bowling&#10;best wishes and stay healthy"/>
+        <filter val="Hello Arthur,&#10;many greetings from Schorndorf,&#10;in the south of Germany. My name is Gabi and I like: musicals, movies,books long walks in the nature, animals, time with my friends, traveling, writing letters of postcards and sport.&#10;I wish you all the best for 2024.&#10;Gabi"/>
+        <filter val="Dear Arthur,&#10;Belgium is great for cycling (very flat), but this view is paradoxically from a hill. Mont des Arts is a part of Brussels with many museums and historical buildings.        &#10;Happy 2025 and happy pedalling!&#10;Michael"/>
+        <filter val="Hi,Arthur! 13.11.2023 22:20&#10;My name's Diana. I live with my beloved husband in a small town called Temruk. It's situated on the coast of the  Azov Sea. (Look at the map you'll see me!) I really enjoy my life here in this region. There's one more sea not far from here-- The Black Sea. I love it so much. I'm a great sea lover and can't imagine my life without that raise of sea waves. It really heals my soul and my body. Art and music also make me happy and my live with love. My favourite band is the Beatles. As all times! But there're more other bands I love. My fav. artist is van Gogh. I'm so into his piece of art. hope you'll like this cute picture and ginger cat on it.&#10;Ginger cats are my favourite one."/>
+        <filter val="New York City&#10;May 13, 2024&#10;Hello Arthur—&#10;Here are some books I’ve recently enjoyed: HHhH by Laurent Binet; A Gentleman &#10;in Moscow by Amor Towles; &#10;A Few Right Thinking Men by Sulari Gentillu; Six Four by Hideo Yokoyama; &#10;Small Mercies by Dennis Lehane; &#10;A Rising Man by Abir Mukherjee.&#10;Best, Jonathan"/>
+        <filter val="To: Siyuan&#10; Nice to meet you, I sent you this card is has reason. This postcard means we must treasure the time. Don't waste the one week without doing anything. Time is valuable. I hope you can understand the meaning of the postcard and do it in your every day life.&#10;Beside that, I have a request. Can you send me a postcard? I am very instersted about the postcard in China. Thank you.&#10;From:kaiQin"/>
+        <filter val="Dear Arthur,  01.10.2023&#10;My name is Birgit and I live in Linz, which is located in the north of Austria. It's a bigger city than salzburg, but definitely not that famous.&#10; I love reading books, traveling the world, archery, writting letters in the old style (pen and paper) and doing handicraft. Wish you all the best,Birgit."/>
+        <filter val="23.4.2014  +8℃&#10;Greetings from Pöytyä, south-west Findland! I like all kind of outdoor activities, enjoy hiking and cross-country skiing very much. Orienteering sport is my favorite hobby. I love to run in the forest with the map and compass and try to find control points quickly. I wish all the best to you and your girlfriend. I love you is : Minä rakastan sinua in Finnish."/>
+        <filter val="Hello,siyuan&#10;I'm from the northern part of The Netherlands.&#10;you want to know how you say &quot;I love you&quot; in our language--In dutch you say:&quot;IK hou van jou&quot;&#10;Blessings for you and your family.Happy postcrossing. Most kindest regards. &#10;Hugo"/>
+        <filter val="Monday October 21, 2024&#10;Arthur and Xiaoxiao,&#10;Greetings from south west Wisconsin, USA.&#10;We are enjoying warm days although it is Autumn. The leaves are changing color.        &#10;Merlin AKA xenop"/>
+        <filter val="Hello Arthur,&#10;&#10;I hope you and your daughter like the card.&#10;Good luck with your bike riding.&#10;Happy Birthday!&#10;God Bless,&#10;Diana"/>
+        <filter val="Hello,Arthur,&#10;Greetings from Moscow, Russia. My name is Alexander. I'm a metrotrain driver. I want to wish you to stay safe, to keep healthy and be happy!!!"/>
+        <filter val="Hello Arthur, I’m 18 y.o Ivanka from Ukraine. I’m sending this postcard from the capital of neighbouring Poland which hosted many ukrainians who fled the war unleashed by Russia. My family is also scatted around Europe, and most of my dreams has been decimated. I study biotechnology but it was pretty much complicated to work at the lab under Russian missle attacks. Yours perhaps is the longest address I ever wrote at postcrossing. Cheers, Ivanka"/>
+        <filter val="Hello Arthun and Xiaoxiao! My name is Yulia. I live in Istra(Moscow region). &#10;Привет из России&#10;23.10.24"/>
+        <filter val="Hi Arthur! I am Jaime from Bilbao, North Spain. I selected this card thinking about your nice boy Xiaoxiao. Hope you enjoy. All the best for your great family, Jaime"/>
+        <filter val="Hello. Three things about me! &#10;#1- I voted for Kamala&#10;#2- I am 50 years old &#10;#3- I ❤ Diet Coke"/>
+        <filter val="Original Text:&#10; November 3, 2024&#10;Hello Arthur and Xiaoxiao and mama!&#10;Greetings from Washington State USA.&#10;I think this card is very cute, I hope you like it! Best wishes to you! 😊&#10;☮Archelle"/>
+        <filter val="Hello, Arthur! Greetings from Russia. I live in Moscow, but recently I spend my holidays in Crimea, in Sevastopol (Black Sea, Russia)—it's a beautiful place. Welcome to Russia! Russia is grateful to China for the support in this difficult time. Best wishes, Andrey"/>
+        <filter val="12/02/2024 8℃&#10;AHOJ ARTHUR!&#10;GREETINGS FROM THE UK!&#10;I PICKED THIS POSTCARD BECAUSE IT MATCHED CUTE BABIES(AS YOUR DAUGHTER, SHE'S ADORABLE!) AND ANIMALS :heart:&#10;I CAN'T REALLY RECOMMEND ANY COFFEE BEANS BUT HOPE YOU'LL FIND SOMETHING YOU'LL :heart:&#10;TAKE CARE, PATRICIA :smile:"/>
+        <filter val="Hello Siyuan, My name is Frank I send you greetings  and best wishes from Germany.Frank"/>
+        <filter val="Arthur, hello from the mountains of North Carolina &#10;This is along the Appalachian trail, the longest hiking-only trail in the world.&#10;It runs for 3524 km through 14 states.&#10;&#10;Best Wishes&#10;Jim"/>
+        <filter val="Stamp Out Boring Mail!&#10;14 march 2024&#10;Hello from Minnesota. We are called &quot;The Land of 10000 Lakes&quot; and &quot;The North Star State&quot;. &#10;Your daughter is super cute!&#10;I've lived here most of my life, but also in other states. I like it here but winters are cold.&#10;Wishing you and your family health and joy, Melissa."/>
+        <filter val="Hi！&#10;Hello from across the world.I'm Gelinda, nice to meet you.Your card is the first one in a really long time, so Happy Postcrossing and hope you have a nice day. I'll. I live in a small country named Latvia, it's small, but have a nice nature."/>
+        <filter val="Hello Feng,&#10;I am Vidhya from India I live in USA now. How is Xiao?&#10;She is cute. Have you tried any Indian cuisines?&#10;Have a great day."/>
+        <filter val="Nihao Feng, Siyuan&#10;&#10;Traveled to China in 2006 for 4 weeks, learned a few words of Chinese while I was there, loved Guilin and the Great Wall.&#10;&#10;Greetings,&#10;Maria"/>
+        <filter val="DECEMBER 4 2023&#10;Hello SIYUAN.&#10;It's currently 2:00 PM. Here In White  Deer TX. The wind is blowing and the temperature is perfect. It's 70℉ definitely not normal for this time of year. measurable snow, just a bit of rain and ice. This usually means ice storms come Jauary. Have a wonderful day. take care --Nicole"/>
+        <filter val="Hi,&#10;Greetings from the north west of France. I hope you 'll like this card. Happy postcrossing.&#10;Aline"/>
+        <filter val="Hello!&#10;my name is Julia. I am from Kyiv, Ukraine.&#10;18.01.2025"/>
+        <filter val="Dia dhuit meaning hello in Irish, or, it's literal translation is 'God be with you'. My name is Zoe from Ireland; I was born &amp; bred here. I love animals and work as a veterinary nurse in Dublin. And I just got married 2 weeks ago at the 'Cliffs of Moher'. Best wishes, Zoe :)"/>
+        <filter val="Greetings from Las Vegas! We are currently in the middle of our spring, which is my favorite season before we have our desert summer heat! -Demian"/>
+        <filter val="你好 こんにちは！我是博子。來自日本的問候。這張明信片描繪了自1624年左右開始舉辦的節慶。如果你喜歡的話我會很高興。祝你天天快樂。博子"/>
+        <filter val="Hello Arthur,My name is Lutz.&#10;I live in Berlin, the capital of Germany.&#10;I'm a 65 years old single.&#10;I love it to be naked on the beach or at other places in nature, but the last summer is long over.&#10;Now I'm waiting for the next.&#10;Happy postcrossing and a good time to you!"/>
+        <filter val="January 18, 2025&#10;Hello Arthur!&#10;Greetings from San Diego. Good luck with your cycling goal! It's great to set up goals like these to keep the motivation up. I'm not a sporty person, but I'm trying to increase my activity this year.&#10;Wish you all the best!&#10;Martina"/>
+        <filter val="7 May 2024&#10;Bengaluru &#10;Dear, Feng Siyuan &#10;Namaskara from Karnataka India, I'm thrilled to share with you a unique aspect of our cultural heritage Bhuta kola, a traditional folk dance form that's an integral Part of our state's rich traditions. &#10;Bhuta kola is a vibrant and energetic dance form that's performed to appease the spirits and ancestors. The dancers, adorned in elaborate costumes and masks, enact mythological stories and legends, accompanied by rhythmic drumbeats and music. This ancient art form is a testament to our state's cultural diversity and rich history.&#10;Thank you!"/>
+        <filter val="October 21, 2024&#10;Hello Arthur!&#10;My name is Jutta. I live in Vienna, Austria, Europe, in an apartment with a small balcony. There I often get visits from nice birds, butterflies, bees, bats, and cute squirrels. Ich wünsche Dir und Deiner Familie Freude und Gesundheit.&#10;Viele liebe Grüße,&#10;Jutta"/>
+        <filter val="7th July 2024&#10;Hi Feng!&#10;My name is Paula and hometown Lahti. We have one dog called Roxy. He is a basenji 13 years old. He is at home with my husband ’cause I’m with our daughter at her cottage with two of her dogs.&#10;All the best to you!&#10;Paula"/>
+        <filter val="Hello Arthur, I'm Christiane and I live in a suburb of Berlin. I also really enjoy cycling. I travel by bike, meaning I carry all my luggage on my bike. I really enjoy it. Sometimes a trip can be 100 km long, even though I only plan for about 80-90 km. A day trip can sometimes be 120 km long. I think we have a great hobby.&#10;In winter, I plan my trips, I read books with historical background and write postcards. I wish you and yours all the best! And always enough air in the tires!&#10;Kind regards, Christiane&quot;"/>
+        <filter val="こんにちは！（konnichiwa, hello） My name is 和永（Kazue） I live in 奈良（Naha）, Japan. Nara「～～」1185, the old city where there was the capital called 平城京（Heijo-kyo）about 1300 years ago. This is 祇園祭（the Gion Festival in Kyoto），which takes place every July. Happy postcrossing! 2024.10.23"/>
+        <filter val="Dear Arthur,This postcard comes to you from Northern Germany. I love books and sports and I am a volunteer with the Red Cross. That's fun! Best regards from Europe,INGE"/>
+        <filter val="March 01, 2024, 7°C,rainy&#10;Hello Arthur and your family,&#10;I'm delighted to be sending you a postcard. I'm Lara and I'm from Stuttgart, Germany. Today is my friend's birthday He's turning 41.&#10;However, he doesn't enjoy celebrating his birthday much, so we're working as usual today and will go out for dinner after work My friend is from South Korea, and we both love Korean food Normally, we enjoy cooking ourselves, but in the past few months, many Korean restaurants have opened here, and some of them are quite good.&#10;Last year, we also spent a month in South Korea with his family. It was one of the best trips I've ever taken. I learned so much about the culture and life there, as we stayed with his family, of course. I'm already looking forward to the next time we visit his family.&#10;[Redet mit jedem Menschen freundlich: alles, was ihr sagt, soll mit Salz gewürzt sein. Bemüht euch darum, für jeden die richtigen Worte zu finden.]&#10;At the front of the card in German it says:&#10;Speak kindly to everyone, everything you say should be seasoned with salt. Endeavor to find the right words for each"/>
+        <filter val="Greetings from Boston! We have visited Beijing and loved it. I hope Xiaoxiao enjoys the Sesame Street stamps. Warm Wishes,&#10;Sarah"/>
+        <filter val="Hello from hot and sunny New Mexico, USA. I like living in the American Southwest. We moved from Arizona, where this animal park is located. It's fantastic! It is also near the Grand Canyon, which I have seen several times. We're going on holiday to Canada in October. GARCI"/>
+        <filter val="P1：&#10;Hello From France&#10;You who love sports&#10;I found a card (sliding sports) and a surprise for your daughter.&#10;I'm writing to you in French my first name and where I'm writing from.&#10;&#10;je m'appelle CHANTAL&#10;je vis sur la côte Atlantique dans le Sud-ouest de la France. Bisous. - Chantal&#10;&#10;P2:&#10;A little surprise For you, my little love. You are very pretty. I send you Big hugs. :) CHANTAL"/>
+        <filter val="OSTRAVA!!&#10;Lower Vitkovice is a national site of industrial heritage located in the Vitkovice district of Ostrava in the Czech Republic. it includes an extensive industrial area Vitkovice ironworks with a unique collection of industrial architecture. A set of threesuccessive parts - coal mine, coke ovens and blast fumnace operations - also called Ostrava Ostrava Hradcany, after Hradcanythe Castle District of Prague.&#10;The area is registered in the list of European cultural heritage, and was placed on the Czech Republic's list of tentative UNESCO World Heritage Sites in 2001 under the name The Industrial Complexes at Ostrava.&#10;&#10;Hi, I am Jitka from Ostrava, which is the third largest city in the Czech Republic. Have a nice day."/>
+        <filter val="Hello Arthur,&#10;Greetings from Malaysia! My name is Sookfun. I like to collect stamped and written postcards. My goal is to collect at least a card from every country in the world. Stay safe. Take care.&#10;21 May 2025."/>
+        <filter val="Much greetings from Germany.&#10;My name is Jana and I live in Cottbus.&#10;&#10;Have a great day,&#10;Jana"/>
+        <filter val="04.10.23 +17℃&#10;Greetings, from Russia! &#10;Hi, I'm Mila. I live in moscow region, in the small city with my family!&#10;I wish you all the best!!!"/>
+        <filter val="Hello!&#10;My name is Minna and I live in small town called Kauhajoki. There is about 13000 inhabitants, but I like live here.&#10;I like reading and listening to music. Also I collect stamps and Garfield and cow-cards. I like animals very much, especially cats.&#10;Happy postcrossing! Minna"/>
+        <filter val="Hello Arthur,&#10;greetings from Hamburg, in north Germany! I am drinking coffee right now, the brand is called Jacobs. It's autumn here, so I hope your daughter will enjoy this autumn forest and that you all have a good day!&#10;Best wishes, Ricarda"/>
+        <filter val="Hello arthurfsy,&#10;My name is Eiichi (栄一). I live in Tokyo, Japan.&#10;I have retired. Now, I enjoy collecting world postage stamps and walking as a daily routine.&#10;I send a photo postcard of Hokkaido Squirrel (エゾリス).&#10;Please take care and enjoy your favorite.&#10;Happy Postcrossing!"/>
+        <filter val="Stockholm 20240808&#10;Hi Siyuan(SE 237946)&#10;Hi ! (hedgehog turn around)&#10;Quite a long address, Now I copy it in Chinese.&#10;Never been to China, But I should like to go&#10;Greetings&#10;Gunnar"/>
+        <filter val="Hi Arthur! I'm Matt from Arizona. I love coffee. My favorite coffee is from Philz, a company in California. Best wishes! Matt"/>
+        <filter val="Hello Arthur,&#10;Postcards are a beautiful way to connect people and cultures. I find it fascinating how Luxembourg and China have built a strong relationship over the years, especially in trade and culture. Here in Luxembourg, we have a vibrant Chinese restaurant scene, and we love enjoying Chinese cuisine!&#10;I truly believe we should leave a better world for our children, and it's inspiring to see how Postcrossing fosters these connections.&#10;I hope this postcard brings a smile to you and Xiaoxiao! 😊   &#10;Best wishes,&#10;Laurent"/>
+        <filter val="In the fall - this is pretty much what Nebraska looks like :). Be well - Charlene"/>
+        <filter val="5^th^ Dec 2023&#10;Hello Arthur,&#10;These are scenes in the north of England. &#10;I grew up near here.&#10;Best wishes, Gordon"/>
+        <filter val="Hi,Siyuan,&#10;hope you enjoy this card. I thought it was nice to send you a heart shaped card because you are in love. I love you in Dutch is &quot;IK hou van jou&quot; Wish you all the best! On the front you see the famous Dutch coastline."/>
+        <filter val="14, February 2024 &#10;Many greetings from Almuth in Lower Saxony. I live in a small town called Quakenbrück, with a frog symbol, Already founded in 1235.&#10;Best wishes to your daughter too."/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="2024/09/30&#10;Hello&#10;&#10;hope you are fine?&#10;Wanted to ask if you have received my card BA-14379&#10;&#10;KR&#10;Leila&#10;&#10;2024/10/03&#10;Dear&#10;&#10;I am sorry, I did not take a picture, I usually do it, so I don't remember when exactly I have sent it.&#10;We will wait, hopefully it will arrive soon. The ones sent to India got there, so fingers crossed.&#10;Please just let me know.&#10;&#10;Kind Regards&#10;Leila"/>
+        <filter val="2024/10/21&#10;Wait, I sent it in an envelope&#10;&#10;2024/10/21&#10;Привет, мне выпала возможность отправить тебе открытку, можно мне отправить тебе в конверте?&#10;&#10;2024/12/11&#10;I am very glad that the envelope got to you. I wish you all the best. Have a nice day and a huge hello to your family. Be happy!!!"/>
+        <filter val="You are welcome,Siyuan.I am so happy that you can understand the meaning of the postcard!"/>
+        <filter val="Thank you for your message. Yes, that's right. Kanji is difficult, but English is difficult too. Sorry for writing in Japanese. I always use Google Translate. Take care. Happy Postcrossing. Azusa"/>
+        <filter val="Hello Siyuan,&#10;&#10;I have sent today a postcard to you.&#10;I hope it arrives quickly, it must cross a long distance.&#10;&#10;Most kindest regards,&#10;&#10;Hugo Pereira&#10;Hegedykje nr. 5&#10;9218 RC Opeinde (Friesland)&#10;The Netherlands&#10;&#10;NL-2441827"/>
+        <filter val="“Hello! I'm glad you liked the card and stamps. Yes, some of the stamps that I use are very old. Some are more than 50 or 60 years old, and some 1-cent stamps that I use are even more than 100 years old! Our postal service allows us to keep using them. I had never heard of the Tomb Sweeping holiday, so I looked it up online and read about it. It sounds like a wonderful way to honor lost loved ones and ancestors. I hope you found it peaceful and heart-filling. Sending best wishes on a sunny Saturday in Minnesota! Melissa”"/>
+        <filter val="“Thank you very much for the reference to https://www.bgi.com/.  I read the site with great interest, looking into genomics and bioinfirmatics as branches of the science I am majoing in. Take care!”"/>
+        <filter val="2024/7/11&#10;Hello Siyian,&#10;Good to hear that you liked the card.&#10;I was in US when I wrote the card and have now come to India where I posted it.&#10;Hence you find Indian stamps."/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="525">
   <si>
     <t>id</t>
   </si>
@@ -3131,6 +3131,46 @@
 很高兴认识你， 希望你和你的女孩都很好。我在60多天前给你寄了一张明信片，所以那张已经过期了。昨天我给你寄了第二张明信片。希望那张明信片能完好无损地到达你那里。
 祝你们二位一切顺利，温暖的问候，霍兰达（在明信片交流中的用户名Pippi2014）
 这张明信片的编号是 NL-2813278</t>
+  </si>
+  <si>
+    <t>JP-2275475</t>
+  </si>
+  <si>
+    <t>Dear Arthur,
+Greetings from Japan!
+I'm from Switzerland but currently visiting my in-laws.
+(French)
+Bonjour à vous tous et passez un excellent été!</t>
+  </si>
+  <si>
+    <t>亲爱的阿瑟：
+来自日本的问候！
+我来自瑞士，但目前正在拜访我的岳父母。
+（法语）
+Bonjour à vous tous et passez un excellent été!（大家好，祝愿您度过一个精彩的夏天！）</t>
+  </si>
+  <si>
+    <t>JP-2275476</t>
+  </si>
+  <si>
+    <t>Hello! こんにちは!
+Greetings from 福岡 Japan.
+I hope you &amp; your daughter enjoy this card. 😊
+Have a nice summer in good health!
+Akiko
+8. Jul. 2025 
+32°C☀
+It's been so hot in Japan.</t>
+  </si>
+  <si>
+    <t>你好！こんにちは！（你好！）
+来自日本福冈的问候。
+希望你和你的女儿喜欢这张明信片。😊
+祝你夏天过得愉快，并保持健康！
+Akiko
+2025年7月8日
+32°C☀
+日本最近真的很热啊。</t>
   </si>
 </sst>
 </file>
@@ -3315,6 +3355,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
@@ -3323,12 +3369,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4178,20 +4218,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -4790,7 +4830,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="67.5" hidden="1" spans="1:3">
+    <row r="53" ht="70" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -4801,7 +4841,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="94.5" hidden="1" spans="1:3">
+    <row r="54" ht="98" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -4812,7 +4852,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="108" hidden="1" spans="1:3">
+    <row r="55" ht="112" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -4823,7 +4863,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="67.5" hidden="1" spans="1:3">
+    <row r="56" ht="70" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -4834,7 +4874,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="94.5" hidden="1" spans="1:3">
+    <row r="57" ht="98" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -4845,7 +4885,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="67.5" hidden="1" spans="1:3">
+    <row r="58" ht="70" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -4856,7 +4896,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="337.5" hidden="1" spans="1:3">
+    <row r="59" ht="350" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -4867,7 +4907,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="162" hidden="1" spans="1:3">
+    <row r="60" ht="168" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -4878,7 +4918,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="67.5" hidden="1" spans="1:3">
+    <row r="61" ht="70" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -4889,7 +4929,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="94.5" hidden="1" spans="1:3">
+    <row r="62" ht="98" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -4900,7 +4940,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="121.5" hidden="1" spans="1:3">
+    <row r="63" ht="126" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -4911,7 +4951,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="135" hidden="1" spans="1:3">
+    <row r="64" ht="140" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -4922,7 +4962,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="54" hidden="1" spans="1:3">
+    <row r="65" ht="56" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -4933,7 +4973,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="243" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -4950,7 +4990,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="121.5" hidden="1" spans="1:3">
+    <row r="67" ht="126" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -4961,7 +5001,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="94.5" hidden="1" spans="1:3">
+    <row r="68" ht="98" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -4972,7 +5012,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="148.5" hidden="1" spans="1:3">
+    <row r="69" ht="154" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -4983,7 +5023,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="54" hidden="1" spans="1:3">
+    <row r="70" ht="56" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -4994,7 +5034,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="40.5" hidden="1" spans="1:3">
+    <row r="71" ht="42" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5005,7 +5045,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="94.5" hidden="1" spans="1:3">
+    <row r="72" ht="98" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5016,7 +5056,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="94.5" hidden="1" spans="1:3">
+    <row r="73" ht="98" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5027,7 +5067,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="67.5" hidden="1" spans="1:3">
+    <row r="74" ht="70" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5038,7 +5078,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="67.5" hidden="1" spans="1:3">
+    <row r="75" ht="70" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5049,7 +5089,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="40.5" hidden="1" spans="1:3">
+    <row r="76" ht="42" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5060,7 +5100,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="27" hidden="1" spans="1:3">
+    <row r="77" ht="28" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5071,7 +5111,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="216" hidden="1" spans="1:3">
+    <row r="78" ht="224" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5082,7 +5122,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="54" hidden="1" spans="1:3">
+    <row r="79" ht="56" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5093,7 +5133,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="94.5" hidden="1" spans="1:3">
+    <row r="80" ht="98" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5104,7 +5144,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="67.5" hidden="1" spans="1:3">
+    <row r="81" ht="70" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5115,7 +5155,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="148.5" hidden="1" spans="1:3">
+    <row r="82" ht="154" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5126,7 +5166,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="27" hidden="1" spans="1:3">
+    <row r="83" ht="28" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5137,7 +5177,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="108" spans="1:5">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5154,7 +5194,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="351" hidden="1" spans="1:3">
+    <row r="85" ht="364" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5165,7 +5205,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="108" hidden="1" spans="1:3">
+    <row r="86" ht="112" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5176,7 +5216,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="54" hidden="1" spans="1:3">
+    <row r="87" ht="56" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5187,7 +5227,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="81" hidden="1" spans="1:3">
+    <row r="88" ht="84" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5198,7 +5238,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="54" hidden="1" spans="1:3">
+    <row r="89" ht="56" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5209,7 +5249,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="108" hidden="1" spans="1:3">
+    <row r="90" ht="112" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5220,7 +5260,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="108" hidden="1" spans="1:3">
+    <row r="91" ht="112" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5231,7 +5271,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="81" hidden="1" spans="1:3">
+    <row r="92" ht="84" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5242,7 +5282,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="81" hidden="1" spans="1:3">
+    <row r="93" ht="84" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5253,7 +5293,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="97.5" hidden="1" spans="1:3">
+    <row r="94" ht="100.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5264,7 +5304,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="81" hidden="1" spans="1:3">
+    <row r="95" ht="84" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5275,7 +5315,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="94.5" hidden="1" spans="1:3">
+    <row r="96" ht="98" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5286,7 +5326,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="54" hidden="1" spans="1:3">
+    <row r="97" ht="56" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5297,7 +5337,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="67.5" hidden="1" spans="1:3">
+    <row r="98" ht="70" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5308,7 +5348,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="81" hidden="1" spans="1:3">
+    <row r="99" ht="84" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5319,7 +5359,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="97.5" hidden="1" spans="1:3">
+    <row r="100" ht="100.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5330,7 +5370,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="94.5" hidden="1" spans="1:3">
+    <row r="101" ht="98" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5341,7 +5381,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="67.5" hidden="1" spans="1:3">
+    <row r="102" ht="70" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5352,7 +5392,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="40.5" hidden="1" spans="1:3">
+    <row r="103" ht="42" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5363,7 +5403,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="54" hidden="1" spans="1:3">
+    <row r="104" ht="56" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5374,7 +5414,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="81" hidden="1" spans="1:3">
+    <row r="105" ht="84" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5385,7 +5425,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="27" hidden="1" spans="1:3">
+    <row r="106" ht="28" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5396,7 +5436,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="67.5" hidden="1" spans="1:3">
+    <row r="107" ht="70" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5407,7 +5447,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="337.5" spans="1:5">
+    <row r="108" ht="364" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5424,7 +5464,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="81" hidden="1" spans="1:3">
+    <row r="109" ht="98" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5435,7 +5475,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="27" hidden="1" spans="1:3">
+    <row r="110" ht="28" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5446,7 +5486,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="54" hidden="1" spans="1:3">
+    <row r="111" ht="56" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5457,7 +5497,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="94.5" hidden="1" spans="1:3">
+    <row r="112" ht="98" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5468,7 +5508,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="81" hidden="1" spans="1:3">
+    <row r="113" ht="84" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5479,7 +5519,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="40.5" hidden="1" spans="1:3">
+    <row r="114" ht="42" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5490,7 +5530,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="81" hidden="1" spans="1:3">
+    <row r="115" ht="84" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5501,7 +5541,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="81" hidden="1" spans="1:3">
+    <row r="116" ht="84" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5512,7 +5552,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="94.5" hidden="1" spans="1:3">
+    <row r="117" ht="112" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5523,7 +5563,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="94.5" hidden="1" spans="1:3">
+    <row r="118" ht="98" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5534,7 +5574,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="189" hidden="1" spans="1:3">
+    <row r="119" ht="196" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5545,7 +5585,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="121.5" hidden="1" spans="1:3">
+    <row r="120" ht="126" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5556,7 +5596,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="54" hidden="1" spans="1:3">
+    <row r="121" ht="56" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5567,7 +5607,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="94.5" hidden="1" spans="1:3">
+    <row r="122" ht="98" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5578,7 +5618,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="94.5" hidden="1" spans="1:3">
+    <row r="123" ht="98" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5589,7 +5629,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="216" spans="1:5">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -5606,7 +5646,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="135" hidden="1" spans="1:3">
+    <row r="125" ht="140" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -5617,7 +5657,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="94.5" hidden="1" spans="1:3">
+    <row r="126" ht="98" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -5628,7 +5668,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="121.5" hidden="1" spans="1:3">
+    <row r="127" ht="126" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -5639,7 +5679,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="54" hidden="1" spans="1:3">
+    <row r="128" ht="56" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -5650,7 +5690,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="94.5" hidden="1" spans="1:3">
+    <row r="129" ht="98" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -5661,7 +5701,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="67.5" hidden="1" spans="1:3">
+    <row r="130" ht="70" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -5672,7 +5712,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="108" hidden="1" spans="1:3">
+    <row r="131" ht="112" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -5683,7 +5723,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="108" hidden="1" spans="1:3">
+    <row r="132" ht="112" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -5694,7 +5734,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="81" hidden="1" spans="1:3">
+    <row r="133" ht="84" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -5705,7 +5745,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="94.5" hidden="1" spans="1:3">
+    <row r="134" ht="98" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -5716,7 +5756,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="81" hidden="1" spans="1:3">
+    <row r="135" ht="84" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -5727,7 +5767,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="94.5" hidden="1" spans="1:3">
+    <row r="136" ht="98" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -5738,7 +5778,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="94.5" hidden="1" spans="1:3">
+    <row r="137" ht="98" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -5749,7 +5789,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="121.5" hidden="1" spans="1:3">
+    <row r="138" ht="126" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -5760,7 +5800,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="67.5" hidden="1" spans="1:3">
+    <row r="139" ht="70" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -5771,7 +5811,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="54" hidden="1" spans="1:3">
+    <row r="140" ht="56" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -5782,7 +5822,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="81" hidden="1" spans="1:3">
+    <row r="141" ht="84" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -5793,7 +5833,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="40.5" hidden="1" spans="1:3">
+    <row r="142" ht="42" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -5804,7 +5844,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="54" hidden="1" spans="1:3">
+    <row r="143" ht="56" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -5815,7 +5855,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="54" hidden="1" spans="1:3">
+    <row r="144" ht="56" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -5826,7 +5866,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="94.5" hidden="1" spans="1:3">
+    <row r="145" ht="98" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -5837,7 +5877,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="40.5" hidden="1" spans="1:3">
+    <row r="146" ht="56" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -5859,7 +5899,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="202.5" hidden="1" spans="1:3">
+    <row r="148" ht="210" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -5870,7 +5910,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="148.5" hidden="1" spans="1:3">
+    <row r="149" ht="154" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -5881,7 +5921,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="94.5" hidden="1" spans="1:3">
+    <row r="150" ht="98" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -5892,7 +5932,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="94.5" hidden="1" spans="1:3">
+    <row r="151" ht="98" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -5903,7 +5943,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="121.5" hidden="1" spans="1:3">
+    <row r="152" ht="126" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -5914,7 +5954,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="216" hidden="1" spans="1:3">
+    <row r="153" ht="224" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -5925,7 +5965,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="135" hidden="1" spans="1:3">
+    <row r="154" ht="140" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -5936,7 +5976,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="189" hidden="1" spans="1:3">
+    <row r="155" ht="196" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -5947,7 +5987,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="108" hidden="1" spans="1:3">
+    <row r="156" ht="112" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -5958,7 +5998,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="67.5" hidden="1" spans="1:3">
+    <row r="157" ht="70" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -5969,7 +6009,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="94.5" hidden="1" spans="1:3">
+    <row r="158" ht="98" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -5980,7 +6020,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="67.5" hidden="1" spans="1:3">
+    <row r="159" ht="70" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -5991,7 +6031,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="40.5" hidden="1" spans="1:3">
+    <row r="160" ht="42" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6002,7 +6042,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="81" hidden="1" spans="1:3">
+    <row r="161" ht="84" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6013,7 +6053,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="108" hidden="1" spans="1:3">
+    <row r="162" ht="112" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6024,7 +6064,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="121.5" spans="1:5">
+    <row r="163" ht="126" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6041,7 +6081,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="54" hidden="1" spans="1:3">
+    <row r="164" ht="56" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6052,7 +6092,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="121.5" hidden="1" spans="1:3">
+    <row r="165" ht="126" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6063,7 +6103,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="108" hidden="1" spans="1:3">
+    <row r="166" ht="112" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6074,7 +6114,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="270" hidden="1" spans="1:5">
+    <row r="167" ht="280" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6085,7 +6125,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="216" hidden="1" spans="1:5">
+    <row r="168" ht="238" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6094,6 +6134,28 @@
       </c>
       <c r="E168" s="1" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="169" ht="98" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="170" ht="112" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="531">
   <si>
     <t>id</t>
   </si>
@@ -3171,6 +3171,38 @@
 2025年7月8日
 32°C☀
 日本最近真的很热啊。</t>
+  </si>
+  <si>
+    <t>US-11542780</t>
+  </si>
+  <si>
+    <t>Hello from Nashville, TN!
+I hope your daughter likes this cat postcard.
+Wishing you the best
+- Elizabeth</t>
+  </si>
+  <si>
+    <t>来自田纳西州纳什维尔的问候！
+希望您的女儿喜欢这张猫咪明信片。
+祝一切顺利
+——伊丽莎白</t>
+  </si>
+  <si>
+    <t>SG-456709</t>
+  </si>
+  <si>
+    <t>Dear Xiao Xiao &amp; Arthur,
+Hello from Singapore!
+Not sure you have been here but I believe you might enjoy some of our local attractions like Bird Paradise. Hope you are doing well. Keep on striving &amp; keep riding.
+Stephanie Duang 
+8.7.2025</t>
+  </si>
+  <si>
+    <t>亲爱的笑笑和亚瑟：
+来自新加坡的问候！
+不确定你们是否来过这里，但我相信你们可能会喜欢我们的一些当地景点，比如“鸟乐园”。希望你们一切都好。继续努力，继续骑行。
+斯蒂芬妮·杜昂
+2025年7月8日</t>
   </si>
 </sst>
 </file>
@@ -3349,14 +3381,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3368,14 +3394,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3391,9 +3411,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4218,20 +4250,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -4830,7 +4862,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="70" hidden="1" spans="1:3">
+    <row r="53" ht="67.5" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -4841,7 +4873,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="98" hidden="1" spans="1:3">
+    <row r="54" ht="94.5" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -4852,7 +4884,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="112" hidden="1" spans="1:3">
+    <row r="55" ht="108" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -4863,7 +4895,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="70" hidden="1" spans="1:3">
+    <row r="56" ht="67.5" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -4874,7 +4906,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="98" hidden="1" spans="1:3">
+    <row r="57" ht="94.5" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -4885,7 +4917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="70" hidden="1" spans="1:3">
+    <row r="58" ht="67.5" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -4896,7 +4928,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="350" hidden="1" spans="1:3">
+    <row r="59" ht="337.5" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -4907,7 +4939,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="168" hidden="1" spans="1:3">
+    <row r="60" ht="162" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -4918,7 +4950,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="70" hidden="1" spans="1:3">
+    <row r="61" ht="67.5" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -4929,7 +4961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="98" hidden="1" spans="1:3">
+    <row r="62" ht="94.5" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -4940,7 +4972,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="126" hidden="1" spans="1:3">
+    <row r="63" ht="121.5" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -4951,7 +4983,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="140" hidden="1" spans="1:3">
+    <row r="64" ht="135" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -4962,7 +4994,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="56" hidden="1" spans="1:3">
+    <row r="65" ht="54" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -4973,7 +5005,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -4990,7 +5022,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="126" hidden="1" spans="1:3">
+    <row r="67" ht="121.5" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5001,7 +5033,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="98" hidden="1" spans="1:3">
+    <row r="68" ht="94.5" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5012,7 +5044,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="154" hidden="1" spans="1:3">
+    <row r="69" ht="148.5" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5023,7 +5055,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="56" hidden="1" spans="1:3">
+    <row r="70" ht="54" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5034,7 +5066,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="42" hidden="1" spans="1:3">
+    <row r="71" ht="40.5" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5045,7 +5077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="98" hidden="1" spans="1:3">
+    <row r="72" ht="94.5" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5056,7 +5088,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="98" hidden="1" spans="1:3">
+    <row r="73" ht="94.5" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5067,7 +5099,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="70" hidden="1" spans="1:3">
+    <row r="74" ht="67.5" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5078,7 +5110,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="70" hidden="1" spans="1:3">
+    <row r="75" ht="67.5" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5089,7 +5121,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="42" hidden="1" spans="1:3">
+    <row r="76" ht="40.5" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5100,7 +5132,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28" hidden="1" spans="1:3">
+    <row r="77" ht="27" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5111,7 +5143,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="224" hidden="1" spans="1:3">
+    <row r="78" ht="216" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5122,7 +5154,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="56" hidden="1" spans="1:3">
+    <row r="79" ht="54" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5133,7 +5165,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="98" hidden="1" spans="1:3">
+    <row r="80" ht="94.5" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5144,7 +5176,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="70" hidden="1" spans="1:3">
+    <row r="81" ht="67.5" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5155,7 +5187,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="154" hidden="1" spans="1:3">
+    <row r="82" ht="148.5" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5166,7 +5198,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:3">
+    <row r="83" ht="27" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5177,7 +5209,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5194,7 +5226,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="364" hidden="1" spans="1:3">
+    <row r="85" ht="351" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5205,7 +5237,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="112" hidden="1" spans="1:3">
+    <row r="86" ht="108" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5216,7 +5248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="56" hidden="1" spans="1:3">
+    <row r="87" ht="54" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5227,7 +5259,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="84" hidden="1" spans="1:3">
+    <row r="88" ht="81" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5238,7 +5270,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="56" hidden="1" spans="1:3">
+    <row r="89" ht="54" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5249,7 +5281,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="112" hidden="1" spans="1:3">
+    <row r="90" ht="108" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5260,7 +5292,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="112" hidden="1" spans="1:3">
+    <row r="91" ht="108" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5271,7 +5303,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="84" hidden="1" spans="1:3">
+    <row r="92" ht="81" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5282,7 +5314,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="84" hidden="1" spans="1:3">
+    <row r="93" ht="81" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5293,7 +5325,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="100.5" hidden="1" spans="1:3">
+    <row r="94" ht="97.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5304,7 +5336,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="84" hidden="1" spans="1:3">
+    <row r="95" ht="81" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5315,7 +5347,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="98" hidden="1" spans="1:3">
+    <row r="96" ht="94.5" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5326,7 +5358,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="56" hidden="1" spans="1:3">
+    <row r="97" ht="54" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5337,7 +5369,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="70" hidden="1" spans="1:3">
+    <row r="98" ht="67.5" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5348,7 +5380,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="84" hidden="1" spans="1:3">
+    <row r="99" ht="81" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5359,7 +5391,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="100.5" hidden="1" spans="1:3">
+    <row r="100" ht="97.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5370,7 +5402,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="98" hidden="1" spans="1:3">
+    <row r="101" ht="94.5" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5381,7 +5413,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="70" hidden="1" spans="1:3">
+    <row r="102" ht="67.5" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5392,7 +5424,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="42" hidden="1" spans="1:3">
+    <row r="103" ht="40.5" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5403,7 +5435,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="56" hidden="1" spans="1:3">
+    <row r="104" ht="54" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5414,7 +5446,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="84" hidden="1" spans="1:3">
+    <row r="105" ht="81" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5425,7 +5457,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28" hidden="1" spans="1:3">
+    <row r="106" ht="27" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5436,7 +5468,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="70" hidden="1" spans="1:3">
+    <row r="107" ht="67.5" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5447,7 +5479,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="364" spans="1:5">
+    <row r="108" ht="337.5" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5464,7 +5496,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="98" hidden="1" spans="1:3">
+    <row r="109" ht="81" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5475,7 +5507,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28" hidden="1" spans="1:3">
+    <row r="110" ht="27" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5486,7 +5518,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="56" hidden="1" spans="1:3">
+    <row r="111" ht="54" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5497,7 +5529,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="98" hidden="1" spans="1:3">
+    <row r="112" ht="94.5" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5508,7 +5540,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="84" hidden="1" spans="1:3">
+    <row r="113" ht="81" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5519,7 +5551,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="42" hidden="1" spans="1:3">
+    <row r="114" ht="40.5" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5530,7 +5562,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="84" hidden="1" spans="1:3">
+    <row r="115" ht="81" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5541,7 +5573,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="84" hidden="1" spans="1:3">
+    <row r="116" ht="81" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5552,7 +5584,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="112" hidden="1" spans="1:3">
+    <row r="117" ht="94.5" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5563,7 +5595,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="98" hidden="1" spans="1:3">
+    <row r="118" ht="94.5" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5574,7 +5606,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="196" hidden="1" spans="1:3">
+    <row r="119" ht="189" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5585,7 +5617,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="126" hidden="1" spans="1:3">
+    <row r="120" ht="121.5" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5596,7 +5628,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="56" hidden="1" spans="1:3">
+    <row r="121" ht="54" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5607,7 +5639,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="98" hidden="1" spans="1:3">
+    <row r="122" ht="94.5" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5618,7 +5650,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="98" hidden="1" spans="1:3">
+    <row r="123" ht="94.5" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5629,7 +5661,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -5646,7 +5678,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="140" hidden="1" spans="1:3">
+    <row r="125" ht="135" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -5657,7 +5689,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="98" hidden="1" spans="1:3">
+    <row r="126" ht="94.5" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -5668,7 +5700,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="126" hidden="1" spans="1:3">
+    <row r="127" ht="121.5" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -5679,7 +5711,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="56" hidden="1" spans="1:3">
+    <row r="128" ht="54" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -5690,7 +5722,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="98" hidden="1" spans="1:3">
+    <row r="129" ht="94.5" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -5701,7 +5733,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="70" hidden="1" spans="1:3">
+    <row r="130" ht="67.5" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -5712,7 +5744,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="112" hidden="1" spans="1:3">
+    <row r="131" ht="108" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -5723,7 +5755,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="112" hidden="1" spans="1:3">
+    <row r="132" ht="108" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -5734,7 +5766,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="84" hidden="1" spans="1:3">
+    <row r="133" ht="81" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -5745,7 +5777,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="98" hidden="1" spans="1:3">
+    <row r="134" ht="94.5" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -5756,7 +5788,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="84" hidden="1" spans="1:3">
+    <row r="135" ht="81" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -5767,7 +5799,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="98" hidden="1" spans="1:3">
+    <row r="136" ht="94.5" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -5778,7 +5810,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="98" hidden="1" spans="1:3">
+    <row r="137" ht="94.5" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -5789,7 +5821,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="126" hidden="1" spans="1:3">
+    <row r="138" ht="121.5" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -5800,7 +5832,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="70" hidden="1" spans="1:3">
+    <row r="139" ht="67.5" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -5811,7 +5843,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="56" hidden="1" spans="1:3">
+    <row r="140" ht="54" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -5822,7 +5854,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="84" hidden="1" spans="1:3">
+    <row r="141" ht="81" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -5833,7 +5865,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="42" hidden="1" spans="1:3">
+    <row r="142" ht="40.5" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -5844,7 +5876,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="56" hidden="1" spans="1:3">
+    <row r="143" ht="54" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -5855,7 +5887,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="56" hidden="1" spans="1:3">
+    <row r="144" ht="54" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -5866,7 +5898,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="98" hidden="1" spans="1:3">
+    <row r="145" ht="94.5" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -5877,7 +5909,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="56" hidden="1" spans="1:3">
+    <row r="146" ht="40.5" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -5899,7 +5931,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="210" hidden="1" spans="1:3">
+    <row r="148" ht="202.5" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -5910,7 +5942,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="154" hidden="1" spans="1:3">
+    <row r="149" ht="148.5" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -5921,7 +5953,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="98" hidden="1" spans="1:3">
+    <row r="150" ht="94.5" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -5932,7 +5964,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="98" hidden="1" spans="1:3">
+    <row r="151" ht="94.5" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -5943,7 +5975,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="126" hidden="1" spans="1:3">
+    <row r="152" ht="121.5" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -5954,7 +5986,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="224" hidden="1" spans="1:3">
+    <row r="153" ht="216" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -5965,7 +5997,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="140" hidden="1" spans="1:3">
+    <row r="154" ht="135" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -5976,7 +6008,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="196" hidden="1" spans="1:3">
+    <row r="155" ht="189" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -5987,7 +6019,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="112" hidden="1" spans="1:3">
+    <row r="156" ht="108" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -5998,7 +6030,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="70" hidden="1" spans="1:3">
+    <row r="157" ht="67.5" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6009,7 +6041,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="98" hidden="1" spans="1:3">
+    <row r="158" ht="94.5" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6020,7 +6052,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="70" hidden="1" spans="1:3">
+    <row r="159" ht="67.5" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6031,7 +6063,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="42" hidden="1" spans="1:3">
+    <row r="160" ht="40.5" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6042,7 +6074,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="84" hidden="1" spans="1:3">
+    <row r="161" ht="81" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6053,7 +6085,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="112" hidden="1" spans="1:3">
+    <row r="162" ht="108" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6064,7 +6096,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="126" spans="1:5">
+    <row r="163" ht="121.5" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6081,7 +6113,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="56" hidden="1" spans="1:3">
+    <row r="164" ht="54" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6092,7 +6124,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="126" hidden="1" spans="1:3">
+    <row r="165" ht="121.5" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6103,7 +6135,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="112" hidden="1" spans="1:3">
+    <row r="166" ht="108" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6114,7 +6146,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="280" hidden="1" spans="1:5">
+    <row r="167" ht="270" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6125,7 +6157,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="238" hidden="1" spans="1:5">
+    <row r="168" ht="216" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6136,7 +6168,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="98" spans="1:3">
+    <row r="169" ht="94.5" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6147,7 +6179,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="112" spans="1:3">
+    <row r="170" ht="108" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6158,8 +6190,30 @@
         <v>524</v>
       </c>
     </row>
+    <row r="171" ht="54" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="172" ht="121.5" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E168" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E170" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$172</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="534">
   <si>
     <t>id</t>
   </si>
@@ -3203,6 +3203,31 @@
 不确定你们是否来过这里，但我相信你们可能会喜欢我们的一些当地景点，比如“鸟乐园”。希望你们一切都好。继续努力，继续骑行。
 斯蒂芬妮·杜昂
 2025年7月8日</t>
+  </si>
+  <si>
+    <t>AU-1018358</t>
+  </si>
+  <si>
+    <t>July 8, 2025
+AU-1018358
+Hello from Down Under!
+My name is Helena,
+I live in Bayview, Sydney.
+It is Winter here, cold
+night but no frost in Sydney.
+Postcrossing has been my
+favourite hobby since 2011.
+Best wishes, Helena.</t>
+  </si>
+  <si>
+    <t>2025年7月8日
+来自“南方大陆”的问候！
+我的名字是Helena，
+我住在悉尼的Bayview区。
+现在是冬季，这里夜晚寒冷，
+但悉尼没有霜冻。
+自2011年以来，“明信片交换”一直是我最喜欢的爱好。
+祝好，Helena。</t>
   </si>
 </sst>
 </file>
@@ -3388,14 +3413,32 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3407,24 +3450,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4250,20 +4275,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -4862,7 +4887,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="67.5" hidden="1" spans="1:3">
+    <row r="53" ht="70" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -4873,7 +4898,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="94.5" hidden="1" spans="1:3">
+    <row r="54" ht="98" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -4884,7 +4909,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="108" hidden="1" spans="1:3">
+    <row r="55" ht="112" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -4895,7 +4920,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="67.5" hidden="1" spans="1:3">
+    <row r="56" ht="70" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -4906,7 +4931,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="94.5" hidden="1" spans="1:3">
+    <row r="57" ht="98" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -4917,7 +4942,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="67.5" hidden="1" spans="1:3">
+    <row r="58" ht="70" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -4928,7 +4953,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="337.5" hidden="1" spans="1:3">
+    <row r="59" ht="350" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -4939,7 +4964,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="162" hidden="1" spans="1:3">
+    <row r="60" ht="168" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -4950,7 +4975,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="67.5" hidden="1" spans="1:3">
+    <row r="61" ht="70" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -4961,7 +4986,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="94.5" hidden="1" spans="1:3">
+    <row r="62" ht="98" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -4972,7 +4997,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="121.5" hidden="1" spans="1:3">
+    <row r="63" ht="126" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -4983,7 +5008,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="135" hidden="1" spans="1:3">
+    <row r="64" ht="140" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -4994,7 +5019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="54" hidden="1" spans="1:3">
+    <row r="65" ht="56" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5005,7 +5030,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="243" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5022,7 +5047,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="121.5" hidden="1" spans="1:3">
+    <row r="67" ht="126" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5033,7 +5058,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="94.5" hidden="1" spans="1:3">
+    <row r="68" ht="98" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5044,7 +5069,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="148.5" hidden="1" spans="1:3">
+    <row r="69" ht="154" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5055,7 +5080,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="54" hidden="1" spans="1:3">
+    <row r="70" ht="56" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5066,7 +5091,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="40.5" hidden="1" spans="1:3">
+    <row r="71" ht="42" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5077,7 +5102,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="94.5" hidden="1" spans="1:3">
+    <row r="72" ht="98" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5088,7 +5113,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="94.5" hidden="1" spans="1:3">
+    <row r="73" ht="98" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5099,7 +5124,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="67.5" hidden="1" spans="1:3">
+    <row r="74" ht="70" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5110,7 +5135,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="67.5" hidden="1" spans="1:3">
+    <row r="75" ht="70" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5121,7 +5146,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="40.5" hidden="1" spans="1:3">
+    <row r="76" ht="42" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5132,7 +5157,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="27" hidden="1" spans="1:3">
+    <row r="77" ht="28" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5143,7 +5168,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="216" hidden="1" spans="1:3">
+    <row r="78" ht="224" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5154,7 +5179,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="54" hidden="1" spans="1:3">
+    <row r="79" ht="56" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5165,7 +5190,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="94.5" hidden="1" spans="1:3">
+    <row r="80" ht="98" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5176,7 +5201,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="67.5" hidden="1" spans="1:3">
+    <row r="81" ht="70" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5187,7 +5212,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="148.5" hidden="1" spans="1:3">
+    <row r="82" ht="154" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5198,7 +5223,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="27" hidden="1" spans="1:3">
+    <row r="83" ht="28" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5209,7 +5234,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="108" spans="1:5">
+    <row r="84" ht="112" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5226,7 +5251,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="351" hidden="1" spans="1:3">
+    <row r="85" ht="364" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5237,7 +5262,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="108" hidden="1" spans="1:3">
+    <row r="86" ht="112" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5248,7 +5273,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="54" hidden="1" spans="1:3">
+    <row r="87" ht="56" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5259,7 +5284,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="81" hidden="1" spans="1:3">
+    <row r="88" ht="84" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5270,7 +5295,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="54" hidden="1" spans="1:3">
+    <row r="89" ht="56" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5281,7 +5306,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="108" hidden="1" spans="1:3">
+    <row r="90" ht="112" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5292,7 +5317,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="108" hidden="1" spans="1:3">
+    <row r="91" ht="112" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5303,7 +5328,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="81" hidden="1" spans="1:3">
+    <row r="92" ht="84" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5314,7 +5339,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="81" hidden="1" spans="1:3">
+    <row r="93" ht="84" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5325,7 +5350,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="97.5" hidden="1" spans="1:3">
+    <row r="94" ht="100.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5336,7 +5361,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="81" hidden="1" spans="1:3">
+    <row r="95" ht="84" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5347,7 +5372,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="94.5" hidden="1" spans="1:3">
+    <row r="96" ht="98" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5358,7 +5383,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="54" hidden="1" spans="1:3">
+    <row r="97" ht="56" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5369,7 +5394,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="67.5" hidden="1" spans="1:3">
+    <row r="98" ht="70" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5380,7 +5405,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="81" hidden="1" spans="1:3">
+    <row r="99" ht="84" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5391,7 +5416,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="97.5" hidden="1" spans="1:3">
+    <row r="100" ht="100.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5402,7 +5427,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="94.5" hidden="1" spans="1:3">
+    <row r="101" ht="98" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5413,7 +5438,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="67.5" hidden="1" spans="1:3">
+    <row r="102" ht="70" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5424,7 +5449,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="40.5" hidden="1" spans="1:3">
+    <row r="103" ht="42" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5435,7 +5460,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="54" hidden="1" spans="1:3">
+    <row r="104" ht="56" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5446,7 +5471,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="81" hidden="1" spans="1:3">
+    <row r="105" ht="84" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5457,7 +5482,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="27" hidden="1" spans="1:3">
+    <row r="106" ht="28" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5468,7 +5493,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="67.5" hidden="1" spans="1:3">
+    <row r="107" ht="70" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5479,7 +5504,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="337.5" spans="1:5">
+    <row r="108" ht="364" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5496,7 +5521,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="81" hidden="1" spans="1:3">
+    <row r="109" ht="98" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5507,7 +5532,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="27" hidden="1" spans="1:3">
+    <row r="110" ht="28" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5518,7 +5543,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="54" hidden="1" spans="1:3">
+    <row r="111" ht="56" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5529,7 +5554,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="94.5" hidden="1" spans="1:3">
+    <row r="112" ht="98" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5540,7 +5565,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="81" hidden="1" spans="1:3">
+    <row r="113" ht="84" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5551,7 +5576,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="40.5" hidden="1" spans="1:3">
+    <row r="114" ht="42" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5562,7 +5587,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="81" hidden="1" spans="1:3">
+    <row r="115" ht="84" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5573,7 +5598,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="81" hidden="1" spans="1:3">
+    <row r="116" ht="84" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5584,7 +5609,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="94.5" hidden="1" spans="1:3">
+    <row r="117" ht="112" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5595,7 +5620,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="94.5" hidden="1" spans="1:3">
+    <row r="118" ht="98" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5606,7 +5631,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="189" hidden="1" spans="1:3">
+    <row r="119" ht="196" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5617,7 +5642,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="121.5" hidden="1" spans="1:3">
+    <row r="120" ht="126" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5628,7 +5653,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="54" hidden="1" spans="1:3">
+    <row r="121" ht="56" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5639,7 +5664,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="94.5" hidden="1" spans="1:3">
+    <row r="122" ht="98" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5650,7 +5675,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="94.5" hidden="1" spans="1:3">
+    <row r="123" ht="98" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5661,7 +5686,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="216" spans="1:5">
+    <row r="124" ht="224" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -5678,7 +5703,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="135" hidden="1" spans="1:3">
+    <row r="125" ht="140" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -5689,7 +5714,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="94.5" hidden="1" spans="1:3">
+    <row r="126" ht="98" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -5700,7 +5725,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="121.5" hidden="1" spans="1:3">
+    <row r="127" ht="126" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -5711,7 +5736,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="54" hidden="1" spans="1:3">
+    <row r="128" ht="56" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -5722,7 +5747,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="94.5" hidden="1" spans="1:3">
+    <row r="129" ht="98" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -5733,7 +5758,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="67.5" hidden="1" spans="1:3">
+    <row r="130" ht="70" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -5744,7 +5769,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="108" hidden="1" spans="1:3">
+    <row r="131" ht="112" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -5755,7 +5780,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="108" hidden="1" spans="1:3">
+    <row r="132" ht="112" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -5766,7 +5791,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="81" hidden="1" spans="1:3">
+    <row r="133" ht="84" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -5777,7 +5802,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="94.5" hidden="1" spans="1:3">
+    <row r="134" ht="98" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -5788,7 +5813,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="81" hidden="1" spans="1:3">
+    <row r="135" ht="84" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -5799,7 +5824,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="94.5" hidden="1" spans="1:3">
+    <row r="136" ht="98" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -5810,7 +5835,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="94.5" hidden="1" spans="1:3">
+    <row r="137" ht="98" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -5821,7 +5846,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="121.5" hidden="1" spans="1:3">
+    <row r="138" ht="126" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -5832,7 +5857,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="67.5" hidden="1" spans="1:3">
+    <row r="139" ht="70" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -5843,7 +5868,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="54" hidden="1" spans="1:3">
+    <row r="140" ht="56" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -5854,7 +5879,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="81" hidden="1" spans="1:3">
+    <row r="141" ht="84" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -5865,7 +5890,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="40.5" hidden="1" spans="1:3">
+    <row r="142" ht="42" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -5876,7 +5901,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="54" hidden="1" spans="1:3">
+    <row r="143" ht="56" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -5887,7 +5912,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="54" hidden="1" spans="1:3">
+    <row r="144" ht="56" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -5898,7 +5923,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="94.5" hidden="1" spans="1:3">
+    <row r="145" ht="98" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -5909,7 +5934,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="40.5" hidden="1" spans="1:3">
+    <row r="146" ht="56" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -5931,7 +5956,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="202.5" hidden="1" spans="1:3">
+    <row r="148" ht="210" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -5942,7 +5967,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="148.5" hidden="1" spans="1:3">
+    <row r="149" ht="154" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -5953,7 +5978,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="94.5" hidden="1" spans="1:3">
+    <row r="150" ht="98" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -5964,7 +5989,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="94.5" hidden="1" spans="1:3">
+    <row r="151" ht="98" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -5975,7 +6000,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="121.5" hidden="1" spans="1:3">
+    <row r="152" ht="126" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -5986,7 +6011,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="216" hidden="1" spans="1:3">
+    <row r="153" ht="224" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -5997,7 +6022,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="135" hidden="1" spans="1:3">
+    <row r="154" ht="140" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6008,7 +6033,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="189" hidden="1" spans="1:3">
+    <row r="155" ht="196" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6019,7 +6044,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="108" hidden="1" spans="1:3">
+    <row r="156" ht="112" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6030,7 +6055,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="67.5" hidden="1" spans="1:3">
+    <row r="157" ht="70" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6041,7 +6066,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="94.5" hidden="1" spans="1:3">
+    <row r="158" ht="98" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6052,7 +6077,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="67.5" hidden="1" spans="1:3">
+    <row r="159" ht="70" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6063,7 +6088,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="40.5" hidden="1" spans="1:3">
+    <row r="160" ht="42" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6074,7 +6099,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="81" hidden="1" spans="1:3">
+    <row r="161" ht="84" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6085,7 +6110,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="108" hidden="1" spans="1:3">
+    <row r="162" ht="112" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6096,7 +6121,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="121.5" spans="1:5">
+    <row r="163" ht="126" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6113,7 +6138,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="54" hidden="1" spans="1:3">
+    <row r="164" ht="56" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6124,7 +6149,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="121.5" hidden="1" spans="1:3">
+    <row r="165" ht="126" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6135,7 +6160,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="108" hidden="1" spans="1:3">
+    <row r="166" ht="112" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6146,7 +6171,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="270" hidden="1" spans="1:5">
+    <row r="167" ht="280" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6157,7 +6182,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="216" hidden="1" spans="1:5">
+    <row r="168" ht="238" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6168,7 +6193,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="94.5" spans="1:3">
+    <row r="169" ht="98" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6179,7 +6204,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="108" spans="1:3">
+    <row r="170" ht="112" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6190,7 +6215,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="54" spans="1:3">
+    <row r="171" ht="56" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6201,7 +6226,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="121.5" spans="1:3">
+    <row r="172" ht="126" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6212,8 +6237,19 @@
         <v>530</v>
       </c>
     </row>
+    <row r="173" ht="140" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E170" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E172" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$173</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="540">
   <si>
     <t>id</t>
   </si>
@@ -3228,6 +3228,33 @@
 但悉尼没有霜冻。
 自2011年以来，“明信片交换”一直是我最喜欢的爱好。
 祝好，Helena。</t>
+  </si>
+  <si>
+    <t>US-11542779</t>
+  </si>
+  <si>
+    <t>Hello Arthur,
+I am Kay from Seattle, a retired teacher. My hobbies include reading, gardening, camping, and volunteering. I enjoy meeting friends to play cribbage, and I'm hosting a meetup on the 12th to celebrate this hobby of Postcrossing.
+Kay</t>
+  </si>
+  <si>
+    <t>你好，Arthur：
+我是来自西雅图的Kay，是一名退休教师。我的爱好包括阅读、园艺、露营和志愿服务。我喜欢和朋友们见面一起玩cribbage纸牌游戏，并且我将在12号组织一次聚会，庆祝这一Postcrossing的爱好。
+Kay</t>
+  </si>
+  <si>
+    <t>US-11542796</t>
+  </si>
+  <si>
+    <t>Greetings from Oklahoma,  
+USA! You mentioned your daughter likes animals, so I drew this jellyfish for you/her! I hope y'all like it. Jellyfish are one of my favorite animals, along with hedgehogs. My husband and I have a dachshund named Frank! Happy Postcrossing!  
+~ Sarah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">来自美国俄克拉荷马州的问候！  
+你提到你的女儿喜欢动物，所以我给你/她画了这只水母！希望你们会喜欢。水母是我最喜欢的动物之一，除此之外，我也喜欢刺猬。我和我的丈夫养了一只名叫Frank的腊肠犬！  
+祝愉快的Postcrossing！  
+~ Sarah  </t>
   </si>
 </sst>
 </file>
@@ -3413,13 +3440,25 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3432,18 +3471,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4275,12 +4302,12 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D172" sqref="D172"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -6248,8 +6275,30 @@
         <v>533</v>
       </c>
     </row>
+    <row r="174" ht="112" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="175" ht="98" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E172" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E173" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27950" windowHeight="12280"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="552">
   <si>
     <t>id</t>
   </si>
@@ -3255,6 +3255,73 @@
 你提到你的女儿喜欢动物，所以我给你/她画了这只水母！希望你们会喜欢。水母是我最喜欢的动物之一，除此之外，我也喜欢刺猬。我和我的丈夫养了一只名叫Frank的腊肠犬！  
 祝愉快的Postcrossing！  
 ~ Sarah  </t>
+  </si>
+  <si>
+    <t>LK-25643</t>
+  </si>
+  <si>
+    <t>Dear Feng,
+Warm greetings from far away country—Sri Lanka, or the island of Ceylon! I moved here 2 years ago because of my job. It is related to tourism field. I’m a tour guide for Russian-speaking guests on the island. I do this job for the last 15 years and I really love it! ❤️
+On the card—our sport—surfing. 😊
+All the best, Nina.</t>
+  </si>
+  <si>
+    <t>亲爱的冯思远，
+从遥远的国家——斯里兰卡，也叫锡兰岛向你致以温暖的问候！我两年前搬到这里是因为工作需要。我的工作和旅游业有关。我是一名为俄罗斯语客户服务的岛上导游。我从事这项工作已经十五年了，我非常热爱这份工作！❤️
+明信片上展示的是我们这里的运动——冲浪。😊
+祝一切顺利，妮娜</t>
+  </si>
+  <si>
+    <t>DE-15612819</t>
+  </si>
+  <si>
+    <t>Hello Arthur,  
+I send you greetings from Germany.  
+I hope you like the card from a mountain meadow in the Bavarian Alps.  
+Happy postcrossing,  
+Heidemarie</t>
+  </si>
+  <si>
+    <t>你好，Arthur，  
+我从德国向你送上问候。  
+希望你会喜欢这张来自巴伐利亚阿尔卑斯山高山草甸的明信片。  
+祝愿快乐的邮寄交流，  
+Heidemarie</t>
+  </si>
+  <si>
+    <t>RU-10565516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello Arthur,
+greetings from Russia.
+I live in a small village in the Urals (between Europe and Asia).
+I hope your daughter will appreciate these lovely dogs.
+Happy postcrossing :)
+Marina
+Привет из России
+</t>
+  </si>
+  <si>
+    <t>你好，Arthur，
+来自俄罗斯的问候。
+我住在乌拉尔山的一座小村庄（位于欧洲和亚洲之间）。
+希望你的女儿会喜欢这些可爱的狗狗。
+祝快乐明信片交换 :)
+Marina
+来自俄罗斯的问候</t>
+  </si>
+  <si>
+    <t>TW-3881180</t>
+  </si>
+  <si>
+    <t>哈囉思远 
+台灣愈來愈爛
+快點回歸中國吧！</t>
+  </si>
+  <si>
+    <t>哈啰思远  
+台湾愈来愈烂
+快点回归中国吧！</t>
   </si>
 </sst>
 </file>
@@ -3434,13 +3501,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3452,30 +3543,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Segoe UI Emoji"/>
       <charset val="134"/>
     </font>
@@ -4302,20 +4369,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -4914,7 +4981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="70" hidden="1" spans="1:3">
+    <row r="53" ht="67.5" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -4925,7 +4992,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="98" hidden="1" spans="1:3">
+    <row r="54" ht="94.5" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -4936,7 +5003,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="112" hidden="1" spans="1:3">
+    <row r="55" ht="108" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -4947,7 +5014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="70" hidden="1" spans="1:3">
+    <row r="56" ht="67.5" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -4958,7 +5025,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="98" hidden="1" spans="1:3">
+    <row r="57" ht="94.5" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -4969,7 +5036,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="70" hidden="1" spans="1:3">
+    <row r="58" ht="67.5" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -4980,7 +5047,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="350" hidden="1" spans="1:3">
+    <row r="59" ht="337.5" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -4991,7 +5058,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="168" hidden="1" spans="1:3">
+    <row r="60" ht="162" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5002,7 +5069,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="70" hidden="1" spans="1:3">
+    <row r="61" ht="67.5" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5013,7 +5080,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="98" hidden="1" spans="1:3">
+    <row r="62" ht="94.5" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5024,7 +5091,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="126" hidden="1" spans="1:3">
+    <row r="63" ht="121.5" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5035,7 +5102,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="140" hidden="1" spans="1:3">
+    <row r="64" ht="135" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5046,7 +5113,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="56" hidden="1" spans="1:3">
+    <row r="65" ht="54" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5057,7 +5124,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="252" spans="1:5">
+    <row r="66" ht="243" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5074,7 +5141,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="126" hidden="1" spans="1:3">
+    <row r="67" ht="121.5" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5085,7 +5152,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="98" hidden="1" spans="1:3">
+    <row r="68" ht="94.5" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5096,7 +5163,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="154" hidden="1" spans="1:3">
+    <row r="69" ht="148.5" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5107,7 +5174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="56" hidden="1" spans="1:3">
+    <row r="70" ht="54" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5118,7 +5185,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="42" hidden="1" spans="1:3">
+    <row r="71" ht="40.5" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5129,7 +5196,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" ht="98" hidden="1" spans="1:3">
+    <row r="72" ht="94.5" hidden="1" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -5140,7 +5207,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="73" ht="98" hidden="1" spans="1:3">
+    <row r="73" ht="94.5" hidden="1" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
@@ -5151,7 +5218,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" ht="70" hidden="1" spans="1:3">
+    <row r="74" ht="67.5" hidden="1" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -5162,7 +5229,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" ht="70" hidden="1" spans="1:3">
+    <row r="75" ht="67.5" hidden="1" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>231</v>
       </c>
@@ -5173,7 +5240,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" ht="42" hidden="1" spans="1:3">
+    <row r="76" ht="40.5" hidden="1" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>234</v>
       </c>
@@ -5184,7 +5251,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" ht="28" hidden="1" spans="1:3">
+    <row r="77" ht="27" hidden="1" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>237</v>
       </c>
@@ -5195,7 +5262,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" ht="224" hidden="1" spans="1:3">
+    <row r="78" ht="216" hidden="1" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>240</v>
       </c>
@@ -5206,7 +5273,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" ht="56" hidden="1" spans="1:3">
+    <row r="79" ht="54" hidden="1" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>243</v>
       </c>
@@ -5217,7 +5284,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" ht="98" hidden="1" spans="1:3">
+    <row r="80" ht="94.5" hidden="1" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -5228,7 +5295,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" ht="70" hidden="1" spans="1:3">
+    <row r="81" ht="67.5" hidden="1" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>249</v>
       </c>
@@ -5239,7 +5306,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" ht="154" hidden="1" spans="1:3">
+    <row r="82" ht="148.5" hidden="1" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>252</v>
       </c>
@@ -5250,7 +5317,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" ht="28" hidden="1" spans="1:3">
+    <row r="83" ht="27" hidden="1" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
@@ -5261,7 +5328,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" ht="112" spans="1:5">
+    <row r="84" ht="108" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>258</v>
       </c>
@@ -5278,7 +5345,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" ht="364" hidden="1" spans="1:3">
+    <row r="85" ht="351" hidden="1" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>263</v>
       </c>
@@ -5289,7 +5356,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" ht="112" hidden="1" spans="1:3">
+    <row r="86" ht="108" hidden="1" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>266</v>
       </c>
@@ -5300,7 +5367,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" ht="56" hidden="1" spans="1:3">
+    <row r="87" ht="54" hidden="1" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>269</v>
       </c>
@@ -5311,7 +5378,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="88" ht="84" hidden="1" spans="1:3">
+    <row r="88" ht="81" hidden="1" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>272</v>
       </c>
@@ -5322,7 +5389,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" ht="56" hidden="1" spans="1:3">
+    <row r="89" ht="54" hidden="1" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>275</v>
       </c>
@@ -5333,7 +5400,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="112" hidden="1" spans="1:3">
+    <row r="90" ht="108" hidden="1" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>278</v>
       </c>
@@ -5344,7 +5411,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" ht="112" hidden="1" spans="1:3">
+    <row r="91" ht="108" hidden="1" spans="1:3">
       <c r="A91" s="7" t="s">
         <v>281</v>
       </c>
@@ -5355,7 +5422,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" ht="84" hidden="1" spans="1:3">
+    <row r="92" ht="81" hidden="1" spans="1:3">
       <c r="A92" s="7" t="s">
         <v>284</v>
       </c>
@@ -5366,7 +5433,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" ht="84" hidden="1" spans="1:3">
+    <row r="93" ht="81" hidden="1" spans="1:3">
       <c r="A93" s="7" t="s">
         <v>287</v>
       </c>
@@ -5377,7 +5444,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" ht="100.5" hidden="1" spans="1:3">
+    <row r="94" ht="97.5" hidden="1" spans="1:3">
       <c r="A94" s="7" t="s">
         <v>290</v>
       </c>
@@ -5388,7 +5455,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="95" ht="84" hidden="1" spans="1:3">
+    <row r="95" ht="81" hidden="1" spans="1:3">
       <c r="A95" s="7" t="s">
         <v>293</v>
       </c>
@@ -5399,7 +5466,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="96" ht="98" hidden="1" spans="1:3">
+    <row r="96" ht="94.5" hidden="1" spans="1:3">
       <c r="A96" s="7" t="s">
         <v>296</v>
       </c>
@@ -5410,7 +5477,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" ht="56" hidden="1" spans="1:3">
+    <row r="97" ht="54" hidden="1" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>299</v>
       </c>
@@ -5421,7 +5488,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="98" ht="70" hidden="1" spans="1:3">
+    <row r="98" ht="67.5" hidden="1" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>302</v>
       </c>
@@ -5432,7 +5499,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="99" ht="84" hidden="1" spans="1:3">
+    <row r="99" ht="81" hidden="1" spans="1:3">
       <c r="A99" s="7" t="s">
         <v>305</v>
       </c>
@@ -5443,7 +5510,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="100" ht="100.5" hidden="1" spans="1:3">
+    <row r="100" ht="97.5" hidden="1" spans="1:3">
       <c r="A100" s="7" t="s">
         <v>308</v>
       </c>
@@ -5454,7 +5521,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="101" ht="98" hidden="1" spans="1:3">
+    <row r="101" ht="94.5" hidden="1" spans="1:3">
       <c r="A101" s="7" t="s">
         <v>311</v>
       </c>
@@ -5465,7 +5532,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" ht="70" hidden="1" spans="1:3">
+    <row r="102" ht="67.5" hidden="1" spans="1:3">
       <c r="A102" s="7" t="s">
         <v>314</v>
       </c>
@@ -5476,7 +5543,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="103" ht="42" hidden="1" spans="1:3">
+    <row r="103" ht="40.5" hidden="1" spans="1:3">
       <c r="A103" s="7" t="s">
         <v>317</v>
       </c>
@@ -5487,7 +5554,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="104" ht="56" hidden="1" spans="1:3">
+    <row r="104" ht="54" hidden="1" spans="1:3">
       <c r="A104" s="7" t="s">
         <v>320</v>
       </c>
@@ -5498,7 +5565,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="105" ht="84" hidden="1" spans="1:3">
+    <row r="105" ht="81" hidden="1" spans="1:3">
       <c r="A105" s="7" t="s">
         <v>323</v>
       </c>
@@ -5509,7 +5576,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="106" ht="28" hidden="1" spans="1:3">
+    <row r="106" ht="27" hidden="1" spans="1:3">
       <c r="A106" s="7" t="s">
         <v>326</v>
       </c>
@@ -5520,7 +5587,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" ht="70" hidden="1" spans="1:3">
+    <row r="107" ht="67.5" hidden="1" spans="1:3">
       <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
@@ -5531,7 +5598,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="108" ht="364" spans="1:5">
+    <row r="108" ht="337.5" spans="1:5">
       <c r="A108" s="7" t="s">
         <v>332</v>
       </c>
@@ -5548,7 +5615,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="109" ht="98" hidden="1" spans="1:3">
+    <row r="109" ht="81" hidden="1" spans="1:3">
       <c r="A109" s="7" t="s">
         <v>337</v>
       </c>
@@ -5559,7 +5626,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="110" ht="28" hidden="1" spans="1:3">
+    <row r="110" ht="27" hidden="1" spans="1:3">
       <c r="A110" s="7" t="s">
         <v>340</v>
       </c>
@@ -5570,7 +5637,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="111" ht="56" hidden="1" spans="1:3">
+    <row r="111" ht="54" hidden="1" spans="1:3">
       <c r="A111" s="7" t="s">
         <v>342</v>
       </c>
@@ -5581,7 +5648,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="112" ht="98" hidden="1" spans="1:3">
+    <row r="112" ht="94.5" hidden="1" spans="1:3">
       <c r="A112" s="7" t="s">
         <v>345</v>
       </c>
@@ -5592,7 +5659,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" ht="84" hidden="1" spans="1:3">
+    <row r="113" ht="81" hidden="1" spans="1:3">
       <c r="A113" s="7" t="s">
         <v>348</v>
       </c>
@@ -5603,7 +5670,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" ht="42" hidden="1" spans="1:3">
+    <row r="114" ht="40.5" hidden="1" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>351</v>
       </c>
@@ -5614,7 +5681,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" ht="84" hidden="1" spans="1:3">
+    <row r="115" ht="81" hidden="1" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>354</v>
       </c>
@@ -5625,7 +5692,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="116" ht="84" hidden="1" spans="1:3">
+    <row r="116" ht="81" hidden="1" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>357</v>
       </c>
@@ -5636,7 +5703,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" ht="112" hidden="1" spans="1:3">
+    <row r="117" ht="94.5" hidden="1" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>360</v>
       </c>
@@ -5647,7 +5714,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="118" ht="98" hidden="1" spans="1:3">
+    <row r="118" ht="94.5" hidden="1" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>362</v>
       </c>
@@ -5658,7 +5725,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="119" ht="196" hidden="1" spans="1:3">
+    <row r="119" ht="189" hidden="1" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>365</v>
       </c>
@@ -5669,7 +5736,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" ht="126" hidden="1" spans="1:3">
+    <row r="120" ht="121.5" hidden="1" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>368</v>
       </c>
@@ -5680,7 +5747,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="121" ht="56" hidden="1" spans="1:3">
+    <row r="121" ht="54" hidden="1" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>371</v>
       </c>
@@ -5691,7 +5758,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" ht="98" hidden="1" spans="1:3">
+    <row r="122" ht="94.5" hidden="1" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>374</v>
       </c>
@@ -5702,7 +5769,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="123" ht="98" hidden="1" spans="1:3">
+    <row r="123" ht="94.5" hidden="1" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>377</v>
       </c>
@@ -5713,7 +5780,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="124" ht="224" spans="1:5">
+    <row r="124" ht="216" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>380</v>
       </c>
@@ -5730,7 +5797,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="125" ht="140" hidden="1" spans="1:3">
+    <row r="125" ht="135" hidden="1" spans="1:3">
       <c r="A125" s="7" t="s">
         <v>385</v>
       </c>
@@ -5741,7 +5808,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="126" ht="98" hidden="1" spans="1:3">
+    <row r="126" ht="94.5" hidden="1" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -5752,7 +5819,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="127" ht="126" hidden="1" spans="1:3">
+    <row r="127" ht="121.5" hidden="1" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>391</v>
       </c>
@@ -5763,7 +5830,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="128" ht="56" hidden="1" spans="1:3">
+    <row r="128" ht="54" hidden="1" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>394</v>
       </c>
@@ -5774,7 +5841,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="129" ht="98" hidden="1" spans="1:3">
+    <row r="129" ht="94.5" hidden="1" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>397</v>
       </c>
@@ -5785,7 +5852,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="130" ht="70" hidden="1" spans="1:3">
+    <row r="130" ht="67.5" hidden="1" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>400</v>
       </c>
@@ -5796,7 +5863,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="131" ht="112" hidden="1" spans="1:3">
+    <row r="131" ht="108" hidden="1" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>403</v>
       </c>
@@ -5807,7 +5874,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="132" ht="112" hidden="1" spans="1:3">
+    <row r="132" ht="108" hidden="1" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>406</v>
       </c>
@@ -5818,7 +5885,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" ht="84" hidden="1" spans="1:3">
+    <row r="133" ht="81" hidden="1" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>409</v>
       </c>
@@ -5829,7 +5896,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="134" ht="98" hidden="1" spans="1:3">
+    <row r="134" ht="94.5" hidden="1" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>412</v>
       </c>
@@ -5840,7 +5907,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="135" ht="84" hidden="1" spans="1:3">
+    <row r="135" ht="81" hidden="1" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>415</v>
       </c>
@@ -5851,7 +5918,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" ht="98" hidden="1" spans="1:3">
+    <row r="136" ht="94.5" hidden="1" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>418</v>
       </c>
@@ -5862,7 +5929,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" ht="98" hidden="1" spans="1:3">
+    <row r="137" ht="94.5" hidden="1" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>421</v>
       </c>
@@ -5873,7 +5940,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" ht="126" hidden="1" spans="1:3">
+    <row r="138" ht="121.5" hidden="1" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>424</v>
       </c>
@@ -5884,7 +5951,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="139" ht="70" hidden="1" spans="1:3">
+    <row r="139" ht="67.5" hidden="1" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>427</v>
       </c>
@@ -5895,7 +5962,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="140" ht="56" hidden="1" spans="1:3">
+    <row r="140" ht="54" hidden="1" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>430</v>
       </c>
@@ -5906,7 +5973,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" ht="84" hidden="1" spans="1:3">
+    <row r="141" ht="81" hidden="1" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>433</v>
       </c>
@@ -5917,7 +5984,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" ht="42" hidden="1" spans="1:3">
+    <row r="142" ht="40.5" hidden="1" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>436</v>
       </c>
@@ -5928,7 +5995,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="143" ht="56" hidden="1" spans="1:3">
+    <row r="143" ht="54" hidden="1" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>439</v>
       </c>
@@ -5939,7 +6006,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="144" ht="56" hidden="1" spans="1:3">
+    <row r="144" ht="54" hidden="1" spans="1:3">
       <c r="A144" s="7" t="s">
         <v>442</v>
       </c>
@@ -5950,7 +6017,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="145" ht="98" hidden="1" spans="1:3">
+    <row r="145" ht="94.5" hidden="1" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>445</v>
       </c>
@@ -5961,7 +6028,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="146" ht="56" hidden="1" spans="1:3">
+    <row r="146" ht="40.5" hidden="1" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>448</v>
       </c>
@@ -5983,7 +6050,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="148" ht="210" hidden="1" spans="1:3">
+    <row r="148" ht="202.5" hidden="1" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>454</v>
       </c>
@@ -5994,7 +6061,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="149" ht="154" hidden="1" spans="1:3">
+    <row r="149" ht="148.5" hidden="1" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>457</v>
       </c>
@@ -6005,7 +6072,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="150" ht="98" hidden="1" spans="1:3">
+    <row r="150" ht="94.5" hidden="1" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>460</v>
       </c>
@@ -6016,7 +6083,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" ht="98" hidden="1" spans="1:3">
+    <row r="151" ht="94.5" hidden="1" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>463</v>
       </c>
@@ -6027,7 +6094,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="152" ht="126" hidden="1" spans="1:3">
+    <row r="152" ht="121.5" hidden="1" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>466</v>
       </c>
@@ -6038,7 +6105,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="153" ht="224" hidden="1" spans="1:3">
+    <row r="153" ht="216" hidden="1" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>469</v>
       </c>
@@ -6049,7 +6116,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="154" ht="140" hidden="1" spans="1:3">
+    <row r="154" ht="135" hidden="1" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>472</v>
       </c>
@@ -6060,7 +6127,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="155" ht="196" hidden="1" spans="1:3">
+    <row r="155" ht="189" hidden="1" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>475</v>
       </c>
@@ -6071,7 +6138,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="156" ht="112" hidden="1" spans="1:3">
+    <row r="156" ht="108" hidden="1" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>478</v>
       </c>
@@ -6082,7 +6149,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" ht="70" hidden="1" spans="1:3">
+    <row r="157" ht="67.5" hidden="1" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>481</v>
       </c>
@@ -6093,7 +6160,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="158" ht="98" hidden="1" spans="1:3">
+    <row r="158" ht="94.5" hidden="1" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>484</v>
       </c>
@@ -6104,7 +6171,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="159" ht="70" hidden="1" spans="1:3">
+    <row r="159" ht="67.5" hidden="1" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>487</v>
       </c>
@@ -6115,7 +6182,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="160" ht="42" hidden="1" spans="1:3">
+    <row r="160" ht="40.5" hidden="1" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>490</v>
       </c>
@@ -6126,7 +6193,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="161" ht="84" hidden="1" spans="1:3">
+    <row r="161" ht="81" hidden="1" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>493</v>
       </c>
@@ -6137,7 +6204,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="162" ht="112" hidden="1" spans="1:3">
+    <row r="162" ht="108" hidden="1" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>496</v>
       </c>
@@ -6148,7 +6215,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="163" ht="126" spans="1:5">
+    <row r="163" ht="121.5" spans="1:5">
       <c r="A163" s="1" t="s">
         <v>499</v>
       </c>
@@ -6165,7 +6232,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="164" ht="56" hidden="1" spans="1:3">
+    <row r="164" ht="54" hidden="1" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>504</v>
       </c>
@@ -6176,7 +6243,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="165" ht="126" hidden="1" spans="1:3">
+    <row r="165" ht="121.5" hidden="1" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>507</v>
       </c>
@@ -6187,7 +6254,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="166" ht="112" hidden="1" spans="1:3">
+    <row r="166" ht="108" hidden="1" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>510</v>
       </c>
@@ -6198,7 +6265,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" ht="280" hidden="1" spans="1:5">
+    <row r="167" ht="270" hidden="1" spans="1:5">
       <c r="A167" s="1" t="s">
         <v>513</v>
       </c>
@@ -6209,7 +6276,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="168" ht="238" hidden="1" spans="1:5">
+    <row r="168" ht="216" hidden="1" spans="1:5">
       <c r="A168" s="1" t="s">
         <v>516</v>
       </c>
@@ -6220,7 +6287,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="169" ht="98" spans="1:3">
+    <row r="169" ht="94.5" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>519</v>
       </c>
@@ -6231,7 +6298,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="170" ht="112" spans="1:3">
+    <row r="170" ht="108" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>522</v>
       </c>
@@ -6242,7 +6309,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="171" ht="56" spans="1:3">
+    <row r="171" ht="54" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>525</v>
       </c>
@@ -6253,7 +6320,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" ht="126" spans="1:3">
+    <row r="172" ht="121.5" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>528</v>
       </c>
@@ -6264,7 +6331,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="173" ht="140" spans="1:3">
+    <row r="173" ht="135" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>531</v>
       </c>
@@ -6275,7 +6342,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="174" ht="112" spans="1:3">
+    <row r="174" ht="108" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>534</v>
       </c>
@@ -6286,7 +6353,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="175" ht="98" spans="1:3">
+    <row r="175" ht="94.5" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>537</v>
       </c>
@@ -6297,8 +6364,52 @@
         <v>539</v>
       </c>
     </row>
+    <row r="176" ht="121.5" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="177" ht="81" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="178" ht="148.5" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="179" ht="40.5" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E173" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E175" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
         <filter val="Hello, Arthur&#10;Your daughter is adorable! I hope she enjoys the bunnies. I hope you reach your goal of 100 rides. I haven't ridden a bike in at least 10 years, I miss it!&#10;&#10;- Olivia"/>

--- a/template/postcardStory.xlsx
+++ b/template/postcardStory.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27950" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$179</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="573">
   <si>
     <t>id</t>
   </si>
@@ -3322,6 +3322,116 @@
     <t>哈啰思远  
 台湾愈来愈烂
 快点回归中国吧！</t>
+  </si>
+  <si>
+    <t>BY-3352451</t>
+  </si>
+  <si>
+    <t>Summer greetings from Slavianski Bazaar
+♥Toni Arashony ♥</t>
+  </si>
+  <si>
+    <t>夏日问候来自斯拉维安斯基集市
+ ♥托尼·阿拉绍尼 ♥</t>
+  </si>
+  <si>
+    <t>US-11542787</t>
+  </si>
+  <si>
+    <t>Hello Arthur! Your daughter is truly adorable 😊 Please enjoy the animal stickers I have attached for her.  
+From Blaine in Tucson, Arizona.</t>
+  </si>
+  <si>
+    <t>你好，Arthur！您的女儿真的非常可爱 😊 希望她喜欢我为她贴上的动物贴纸。  
+——来自布莱恩，图森，亚利桑那州。</t>
+  </si>
+  <si>
+    <t>RU-10565483</t>
+  </si>
+  <si>
+    <t>Arthur, hi!  
+Привет из Новороссии!  
+Greetings from Novorossiya! My name is Alexandr, I'm an industrial automation engineer. I live in the Kherson region. Kherson was founded in 1778 by Russian Empress Catherine the Great. In 2022, according to the results of the referendum, Kherson returned to Russia.  
+With respect, Aleksandr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur，您好！  
+Привет из Новороссии！（来自新俄罗斯的问候！）  
+来自新俄罗斯的问候！我的名字是亚历山大，我是一名工业自动化工程师。我住在赫尔松地区。赫尔松建于1778年，由俄罗斯女皇叶卡捷琳娜大帝创建。在2022年，根据公投结果，赫尔松重新回归俄罗斯。  
+致以敬意，亚历山大。  
+</t>
+  </si>
+  <si>
+    <t>DE-15657706</t>
+  </si>
+  <si>
+    <t>Guten Tag Siyuan 😊
+18℃ ️  
+This is for Xiaoxiao ❤️  
+🚴‍Good luck for your goal of 100 rides. My spouse and I often rode our bikes to the wine festivals in the Palatinate. Rund trip 100 km.  
+Stay safe and healthy.  
+Willie  
+W. Johnson  
+Mit ganz viel Liebe gemacht 💕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你好，思远 😊  
+18℃ 
+这是写给笑笑的 ❤️  
+🚴‍祝你达成100次骑行的目标好运。我和我的伴侣经常骑自行车去巴拉丁的葡萄酒节，单程100公里。  
+保持安全与健康。  
+威利  
+W. Johnson  
+充满爱意制作 💕  </t>
+  </si>
+  <si>
+    <t>DE-15613085</t>
+  </si>
+  <si>
+    <t>Hello Siyuan,  
+Greetings from the north of Germany. I am dreaming to visit China in future.  
+I love swimming and traveling. I also like art very much.  
+Wish you all the best &amp; happy post-crossing.  
+Greetings from the Baltic Sea  
+Katherine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你好，思远：  
+来自德国北部的问候。我梦想着将来能去中国旅行。  
+我热爱游泳和旅行。我也非常喜欢艺术。  
+祝你一切顺利，快乐的明信片交换。  
+来自波罗的海的问候
+凯瑟琳 </t>
+  </si>
+  <si>
+    <t>DE-15657739</t>
+  </si>
+  <si>
+    <t>"Hello Arthur,
+Since many years I am living very close to the big Olympic Park of the 1972 Summer Games. So I know this view very well. Like going to the park a lot, also for cycling. 😊
+Best wishes from Christoph</t>
+  </si>
+  <si>
+    <t>你好，Arthur，
+多年来，我一直住在距离1972年夏季奥运会的大型奥林匹克公园非常近的地方。所以我非常了解这个地方的景色。我很喜欢去公园，也会在那里骑自行车。😊
+来自 Christoph 的祝福</t>
+  </si>
+  <si>
+    <t>CA-1593707</t>
+  </si>
+  <si>
+    <t>Hello Arthur + Xiaoxiao :)
+I picked out this moose just for you! I'm a nanny to a two and a half year old. 
+It's fun everyday looking at different animals together. 
+Have a beautiful day :)
+- Taylor</t>
+  </si>
+  <si>
+    <t>你好，Arthur 和笑笑 :)
+我特别挑选了这只驼鹿给你们！我是一名保姆，照顾两岁半的孩子。 
+每天一起观察不同的动物都很有趣。 
+祝你们有美好的一天 :)
+——泰勒</t>
   </si>
 </sst>
 </file>
@@ -3507,6 +3617,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <charset val="134"/>
     </font>
@@ -3539,12 +3655,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4369,20 +4479,20 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
+      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.2545454545455" style="1" customWidth="1"/>
     <col min="2" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1272727272727" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.4" customHeight="1" spans="1:5">
@@ -4981,7 +5091,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" ht="67.5" hidden="1" spans="1:3">
+    <row r="53" ht="70" hidden="1" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>164</v>
       </c>
@@ -4992,7 +5102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" ht="94.5" hidden="1" spans="1:3">
+    <row r="54" ht="98" hidden="1" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -5003,7 +5113,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="108" hidden="1" spans="1:3">
+    <row r="55" ht="112" hidden="1" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
@@ -5014,7 +5124,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="67.5" hidden="1" spans="1:3">
+    <row r="56" ht="70" hidden="1" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -5025,7 +5135,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="94.5" hidden="1" spans="1:3">
+    <row r="57" ht="98" hidden="1" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>176</v>
       </c>
@@ -5036,7 +5146,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="67.5" hidden="1" spans="1:3">
+    <row r="58" ht="70" hidden="1" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>179</v>
       </c>
@@ -5047,7 +5157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="337.5" hidden="1" spans="1:3">
+    <row r="59" ht="350" hidden="1" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>182</v>
       </c>
@@ -5058,7 +5168,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="162" hidden="1" spans="1:3">
+    <row r="60" ht="168" hidden="1" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>185</v>
       </c>
@@ -5069,7 +5179,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" ht="67.5" hidden="1" spans="1:3">
+    <row r="61" ht="70" hidden="1" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>188</v>
       </c>
@@ -5080,7 +5190,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" ht="94.5" hidden="1" spans="1:3">
+    <row r="62" ht="98" hidden="1" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>191</v>
       </c>
@@ -5091,7 +5201,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="121.5" hidden="1" spans="1:3">
+    <row r="63" ht="126" hidden="1" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -5102,7 +5212,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" ht="135" hidden="1" spans="1:3">
+    <row r="64" ht="140" hidden="1" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>197</v>
       </c>
@@ -5113,7 +5223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" ht="54" hidden="1" spans="1:3">
+    <row r="65" ht="56" hidden="1" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>200</v>
       </c>
@@ -5124,7 +5234,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="243" spans="1:5">
+    <row r="66" ht="252" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>203</v>
       </c>
@@ -5141,7 +5251,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" ht="121.5" hidden="1" spans="1:3">
+    <row r="67" ht="126" hidden="1" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -5152,7 +5262,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" ht="94.5" hidden="1" spans="1:3">
+    <row r="68" ht="98" hidden="1" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>210</v>
       </c>
@@ -5163,7 +5273,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" ht="148.5" hidden="1" spans="1:3">
+    <row r="69" ht="154" hidden="1" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>213</v>
       </c>
@@ -5174,7 +5284,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" ht="54" hidden="1" spans="1:3">
+    <row r="70" ht="56" hidden="1" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>216</v>
       </c>
@@ -5185,7 +5295,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" ht="40.5" hidden="1" spans="1:3">
+    <row r="71" ht="42" hidden="1" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -5196,7 +5306,7 @@
         <